--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,9 @@
     <t>['4', '59', '90+2']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -746,6 +749,12 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['17', '22', '25', '31', '41']</t>
+  </si>
+  <si>
+    <t>['4', '39', '75']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1375,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1447,7 +1456,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ2">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1650,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ3">
         <v>1.83</v>
@@ -1984,7 +1993,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2062,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2190,7 +2199,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2474,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1.83</v>
@@ -2808,7 +2817,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3014,7 +3023,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3095,7 +3104,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3426,7 +3435,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3632,7 +3641,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3710,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -4044,7 +4053,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4331,7 +4340,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4868,7 +4877,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5280,7 +5289,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5358,10 +5367,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5486,7 +5495,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5773,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5898,7 +5907,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6310,7 +6319,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6516,7 +6525,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6722,7 +6731,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6928,7 +6937,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7546,7 +7555,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7833,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -8036,7 +8045,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>0.29</v>
@@ -8164,7 +8173,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8576,7 +8585,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8782,7 +8791,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8988,7 +8997,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9069,7 +9078,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9194,7 +9203,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9272,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9400,7 +9409,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9606,7 +9615,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9812,7 +9821,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9890,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10430,7 +10439,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10636,7 +10645,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10842,7 +10851,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11254,7 +11263,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11460,7 +11469,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11744,7 +11753,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>0.17</v>
@@ -11872,7 +11881,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11953,7 +11962,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -12078,7 +12087,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12159,7 +12168,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12284,7 +12293,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12365,7 +12374,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12490,7 +12499,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12902,7 +12911,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13520,7 +13529,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13598,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ61">
         <v>0.8</v>
@@ -14010,7 +14019,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63">
         <v>0.29</v>
@@ -14344,7 +14353,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14550,7 +14559,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14756,7 +14765,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15168,7 +15177,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15374,7 +15383,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15580,7 +15589,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15992,7 +16001,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16276,7 +16285,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16610,7 +16619,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16816,7 +16825,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17022,7 +17031,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17103,7 +17112,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17228,7 +17237,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17434,7 +17443,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17515,7 +17524,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -17640,7 +17649,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17718,7 +17727,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18464,7 +18473,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18670,7 +18679,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18748,7 +18757,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ86">
         <v>1.5</v>
@@ -19082,7 +19091,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19288,7 +19297,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19369,7 +19378,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19494,7 +19503,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19906,7 +19915,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20112,7 +20121,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20190,7 +20199,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93">
         <v>1.83</v>
@@ -20318,7 +20327,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20399,7 +20408,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR94">
         <v>0.91</v>
@@ -20524,7 +20533,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20730,7 +20739,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21142,7 +21151,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21348,7 +21357,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21966,7 +21975,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22047,7 +22056,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22378,7 +22387,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22459,7 +22468,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ104">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22584,7 +22593,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22790,7 +22799,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22868,7 +22877,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
         <v>0.67</v>
@@ -23202,7 +23211,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23280,7 +23289,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ108">
         <v>1.2</v>
@@ -23614,7 +23623,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23820,7 +23829,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24026,7 +24035,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24232,7 +24241,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24438,7 +24447,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24850,7 +24859,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25056,7 +25065,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25262,7 +25271,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25468,7 +25477,7 @@
         <v>92</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -25674,7 +25683,7 @@
         <v>111</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25831,6 +25840,624 @@
       </c>
       <c r="BP120">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7492271</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H121" t="s">
+        <v>81</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>5</v>
+      </c>
+      <c r="K121">
+        <v>5</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121" t="s">
+        <v>92</v>
+      </c>
+      <c r="P121" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q121">
+        <v>7</v>
+      </c>
+      <c r="R121">
+        <v>2.6</v>
+      </c>
+      <c r="S121">
+        <v>1.83</v>
+      </c>
+      <c r="T121">
+        <v>1.29</v>
+      </c>
+      <c r="U121">
+        <v>3.5</v>
+      </c>
+      <c r="V121">
+        <v>2.25</v>
+      </c>
+      <c r="W121">
+        <v>1.57</v>
+      </c>
+      <c r="X121">
+        <v>5.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.14</v>
+      </c>
+      <c r="Z121">
+        <v>6.9</v>
+      </c>
+      <c r="AA121">
+        <v>4.25</v>
+      </c>
+      <c r="AB121">
+        <v>1.37</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>19</v>
+      </c>
+      <c r="AE121">
+        <v>1.18</v>
+      </c>
+      <c r="AF121">
+        <v>5</v>
+      </c>
+      <c r="AG121">
+        <v>1.55</v>
+      </c>
+      <c r="AH121">
+        <v>2.4</v>
+      </c>
+      <c r="AI121">
+        <v>1.8</v>
+      </c>
+      <c r="AJ121">
+        <v>1.95</v>
+      </c>
+      <c r="AK121">
+        <v>3.1</v>
+      </c>
+      <c r="AL121">
+        <v>1.13</v>
+      </c>
+      <c r="AM121">
+        <v>1.07</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>2.2</v>
+      </c>
+      <c r="AP121">
+        <v>1.29</v>
+      </c>
+      <c r="AQ121">
+        <v>2.33</v>
+      </c>
+      <c r="AR121">
+        <v>1.14</v>
+      </c>
+      <c r="AS121">
+        <v>1.66</v>
+      </c>
+      <c r="AT121">
+        <v>2.8</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>8</v>
+      </c>
+      <c r="AW121">
+        <v>2</v>
+      </c>
+      <c r="AX121">
+        <v>5</v>
+      </c>
+      <c r="AY121">
+        <v>10</v>
+      </c>
+      <c r="AZ121">
+        <v>13</v>
+      </c>
+      <c r="BA121">
+        <v>4</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>6</v>
+      </c>
+      <c r="BD121">
+        <v>3.8</v>
+      </c>
+      <c r="BE121">
+        <v>7.5</v>
+      </c>
+      <c r="BF121">
+        <v>1.3</v>
+      </c>
+      <c r="BG121">
+        <v>1.32</v>
+      </c>
+      <c r="BH121">
+        <v>3.05</v>
+      </c>
+      <c r="BI121">
+        <v>1.55</v>
+      </c>
+      <c r="BJ121">
+        <v>2.28</v>
+      </c>
+      <c r="BK121">
+        <v>1.9</v>
+      </c>
+      <c r="BL121">
+        <v>1.79</v>
+      </c>
+      <c r="BM121">
+        <v>2.4</v>
+      </c>
+      <c r="BN121">
+        <v>1.49</v>
+      </c>
+      <c r="BO121">
+        <v>3.1</v>
+      </c>
+      <c r="BP121">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7492273</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45619.58333333334</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H122" t="s">
+        <v>79</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>92</v>
+      </c>
+      <c r="P122" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q122">
+        <v>2.88</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.63</v>
+      </c>
+      <c r="V122">
+        <v>3.25</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.07</v>
+      </c>
+      <c r="Z122">
+        <v>2.33</v>
+      </c>
+      <c r="AA122">
+        <v>3.15</v>
+      </c>
+      <c r="AB122">
+        <v>3.4</v>
+      </c>
+      <c r="AC122">
+        <v>1.07</v>
+      </c>
+      <c r="AD122">
+        <v>9.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.36</v>
+      </c>
+      <c r="AF122">
+        <v>3.2</v>
+      </c>
+      <c r="AG122">
+        <v>1.96</v>
+      </c>
+      <c r="AH122">
+        <v>1.85</v>
+      </c>
+      <c r="AI122">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.95</v>
+      </c>
+      <c r="AK122">
+        <v>1.33</v>
+      </c>
+      <c r="AL122">
+        <v>1.28</v>
+      </c>
+      <c r="AM122">
+        <v>1.7</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>2.2</v>
+      </c>
+      <c r="AP122">
+        <v>1.83</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>1.69</v>
+      </c>
+      <c r="AS122">
+        <v>1.24</v>
+      </c>
+      <c r="AT122">
+        <v>2.93</v>
+      </c>
+      <c r="AU122">
+        <v>2</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>4</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>7</v>
+      </c>
+      <c r="AZ122">
+        <v>8</v>
+      </c>
+      <c r="BA122">
+        <v>2</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>6</v>
+      </c>
+      <c r="BD122">
+        <v>1.71</v>
+      </c>
+      <c r="BE122">
+        <v>6.4</v>
+      </c>
+      <c r="BF122">
+        <v>2.4</v>
+      </c>
+      <c r="BG122">
+        <v>1.3</v>
+      </c>
+      <c r="BH122">
+        <v>3.15</v>
+      </c>
+      <c r="BI122">
+        <v>1.52</v>
+      </c>
+      <c r="BJ122">
+        <v>2.32</v>
+      </c>
+      <c r="BK122">
+        <v>1.84</v>
+      </c>
+      <c r="BL122">
+        <v>1.84</v>
+      </c>
+      <c r="BM122">
+        <v>2.33</v>
+      </c>
+      <c r="BN122">
+        <v>1.52</v>
+      </c>
+      <c r="BO122">
+        <v>2.95</v>
+      </c>
+      <c r="BP122">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7492275</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45619.69791666666</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>89</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>173</v>
+      </c>
+      <c r="P123" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q123">
+        <v>4.75</v>
+      </c>
+      <c r="R123">
+        <v>2.5</v>
+      </c>
+      <c r="S123">
+        <v>2.1</v>
+      </c>
+      <c r="T123">
+        <v>1.29</v>
+      </c>
+      <c r="U123">
+        <v>3.5</v>
+      </c>
+      <c r="V123">
+        <v>2.25</v>
+      </c>
+      <c r="W123">
+        <v>1.57</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>4.01</v>
+      </c>
+      <c r="AA123">
+        <v>3.82</v>
+      </c>
+      <c r="AB123">
+        <v>1.62</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>19</v>
+      </c>
+      <c r="AE123">
+        <v>1.18</v>
+      </c>
+      <c r="AF123">
+        <v>5</v>
+      </c>
+      <c r="AG123">
+        <v>1.51</v>
+      </c>
+      <c r="AH123">
+        <v>2.46</v>
+      </c>
+      <c r="AI123">
+        <v>1.57</v>
+      </c>
+      <c r="AJ123">
+        <v>2.25</v>
+      </c>
+      <c r="AK123">
+        <v>2.3</v>
+      </c>
+      <c r="AL123">
+        <v>1.19</v>
+      </c>
+      <c r="AM123">
+        <v>1.18</v>
+      </c>
+      <c r="AN123">
+        <v>0.83</v>
+      </c>
+      <c r="AO123">
+        <v>1.67</v>
+      </c>
+      <c r="AP123">
+        <v>0.71</v>
+      </c>
+      <c r="AQ123">
+        <v>1.86</v>
+      </c>
+      <c r="AR123">
+        <v>1.29</v>
+      </c>
+      <c r="AS123">
+        <v>1.73</v>
+      </c>
+      <c r="AT123">
+        <v>3.02</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>7</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>5</v>
+      </c>
+      <c r="AY123">
+        <v>10</v>
+      </c>
+      <c r="AZ123">
+        <v>16</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>7</v>
+      </c>
+      <c r="BD123">
+        <v>3.3</v>
+      </c>
+      <c r="BE123">
+        <v>7</v>
+      </c>
+      <c r="BF123">
+        <v>1.41</v>
+      </c>
+      <c r="BG123">
+        <v>1.23</v>
+      </c>
+      <c r="BH123">
+        <v>3.65</v>
+      </c>
+      <c r="BI123">
+        <v>1.41</v>
+      </c>
+      <c r="BJ123">
+        <v>2.65</v>
+      </c>
+      <c r="BK123">
+        <v>1.68</v>
+      </c>
+      <c r="BL123">
+        <v>2.02</v>
+      </c>
+      <c r="BM123">
+        <v>2.1</v>
+      </c>
+      <c r="BN123">
+        <v>1.63</v>
+      </c>
+      <c r="BO123">
+        <v>2.65</v>
+      </c>
+      <c r="BP123">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,18 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['12', '59']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['68', '72', '90+2']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -748,13 +760,16 @@
     <t>['36']</t>
   </si>
   <si>
-    <t>['23']</t>
+    <t>['4', '39', '75']</t>
   </si>
   <si>
-    <t>['17', '22', '25', '31', '41']</t>
+    <t>['8', '88']</t>
   </si>
   <si>
-    <t>['4', '39', '75']</t>
+    <t>['19', '68']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1453,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1662,7 +1677,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ3">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1993,7 +2008,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2071,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2199,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2280,7 +2295,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2483,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.83</v>
@@ -2817,7 +2832,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2895,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ9">
         <v>0.29</v>
@@ -3023,7 +3038,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3435,7 +3450,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3641,7 +3656,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3928,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4053,7 +4068,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4337,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>1.86</v>
@@ -4752,7 +4767,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4877,7 +4892,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5289,7 +5304,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5367,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5495,7 +5510,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5573,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5907,7 +5922,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6194,7 +6209,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6319,7 +6334,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6525,7 +6540,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6603,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6731,7 +6746,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6809,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6937,7 +6952,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7555,7 +7570,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7633,10 +7648,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7842,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -8045,7 +8060,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.29</v>
@@ -8173,7 +8188,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8251,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8457,10 +8472,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR36">
         <v>1.46</v>
@@ -8585,7 +8600,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8666,7 +8681,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8791,7 +8806,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8997,7 +9012,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9078,7 +9093,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9203,7 +9218,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9284,7 +9299,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9409,7 +9424,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9487,7 +9502,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9615,7 +9630,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9821,7 +9836,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9899,7 +9914,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10105,7 +10120,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.2</v>
@@ -10439,7 +10454,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10645,7 +10660,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10851,7 +10866,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10932,7 +10947,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ48">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11138,7 +11153,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -11263,7 +11278,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11469,7 +11484,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11753,10 +11768,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR52">
         <v>1.92</v>
@@ -11881,7 +11896,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11962,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -12087,7 +12102,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12165,10 +12180,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12293,7 +12308,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12499,7 +12514,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12577,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12911,7 +12926,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12989,7 +13004,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13198,7 +13213,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>0.91</v>
@@ -13529,7 +13544,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13610,7 +13625,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14019,7 +14034,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>0.29</v>
@@ -14228,7 +14243,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14353,7 +14368,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14559,7 +14574,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14765,7 +14780,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14846,7 +14861,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR67">
         <v>1.09</v>
@@ -15177,7 +15192,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15255,7 +15270,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15383,7 +15398,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15589,7 +15604,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15873,7 +15888,7 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16001,7 +16016,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16079,10 +16094,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -16285,10 +16300,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -16619,7 +16634,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16825,7 +16840,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -16906,7 +16921,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17031,7 +17046,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17109,7 +17124,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>1.86</v>
@@ -17237,7 +17252,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17443,7 +17458,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17524,7 +17539,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -17649,7 +17664,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17727,7 +17742,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17936,7 +17951,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18139,7 +18154,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
         <v>0.63</v>
@@ -18348,7 +18363,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18473,7 +18488,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18679,7 +18694,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18963,7 +18978,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ87">
         <v>1.2</v>
@@ -19091,7 +19106,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19297,7 +19312,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19378,7 +19393,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19503,7 +19518,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19915,7 +19930,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -19996,7 +20011,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ92">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20121,7 +20136,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20199,7 +20214,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>1.83</v>
@@ -20327,7 +20342,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20408,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR94">
         <v>0.91</v>
@@ -20533,7 +20548,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20611,10 +20626,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -20739,7 +20754,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21151,7 +21166,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21229,10 +21244,10 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ98">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.23</v>
@@ -21357,7 +21372,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21435,7 +21450,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -21850,7 +21865,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ101">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -21975,7 +21990,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22056,7 +22071,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22387,7 +22402,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22593,7 +22608,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22671,10 +22686,10 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.14</v>
@@ -22799,7 +22814,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22877,7 +22892,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>0.67</v>
@@ -23211,7 +23226,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23623,7 +23638,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23701,10 +23716,10 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ110">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -23829,7 +23844,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -23907,7 +23922,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ111">
         <v>0.63</v>
@@ -24035,7 +24050,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24241,7 +24256,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24319,7 +24334,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>1.17</v>
@@ -24447,7 +24462,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24859,7 +24874,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -24940,7 +24955,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25065,7 +25080,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25146,7 +25161,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ117">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR117">
         <v>1.63</v>
@@ -25271,7 +25286,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25477,7 +25492,7 @@
         <v>92</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -25683,7 +25698,7 @@
         <v>111</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25847,7 +25862,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7492271</v>
+        <v>7492275</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25856,49 +25871,49 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45619.45833333334</v>
+        <v>45619.69791666666</v>
       </c>
       <c r="F121">
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H121" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O121" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q121">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="R121">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S121">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T121">
         <v>1.29</v>
@@ -25919,13 +25934,13 @@
         <v>1.14</v>
       </c>
       <c r="Z121">
-        <v>6.9</v>
+        <v>4.01</v>
       </c>
       <c r="AA121">
-        <v>4.25</v>
+        <v>3.82</v>
       </c>
       <c r="AB121">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AC121">
         <v>1.02</v>
@@ -25940,55 +25955,55 @@
         <v>5</v>
       </c>
       <c r="AG121">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AH121">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AI121">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AJ121">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AK121">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AL121">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AM121">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AN121">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO121">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP121">
+        <v>0.71</v>
+      </c>
+      <c r="AQ121">
+        <v>1.86</v>
+      </c>
+      <c r="AR121">
         <v>1.29</v>
       </c>
-      <c r="AQ121">
-        <v>2.33</v>
-      </c>
-      <c r="AR121">
-        <v>1.14</v>
-      </c>
       <c r="AS121">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="AT121">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV121">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX121">
         <v>5</v>
@@ -25997,55 +26012,55 @@
         <v>10</v>
       </c>
       <c r="AZ121">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD121">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BE121">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF121">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BG121">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="BH121">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="BI121">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BJ121">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BK121">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="BL121">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="BM121">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BN121">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="BO121">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="BP121">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26053,7 +26068,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7492273</v>
+        <v>7492270</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26062,49 +26077,49 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45619.58333333334</v>
+        <v>45620.35416666666</v>
       </c>
       <c r="F122">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H122" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O122" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="Q122">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R122">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T122">
         <v>1.44</v>
@@ -26113,115 +26128,115 @@
         <v>2.63</v>
       </c>
       <c r="V122">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y122">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z122">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="AA122">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AB122">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC122">
         <v>1.07</v>
       </c>
       <c r="AD122">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE122">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF122">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AG122">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="AH122">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AI122">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ122">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK122">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AL122">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM122">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="AN122">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="AO122">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP122">
-        <v>1.83</v>
+        <v>0.63</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="AR122">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="AS122">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AT122">
-        <v>2.93</v>
+        <v>2.12</v>
       </c>
       <c r="AU122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV122">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW122">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX122">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY122">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AZ122">
+        <v>19</v>
+      </c>
+      <c r="BA122">
+        <v>6</v>
+      </c>
+      <c r="BB122">
         <v>8</v>
       </c>
-      <c r="BA122">
-        <v>2</v>
-      </c>
-      <c r="BB122">
-        <v>4</v>
-      </c>
       <c r="BC122">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD122">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="BE122">
         <v>6.4</v>
       </c>
       <c r="BF122">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BG122">
         <v>1.3</v>
@@ -26233,13 +26248,13 @@
         <v>1.52</v>
       </c>
       <c r="BJ122">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="BK122">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="BL122">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="BM122">
         <v>2.33</v>
@@ -26248,10 +26263,10 @@
         <v>1.52</v>
       </c>
       <c r="BO122">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="BP122">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26259,7 +26274,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7492275</v>
+        <v>7492268</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26268,196 +26283,1020 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45619.69791666666</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F123">
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H123" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>92</v>
+      </c>
+      <c r="P123" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q123">
+        <v>3.75</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>3.1</v>
+      </c>
+      <c r="T123">
+        <v>1.44</v>
+      </c>
+      <c r="U123">
+        <v>2.63</v>
+      </c>
+      <c r="V123">
+        <v>3.25</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>10</v>
+      </c>
+      <c r="Y123">
+        <v>1.06</v>
+      </c>
+      <c r="Z123">
+        <v>2.69</v>
+      </c>
+      <c r="AA123">
+        <v>3.4</v>
+      </c>
+      <c r="AB123">
+        <v>2.33</v>
+      </c>
+      <c r="AC123">
+        <v>1.07</v>
+      </c>
+      <c r="AD123">
+        <v>9</v>
+      </c>
+      <c r="AE123">
+        <v>1.38</v>
+      </c>
+      <c r="AF123">
+        <v>3.1</v>
+      </c>
+      <c r="AG123">
+        <v>2.1</v>
+      </c>
+      <c r="AH123">
+        <v>1.7</v>
+      </c>
+      <c r="AI123">
+        <v>1.8</v>
+      </c>
+      <c r="AJ123">
+        <v>1.95</v>
+      </c>
+      <c r="AK123">
+        <v>1.6</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.38</v>
+      </c>
+      <c r="AN123">
+        <v>1.25</v>
+      </c>
+      <c r="AO123">
+        <v>1.83</v>
+      </c>
+      <c r="AP123">
+        <v>1</v>
+      </c>
+      <c r="AQ123">
+        <v>2</v>
+      </c>
+      <c r="AR123">
+        <v>1.5</v>
+      </c>
+      <c r="AS123">
+        <v>1.34</v>
+      </c>
+      <c r="AT123">
+        <v>2.84</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>5</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>11</v>
+      </c>
+      <c r="AZ123">
+        <v>9</v>
+      </c>
+      <c r="BA123">
+        <v>3</v>
+      </c>
+      <c r="BB123">
         <v>4</v>
-      </c>
-      <c r="O123" t="s">
-        <v>173</v>
-      </c>
-      <c r="P123" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q123">
-        <v>4.75</v>
-      </c>
-      <c r="R123">
-        <v>2.5</v>
-      </c>
-      <c r="S123">
-        <v>2.1</v>
-      </c>
-      <c r="T123">
-        <v>1.29</v>
-      </c>
-      <c r="U123">
-        <v>3.5</v>
-      </c>
-      <c r="V123">
-        <v>2.25</v>
-      </c>
-      <c r="W123">
-        <v>1.57</v>
-      </c>
-      <c r="X123">
-        <v>5.5</v>
-      </c>
-      <c r="Y123">
-        <v>1.14</v>
-      </c>
-      <c r="Z123">
-        <v>4.01</v>
-      </c>
-      <c r="AA123">
-        <v>3.82</v>
-      </c>
-      <c r="AB123">
-        <v>1.62</v>
-      </c>
-      <c r="AC123">
-        <v>1.02</v>
-      </c>
-      <c r="AD123">
-        <v>19</v>
-      </c>
-      <c r="AE123">
-        <v>1.18</v>
-      </c>
-      <c r="AF123">
-        <v>5</v>
-      </c>
-      <c r="AG123">
-        <v>1.51</v>
-      </c>
-      <c r="AH123">
-        <v>2.46</v>
-      </c>
-      <c r="AI123">
-        <v>1.57</v>
-      </c>
-      <c r="AJ123">
-        <v>2.25</v>
-      </c>
-      <c r="AK123">
-        <v>2.3</v>
-      </c>
-      <c r="AL123">
-        <v>1.19</v>
-      </c>
-      <c r="AM123">
-        <v>1.18</v>
-      </c>
-      <c r="AN123">
-        <v>0.83</v>
-      </c>
-      <c r="AO123">
-        <v>1.67</v>
-      </c>
-      <c r="AP123">
-        <v>0.71</v>
-      </c>
-      <c r="AQ123">
-        <v>1.86</v>
-      </c>
-      <c r="AR123">
-        <v>1.29</v>
-      </c>
-      <c r="AS123">
-        <v>1.73</v>
-      </c>
-      <c r="AT123">
-        <v>3.02</v>
-      </c>
-      <c r="AU123">
-        <v>4</v>
-      </c>
-      <c r="AV123">
-        <v>7</v>
-      </c>
-      <c r="AW123">
-        <v>3</v>
-      </c>
-      <c r="AX123">
-        <v>5</v>
-      </c>
-      <c r="AY123">
-        <v>10</v>
-      </c>
-      <c r="AZ123">
-        <v>16</v>
-      </c>
-      <c r="BA123">
-        <v>2</v>
-      </c>
-      <c r="BB123">
-        <v>5</v>
       </c>
       <c r="BC123">
         <v>7</v>
       </c>
       <c r="BD123">
+        <v>2.18</v>
+      </c>
+      <c r="BE123">
+        <v>6.2</v>
+      </c>
+      <c r="BF123">
+        <v>2.14</v>
+      </c>
+      <c r="BG123">
+        <v>1.45</v>
+      </c>
+      <c r="BH123">
+        <v>2.41</v>
+      </c>
+      <c r="BI123">
+        <v>1.85</v>
+      </c>
+      <c r="BJ123">
+        <v>1.85</v>
+      </c>
+      <c r="BK123">
+        <v>2.38</v>
+      </c>
+      <c r="BL123">
+        <v>1.46</v>
+      </c>
+      <c r="BM123">
+        <v>3.22</v>
+      </c>
+      <c r="BN123">
+        <v>1.24</v>
+      </c>
+      <c r="BO123">
+        <v>4.65</v>
+      </c>
+      <c r="BP123">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7492276</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45620.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>83</v>
+      </c>
+      <c r="H124" t="s">
+        <v>82</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>175</v>
+      </c>
+      <c r="P124" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q124">
+        <v>2.88</v>
+      </c>
+      <c r="R124">
+        <v>1.91</v>
+      </c>
+      <c r="S124">
+        <v>4.75</v>
+      </c>
+      <c r="T124">
+        <v>1.57</v>
+      </c>
+      <c r="U124">
+        <v>2.25</v>
+      </c>
+      <c r="V124">
+        <v>4</v>
+      </c>
+      <c r="W124">
+        <v>1.22</v>
+      </c>
+      <c r="X124">
+        <v>13</v>
+      </c>
+      <c r="Y124">
+        <v>1.04</v>
+      </c>
+      <c r="Z124">
+        <v>1.98</v>
+      </c>
+      <c r="AA124">
+        <v>3.2</v>
+      </c>
+      <c r="AB124">
+        <v>3.8</v>
+      </c>
+      <c r="AC124">
+        <v>1.12</v>
+      </c>
+      <c r="AD124">
+        <v>6.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.55</v>
+      </c>
+      <c r="AF124">
+        <v>2.4</v>
+      </c>
+      <c r="AG124">
+        <v>2.67</v>
+      </c>
+      <c r="AH124">
+        <v>1.44</v>
+      </c>
+      <c r="AI124">
+        <v>2.25</v>
+      </c>
+      <c r="AJ124">
+        <v>1.57</v>
+      </c>
+      <c r="AK124">
+        <v>1.25</v>
+      </c>
+      <c r="AL124">
+        <v>1.32</v>
+      </c>
+      <c r="AM124">
+        <v>1.78</v>
+      </c>
+      <c r="AN124">
+        <v>1.4</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>1.33</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.11</v>
+      </c>
+      <c r="AS124">
+        <v>0.73</v>
+      </c>
+      <c r="AT124">
+        <v>1.84</v>
+      </c>
+      <c r="AU124">
+        <v>6</v>
+      </c>
+      <c r="AV124">
+        <v>7</v>
+      </c>
+      <c r="AW124">
+        <v>2</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>7</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>1.56</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>3.04</v>
+      </c>
+      <c r="BG124">
+        <v>1.36</v>
+      </c>
+      <c r="BH124">
+        <v>2.7</v>
+      </c>
+      <c r="BI124">
+        <v>1.69</v>
+      </c>
+      <c r="BJ124">
+        <v>2.04</v>
+      </c>
+      <c r="BK124">
+        <v>2.12</v>
+      </c>
+      <c r="BL124">
+        <v>1.58</v>
+      </c>
+      <c r="BM124">
+        <v>2.82</v>
+      </c>
+      <c r="BN124">
+        <v>1.31</v>
+      </c>
+      <c r="BO124">
+        <v>3.95</v>
+      </c>
+      <c r="BP124">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7492272</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45620.69791666666</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s">
+        <v>74</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>176</v>
+      </c>
+      <c r="P125" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q125">
+        <v>2.6</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>4.75</v>
+      </c>
+      <c r="T125">
+        <v>1.44</v>
+      </c>
+      <c r="U125">
+        <v>2.63</v>
+      </c>
+      <c r="V125">
+        <v>3.25</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>9</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>1.85</v>
+      </c>
+      <c r="AA125">
+        <v>3.15</v>
+      </c>
+      <c r="AB125">
+        <v>3.69</v>
+      </c>
+      <c r="AC125">
+        <v>1.07</v>
+      </c>
+      <c r="AD125">
+        <v>9.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.36</v>
+      </c>
+      <c r="AF125">
+        <v>3.2</v>
+      </c>
+      <c r="AG125">
+        <v>2.07</v>
+      </c>
+      <c r="AH125">
+        <v>1.79</v>
+      </c>
+      <c r="AI125">
+        <v>1.95</v>
+      </c>
+      <c r="AJ125">
+        <v>1.8</v>
+      </c>
+      <c r="AK125">
+        <v>1.24</v>
+      </c>
+      <c r="AL125">
+        <v>1.26</v>
+      </c>
+      <c r="AM125">
+        <v>1.92</v>
+      </c>
+      <c r="AN125">
+        <v>2.67</v>
+      </c>
+      <c r="AO125">
+        <v>1.83</v>
+      </c>
+      <c r="AP125">
+        <v>2.71</v>
+      </c>
+      <c r="AQ125">
+        <v>1.57</v>
+      </c>
+      <c r="AR125">
+        <v>1.58</v>
+      </c>
+      <c r="AS125">
+        <v>1.28</v>
+      </c>
+      <c r="AT125">
+        <v>2.86</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>2</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>14</v>
+      </c>
+      <c r="AZ125">
+        <v>4</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>3</v>
+      </c>
+      <c r="BD125">
+        <v>1.57</v>
+      </c>
+      <c r="BE125">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF125">
+        <v>2.97</v>
+      </c>
+      <c r="BG125">
+        <v>1.28</v>
+      </c>
+      <c r="BH125">
+        <v>2.97</v>
+      </c>
+      <c r="BI125">
+        <v>1.55</v>
+      </c>
+      <c r="BJ125">
+        <v>2.17</v>
+      </c>
+      <c r="BK125">
+        <v>1.99</v>
+      </c>
+      <c r="BL125">
+        <v>1.73</v>
+      </c>
+      <c r="BM125">
+        <v>2.56</v>
+      </c>
+      <c r="BN125">
+        <v>1.4</v>
+      </c>
+      <c r="BO125">
+        <v>3.44</v>
+      </c>
+      <c r="BP125">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7492269</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45621.60416666666</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>177</v>
+      </c>
+      <c r="P126" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q126">
+        <v>3.6</v>
+      </c>
+      <c r="R126">
+        <v>1.91</v>
+      </c>
+      <c r="S126">
+        <v>3.6</v>
+      </c>
+      <c r="T126">
+        <v>1.62</v>
+      </c>
+      <c r="U126">
+        <v>2.2</v>
+      </c>
+      <c r="V126">
+        <v>4</v>
+      </c>
+      <c r="W126">
+        <v>1.22</v>
+      </c>
+      <c r="X126">
+        <v>13</v>
+      </c>
+      <c r="Y126">
+        <v>1.04</v>
+      </c>
+      <c r="Z126">
+        <v>2.5</v>
+      </c>
+      <c r="AA126">
+        <v>2.85</v>
+      </c>
+      <c r="AB126">
+        <v>3.1</v>
+      </c>
+      <c r="AC126">
+        <v>1.12</v>
+      </c>
+      <c r="AD126">
+        <v>6.5</v>
+      </c>
+      <c r="AE126">
+        <v>1.55</v>
+      </c>
+      <c r="AF126">
+        <v>2.4</v>
+      </c>
+      <c r="AG126">
+        <v>2.7</v>
+      </c>
+      <c r="AH126">
+        <v>1.45</v>
+      </c>
+      <c r="AI126">
+        <v>2.2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.62</v>
+      </c>
+      <c r="AK126">
+        <v>1.45</v>
+      </c>
+      <c r="AL126">
+        <v>1.36</v>
+      </c>
+      <c r="AM126">
+        <v>1.47</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
+        <v>0.67</v>
+      </c>
+      <c r="AP126">
+        <v>1</v>
+      </c>
+      <c r="AQ126">
+        <v>0.71</v>
+      </c>
+      <c r="AR126">
+        <v>0.88</v>
+      </c>
+      <c r="AS126">
+        <v>1.33</v>
+      </c>
+      <c r="AT126">
+        <v>2.21</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>1</v>
+      </c>
+      <c r="AX126">
+        <v>7</v>
+      </c>
+      <c r="AY126">
+        <v>5</v>
+      </c>
+      <c r="AZ126">
+        <v>17</v>
+      </c>
+      <c r="BA126">
+        <v>1</v>
+      </c>
+      <c r="BB126">
+        <v>8</v>
+      </c>
+      <c r="BC126">
+        <v>9</v>
+      </c>
+      <c r="BD126">
+        <v>1.97</v>
+      </c>
+      <c r="BE126">
+        <v>6.65</v>
+      </c>
+      <c r="BF126">
+        <v>2.33</v>
+      </c>
+      <c r="BG126">
+        <v>1.2</v>
+      </c>
+      <c r="BH126">
+        <v>3.52</v>
+      </c>
+      <c r="BI126">
+        <v>1.42</v>
+      </c>
+      <c r="BJ126">
+        <v>2.49</v>
+      </c>
+      <c r="BK126">
+        <v>1.77</v>
+      </c>
+      <c r="BL126">
+        <v>1.94</v>
+      </c>
+      <c r="BM126">
+        <v>2.21</v>
+      </c>
+      <c r="BN126">
+        <v>1.53</v>
+      </c>
+      <c r="BO126">
+        <v>2.92</v>
+      </c>
+      <c r="BP126">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7492277</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45621.69791666666</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>87</v>
+      </c>
+      <c r="H127" t="s">
+        <v>78</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>92</v>
+      </c>
+      <c r="P127" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>3.75</v>
+      </c>
+      <c r="T127">
+        <v>1.44</v>
+      </c>
+      <c r="U127">
+        <v>2.63</v>
+      </c>
+      <c r="V127">
+        <v>3.25</v>
+      </c>
+      <c r="W127">
+        <v>1.33</v>
+      </c>
+      <c r="X127">
+        <v>9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>2.15</v>
+      </c>
+      <c r="AA127">
         <v>3.3</v>
       </c>
-      <c r="BE123">
+      <c r="AB127">
+        <v>3.3</v>
+      </c>
+      <c r="AC127">
+        <v>1.07</v>
+      </c>
+      <c r="AD127">
+        <v>10</v>
+      </c>
+      <c r="AE127">
+        <v>1.33</v>
+      </c>
+      <c r="AF127">
+        <v>3.3</v>
+      </c>
+      <c r="AG127">
+        <v>2</v>
+      </c>
+      <c r="AH127">
+        <v>1.8</v>
+      </c>
+      <c r="AI127">
+        <v>1.8</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>1.36</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.65</v>
+      </c>
+      <c r="AN127">
+        <v>1.2</v>
+      </c>
+      <c r="AO127">
+        <v>0.17</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+      <c r="AQ127">
+        <v>0.57</v>
+      </c>
+      <c r="AR127">
+        <v>1.48</v>
+      </c>
+      <c r="AS127">
+        <v>1.25</v>
+      </c>
+      <c r="AT127">
+        <v>2.73</v>
+      </c>
+      <c r="AU127">
         <v>7</v>
       </c>
-      <c r="BF123">
-        <v>1.41</v>
-      </c>
-      <c r="BG123">
-        <v>1.23</v>
-      </c>
-      <c r="BH123">
-        <v>3.65</v>
-      </c>
-      <c r="BI123">
-        <v>1.41</v>
-      </c>
-      <c r="BJ123">
-        <v>2.65</v>
-      </c>
-      <c r="BK123">
-        <v>1.68</v>
-      </c>
-      <c r="BL123">
-        <v>2.02</v>
-      </c>
-      <c r="BM123">
-        <v>2.1</v>
-      </c>
-      <c r="BN123">
-        <v>1.63</v>
-      </c>
-      <c r="BO123">
-        <v>2.65</v>
-      </c>
-      <c r="BP123">
-        <v>1.41</v>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>8</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>18</v>
+      </c>
+      <c r="AZ127">
+        <v>8</v>
+      </c>
+      <c r="BA127">
+        <v>6</v>
+      </c>
+      <c r="BB127">
+        <v>2</v>
+      </c>
+      <c r="BC127">
+        <v>8</v>
+      </c>
+      <c r="BD127">
+        <v>1.8</v>
+      </c>
+      <c r="BE127">
+        <v>8.6</v>
+      </c>
+      <c r="BF127">
+        <v>2.41</v>
+      </c>
+      <c r="BG127">
+        <v>1.22</v>
+      </c>
+      <c r="BH127">
+        <v>3.35</v>
+      </c>
+      <c r="BI127">
+        <v>1.45</v>
+      </c>
+      <c r="BJ127">
+        <v>2.41</v>
+      </c>
+      <c r="BK127">
+        <v>1.83</v>
+      </c>
+      <c r="BL127">
+        <v>1.87</v>
+      </c>
+      <c r="BM127">
+        <v>2.3</v>
+      </c>
+      <c r="BN127">
+        <v>1.49</v>
+      </c>
+      <c r="BO127">
+        <v>3.02</v>
+      </c>
+      <c r="BP127">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,9 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['68', '72', '90+2']</t>
   </si>
   <si>
@@ -760,13 +763,16 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['17', '22', '25', '31', '41']</t>
+  </si>
+  <si>
     <t>['4', '39', '75']</t>
   </si>
   <si>
-    <t>['8', '88']</t>
+    <t>['19', '68']</t>
   </si>
   <si>
-    <t>['19', '68']</t>
+    <t>['8', '88']</t>
   </si>
   <si>
     <t>['76']</t>
@@ -1131,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1396,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1471,7 +1477,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ2">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2008,7 +2014,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2214,7 +2220,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2498,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1.83</v>
@@ -2707,7 +2713,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2832,7 +2838,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3038,7 +3044,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3450,7 +3456,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3656,7 +3662,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4068,7 +4074,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4764,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ18">
         <v>1.57</v>
@@ -4892,7 +4898,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5304,7 +5310,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5382,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
         <v>2.2</v>
@@ -5510,7 +5516,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5922,7 +5928,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6334,7 +6340,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6412,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ26">
         <v>1.17</v>
@@ -6540,7 +6546,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6746,7 +6752,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6952,7 +6958,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7445,7 +7451,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7570,7 +7576,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8188,7 +8194,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8269,7 +8275,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR35">
         <v>1.23</v>
@@ -8600,7 +8606,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8806,7 +8812,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9012,7 +9018,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9093,7 +9099,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9218,7 +9224,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9424,7 +9430,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9630,7 +9636,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9836,7 +9842,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9914,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10454,7 +10460,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10660,7 +10666,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10866,7 +10872,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11278,7 +11284,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11484,7 +11490,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11896,7 +11902,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11977,7 +11983,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -12102,7 +12108,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12308,7 +12314,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12514,7 +12520,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12926,7 +12932,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13416,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13544,7 +13550,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13828,7 +13834,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ62">
         <v>0.63</v>
@@ -14034,7 +14040,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63">
         <v>0.29</v>
@@ -14368,7 +14374,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14574,7 +14580,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14780,7 +14786,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15192,7 +15198,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15398,7 +15404,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15479,7 +15485,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR70">
         <v>0.9399999999999999</v>
@@ -15604,7 +15610,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16016,7 +16022,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16634,7 +16640,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16840,7 +16846,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17046,7 +17052,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17252,7 +17258,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17458,7 +17464,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17539,7 +17545,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -17664,7 +17670,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17742,7 +17748,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18360,7 +18366,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ84">
         <v>0.57</v>
@@ -18488,7 +18494,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18694,7 +18700,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19106,7 +19112,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19312,7 +19318,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19518,7 +19524,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19599,7 +19605,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR90">
         <v>1.56</v>
@@ -19930,7 +19936,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20136,7 +20142,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20342,7 +20348,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20423,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR94">
         <v>0.91</v>
@@ -20548,7 +20554,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20754,7 +20760,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21166,7 +21172,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21372,7 +21378,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21990,7 +21996,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22402,7 +22408,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22480,7 +22486,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ104">
         <v>1.86</v>
@@ -22608,7 +22614,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22814,7 +22820,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22892,10 +22898,10 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23226,7 +23232,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23638,7 +23644,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23844,7 +23850,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24050,7 +24056,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24256,7 +24262,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24462,7 +24468,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24874,7 +24880,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25080,7 +25086,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25286,7 +25292,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25492,7 +25498,7 @@
         <v>92</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -25698,7 +25704,7 @@
         <v>111</v>
       </c>
       <c r="P120" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25862,7 +25868,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7492275</v>
+        <v>7492271</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25871,49 +25877,49 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45619.69791666666</v>
+        <v>45619.45833333334</v>
       </c>
       <c r="F121">
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H121" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O121" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="R121">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S121">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T121">
         <v>1.29</v>
@@ -25934,13 +25940,13 @@
         <v>1.14</v>
       </c>
       <c r="Z121">
-        <v>4.01</v>
+        <v>6.9</v>
       </c>
       <c r="AA121">
-        <v>3.82</v>
+        <v>4.25</v>
       </c>
       <c r="AB121">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="AC121">
         <v>1.02</v>
@@ -25955,55 +25961,55 @@
         <v>5</v>
       </c>
       <c r="AG121">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AH121">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="AI121">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AJ121">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AK121">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="AL121">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AM121">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="AN121">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO121">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AP121">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AR121">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AS121">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AT121">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX121">
         <v>5</v>
@@ -26012,55 +26018,55 @@
         <v>10</v>
       </c>
       <c r="AZ121">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD121">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BE121">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF121">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BG121">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="BH121">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="BI121">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="BJ121">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="BK121">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="BL121">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="BM121">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BN121">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="BO121">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="BP121">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26068,7 +26074,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7492270</v>
+        <v>7492275</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26077,196 +26083,196 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45620.35416666666</v>
+        <v>45619.69791666666</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H122" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K122">
         <v>2</v>
       </c>
       <c r="L122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N122">
         <v>4</v>
       </c>
       <c r="O122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S122">
+        <v>2.1</v>
+      </c>
+      <c r="T122">
+        <v>1.29</v>
+      </c>
+      <c r="U122">
         <v>3.5</v>
       </c>
-      <c r="T122">
-        <v>1.44</v>
-      </c>
-      <c r="U122">
-        <v>2.63</v>
-      </c>
       <c r="V122">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="X122">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="Y122">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="Z122">
-        <v>2.53</v>
+        <v>4.01</v>
       </c>
       <c r="AA122">
-        <v>3.2</v>
+        <v>3.82</v>
       </c>
       <c r="AB122">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="AC122">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD122">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AE122">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AF122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG122">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="AH122">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="AI122">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AJ122">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AK122">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="AL122">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM122">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AN122">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AO122">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AP122">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AQ122">
-        <v>0.83</v>
+        <v>1.86</v>
       </c>
       <c r="AR122">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>0.88</v>
+        <v>1.73</v>
       </c>
       <c r="AT122">
-        <v>2.12</v>
+        <v>3.02</v>
       </c>
       <c r="AU122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV122">
         <v>7</v>
       </c>
       <c r="AW122">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX122">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY122">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AZ122">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA122">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB122">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC122">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD122">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="BE122">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF122">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="BG122">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="BH122">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BI122">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="BJ122">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="BK122">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BL122">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="BM122">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="BN122">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="BO122">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="BP122">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26283,7 +26289,7 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45620.45833333334</v>
+        <v>45619.875</v>
       </c>
       <c r="F123">
         <v>13</v>
@@ -26316,7 +26322,7 @@
         <v>92</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26480,7 +26486,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7492276</v>
+        <v>7492270</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26489,196 +26495,196 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45620.45833333334</v>
+        <v>45619.875</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H124" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="Q124">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R124">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T124">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="U124">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W124">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X124">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y124">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z124">
-        <v>1.98</v>
+        <v>2.53</v>
       </c>
       <c r="AA124">
         <v>3.2</v>
       </c>
       <c r="AB124">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AC124">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AD124">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE124">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AF124">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AG124">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="AH124">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AI124">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AJ124">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AK124">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AL124">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM124">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AN124">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
       <c r="AO124">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR124">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="AS124">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT124">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="AU124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV124">
         <v>7</v>
       </c>
       <c r="AW124">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY124">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ124">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA124">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC124">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD124">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="BE124">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF124">
-        <v>3.04</v>
+        <v>2.05</v>
       </c>
       <c r="BG124">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BH124">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BI124">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="BJ124">
-        <v>2.04</v>
+        <v>2.33</v>
       </c>
       <c r="BK124">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="BL124">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="BM124">
-        <v>2.82</v>
+        <v>2.33</v>
       </c>
       <c r="BN124">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="BO124">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="BP124">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26686,7 +26692,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7492272</v>
+        <v>7492276</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26695,16 +26701,16 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45620.69791666666</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F125">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H125" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -26716,175 +26722,175 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O125" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="Q125">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R125">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S125">
         <v>4.75</v>
       </c>
       <c r="T125">
+        <v>1.57</v>
+      </c>
+      <c r="U125">
+        <v>2.25</v>
+      </c>
+      <c r="V125">
+        <v>4</v>
+      </c>
+      <c r="W125">
+        <v>1.22</v>
+      </c>
+      <c r="X125">
+        <v>13</v>
+      </c>
+      <c r="Y125">
+        <v>1.04</v>
+      </c>
+      <c r="Z125">
+        <v>1.98</v>
+      </c>
+      <c r="AA125">
+        <v>3.2</v>
+      </c>
+      <c r="AB125">
+        <v>3.8</v>
+      </c>
+      <c r="AC125">
+        <v>1.12</v>
+      </c>
+      <c r="AD125">
+        <v>6.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.55</v>
+      </c>
+      <c r="AF125">
+        <v>2.4</v>
+      </c>
+      <c r="AG125">
+        <v>2.67</v>
+      </c>
+      <c r="AH125">
         <v>1.44</v>
       </c>
-      <c r="U125">
-        <v>2.63</v>
-      </c>
-      <c r="V125">
-        <v>3.25</v>
-      </c>
-      <c r="W125">
+      <c r="AI125">
+        <v>2.25</v>
+      </c>
+      <c r="AJ125">
+        <v>1.57</v>
+      </c>
+      <c r="AK125">
+        <v>1.25</v>
+      </c>
+      <c r="AL125">
+        <v>1.32</v>
+      </c>
+      <c r="AM125">
+        <v>1.78</v>
+      </c>
+      <c r="AN125">
+        <v>1.4</v>
+      </c>
+      <c r="AO125">
+        <v>1</v>
+      </c>
+      <c r="AP125">
         <v>1.33</v>
       </c>
-      <c r="X125">
-        <v>9</v>
-      </c>
-      <c r="Y125">
-        <v>1.07</v>
-      </c>
-      <c r="Z125">
-        <v>1.85</v>
-      </c>
-      <c r="AA125">
-        <v>3.15</v>
-      </c>
-      <c r="AB125">
-        <v>3.69</v>
-      </c>
-      <c r="AC125">
-        <v>1.07</v>
-      </c>
-      <c r="AD125">
-        <v>9.5</v>
-      </c>
-      <c r="AE125">
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>1.11</v>
+      </c>
+      <c r="AS125">
+        <v>0.73</v>
+      </c>
+      <c r="AT125">
+        <v>1.84</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>7</v>
+      </c>
+      <c r="AW125">
+        <v>2</v>
+      </c>
+      <c r="AX125">
+        <v>3</v>
+      </c>
+      <c r="AY125">
+        <v>13</v>
+      </c>
+      <c r="AZ125">
+        <v>10</v>
+      </c>
+      <c r="BA125">
+        <v>7</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
+        <v>10</v>
+      </c>
+      <c r="BD125">
+        <v>1.56</v>
+      </c>
+      <c r="BE125">
+        <v>8.5</v>
+      </c>
+      <c r="BF125">
+        <v>3.04</v>
+      </c>
+      <c r="BG125">
         <v>1.36</v>
       </c>
-      <c r="AF125">
-        <v>3.2</v>
-      </c>
-      <c r="AG125">
-        <v>2.07</v>
-      </c>
-      <c r="AH125">
-        <v>1.79</v>
-      </c>
-      <c r="AI125">
-        <v>1.95</v>
-      </c>
-      <c r="AJ125">
-        <v>1.8</v>
-      </c>
-      <c r="AK125">
-        <v>1.24</v>
-      </c>
-      <c r="AL125">
-        <v>1.26</v>
-      </c>
-      <c r="AM125">
-        <v>1.92</v>
-      </c>
-      <c r="AN125">
-        <v>2.67</v>
-      </c>
-      <c r="AO125">
-        <v>1.83</v>
-      </c>
-      <c r="AP125">
-        <v>2.71</v>
-      </c>
-      <c r="AQ125">
-        <v>1.57</v>
-      </c>
-      <c r="AR125">
+      <c r="BH125">
+        <v>2.7</v>
+      </c>
+      <c r="BI125">
+        <v>1.69</v>
+      </c>
+      <c r="BJ125">
+        <v>2.04</v>
+      </c>
+      <c r="BK125">
+        <v>2.12</v>
+      </c>
+      <c r="BL125">
         <v>1.58</v>
       </c>
-      <c r="AS125">
-        <v>1.28</v>
-      </c>
-      <c r="AT125">
-        <v>2.86</v>
-      </c>
-      <c r="AU125">
-        <v>5</v>
-      </c>
-      <c r="AV125">
-        <v>2</v>
-      </c>
-      <c r="AW125">
-        <v>5</v>
-      </c>
-      <c r="AX125">
-        <v>2</v>
-      </c>
-      <c r="AY125">
-        <v>14</v>
-      </c>
-      <c r="AZ125">
-        <v>4</v>
-      </c>
-      <c r="BA125">
-        <v>3</v>
-      </c>
-      <c r="BB125">
-        <v>0</v>
-      </c>
-      <c r="BC125">
-        <v>3</v>
-      </c>
-      <c r="BD125">
-        <v>1.57</v>
-      </c>
-      <c r="BE125">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF125">
-        <v>2.97</v>
-      </c>
-      <c r="BG125">
-        <v>1.28</v>
-      </c>
-      <c r="BH125">
-        <v>2.97</v>
-      </c>
-      <c r="BI125">
-        <v>1.55</v>
-      </c>
-      <c r="BJ125">
-        <v>2.17</v>
-      </c>
-      <c r="BK125">
-        <v>1.99</v>
-      </c>
-      <c r="BL125">
-        <v>1.73</v>
-      </c>
       <c r="BM125">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="BN125">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="BO125">
-        <v>3.44</v>
+        <v>3.95</v>
       </c>
       <c r="BP125">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26892,7 +26898,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7492269</v>
+        <v>7492274</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26901,196 +26907,196 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45621.60416666666</v>
+        <v>45620.58333333334</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H126" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O126" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="Q126">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="R126">
+        <v>2.1</v>
+      </c>
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>2.63</v>
+      </c>
+      <c r="V126">
+        <v>3</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>9</v>
+      </c>
+      <c r="Y126">
+        <v>1.07</v>
+      </c>
+      <c r="Z126">
+        <v>1.65</v>
+      </c>
+      <c r="AA126">
+        <v>3.43</v>
+      </c>
+      <c r="AB126">
+        <v>4.34</v>
+      </c>
+      <c r="AC126">
+        <v>1.06</v>
+      </c>
+      <c r="AD126">
+        <v>10</v>
+      </c>
+      <c r="AE126">
+        <v>1.33</v>
+      </c>
+      <c r="AF126">
+        <v>3.4</v>
+      </c>
+      <c r="AG126">
+        <v>1.95</v>
+      </c>
+      <c r="AH126">
         <v>1.91</v>
       </c>
-      <c r="S126">
-        <v>3.6</v>
-      </c>
-      <c r="T126">
-        <v>1.62</v>
-      </c>
-      <c r="U126">
-        <v>2.2</v>
-      </c>
-      <c r="V126">
-        <v>4</v>
-      </c>
-      <c r="W126">
-        <v>1.22</v>
-      </c>
-      <c r="X126">
-        <v>13</v>
-      </c>
-      <c r="Y126">
-        <v>1.04</v>
-      </c>
-      <c r="Z126">
+      <c r="AI126">
+        <v>1.95</v>
+      </c>
+      <c r="AJ126">
+        <v>1.8</v>
+      </c>
+      <c r="AK126">
+        <v>1.18</v>
+      </c>
+      <c r="AL126">
+        <v>1.24</v>
+      </c>
+      <c r="AM126">
+        <v>2.15</v>
+      </c>
+      <c r="AN126">
         <v>2.5</v>
-      </c>
-      <c r="AA126">
-        <v>2.85</v>
-      </c>
-      <c r="AB126">
-        <v>3.1</v>
-      </c>
-      <c r="AC126">
-        <v>1.12</v>
-      </c>
-      <c r="AD126">
-        <v>6.5</v>
-      </c>
-      <c r="AE126">
-        <v>1.55</v>
-      </c>
-      <c r="AF126">
-        <v>2.4</v>
-      </c>
-      <c r="AG126">
-        <v>2.7</v>
-      </c>
-      <c r="AH126">
-        <v>1.45</v>
-      </c>
-      <c r="AI126">
-        <v>2.2</v>
-      </c>
-      <c r="AJ126">
-        <v>1.62</v>
-      </c>
-      <c r="AK126">
-        <v>1.45</v>
-      </c>
-      <c r="AL126">
-        <v>1.36</v>
-      </c>
-      <c r="AM126">
-        <v>1.47</v>
-      </c>
-      <c r="AN126">
-        <v>1</v>
       </c>
       <c r="AO126">
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>2.57</v>
       </c>
       <c r="AQ126">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AR126">
-        <v>0.88</v>
+        <v>1.54</v>
       </c>
       <c r="AS126">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT126">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="AU126">
         <v>3</v>
       </c>
       <c r="AV126">
+        <v>2</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
         <v>4</v>
       </c>
-      <c r="AW126">
-        <v>1</v>
-      </c>
-      <c r="AX126">
-        <v>7</v>
-      </c>
       <c r="AY126">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ126">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BA126">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB126">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC126">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD126">
-        <v>1.97</v>
+        <v>1.53</v>
       </c>
       <c r="BE126">
-        <v>6.65</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF126">
-        <v>2.33</v>
+        <v>3.14</v>
       </c>
       <c r="BG126">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="BH126">
-        <v>3.52</v>
+        <v>2.82</v>
       </c>
       <c r="BI126">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="BJ126">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="BK126">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="BL126">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="BM126">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="BN126">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="BO126">
-        <v>2.92</v>
+        <v>3.68</v>
       </c>
       <c r="BP126">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27098,7 +27104,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7492277</v>
+        <v>7492272</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27107,16 +27113,16 @@
         <v>69</v>
       </c>
       <c r="E127" s="2">
-        <v>45621.69791666666</v>
+        <v>45620.69791666666</v>
       </c>
       <c r="F127">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H127" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -27128,28 +27134,28 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O127" t="s">
+        <v>177</v>
+      </c>
+      <c r="P127" t="s">
         <v>92</v>
       </c>
-      <c r="P127" t="s">
-        <v>141</v>
-      </c>
       <c r="Q127">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R127">
         <v>2.1</v>
       </c>
       <c r="S127">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="T127">
         <v>1.44</v>
@@ -27170,132 +27176,544 @@
         <v>1.07</v>
       </c>
       <c r="Z127">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AA127">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AB127">
-        <v>3.3</v>
+        <v>3.69</v>
       </c>
       <c r="AC127">
         <v>1.07</v>
       </c>
       <c r="AD127">
+        <v>9.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.36</v>
+      </c>
+      <c r="AF127">
+        <v>3.2</v>
+      </c>
+      <c r="AG127">
+        <v>2.07</v>
+      </c>
+      <c r="AH127">
+        <v>1.79</v>
+      </c>
+      <c r="AI127">
+        <v>1.95</v>
+      </c>
+      <c r="AJ127">
+        <v>1.8</v>
+      </c>
+      <c r="AK127">
+        <v>1.24</v>
+      </c>
+      <c r="AL127">
+        <v>1.26</v>
+      </c>
+      <c r="AM127">
+        <v>1.92</v>
+      </c>
+      <c r="AN127">
+        <v>2.67</v>
+      </c>
+      <c r="AO127">
+        <v>1.83</v>
+      </c>
+      <c r="AP127">
+        <v>2.71</v>
+      </c>
+      <c r="AQ127">
+        <v>1.57</v>
+      </c>
+      <c r="AR127">
+        <v>1.58</v>
+      </c>
+      <c r="AS127">
+        <v>1.28</v>
+      </c>
+      <c r="AT127">
+        <v>2.86</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>2</v>
+      </c>
+      <c r="AW127">
+        <v>5</v>
+      </c>
+      <c r="AX127">
+        <v>2</v>
+      </c>
+      <c r="AY127">
+        <v>14</v>
+      </c>
+      <c r="AZ127">
+        <v>4</v>
+      </c>
+      <c r="BA127">
+        <v>3</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>3</v>
+      </c>
+      <c r="BD127">
+        <v>1.57</v>
+      </c>
+      <c r="BE127">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF127">
+        <v>2.97</v>
+      </c>
+      <c r="BG127">
+        <v>1.28</v>
+      </c>
+      <c r="BH127">
+        <v>2.97</v>
+      </c>
+      <c r="BI127">
+        <v>1.55</v>
+      </c>
+      <c r="BJ127">
+        <v>2.17</v>
+      </c>
+      <c r="BK127">
+        <v>1.99</v>
+      </c>
+      <c r="BL127">
+        <v>1.73</v>
+      </c>
+      <c r="BM127">
+        <v>2.56</v>
+      </c>
+      <c r="BN127">
+        <v>1.4</v>
+      </c>
+      <c r="BO127">
+        <v>3.44</v>
+      </c>
+      <c r="BP127">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7492269</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45620.875</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>80</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>178</v>
+      </c>
+      <c r="P128" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q128">
+        <v>3.6</v>
+      </c>
+      <c r="R128">
+        <v>1.91</v>
+      </c>
+      <c r="S128">
+        <v>3.6</v>
+      </c>
+      <c r="T128">
+        <v>1.62</v>
+      </c>
+      <c r="U128">
+        <v>2.2</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1.22</v>
+      </c>
+      <c r="X128">
+        <v>13</v>
+      </c>
+      <c r="Y128">
+        <v>1.04</v>
+      </c>
+      <c r="Z128">
+        <v>2.5</v>
+      </c>
+      <c r="AA128">
+        <v>2.85</v>
+      </c>
+      <c r="AB128">
+        <v>3.1</v>
+      </c>
+      <c r="AC128">
+        <v>1.12</v>
+      </c>
+      <c r="AD128">
+        <v>6.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.55</v>
+      </c>
+      <c r="AF128">
+        <v>2.4</v>
+      </c>
+      <c r="AG128">
+        <v>2.7</v>
+      </c>
+      <c r="AH128">
+        <v>1.45</v>
+      </c>
+      <c r="AI128">
+        <v>2.2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.62</v>
+      </c>
+      <c r="AK128">
+        <v>1.45</v>
+      </c>
+      <c r="AL128">
+        <v>1.36</v>
+      </c>
+      <c r="AM128">
+        <v>1.47</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>0.67</v>
+      </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
+      <c r="AQ128">
+        <v>0.71</v>
+      </c>
+      <c r="AR128">
+        <v>0.88</v>
+      </c>
+      <c r="AS128">
+        <v>1.33</v>
+      </c>
+      <c r="AT128">
+        <v>2.21</v>
+      </c>
+      <c r="AU128">
+        <v>3</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>1</v>
+      </c>
+      <c r="AX128">
+        <v>7</v>
+      </c>
+      <c r="AY128">
+        <v>5</v>
+      </c>
+      <c r="AZ128">
+        <v>17</v>
+      </c>
+      <c r="BA128">
+        <v>1</v>
+      </c>
+      <c r="BB128">
+        <v>8</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>1.97</v>
+      </c>
+      <c r="BE128">
+        <v>6.65</v>
+      </c>
+      <c r="BF128">
+        <v>2.33</v>
+      </c>
+      <c r="BG128">
+        <v>1.2</v>
+      </c>
+      <c r="BH128">
+        <v>3.52</v>
+      </c>
+      <c r="BI128">
+        <v>1.42</v>
+      </c>
+      <c r="BJ128">
+        <v>2.49</v>
+      </c>
+      <c r="BK128">
+        <v>1.77</v>
+      </c>
+      <c r="BL128">
+        <v>1.94</v>
+      </c>
+      <c r="BM128">
+        <v>2.21</v>
+      </c>
+      <c r="BN128">
+        <v>1.53</v>
+      </c>
+      <c r="BO128">
+        <v>2.92</v>
+      </c>
+      <c r="BP128">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7492277</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45621.69791666666</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>87</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>92</v>
+      </c>
+      <c r="P129" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q129">
+        <v>3</v>
+      </c>
+      <c r="R129">
+        <v>2.1</v>
+      </c>
+      <c r="S129">
+        <v>3.75</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>9</v>
+      </c>
+      <c r="Y129">
+        <v>1.07</v>
+      </c>
+      <c r="Z129">
+        <v>2.15</v>
+      </c>
+      <c r="AA129">
+        <v>3.3</v>
+      </c>
+      <c r="AB129">
+        <v>3.3</v>
+      </c>
+      <c r="AC129">
+        <v>1.07</v>
+      </c>
+      <c r="AD129">
         <v>10</v>
       </c>
-      <c r="AE127">
+      <c r="AE129">
         <v>1.33</v>
       </c>
-      <c r="AF127">
+      <c r="AF129">
         <v>3.3</v>
       </c>
-      <c r="AG127">
-        <v>2</v>
-      </c>
-      <c r="AH127">
+      <c r="AG129">
+        <v>2</v>
+      </c>
+      <c r="AH129">
         <v>1.8</v>
       </c>
-      <c r="AI127">
+      <c r="AI129">
         <v>1.8</v>
       </c>
-      <c r="AJ127">
+      <c r="AJ129">
         <v>1.95</v>
       </c>
-      <c r="AK127">
+      <c r="AK129">
         <v>1.36</v>
       </c>
-      <c r="AL127">
+      <c r="AL129">
         <v>1.28</v>
       </c>
-      <c r="AM127">
+      <c r="AM129">
         <v>1.65</v>
       </c>
-      <c r="AN127">
+      <c r="AN129">
         <v>1.2</v>
       </c>
-      <c r="AO127">
+      <c r="AO129">
         <v>0.17</v>
       </c>
-      <c r="AP127">
-        <v>1</v>
-      </c>
-      <c r="AQ127">
+      <c r="AP129">
+        <v>1</v>
+      </c>
+      <c r="AQ129">
         <v>0.57</v>
       </c>
-      <c r="AR127">
+      <c r="AR129">
         <v>1.48</v>
       </c>
-      <c r="AS127">
+      <c r="AS129">
         <v>1.25</v>
       </c>
-      <c r="AT127">
+      <c r="AT129">
         <v>2.73</v>
       </c>
-      <c r="AU127">
+      <c r="AU129">
         <v>7</v>
       </c>
-      <c r="AV127">
-        <v>3</v>
-      </c>
-      <c r="AW127">
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
         <v>8</v>
       </c>
-      <c r="AX127">
+      <c r="AX129">
         <v>4</v>
       </c>
-      <c r="AY127">
+      <c r="AY129">
         <v>18</v>
       </c>
-      <c r="AZ127">
+      <c r="AZ129">
         <v>8</v>
       </c>
-      <c r="BA127">
+      <c r="BA129">
         <v>6</v>
       </c>
-      <c r="BB127">
-        <v>2</v>
-      </c>
-      <c r="BC127">
+      <c r="BB129">
+        <v>2</v>
+      </c>
+      <c r="BC129">
         <v>8</v>
       </c>
-      <c r="BD127">
+      <c r="BD129">
         <v>1.8</v>
       </c>
-      <c r="BE127">
+      <c r="BE129">
         <v>8.6</v>
       </c>
-      <c r="BF127">
+      <c r="BF129">
         <v>2.41</v>
       </c>
-      <c r="BG127">
+      <c r="BG129">
         <v>1.22</v>
       </c>
-      <c r="BH127">
+      <c r="BH129">
         <v>3.35</v>
       </c>
-      <c r="BI127">
+      <c r="BI129">
         <v>1.45</v>
       </c>
-      <c r="BJ127">
+      <c r="BJ129">
         <v>2.41</v>
       </c>
-      <c r="BK127">
+      <c r="BK129">
         <v>1.83</v>
       </c>
-      <c r="BL127">
+      <c r="BL129">
         <v>1.87</v>
       </c>
-      <c r="BM127">
+      <c r="BM129">
         <v>2.3</v>
       </c>
-      <c r="BN127">
+      <c r="BN129">
         <v>1.49</v>
       </c>
-      <c r="BO127">
+      <c r="BO129">
         <v>3.02</v>
       </c>
-      <c r="BP127">
+      <c r="BP129">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1137,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -7863,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -8066,7 +8066,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>0.29</v>
@@ -11774,7 +11774,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -12189,7 +12189,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ54">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -16306,7 +16306,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -19399,7 +19399,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -20220,7 +20220,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93">
         <v>1.83</v>
@@ -22077,7 +22077,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -26074,7 +26074,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7492275</v>
+        <v>7492273</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26083,196 +26083,196 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45619.69791666666</v>
+        <v>45619.58333333334</v>
       </c>
       <c r="F122">
         <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H122" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>92</v>
+      </c>
+      <c r="P122" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q122">
+        <v>2.88</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
         <v>4</v>
       </c>
-      <c r="O122" t="s">
-        <v>173</v>
-      </c>
-      <c r="P122" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q122">
-        <v>4.75</v>
-      </c>
-      <c r="R122">
-        <v>2.5</v>
-      </c>
-      <c r="S122">
-        <v>2.1</v>
-      </c>
       <c r="T122">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="U122">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="V122">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="W122">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="X122">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="Y122">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="Z122">
-        <v>4.01</v>
+        <v>2.33</v>
       </c>
       <c r="AA122">
-        <v>3.82</v>
+        <v>3.15</v>
       </c>
       <c r="AB122">
-        <v>1.62</v>
+        <v>3.4</v>
       </c>
       <c r="AC122">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD122">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AE122">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AF122">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="AG122">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="AH122">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="AI122">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AJ122">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AK122">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL122">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AM122">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="AN122">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AO122">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AP122">
-        <v>0.71</v>
+        <v>1.83</v>
       </c>
       <c r="AQ122">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR122">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AS122">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="AT122">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="AU122">
+        <v>2</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
         <v>4</v>
       </c>
-      <c r="AV122">
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
         <v>7</v>
       </c>
-      <c r="AW122">
-        <v>3</v>
-      </c>
-      <c r="AX122">
-        <v>5</v>
-      </c>
-      <c r="AY122">
-        <v>10</v>
-      </c>
       <c r="AZ122">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>2</v>
       </c>
       <c r="BB122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD122">
-        <v>3.3</v>
+        <v>1.71</v>
       </c>
       <c r="BE122">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF122">
-        <v>1.41</v>
+        <v>2.4</v>
       </c>
       <c r="BG122">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BH122">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="BI122">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="BJ122">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="BK122">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BL122">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="BM122">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="BN122">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="BO122">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="BP122">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26280,7 +26280,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7492268</v>
+        <v>7492275</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26289,196 +26289,196 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45619.875</v>
+        <v>45619.69791666666</v>
       </c>
       <c r="F123">
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O123" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q123">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S123">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="T123">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U123">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="V123">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="W123">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>4.01</v>
+      </c>
+      <c r="AA123">
+        <v>3.82</v>
+      </c>
+      <c r="AB123">
+        <v>1.62</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>19</v>
+      </c>
+      <c r="AE123">
+        <v>1.18</v>
+      </c>
+      <c r="AF123">
+        <v>5</v>
+      </c>
+      <c r="AG123">
+        <v>1.51</v>
+      </c>
+      <c r="AH123">
+        <v>2.46</v>
+      </c>
+      <c r="AI123">
+        <v>1.57</v>
+      </c>
+      <c r="AJ123">
+        <v>2.25</v>
+      </c>
+      <c r="AK123">
+        <v>2.3</v>
+      </c>
+      <c r="AL123">
+        <v>1.19</v>
+      </c>
+      <c r="AM123">
+        <v>1.18</v>
+      </c>
+      <c r="AN123">
+        <v>0.83</v>
+      </c>
+      <c r="AO123">
+        <v>1.67</v>
+      </c>
+      <c r="AP123">
+        <v>0.71</v>
+      </c>
+      <c r="AQ123">
+        <v>1.86</v>
+      </c>
+      <c r="AR123">
+        <v>1.29</v>
+      </c>
+      <c r="AS123">
+        <v>1.73</v>
+      </c>
+      <c r="AT123">
+        <v>3.02</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>7</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>5</v>
+      </c>
+      <c r="AY123">
         <v>10</v>
       </c>
-      <c r="Y123">
-        <v>1.06</v>
-      </c>
-      <c r="Z123">
-        <v>2.69</v>
-      </c>
-      <c r="AA123">
-        <v>3.4</v>
-      </c>
-      <c r="AB123">
-        <v>2.33</v>
-      </c>
-      <c r="AC123">
-        <v>1.07</v>
-      </c>
-      <c r="AD123">
-        <v>9</v>
-      </c>
-      <c r="AE123">
-        <v>1.38</v>
-      </c>
-      <c r="AF123">
-        <v>3.1</v>
-      </c>
-      <c r="AG123">
-        <v>2.1</v>
-      </c>
-      <c r="AH123">
-        <v>1.7</v>
-      </c>
-      <c r="AI123">
-        <v>1.8</v>
-      </c>
-      <c r="AJ123">
-        <v>1.95</v>
-      </c>
-      <c r="AK123">
-        <v>1.6</v>
-      </c>
-      <c r="AL123">
-        <v>1.3</v>
-      </c>
-      <c r="AM123">
-        <v>1.38</v>
-      </c>
-      <c r="AN123">
-        <v>1.25</v>
-      </c>
-      <c r="AO123">
-        <v>1.83</v>
-      </c>
-      <c r="AP123">
-        <v>1</v>
-      </c>
-      <c r="AQ123">
-        <v>2</v>
-      </c>
-      <c r="AR123">
-        <v>1.5</v>
-      </c>
-      <c r="AS123">
-        <v>1.34</v>
-      </c>
-      <c r="AT123">
-        <v>2.84</v>
-      </c>
-      <c r="AU123">
+      <c r="AZ123">
+        <v>16</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
         <v>5</v>
-      </c>
-      <c r="AV123">
-        <v>5</v>
-      </c>
-      <c r="AW123">
-        <v>5</v>
-      </c>
-      <c r="AX123">
-        <v>2</v>
-      </c>
-      <c r="AY123">
-        <v>11</v>
-      </c>
-      <c r="AZ123">
-        <v>9</v>
-      </c>
-      <c r="BA123">
-        <v>3</v>
-      </c>
-      <c r="BB123">
-        <v>4</v>
       </c>
       <c r="BC123">
         <v>7</v>
       </c>
       <c r="BD123">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="BE123">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BF123">
-        <v>2.14</v>
+        <v>1.41</v>
       </c>
       <c r="BG123">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="BH123">
-        <v>2.41</v>
+        <v>3.65</v>
       </c>
       <c r="BI123">
-        <v>1.85</v>
+        <v>1.41</v>
       </c>
       <c r="BJ123">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="BK123">
-        <v>2.38</v>
+        <v>1.68</v>
       </c>
       <c r="BL123">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="BM123">
-        <v>3.22</v>
+        <v>2.1</v>
       </c>
       <c r="BN123">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="BO123">
-        <v>4.65</v>
+        <v>2.65</v>
       </c>
       <c r="BP123">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26486,7 +26486,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7492270</v>
+        <v>7492268</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26498,46 +26498,46 @@
         <v>45619.875</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H124" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M124">
         <v>2</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O124" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q124">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R124">
         <v>2.05</v>
       </c>
       <c r="S124">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T124">
         <v>1.44</v>
@@ -26546,10 +26546,10 @@
         <v>2.63</v>
       </c>
       <c r="V124">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W124">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X124">
         <v>10</v>
@@ -26558,13 +26558,13 @@
         <v>1.06</v>
       </c>
       <c r="Z124">
-        <v>2.53</v>
+        <v>2.69</v>
       </c>
       <c r="AA124">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB124">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AC124">
         <v>1.07</v>
@@ -26573,10 +26573,10 @@
         <v>9</v>
       </c>
       <c r="AE124">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF124">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG124">
         <v>2.1</v>
@@ -26585,106 +26585,106 @@
         <v>1.7</v>
       </c>
       <c r="AI124">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ124">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK124">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AL124">
         <v>1.3</v>
       </c>
       <c r="AM124">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AN124">
-        <v>0.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO124">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AP124">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AR124">
+        <v>1.5</v>
+      </c>
+      <c r="AS124">
+        <v>1.34</v>
+      </c>
+      <c r="AT124">
+        <v>2.84</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>11</v>
+      </c>
+      <c r="AZ124">
+        <v>9</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>7</v>
+      </c>
+      <c r="BD124">
+        <v>2.18</v>
+      </c>
+      <c r="BE124">
+        <v>6.2</v>
+      </c>
+      <c r="BF124">
+        <v>2.14</v>
+      </c>
+      <c r="BG124">
+        <v>1.45</v>
+      </c>
+      <c r="BH124">
+        <v>2.41</v>
+      </c>
+      <c r="BI124">
+        <v>1.85</v>
+      </c>
+      <c r="BJ124">
+        <v>1.85</v>
+      </c>
+      <c r="BK124">
+        <v>2.38</v>
+      </c>
+      <c r="BL124">
+        <v>1.46</v>
+      </c>
+      <c r="BM124">
+        <v>3.22</v>
+      </c>
+      <c r="BN124">
         <v>1.24</v>
       </c>
-      <c r="AS124">
-        <v>0.88</v>
-      </c>
-      <c r="AT124">
-        <v>2.12</v>
-      </c>
-      <c r="AU124">
-        <v>7</v>
-      </c>
-      <c r="AV124">
-        <v>7</v>
-      </c>
-      <c r="AW124">
-        <v>8</v>
-      </c>
-      <c r="AX124">
-        <v>8</v>
-      </c>
-      <c r="AY124">
-        <v>21</v>
-      </c>
-      <c r="AZ124">
-        <v>19</v>
-      </c>
-      <c r="BA124">
-        <v>6</v>
-      </c>
-      <c r="BB124">
-        <v>8</v>
-      </c>
-      <c r="BC124">
-        <v>14</v>
-      </c>
-      <c r="BD124">
-        <v>1.93</v>
-      </c>
-      <c r="BE124">
-        <v>6.4</v>
-      </c>
-      <c r="BF124">
-        <v>2.05</v>
-      </c>
-      <c r="BG124">
-        <v>1.3</v>
-      </c>
-      <c r="BH124">
-        <v>3.15</v>
-      </c>
-      <c r="BI124">
-        <v>1.52</v>
-      </c>
-      <c r="BJ124">
-        <v>2.33</v>
-      </c>
-      <c r="BK124">
-        <v>1.85</v>
-      </c>
-      <c r="BL124">
-        <v>1.83</v>
-      </c>
-      <c r="BM124">
-        <v>2.33</v>
-      </c>
-      <c r="BN124">
-        <v>1.52</v>
-      </c>
       <c r="BO124">
-        <v>3</v>
+        <v>4.65</v>
       </c>
       <c r="BP124">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26692,7 +26692,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7492276</v>
+        <v>7492270</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26701,196 +26701,196 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45620.45833333334</v>
+        <v>45619.875</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H125" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="Q125">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R125">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T125">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="U125">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V125">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W125">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X125">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y125">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z125">
-        <v>1.98</v>
+        <v>2.53</v>
       </c>
       <c r="AA125">
         <v>3.2</v>
       </c>
       <c r="AB125">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AC125">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AD125">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE125">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AF125">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AG125">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="AH125">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AI125">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AJ125">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AK125">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AL125">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM125">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AN125">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
       <c r="AO125">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR125">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="AS125">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT125">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="AU125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV125">
         <v>7</v>
       </c>
       <c r="AW125">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX125">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY125">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ125">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB125">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC125">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD125">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="BE125">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF125">
-        <v>3.04</v>
+        <v>2.05</v>
       </c>
       <c r="BG125">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BH125">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BI125">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="BJ125">
-        <v>2.04</v>
+        <v>2.33</v>
       </c>
       <c r="BK125">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="BL125">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="BM125">
-        <v>2.82</v>
+        <v>2.33</v>
       </c>
       <c r="BN125">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="BO125">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="BP125">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26898,7 +26898,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7492274</v>
+        <v>7492276</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26907,196 +26907,196 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45620.58333333334</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>83</v>
+      </c>
+      <c r="H126" t="s">
+        <v>82</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>175</v>
+      </c>
+      <c r="P126" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q126">
+        <v>2.88</v>
+      </c>
+      <c r="R126">
+        <v>1.91</v>
+      </c>
+      <c r="S126">
+        <v>4.75</v>
+      </c>
+      <c r="T126">
+        <v>1.57</v>
+      </c>
+      <c r="U126">
+        <v>2.25</v>
+      </c>
+      <c r="V126">
+        <v>4</v>
+      </c>
+      <c r="W126">
+        <v>1.22</v>
+      </c>
+      <c r="X126">
         <v>13</v>
       </c>
-      <c r="G126" t="s">
-        <v>85</v>
-      </c>
-      <c r="H126" t="s">
-        <v>86</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-      <c r="O126" t="s">
-        <v>176</v>
-      </c>
-      <c r="P126" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q126">
-        <v>2.38</v>
-      </c>
-      <c r="R126">
-        <v>2.1</v>
-      </c>
-      <c r="S126">
-        <v>5</v>
-      </c>
-      <c r="T126">
+      <c r="Y126">
+        <v>1.04</v>
+      </c>
+      <c r="Z126">
+        <v>1.98</v>
+      </c>
+      <c r="AA126">
+        <v>3.2</v>
+      </c>
+      <c r="AB126">
+        <v>3.8</v>
+      </c>
+      <c r="AC126">
+        <v>1.12</v>
+      </c>
+      <c r="AD126">
+        <v>6.5</v>
+      </c>
+      <c r="AE126">
+        <v>1.55</v>
+      </c>
+      <c r="AF126">
+        <v>2.4</v>
+      </c>
+      <c r="AG126">
+        <v>2.67</v>
+      </c>
+      <c r="AH126">
         <v>1.44</v>
       </c>
-      <c r="U126">
-        <v>2.63</v>
-      </c>
-      <c r="V126">
-        <v>3</v>
-      </c>
-      <c r="W126">
-        <v>1.36</v>
-      </c>
-      <c r="X126">
-        <v>9</v>
-      </c>
-      <c r="Y126">
-        <v>1.07</v>
-      </c>
-      <c r="Z126">
-        <v>1.65</v>
-      </c>
-      <c r="AA126">
-        <v>3.43</v>
-      </c>
-      <c r="AB126">
-        <v>4.34</v>
-      </c>
-      <c r="AC126">
-        <v>1.06</v>
-      </c>
-      <c r="AD126">
+      <c r="AI126">
+        <v>2.25</v>
+      </c>
+      <c r="AJ126">
+        <v>1.57</v>
+      </c>
+      <c r="AK126">
+        <v>1.25</v>
+      </c>
+      <c r="AL126">
+        <v>1.32</v>
+      </c>
+      <c r="AM126">
+        <v>1.78</v>
+      </c>
+      <c r="AN126">
+        <v>1.4</v>
+      </c>
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
+        <v>1.33</v>
+      </c>
+      <c r="AQ126">
+        <v>1</v>
+      </c>
+      <c r="AR126">
+        <v>1.11</v>
+      </c>
+      <c r="AS126">
+        <v>0.73</v>
+      </c>
+      <c r="AT126">
+        <v>1.84</v>
+      </c>
+      <c r="AU126">
+        <v>6</v>
+      </c>
+      <c r="AV126">
+        <v>7</v>
+      </c>
+      <c r="AW126">
+        <v>2</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>13</v>
+      </c>
+      <c r="AZ126">
         <v>10</v>
       </c>
-      <c r="AE126">
-        <v>1.33</v>
-      </c>
-      <c r="AF126">
-        <v>3.4</v>
-      </c>
-      <c r="AG126">
-        <v>1.95</v>
-      </c>
-      <c r="AH126">
-        <v>1.91</v>
-      </c>
-      <c r="AI126">
-        <v>1.95</v>
-      </c>
-      <c r="AJ126">
-        <v>1.8</v>
-      </c>
-      <c r="AK126">
-        <v>1.18</v>
-      </c>
-      <c r="AL126">
-        <v>1.24</v>
-      </c>
-      <c r="AM126">
-        <v>2.15</v>
-      </c>
-      <c r="AN126">
-        <v>2.5</v>
-      </c>
-      <c r="AO126">
-        <v>0.67</v>
-      </c>
-      <c r="AP126">
-        <v>2.57</v>
-      </c>
-      <c r="AQ126">
-        <v>0.57</v>
-      </c>
-      <c r="AR126">
-        <v>1.54</v>
-      </c>
-      <c r="AS126">
-        <v>1.31</v>
-      </c>
-      <c r="AT126">
-        <v>2.85</v>
-      </c>
-      <c r="AU126">
-        <v>3</v>
-      </c>
-      <c r="AV126">
-        <v>2</v>
-      </c>
-      <c r="AW126">
-        <v>9</v>
-      </c>
-      <c r="AX126">
-        <v>4</v>
-      </c>
-      <c r="AY126">
-        <v>15</v>
-      </c>
-      <c r="AZ126">
-        <v>8</v>
-      </c>
       <c r="BA126">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC126">
         <v>10</v>
       </c>
       <c r="BD126">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="BE126">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF126">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="BG126">
+        <v>1.36</v>
+      </c>
+      <c r="BH126">
+        <v>2.7</v>
+      </c>
+      <c r="BI126">
+        <v>1.69</v>
+      </c>
+      <c r="BJ126">
+        <v>2.04</v>
+      </c>
+      <c r="BK126">
+        <v>2.12</v>
+      </c>
+      <c r="BL126">
+        <v>1.58</v>
+      </c>
+      <c r="BM126">
+        <v>2.82</v>
+      </c>
+      <c r="BN126">
         <v>1.31</v>
       </c>
-      <c r="BH126">
-        <v>2.82</v>
-      </c>
-      <c r="BI126">
-        <v>1.6</v>
-      </c>
-      <c r="BJ126">
-        <v>2.08</v>
-      </c>
-      <c r="BK126">
-        <v>2.06</v>
-      </c>
-      <c r="BL126">
-        <v>1.68</v>
-      </c>
-      <c r="BM126">
-        <v>2.69</v>
-      </c>
-      <c r="BN126">
-        <v>1.36</v>
-      </c>
       <c r="BO126">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="BP126">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27104,7 +27104,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7492272</v>
+        <v>7492274</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27113,16 +27113,16 @@
         <v>69</v>
       </c>
       <c r="E127" s="2">
-        <v>45620.69791666666</v>
+        <v>45620.58333333334</v>
       </c>
       <c r="F127">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H127" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -27134,28 +27134,28 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M127">
         <v>0</v>
       </c>
       <c r="N127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P127" t="s">
         <v>92</v>
       </c>
       <c r="Q127">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R127">
         <v>2.1</v>
       </c>
       <c r="S127">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T127">
         <v>1.44</v>
@@ -27164,10 +27164,10 @@
         <v>2.63</v>
       </c>
       <c r="V127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W127">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X127">
         <v>9</v>
@@ -27176,31 +27176,31 @@
         <v>1.07</v>
       </c>
       <c r="Z127">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AA127">
-        <v>3.15</v>
+        <v>3.43</v>
       </c>
       <c r="AB127">
-        <v>3.69</v>
+        <v>4.34</v>
       </c>
       <c r="AC127">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD127">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE127">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF127">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG127">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="AH127">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AI127">
         <v>1.95</v>
@@ -27209,100 +27209,100 @@
         <v>1.8</v>
       </c>
       <c r="AK127">
+        <v>1.18</v>
+      </c>
+      <c r="AL127">
         <v>1.24</v>
       </c>
-      <c r="AL127">
-        <v>1.26</v>
-      </c>
       <c r="AM127">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="AN127">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AO127">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="AQ127">
-        <v>1.57</v>
+        <v>0.57</v>
       </c>
       <c r="AR127">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS127">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT127">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV127">
         <v>2</v>
       </c>
       <c r="AW127">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY127">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA127">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC127">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD127">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BE127">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF127">
-        <v>2.97</v>
+        <v>3.14</v>
       </c>
       <c r="BG127">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BH127">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="BI127">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BJ127">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="BK127">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="BL127">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="BM127">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="BN127">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BO127">
-        <v>3.44</v>
+        <v>3.68</v>
       </c>
       <c r="BP127">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27310,7 +27310,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7492269</v>
+        <v>7492272</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27319,196 +27319,196 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45620.875</v>
+        <v>45620.69791666666</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H128" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="Q128">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="R128">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S128">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T128">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="U128">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="V128">
+        <v>3.25</v>
+      </c>
+      <c r="W128">
+        <v>1.33</v>
+      </c>
+      <c r="X128">
+        <v>9</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>1.85</v>
+      </c>
+      <c r="AA128">
+        <v>3.15</v>
+      </c>
+      <c r="AB128">
+        <v>3.69</v>
+      </c>
+      <c r="AC128">
+        <v>1.07</v>
+      </c>
+      <c r="AD128">
+        <v>9.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.36</v>
+      </c>
+      <c r="AF128">
+        <v>3.2</v>
+      </c>
+      <c r="AG128">
+        <v>2.07</v>
+      </c>
+      <c r="AH128">
+        <v>1.79</v>
+      </c>
+      <c r="AI128">
+        <v>1.95</v>
+      </c>
+      <c r="AJ128">
+        <v>1.8</v>
+      </c>
+      <c r="AK128">
+        <v>1.24</v>
+      </c>
+      <c r="AL128">
+        <v>1.26</v>
+      </c>
+      <c r="AM128">
+        <v>1.92</v>
+      </c>
+      <c r="AN128">
+        <v>2.67</v>
+      </c>
+      <c r="AO128">
+        <v>1.83</v>
+      </c>
+      <c r="AP128">
+        <v>2.71</v>
+      </c>
+      <c r="AQ128">
+        <v>1.57</v>
+      </c>
+      <c r="AR128">
+        <v>1.58</v>
+      </c>
+      <c r="AS128">
+        <v>1.28</v>
+      </c>
+      <c r="AT128">
+        <v>2.86</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>14</v>
+      </c>
+      <c r="AZ128">
         <v>4</v>
       </c>
-      <c r="W128">
-        <v>1.22</v>
-      </c>
-      <c r="X128">
-        <v>13</v>
-      </c>
-      <c r="Y128">
-        <v>1.04</v>
-      </c>
-      <c r="Z128">
-        <v>2.5</v>
-      </c>
-      <c r="AA128">
-        <v>2.85</v>
-      </c>
-      <c r="AB128">
-        <v>3.1</v>
-      </c>
-      <c r="AC128">
-        <v>1.12</v>
-      </c>
-      <c r="AD128">
-        <v>6.5</v>
-      </c>
-      <c r="AE128">
+      <c r="BA128">
+        <v>3</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>3</v>
+      </c>
+      <c r="BD128">
+        <v>1.57</v>
+      </c>
+      <c r="BE128">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF128">
+        <v>2.97</v>
+      </c>
+      <c r="BG128">
+        <v>1.28</v>
+      </c>
+      <c r="BH128">
+        <v>2.97</v>
+      </c>
+      <c r="BI128">
         <v>1.55</v>
       </c>
-      <c r="AF128">
-        <v>2.4</v>
-      </c>
-      <c r="AG128">
-        <v>2.7</v>
-      </c>
-      <c r="AH128">
-        <v>1.45</v>
-      </c>
-      <c r="AI128">
-        <v>2.2</v>
-      </c>
-      <c r="AJ128">
-        <v>1.62</v>
-      </c>
-      <c r="AK128">
-        <v>1.45</v>
-      </c>
-      <c r="AL128">
-        <v>1.36</v>
-      </c>
-      <c r="AM128">
-        <v>1.47</v>
-      </c>
-      <c r="AN128">
-        <v>1</v>
-      </c>
-      <c r="AO128">
-        <v>0.67</v>
-      </c>
-      <c r="AP128">
-        <v>1</v>
-      </c>
-      <c r="AQ128">
-        <v>0.71</v>
-      </c>
-      <c r="AR128">
-        <v>0.88</v>
-      </c>
-      <c r="AS128">
-        <v>1.33</v>
-      </c>
-      <c r="AT128">
-        <v>2.21</v>
-      </c>
-      <c r="AU128">
-        <v>3</v>
-      </c>
-      <c r="AV128">
-        <v>4</v>
-      </c>
-      <c r="AW128">
-        <v>1</v>
-      </c>
-      <c r="AX128">
-        <v>7</v>
-      </c>
-      <c r="AY128">
-        <v>5</v>
-      </c>
-      <c r="AZ128">
-        <v>17</v>
-      </c>
-      <c r="BA128">
-        <v>1</v>
-      </c>
-      <c r="BB128">
-        <v>8</v>
-      </c>
-      <c r="BC128">
-        <v>9</v>
-      </c>
-      <c r="BD128">
-        <v>1.97</v>
-      </c>
-      <c r="BE128">
-        <v>6.65</v>
-      </c>
-      <c r="BF128">
-        <v>2.33</v>
-      </c>
-      <c r="BG128">
-        <v>1.2</v>
-      </c>
-      <c r="BH128">
-        <v>3.52</v>
-      </c>
-      <c r="BI128">
-        <v>1.42</v>
-      </c>
       <c r="BJ128">
-        <v>2.49</v>
+        <v>2.17</v>
       </c>
       <c r="BK128">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="BL128">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="BM128">
-        <v>2.21</v>
+        <v>2.56</v>
       </c>
       <c r="BN128">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="BO128">
-        <v>2.92</v>
+        <v>3.44</v>
       </c>
       <c r="BP128">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27516,7 +27516,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7492277</v>
+        <v>7492269</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27525,195 +27525,401 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
+        <v>45620.875</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>80</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>178</v>
+      </c>
+      <c r="P129" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q129">
+        <v>3.6</v>
+      </c>
+      <c r="R129">
+        <v>1.91</v>
+      </c>
+      <c r="S129">
+        <v>3.6</v>
+      </c>
+      <c r="T129">
+        <v>1.62</v>
+      </c>
+      <c r="U129">
+        <v>2.2</v>
+      </c>
+      <c r="V129">
+        <v>4</v>
+      </c>
+      <c r="W129">
+        <v>1.22</v>
+      </c>
+      <c r="X129">
+        <v>13</v>
+      </c>
+      <c r="Y129">
+        <v>1.04</v>
+      </c>
+      <c r="Z129">
+        <v>2.5</v>
+      </c>
+      <c r="AA129">
+        <v>2.85</v>
+      </c>
+      <c r="AB129">
+        <v>3.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.12</v>
+      </c>
+      <c r="AD129">
+        <v>6.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.55</v>
+      </c>
+      <c r="AF129">
+        <v>2.4</v>
+      </c>
+      <c r="AG129">
+        <v>2.7</v>
+      </c>
+      <c r="AH129">
+        <v>1.45</v>
+      </c>
+      <c r="AI129">
+        <v>2.2</v>
+      </c>
+      <c r="AJ129">
+        <v>1.62</v>
+      </c>
+      <c r="AK129">
+        <v>1.45</v>
+      </c>
+      <c r="AL129">
+        <v>1.36</v>
+      </c>
+      <c r="AM129">
+        <v>1.47</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
+        <v>0.67</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+      <c r="AQ129">
+        <v>0.71</v>
+      </c>
+      <c r="AR129">
+        <v>0.88</v>
+      </c>
+      <c r="AS129">
+        <v>1.33</v>
+      </c>
+      <c r="AT129">
+        <v>2.21</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>1</v>
+      </c>
+      <c r="AX129">
+        <v>7</v>
+      </c>
+      <c r="AY129">
+        <v>5</v>
+      </c>
+      <c r="AZ129">
+        <v>17</v>
+      </c>
+      <c r="BA129">
+        <v>1</v>
+      </c>
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
+        <v>9</v>
+      </c>
+      <c r="BD129">
+        <v>1.97</v>
+      </c>
+      <c r="BE129">
+        <v>6.65</v>
+      </c>
+      <c r="BF129">
+        <v>2.33</v>
+      </c>
+      <c r="BG129">
+        <v>1.2</v>
+      </c>
+      <c r="BH129">
+        <v>3.52</v>
+      </c>
+      <c r="BI129">
+        <v>1.42</v>
+      </c>
+      <c r="BJ129">
+        <v>2.49</v>
+      </c>
+      <c r="BK129">
+        <v>1.77</v>
+      </c>
+      <c r="BL129">
+        <v>1.94</v>
+      </c>
+      <c r="BM129">
+        <v>2.21</v>
+      </c>
+      <c r="BN129">
+        <v>1.53</v>
+      </c>
+      <c r="BO129">
+        <v>2.92</v>
+      </c>
+      <c r="BP129">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7492277</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
         <v>45621.69791666666</v>
       </c>
-      <c r="F129">
+      <c r="F130">
         <v>13</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>87</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H130" t="s">
         <v>78</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129" t="s">
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
         <v>92</v>
       </c>
-      <c r="P129" t="s">
+      <c r="P130" t="s">
         <v>141</v>
       </c>
-      <c r="Q129">
-        <v>3</v>
-      </c>
-      <c r="R129">
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
         <v>2.1</v>
       </c>
-      <c r="S129">
+      <c r="S130">
         <v>3.75</v>
       </c>
-      <c r="T129">
+      <c r="T130">
         <v>1.44</v>
       </c>
-      <c r="U129">
+      <c r="U130">
         <v>2.63</v>
       </c>
-      <c r="V129">
+      <c r="V130">
         <v>3.25</v>
       </c>
-      <c r="W129">
+      <c r="W130">
         <v>1.33</v>
       </c>
-      <c r="X129">
+      <c r="X130">
         <v>9</v>
       </c>
-      <c r="Y129">
+      <c r="Y130">
         <v>1.07</v>
       </c>
-      <c r="Z129">
+      <c r="Z130">
         <v>2.15</v>
       </c>
-      <c r="AA129">
+      <c r="AA130">
         <v>3.3</v>
       </c>
-      <c r="AB129">
+      <c r="AB130">
         <v>3.3</v>
       </c>
-      <c r="AC129">
+      <c r="AC130">
         <v>1.07</v>
       </c>
-      <c r="AD129">
+      <c r="AD130">
         <v>10</v>
       </c>
-      <c r="AE129">
+      <c r="AE130">
         <v>1.33</v>
       </c>
-      <c r="AF129">
+      <c r="AF130">
         <v>3.3</v>
       </c>
-      <c r="AG129">
-        <v>2</v>
-      </c>
-      <c r="AH129">
+      <c r="AG130">
+        <v>2</v>
+      </c>
+      <c r="AH130">
         <v>1.8</v>
       </c>
-      <c r="AI129">
+      <c r="AI130">
         <v>1.8</v>
       </c>
-      <c r="AJ129">
+      <c r="AJ130">
         <v>1.95</v>
       </c>
-      <c r="AK129">
+      <c r="AK130">
         <v>1.36</v>
       </c>
-      <c r="AL129">
+      <c r="AL130">
         <v>1.28</v>
       </c>
-      <c r="AM129">
+      <c r="AM130">
         <v>1.65</v>
       </c>
-      <c r="AN129">
+      <c r="AN130">
         <v>1.2</v>
       </c>
-      <c r="AO129">
+      <c r="AO130">
         <v>0.17</v>
       </c>
-      <c r="AP129">
-        <v>1</v>
-      </c>
-      <c r="AQ129">
+      <c r="AP130">
+        <v>1</v>
+      </c>
+      <c r="AQ130">
         <v>0.57</v>
       </c>
-      <c r="AR129">
+      <c r="AR130">
         <v>1.48</v>
       </c>
-      <c r="AS129">
+      <c r="AS130">
         <v>1.25</v>
       </c>
-      <c r="AT129">
+      <c r="AT130">
         <v>2.73</v>
       </c>
-      <c r="AU129">
+      <c r="AU130">
         <v>7</v>
       </c>
-      <c r="AV129">
-        <v>3</v>
-      </c>
-      <c r="AW129">
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
         <v>8</v>
       </c>
-      <c r="AX129">
+      <c r="AX130">
         <v>4</v>
       </c>
-      <c r="AY129">
+      <c r="AY130">
         <v>18</v>
       </c>
-      <c r="AZ129">
+      <c r="AZ130">
         <v>8</v>
       </c>
-      <c r="BA129">
+      <c r="BA130">
         <v>6</v>
       </c>
-      <c r="BB129">
-        <v>2</v>
-      </c>
-      <c r="BC129">
+      <c r="BB130">
+        <v>2</v>
+      </c>
+      <c r="BC130">
         <v>8</v>
       </c>
-      <c r="BD129">
+      <c r="BD130">
         <v>1.8</v>
       </c>
-      <c r="BE129">
+      <c r="BE130">
         <v>8.6</v>
       </c>
-      <c r="BF129">
+      <c r="BF130">
         <v>2.41</v>
       </c>
-      <c r="BG129">
+      <c r="BG130">
         <v>1.22</v>
       </c>
-      <c r="BH129">
+      <c r="BH130">
         <v>3.35</v>
       </c>
-      <c r="BI129">
+      <c r="BI130">
         <v>1.45</v>
       </c>
-      <c r="BJ129">
+      <c r="BJ130">
         <v>2.41</v>
       </c>
-      <c r="BK129">
+      <c r="BK130">
         <v>1.83</v>
       </c>
-      <c r="BL129">
+      <c r="BL130">
         <v>1.87</v>
       </c>
-      <c r="BM129">
+      <c r="BM130">
         <v>2.3</v>
       </c>
-      <c r="BN129">
+      <c r="BN130">
         <v>1.49</v>
       </c>
-      <c r="BO129">
+      <c r="BO130">
         <v>3.02</v>
       </c>
-      <c r="BP129">
+      <c r="BP130">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -769,10 +769,10 @@
     <t>['4', '39', '75']</t>
   </si>
   <si>
-    <t>['19', '68']</t>
+    <t>['8', '88']</t>
   </si>
   <si>
-    <t>['8', '88']</t>
+    <t>['19', '68']</t>
   </si>
   <si>
     <t>['76']</t>
@@ -26486,7 +26486,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7492268</v>
+        <v>7492270</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26495,49 +26495,49 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45619.875</v>
+        <v>45620.35416666666</v>
       </c>
       <c r="F124">
         <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H124" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M124">
         <v>2</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="P124" t="s">
         <v>251</v>
       </c>
       <c r="Q124">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R124">
         <v>2.05</v>
       </c>
       <c r="S124">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T124">
         <v>1.44</v>
@@ -26546,10 +26546,10 @@
         <v>2.63</v>
       </c>
       <c r="V124">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W124">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X124">
         <v>10</v>
@@ -26558,13 +26558,13 @@
         <v>1.06</v>
       </c>
       <c r="Z124">
-        <v>2.69</v>
+        <v>2.53</v>
       </c>
       <c r="AA124">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB124">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AC124">
         <v>1.07</v>
@@ -26573,10 +26573,10 @@
         <v>9</v>
       </c>
       <c r="AE124">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF124">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG124">
         <v>2.1</v>
@@ -26585,106 +26585,106 @@
         <v>1.7</v>
       </c>
       <c r="AI124">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ124">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK124">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AL124">
         <v>1.3</v>
       </c>
       <c r="AM124">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AN124">
-        <v>1.25</v>
+        <v>0.57</v>
       </c>
       <c r="AO124">
+        <v>0.8</v>
+      </c>
+      <c r="AP124">
+        <v>0.63</v>
+      </c>
+      <c r="AQ124">
+        <v>0.83</v>
+      </c>
+      <c r="AR124">
+        <v>1.24</v>
+      </c>
+      <c r="AS124">
+        <v>0.88</v>
+      </c>
+      <c r="AT124">
+        <v>2.12</v>
+      </c>
+      <c r="AU124">
+        <v>-1</v>
+      </c>
+      <c r="AV124">
+        <v>-1</v>
+      </c>
+      <c r="AW124">
+        <v>-1</v>
+      </c>
+      <c r="AX124">
+        <v>-1</v>
+      </c>
+      <c r="AY124">
+        <v>-1</v>
+      </c>
+      <c r="AZ124">
+        <v>-1</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>8</v>
+      </c>
+      <c r="BC124">
+        <v>14</v>
+      </c>
+      <c r="BD124">
+        <v>1.93</v>
+      </c>
+      <c r="BE124">
+        <v>6.4</v>
+      </c>
+      <c r="BF124">
+        <v>2.05</v>
+      </c>
+      <c r="BG124">
+        <v>1.3</v>
+      </c>
+      <c r="BH124">
+        <v>3.15</v>
+      </c>
+      <c r="BI124">
+        <v>1.52</v>
+      </c>
+      <c r="BJ124">
+        <v>2.33</v>
+      </c>
+      <c r="BK124">
+        <v>1.85</v>
+      </c>
+      <c r="BL124">
         <v>1.83</v>
       </c>
-      <c r="AP124">
-        <v>1</v>
-      </c>
-      <c r="AQ124">
-        <v>2</v>
-      </c>
-      <c r="AR124">
-        <v>1.5</v>
-      </c>
-      <c r="AS124">
-        <v>1.34</v>
-      </c>
-      <c r="AT124">
-        <v>2.84</v>
-      </c>
-      <c r="AU124">
-        <v>5</v>
-      </c>
-      <c r="AV124">
-        <v>5</v>
-      </c>
-      <c r="AW124">
-        <v>5</v>
-      </c>
-      <c r="AX124">
-        <v>2</v>
-      </c>
-      <c r="AY124">
-        <v>11</v>
-      </c>
-      <c r="AZ124">
-        <v>9</v>
-      </c>
-      <c r="BA124">
-        <v>3</v>
-      </c>
-      <c r="BB124">
-        <v>4</v>
-      </c>
-      <c r="BC124">
-        <v>7</v>
-      </c>
-      <c r="BD124">
-        <v>2.18</v>
-      </c>
-      <c r="BE124">
-        <v>6.2</v>
-      </c>
-      <c r="BF124">
-        <v>2.14</v>
-      </c>
-      <c r="BG124">
-        <v>1.45</v>
-      </c>
-      <c r="BH124">
-        <v>2.41</v>
-      </c>
-      <c r="BI124">
-        <v>1.85</v>
-      </c>
-      <c r="BJ124">
-        <v>1.85</v>
-      </c>
-      <c r="BK124">
-        <v>2.38</v>
-      </c>
-      <c r="BL124">
-        <v>1.46</v>
-      </c>
       <c r="BM124">
-        <v>3.22</v>
+        <v>2.33</v>
       </c>
       <c r="BN124">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="BO124">
-        <v>4.65</v>
+        <v>3</v>
       </c>
       <c r="BP124">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26692,7 +26692,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7492270</v>
+        <v>7492268</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26701,49 +26701,49 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45619.875</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H125" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>1</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M125">
         <v>2</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O125" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="P125" t="s">
         <v>252</v>
       </c>
       <c r="Q125">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R125">
         <v>2.05</v>
       </c>
       <c r="S125">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T125">
         <v>1.44</v>
@@ -26752,10 +26752,10 @@
         <v>2.63</v>
       </c>
       <c r="V125">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W125">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X125">
         <v>10</v>
@@ -26764,13 +26764,13 @@
         <v>1.06</v>
       </c>
       <c r="Z125">
-        <v>2.53</v>
+        <v>2.69</v>
       </c>
       <c r="AA125">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB125">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AC125">
         <v>1.07</v>
@@ -26779,10 +26779,10 @@
         <v>9</v>
       </c>
       <c r="AE125">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF125">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG125">
         <v>2.1</v>
@@ -26791,106 +26791,106 @@
         <v>1.7</v>
       </c>
       <c r="AI125">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ125">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK125">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AL125">
         <v>1.3</v>
       </c>
       <c r="AM125">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AN125">
-        <v>0.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO125">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AP125">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AR125">
+        <v>1.5</v>
+      </c>
+      <c r="AS125">
+        <v>1.34</v>
+      </c>
+      <c r="AT125">
+        <v>2.84</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>6</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>11</v>
+      </c>
+      <c r="AZ125">
+        <v>9</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>7</v>
+      </c>
+      <c r="BD125">
+        <v>2.18</v>
+      </c>
+      <c r="BE125">
+        <v>6.2</v>
+      </c>
+      <c r="BF125">
+        <v>2.14</v>
+      </c>
+      <c r="BG125">
+        <v>1.45</v>
+      </c>
+      <c r="BH125">
+        <v>2.41</v>
+      </c>
+      <c r="BI125">
+        <v>1.85</v>
+      </c>
+      <c r="BJ125">
+        <v>1.85</v>
+      </c>
+      <c r="BK125">
+        <v>2.38</v>
+      </c>
+      <c r="BL125">
+        <v>1.46</v>
+      </c>
+      <c r="BM125">
+        <v>3.22</v>
+      </c>
+      <c r="BN125">
         <v>1.24</v>
       </c>
-      <c r="AS125">
-        <v>0.88</v>
-      </c>
-      <c r="AT125">
-        <v>2.12</v>
-      </c>
-      <c r="AU125">
-        <v>7</v>
-      </c>
-      <c r="AV125">
-        <v>7</v>
-      </c>
-      <c r="AW125">
-        <v>8</v>
-      </c>
-      <c r="AX125">
-        <v>8</v>
-      </c>
-      <c r="AY125">
-        <v>21</v>
-      </c>
-      <c r="AZ125">
-        <v>19</v>
-      </c>
-      <c r="BA125">
-        <v>6</v>
-      </c>
-      <c r="BB125">
-        <v>8</v>
-      </c>
-      <c r="BC125">
-        <v>14</v>
-      </c>
-      <c r="BD125">
-        <v>1.93</v>
-      </c>
-      <c r="BE125">
-        <v>6.4</v>
-      </c>
-      <c r="BF125">
-        <v>2.05</v>
-      </c>
-      <c r="BG125">
-        <v>1.3</v>
-      </c>
-      <c r="BH125">
-        <v>3.15</v>
-      </c>
-      <c r="BI125">
-        <v>1.52</v>
-      </c>
-      <c r="BJ125">
-        <v>2.33</v>
-      </c>
-      <c r="BK125">
-        <v>1.85</v>
-      </c>
-      <c r="BL125">
-        <v>1.83</v>
-      </c>
-      <c r="BM125">
-        <v>2.33</v>
-      </c>
-      <c r="BN125">
-        <v>1.52</v>
-      </c>
       <c r="BO125">
-        <v>3</v>
+        <v>4.65</v>
       </c>
       <c r="BP125">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -27525,10 +27525,10 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45620.875</v>
+        <v>45621.60416666666</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
         <v>72</v>
@@ -27657,16 +27657,16 @@
         <v>4</v>
       </c>
       <c r="AW129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX129">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AY129">
         <v>5</v>
       </c>
       <c r="AZ129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA129">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,15 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['19', '44', '69']</t>
+  </si>
+  <si>
+    <t>['21', '69', '71']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -758,9 +767,6 @@
   </si>
   <si>
     <t>['18']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['17', '22', '25', '31', '41']</t>
@@ -1137,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1402,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2014,7 +2020,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2092,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2220,7 +2226,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2298,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.71</v>
@@ -2710,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
         <v>0.57</v>
@@ -2838,7 +2844,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2919,7 +2925,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ9">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3044,7 +3050,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3456,7 +3462,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3662,7 +3668,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4074,7 +4080,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4567,7 +4573,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4898,7 +4904,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -4979,7 +4985,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5182,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5310,7 +5316,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5516,7 +5522,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5928,7 +5934,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6006,10 +6012,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6340,7 +6346,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6546,7 +6552,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6752,7 +6758,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6833,7 +6839,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR28">
         <v>1.56</v>
@@ -6958,7 +6964,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7576,7 +7582,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8066,10 +8072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -8194,7 +8200,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8606,7 +8612,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8812,7 +8818,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8890,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
         <v>1.83</v>
@@ -9018,7 +9024,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9224,7 +9230,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9430,7 +9436,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9511,7 +9517,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9636,7 +9642,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9714,10 +9720,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -9842,7 +9848,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10460,7 +10466,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10666,7 +10672,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10872,7 +10878,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11284,7 +11290,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11490,7 +11496,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11774,7 +11780,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -11902,7 +11908,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12108,7 +12114,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12314,7 +12320,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12392,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
         <v>1.86</v>
@@ -12520,7 +12526,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12807,7 +12813,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR57">
         <v>2.07</v>
@@ -12932,7 +12938,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13013,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13550,7 +13556,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14043,7 +14049,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ63">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14374,7 +14380,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14580,7 +14586,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14786,7 +14792,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15070,7 +15076,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15198,7 +15204,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15279,7 +15285,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15404,7 +15410,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15610,7 +15616,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16022,7 +16028,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16306,7 +16312,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -16640,7 +16646,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16846,7 +16852,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17052,7 +17058,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17258,7 +17264,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17336,7 +17342,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17464,7 +17470,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17670,7 +17676,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18494,7 +18500,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18575,7 +18581,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -18700,7 +18706,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18781,7 +18787,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19112,7 +19118,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19193,7 +19199,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ88">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR88">
         <v>0.85</v>
@@ -19318,7 +19324,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19524,7 +19530,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19811,7 +19817,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -19936,7 +19942,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20014,7 +20020,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ92">
         <v>1.57</v>
@@ -20142,7 +20148,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20220,7 +20226,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>1.83</v>
@@ -20348,7 +20354,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20554,7 +20560,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20760,7 +20766,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21172,7 +21178,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21378,7 +21384,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21868,7 +21874,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
         <v>0.57</v>
@@ -21996,7 +22002,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22408,7 +22414,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22614,7 +22620,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22820,7 +22826,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23107,7 +23113,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23232,7 +23238,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23644,7 +23650,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23850,7 +23856,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24056,7 +24062,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24137,7 +24143,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
         <v>1.28</v>
@@ -24262,7 +24268,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24468,7 +24474,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24546,7 +24552,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ114">
         <v>1.33</v>
@@ -24880,7 +24886,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25086,7 +25092,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25292,7 +25298,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25373,7 +25379,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ118">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR118">
         <v>1.7</v>
@@ -25498,7 +25504,7 @@
         <v>92</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -25910,7 +25916,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26194,7 +26200,7 @@
         <v>2.2</v>
       </c>
       <c r="AP122">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>2</v>
@@ -26322,7 +26328,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26528,7 +26534,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26734,7 +26740,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26940,7 +26946,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27558,7 +27564,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -27921,6 +27927,830 @@
       </c>
       <c r="BP130">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7492279</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45625.69791666666</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>75</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>136</v>
+      </c>
+      <c r="P131" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q131">
+        <v>2.63</v>
+      </c>
+      <c r="R131">
+        <v>2.2</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="T131">
+        <v>1.36</v>
+      </c>
+      <c r="U131">
+        <v>3</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>8</v>
+      </c>
+      <c r="Y131">
+        <v>1.08</v>
+      </c>
+      <c r="Z131">
+        <v>2.03</v>
+      </c>
+      <c r="AA131">
+        <v>3.25</v>
+      </c>
+      <c r="AB131">
+        <v>3.35</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>11</v>
+      </c>
+      <c r="AE131">
+        <v>1.3</v>
+      </c>
+      <c r="AF131">
+        <v>3.6</v>
+      </c>
+      <c r="AG131">
+        <v>1.66</v>
+      </c>
+      <c r="AH131">
+        <v>2</v>
+      </c>
+      <c r="AI131">
+        <v>1.7</v>
+      </c>
+      <c r="AJ131">
+        <v>2.05</v>
+      </c>
+      <c r="AK131">
+        <v>1.28</v>
+      </c>
+      <c r="AL131">
+        <v>1.26</v>
+      </c>
+      <c r="AM131">
+        <v>1.83</v>
+      </c>
+      <c r="AN131">
+        <v>0.86</v>
+      </c>
+      <c r="AO131">
+        <v>0.5</v>
+      </c>
+      <c r="AP131">
+        <v>1.13</v>
+      </c>
+      <c r="AQ131">
+        <v>0.43</v>
+      </c>
+      <c r="AR131">
+        <v>1.36</v>
+      </c>
+      <c r="AS131">
+        <v>0.83</v>
+      </c>
+      <c r="AT131">
+        <v>2.19</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>8</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>21</v>
+      </c>
+      <c r="AZ131">
+        <v>12</v>
+      </c>
+      <c r="BA131">
+        <v>7</v>
+      </c>
+      <c r="BB131">
+        <v>1</v>
+      </c>
+      <c r="BC131">
+        <v>8</v>
+      </c>
+      <c r="BD131">
+        <v>1.54</v>
+      </c>
+      <c r="BE131">
+        <v>6.75</v>
+      </c>
+      <c r="BF131">
+        <v>2.7</v>
+      </c>
+      <c r="BG131">
+        <v>1.26</v>
+      </c>
+      <c r="BH131">
+        <v>3.4</v>
+      </c>
+      <c r="BI131">
+        <v>1.47</v>
+      </c>
+      <c r="BJ131">
+        <v>2.48</v>
+      </c>
+      <c r="BK131">
+        <v>1.75</v>
+      </c>
+      <c r="BL131">
+        <v>1.95</v>
+      </c>
+      <c r="BM131">
+        <v>2.17</v>
+      </c>
+      <c r="BN131">
+        <v>1.6</v>
+      </c>
+      <c r="BO131">
+        <v>2.8</v>
+      </c>
+      <c r="BP131">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7492280</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>88</v>
+      </c>
+      <c r="H132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>179</v>
+      </c>
+      <c r="P132" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q132">
+        <v>2.63</v>
+      </c>
+      <c r="R132">
+        <v>2.05</v>
+      </c>
+      <c r="S132">
+        <v>4.5</v>
+      </c>
+      <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>10</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>2.1</v>
+      </c>
+      <c r="AA132">
+        <v>3.3</v>
+      </c>
+      <c r="AB132">
+        <v>3.6</v>
+      </c>
+      <c r="AC132">
+        <v>1.07</v>
+      </c>
+      <c r="AD132">
+        <v>9.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.38</v>
+      </c>
+      <c r="AF132">
+        <v>3.1</v>
+      </c>
+      <c r="AG132">
+        <v>1.95</v>
+      </c>
+      <c r="AH132">
+        <v>1.77</v>
+      </c>
+      <c r="AI132">
+        <v>1.95</v>
+      </c>
+      <c r="AJ132">
+        <v>1.8</v>
+      </c>
+      <c r="AK132">
+        <v>1.26</v>
+      </c>
+      <c r="AL132">
+        <v>1.28</v>
+      </c>
+      <c r="AM132">
+        <v>1.85</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
+      <c r="AQ132">
+        <v>1</v>
+      </c>
+      <c r="AR132">
+        <v>1.48</v>
+      </c>
+      <c r="AS132">
+        <v>0.83</v>
+      </c>
+      <c r="AT132">
+        <v>2.31</v>
+      </c>
+      <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>7</v>
+      </c>
+      <c r="AX132">
+        <v>6</v>
+      </c>
+      <c r="AY132">
+        <v>18</v>
+      </c>
+      <c r="AZ132">
+        <v>10</v>
+      </c>
+      <c r="BA132">
+        <v>11</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>15</v>
+      </c>
+      <c r="BD132">
+        <v>1.49</v>
+      </c>
+      <c r="BE132">
+        <v>6.75</v>
+      </c>
+      <c r="BF132">
+        <v>2.9</v>
+      </c>
+      <c r="BG132">
+        <v>1.38</v>
+      </c>
+      <c r="BH132">
+        <v>2.7</v>
+      </c>
+      <c r="BI132">
+        <v>1.65</v>
+      </c>
+      <c r="BJ132">
+        <v>2.07</v>
+      </c>
+      <c r="BK132">
+        <v>2.06</v>
+      </c>
+      <c r="BL132">
+        <v>1.66</v>
+      </c>
+      <c r="BM132">
+        <v>2.65</v>
+      </c>
+      <c r="BN132">
+        <v>1.41</v>
+      </c>
+      <c r="BO132">
+        <v>3.45</v>
+      </c>
+      <c r="BP132">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7492283</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45626.58333333334</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s">
+        <v>72</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>180</v>
+      </c>
+      <c r="P133" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q133">
+        <v>1.83</v>
+      </c>
+      <c r="R133">
+        <v>2.4</v>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>2.63</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>6.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.11</v>
+      </c>
+      <c r="Z133">
+        <v>1.34</v>
+      </c>
+      <c r="AA133">
+        <v>4.3</v>
+      </c>
+      <c r="AB133">
+        <v>6.95</v>
+      </c>
+      <c r="AC133">
+        <v>1.03</v>
+      </c>
+      <c r="AD133">
+        <v>15</v>
+      </c>
+      <c r="AE133">
+        <v>1.22</v>
+      </c>
+      <c r="AF133">
+        <v>4.33</v>
+      </c>
+      <c r="AG133">
+        <v>1.7</v>
+      </c>
+      <c r="AH133">
+        <v>2.1</v>
+      </c>
+      <c r="AI133">
+        <v>2</v>
+      </c>
+      <c r="AJ133">
+        <v>1.75</v>
+      </c>
+      <c r="AK133">
+        <v>1.05</v>
+      </c>
+      <c r="AL133">
+        <v>1.14</v>
+      </c>
+      <c r="AM133">
+        <v>3.2</v>
+      </c>
+      <c r="AN133">
+        <v>1.83</v>
+      </c>
+      <c r="AO133">
+        <v>1.5</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>1.29</v>
+      </c>
+      <c r="AR133">
+        <v>1.55</v>
+      </c>
+      <c r="AS133">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT133">
+        <v>2.49</v>
+      </c>
+      <c r="AU133">
+        <v>5</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>21</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>7</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>10</v>
+      </c>
+      <c r="BD133">
+        <v>1.22</v>
+      </c>
+      <c r="BE133">
+        <v>8.5</v>
+      </c>
+      <c r="BF133">
+        <v>4.6</v>
+      </c>
+      <c r="BG133">
+        <v>1.24</v>
+      </c>
+      <c r="BH133">
+        <v>3.55</v>
+      </c>
+      <c r="BI133">
+        <v>1.44</v>
+      </c>
+      <c r="BJ133">
+        <v>2.55</v>
+      </c>
+      <c r="BK133">
+        <v>1.71</v>
+      </c>
+      <c r="BL133">
+        <v>2</v>
+      </c>
+      <c r="BM133">
+        <v>2.08</v>
+      </c>
+      <c r="BN133">
+        <v>1.65</v>
+      </c>
+      <c r="BO133">
+        <v>2.65</v>
+      </c>
+      <c r="BP133">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7492278</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45626.69791666666</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s">
+        <v>87</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>181</v>
+      </c>
+      <c r="P134" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q134">
+        <v>2.2</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>5.5</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
+        <v>2.75</v>
+      </c>
+      <c r="V134">
+        <v>2.75</v>
+      </c>
+      <c r="W134">
+        <v>1.4</v>
+      </c>
+      <c r="X134">
+        <v>8</v>
+      </c>
+      <c r="Y134">
+        <v>1.08</v>
+      </c>
+      <c r="Z134">
+        <v>1.52</v>
+      </c>
+      <c r="AA134">
+        <v>3.62</v>
+      </c>
+      <c r="AB134">
+        <v>5.13</v>
+      </c>
+      <c r="AC134">
+        <v>1.05</v>
+      </c>
+      <c r="AD134">
+        <v>12</v>
+      </c>
+      <c r="AE134">
+        <v>1.3</v>
+      </c>
+      <c r="AF134">
+        <v>3.6</v>
+      </c>
+      <c r="AG134">
+        <v>2</v>
+      </c>
+      <c r="AH134">
+        <v>1.88</v>
+      </c>
+      <c r="AI134">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>1.16</v>
+      </c>
+      <c r="AL134">
+        <v>1.22</v>
+      </c>
+      <c r="AM134">
+        <v>2.3</v>
+      </c>
+      <c r="AN134">
+        <v>1.4</v>
+      </c>
+      <c r="AO134">
+        <v>0.29</v>
+      </c>
+      <c r="AP134">
+        <v>1.67</v>
+      </c>
+      <c r="AQ134">
+        <v>0.25</v>
+      </c>
+      <c r="AR134">
+        <v>1.52</v>
+      </c>
+      <c r="AS134">
+        <v>1.03</v>
+      </c>
+      <c r="AT134">
+        <v>2.55</v>
+      </c>
+      <c r="AU134">
+        <v>10</v>
+      </c>
+      <c r="AV134">
+        <v>2</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>2</v>
+      </c>
+      <c r="AY134">
+        <v>17</v>
+      </c>
+      <c r="AZ134">
+        <v>6</v>
+      </c>
+      <c r="BA134">
+        <v>1</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>1</v>
+      </c>
+      <c r="BD134">
+        <v>1.35</v>
+      </c>
+      <c r="BE134">
+        <v>7</v>
+      </c>
+      <c r="BF134">
+        <v>3.55</v>
+      </c>
+      <c r="BG134">
+        <v>1.34</v>
+      </c>
+      <c r="BH134">
+        <v>2.9</v>
+      </c>
+      <c r="BI134">
+        <v>1.58</v>
+      </c>
+      <c r="BJ134">
+        <v>2.18</v>
+      </c>
+      <c r="BK134">
+        <v>1.95</v>
+      </c>
+      <c r="BL134">
+        <v>1.75</v>
+      </c>
+      <c r="BM134">
+        <v>2.45</v>
+      </c>
+      <c r="BN134">
+        <v>1.48</v>
+      </c>
+      <c r="BO134">
+        <v>3.2</v>
+      </c>
+      <c r="BP134">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['21', '69', '71']</t>
   </si>
   <si>
+    <t>['6', '53', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -782,6 +788,12 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['13', '67']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1414,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1686,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -2020,7 +2032,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2226,7 +2238,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2513,7 +2525,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2844,7 +2856,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3050,7 +3062,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3128,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
         <v>1.86</v>
@@ -3462,7 +3474,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3540,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3668,7 +3680,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3746,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -4080,7 +4092,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4161,7 +4173,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ15">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4364,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
         <v>1.86</v>
@@ -4904,7 +4916,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5316,7 +5328,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5397,7 +5409,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5522,7 +5534,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5934,7 +5946,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6218,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
         <v>0.83</v>
@@ -6346,7 +6358,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6552,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6758,7 +6770,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6964,7 +6976,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7248,7 +7260,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
         <v>0.63</v>
@@ -7582,7 +7594,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7869,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -8200,7 +8212,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8484,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>0.57</v>
@@ -8612,7 +8624,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8818,7 +8830,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8899,7 +8911,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9024,7 +9036,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9230,7 +9242,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9308,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>0.71</v>
@@ -9436,7 +9448,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9642,7 +9654,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9848,7 +9860,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10135,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10341,7 +10353,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -10466,7 +10478,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10544,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10672,7 +10684,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10753,7 +10765,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -10878,7 +10890,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11290,7 +11302,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11496,7 +11508,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11908,7 +11920,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11986,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
         <v>2.33</v>
@@ -12114,7 +12126,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12195,7 +12207,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12320,7 +12332,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12526,7 +12538,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12604,10 +12616,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -12938,7 +12950,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13556,7 +13568,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13634,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>0.83</v>
@@ -14252,7 +14264,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
         <v>0.57</v>
@@ -14380,7 +14392,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14461,7 +14473,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14586,7 +14598,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14792,7 +14804,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15204,7 +15216,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15410,7 +15422,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15616,7 +15628,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16028,7 +16040,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16521,7 +16533,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16646,7 +16658,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16727,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -16852,7 +16864,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -16930,7 +16942,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17058,7 +17070,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17264,7 +17276,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17470,7 +17482,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17676,7 +17688,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17960,7 +17972,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
         <v>0.83</v>
@@ -18166,7 +18178,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ83">
         <v>0.63</v>
@@ -18500,7 +18512,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18706,7 +18718,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18784,7 +18796,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>1.29</v>
@@ -18993,7 +19005,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ87">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19118,7 +19130,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19324,7 +19336,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19405,7 +19417,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19530,7 +19542,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19814,7 +19826,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ91">
         <v>0.43</v>
@@ -19942,7 +19954,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20148,7 +20160,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20229,7 +20241,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20354,7 +20366,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20560,7 +20572,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20766,7 +20778,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21178,7 +21190,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21384,7 +21396,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21465,7 +21477,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.62</v>
@@ -22002,7 +22014,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22080,10 +22092,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22414,7 +22426,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22620,7 +22632,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22698,7 +22710,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ105">
         <v>2</v>
@@ -22826,7 +22838,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23238,7 +23250,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23316,10 +23328,10 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>1.36</v>
@@ -23650,7 +23662,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23856,7 +23868,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24062,7 +24074,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24140,7 +24152,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ112">
         <v>1.29</v>
@@ -24268,7 +24280,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24474,7 +24486,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24886,7 +24898,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25092,7 +25104,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25298,7 +25310,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25585,7 +25597,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ119">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR119">
         <v>0.96</v>
@@ -25791,7 +25803,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -25916,7 +25928,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26203,7 +26215,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26328,7 +26340,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26406,7 +26418,7 @@
         <v>1.67</v>
       </c>
       <c r="AP123">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>1.86</v>
@@ -26534,7 +26546,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26740,7 +26752,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26946,7 +26958,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27024,7 +27036,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27564,7 +27576,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28149,7 +28161,7 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45626.45833333334</v>
+        <v>45625.875</v>
       </c>
       <c r="F132">
         <v>14</v>
@@ -28751,6 +28763,830 @@
       </c>
       <c r="BP134">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7492287</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45627.35416666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>92</v>
+      </c>
+      <c r="P135" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q135">
+        <v>2.75</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>4.5</v>
+      </c>
+      <c r="T135">
+        <v>1.5</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.4</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>10</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>1.84</v>
+      </c>
+      <c r="AA135">
+        <v>3.41</v>
+      </c>
+      <c r="AB135">
+        <v>4.38</v>
+      </c>
+      <c r="AC135">
+        <v>1.08</v>
+      </c>
+      <c r="AD135">
+        <v>9</v>
+      </c>
+      <c r="AE135">
+        <v>1.4</v>
+      </c>
+      <c r="AF135">
+        <v>3</v>
+      </c>
+      <c r="AG135">
+        <v>1.95</v>
+      </c>
+      <c r="AH135">
+        <v>1.8</v>
+      </c>
+      <c r="AI135">
+        <v>1.95</v>
+      </c>
+      <c r="AJ135">
+        <v>1.8</v>
+      </c>
+      <c r="AK135">
+        <v>1.26</v>
+      </c>
+      <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
+        <v>1.83</v>
+      </c>
+      <c r="AN135">
+        <v>2</v>
+      </c>
+      <c r="AO135">
+        <v>1.2</v>
+      </c>
+      <c r="AP135">
+        <v>1.71</v>
+      </c>
+      <c r="AQ135">
+        <v>1.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.11</v>
+      </c>
+      <c r="AS135">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT135">
+        <v>2.05</v>
+      </c>
+      <c r="AU135">
+        <v>3</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>0</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>5</v>
+      </c>
+      <c r="AZ135">
+        <v>15</v>
+      </c>
+      <c r="BA135">
+        <v>6</v>
+      </c>
+      <c r="BB135">
+        <v>4</v>
+      </c>
+      <c r="BC135">
+        <v>10</v>
+      </c>
+      <c r="BD135">
+        <v>1.64</v>
+      </c>
+      <c r="BE135">
+        <v>6.5</v>
+      </c>
+      <c r="BF135">
+        <v>2.55</v>
+      </c>
+      <c r="BG135">
+        <v>1.3</v>
+      </c>
+      <c r="BH135">
+        <v>3.15</v>
+      </c>
+      <c r="BI135">
+        <v>1.52</v>
+      </c>
+      <c r="BJ135">
+        <v>2.33</v>
+      </c>
+      <c r="BK135">
+        <v>1.84</v>
+      </c>
+      <c r="BL135">
+        <v>1.84</v>
+      </c>
+      <c r="BM135">
+        <v>2.32</v>
+      </c>
+      <c r="BN135">
+        <v>1.53</v>
+      </c>
+      <c r="BO135">
+        <v>2.95</v>
+      </c>
+      <c r="BP135">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7492284</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>77</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>182</v>
+      </c>
+      <c r="P136" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q136">
+        <v>4</v>
+      </c>
+      <c r="R136">
+        <v>2.3</v>
+      </c>
+      <c r="S136">
+        <v>2.4</v>
+      </c>
+      <c r="T136">
+        <v>1.3</v>
+      </c>
+      <c r="U136">
+        <v>3.4</v>
+      </c>
+      <c r="V136">
+        <v>2.5</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>6</v>
+      </c>
+      <c r="Y136">
+        <v>1.13</v>
+      </c>
+      <c r="Z136">
+        <v>3.66</v>
+      </c>
+      <c r="AA136">
+        <v>3.66</v>
+      </c>
+      <c r="AB136">
+        <v>1.93</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>16.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.15</v>
+      </c>
+      <c r="AF136">
+        <v>4.25</v>
+      </c>
+      <c r="AG136">
+        <v>1.55</v>
+      </c>
+      <c r="AH136">
+        <v>2.3</v>
+      </c>
+      <c r="AI136">
+        <v>1.62</v>
+      </c>
+      <c r="AJ136">
+        <v>2.2</v>
+      </c>
+      <c r="AK136">
+        <v>1.98</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>1.26</v>
+      </c>
+      <c r="AN136">
+        <v>0.71</v>
+      </c>
+      <c r="AO136">
+        <v>1.5</v>
+      </c>
+      <c r="AP136">
+        <v>1</v>
+      </c>
+      <c r="AQ136">
+        <v>1.29</v>
+      </c>
+      <c r="AR136">
+        <v>1.24</v>
+      </c>
+      <c r="AS136">
+        <v>1.51</v>
+      </c>
+      <c r="AT136">
+        <v>2.75</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>9</v>
+      </c>
+      <c r="AW136">
+        <v>6</v>
+      </c>
+      <c r="AX136">
+        <v>9</v>
+      </c>
+      <c r="AY136">
+        <v>13</v>
+      </c>
+      <c r="AZ136">
+        <v>24</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>10</v>
+      </c>
+      <c r="BC136">
+        <v>14</v>
+      </c>
+      <c r="BD136">
+        <v>2.33</v>
+      </c>
+      <c r="BE136">
+        <v>6.75</v>
+      </c>
+      <c r="BF136">
+        <v>1.72</v>
+      </c>
+      <c r="BG136">
+        <v>1.26</v>
+      </c>
+      <c r="BH136">
+        <v>3.4</v>
+      </c>
+      <c r="BI136">
+        <v>1.47</v>
+      </c>
+      <c r="BJ136">
+        <v>2.48</v>
+      </c>
+      <c r="BK136">
+        <v>1.75</v>
+      </c>
+      <c r="BL136">
+        <v>1.95</v>
+      </c>
+      <c r="BM136">
+        <v>2.18</v>
+      </c>
+      <c r="BN136">
+        <v>1.58</v>
+      </c>
+      <c r="BO136">
+        <v>2.8</v>
+      </c>
+      <c r="BP136">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7492286</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" t="s">
+        <v>85</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>92</v>
+      </c>
+      <c r="P137" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>2.5</v>
+      </c>
+      <c r="T137">
+        <v>1.5</v>
+      </c>
+      <c r="U137">
+        <v>2.5</v>
+      </c>
+      <c r="V137">
+        <v>3.5</v>
+      </c>
+      <c r="W137">
+        <v>1.29</v>
+      </c>
+      <c r="X137">
+        <v>11</v>
+      </c>
+      <c r="Y137">
+        <v>1.05</v>
+      </c>
+      <c r="Z137">
+        <v>4.09</v>
+      </c>
+      <c r="AA137">
+        <v>3.42</v>
+      </c>
+      <c r="AB137">
+        <v>1.9</v>
+      </c>
+      <c r="AC137">
+        <v>1.02</v>
+      </c>
+      <c r="AD137">
+        <v>7.1</v>
+      </c>
+      <c r="AE137">
+        <v>1.39</v>
+      </c>
+      <c r="AF137">
+        <v>2.62</v>
+      </c>
+      <c r="AG137">
+        <v>2.05</v>
+      </c>
+      <c r="AH137">
+        <v>1.73</v>
+      </c>
+      <c r="AI137">
+        <v>2.05</v>
+      </c>
+      <c r="AJ137">
+        <v>1.7</v>
+      </c>
+      <c r="AK137">
+        <v>2</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.2</v>
+      </c>
+      <c r="AN137">
+        <v>1.33</v>
+      </c>
+      <c r="AO137">
+        <v>1.83</v>
+      </c>
+      <c r="AP137">
+        <v>1.14</v>
+      </c>
+      <c r="AQ137">
+        <v>2</v>
+      </c>
+      <c r="AR137">
+        <v>1.14</v>
+      </c>
+      <c r="AS137">
+        <v>1.02</v>
+      </c>
+      <c r="AT137">
+        <v>2.16</v>
+      </c>
+      <c r="AU137">
+        <v>2</v>
+      </c>
+      <c r="AV137">
+        <v>7</v>
+      </c>
+      <c r="AW137">
+        <v>2</v>
+      </c>
+      <c r="AX137">
+        <v>6</v>
+      </c>
+      <c r="AY137">
+        <v>6</v>
+      </c>
+      <c r="AZ137">
+        <v>17</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>7</v>
+      </c>
+      <c r="BC137">
+        <v>11</v>
+      </c>
+      <c r="BD137">
+        <v>2.48</v>
+      </c>
+      <c r="BE137">
+        <v>6.4</v>
+      </c>
+      <c r="BF137">
+        <v>1.67</v>
+      </c>
+      <c r="BG137">
+        <v>1.44</v>
+      </c>
+      <c r="BH137">
+        <v>2.55</v>
+      </c>
+      <c r="BI137">
+        <v>1.73</v>
+      </c>
+      <c r="BJ137">
+        <v>1.96</v>
+      </c>
+      <c r="BK137">
+        <v>2.18</v>
+      </c>
+      <c r="BL137">
+        <v>1.58</v>
+      </c>
+      <c r="BM137">
+        <v>2.8</v>
+      </c>
+      <c r="BN137">
+        <v>1.36</v>
+      </c>
+      <c r="BO137">
+        <v>3.8</v>
+      </c>
+      <c r="BP137">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7492282</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45627.69791666666</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s">
+        <v>79</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>183</v>
+      </c>
+      <c r="P138" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q138">
+        <v>6</v>
+      </c>
+      <c r="R138">
+        <v>2.05</v>
+      </c>
+      <c r="S138">
+        <v>2.38</v>
+      </c>
+      <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.4</v>
+      </c>
+      <c r="W138">
+        <v>1.3</v>
+      </c>
+      <c r="X138">
+        <v>10</v>
+      </c>
+      <c r="Y138">
+        <v>1.06</v>
+      </c>
+      <c r="Z138">
+        <v>5</v>
+      </c>
+      <c r="AA138">
+        <v>3.5</v>
+      </c>
+      <c r="AB138">
+        <v>1.73</v>
+      </c>
+      <c r="AC138">
+        <v>1.08</v>
+      </c>
+      <c r="AD138">
+        <v>8.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.42</v>
+      </c>
+      <c r="AF138">
+        <v>2.9</v>
+      </c>
+      <c r="AG138">
+        <v>2.15</v>
+      </c>
+      <c r="AH138">
+        <v>1.65</v>
+      </c>
+      <c r="AI138">
+        <v>2.1</v>
+      </c>
+      <c r="AJ138">
+        <v>1.67</v>
+      </c>
+      <c r="AK138">
+        <v>2.15</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>1.16</v>
+      </c>
+      <c r="AN138">
+        <v>1.33</v>
+      </c>
+      <c r="AO138">
+        <v>2</v>
+      </c>
+      <c r="AP138">
+        <v>1.29</v>
+      </c>
+      <c r="AQ138">
+        <v>1.86</v>
+      </c>
+      <c r="AR138">
+        <v>1.39</v>
+      </c>
+      <c r="AS138">
+        <v>1.17</v>
+      </c>
+      <c r="AT138">
+        <v>2.56</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>2</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>11</v>
+      </c>
+      <c r="AZ138">
+        <v>15</v>
+      </c>
+      <c r="BA138">
+        <v>2</v>
+      </c>
+      <c r="BB138">
+        <v>7</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>2.65</v>
+      </c>
+      <c r="BE138">
+        <v>6.5</v>
+      </c>
+      <c r="BF138">
+        <v>1.57</v>
+      </c>
+      <c r="BG138">
+        <v>1.33</v>
+      </c>
+      <c r="BH138">
+        <v>2.95</v>
+      </c>
+      <c r="BI138">
+        <v>1.58</v>
+      </c>
+      <c r="BJ138">
+        <v>2.2</v>
+      </c>
+      <c r="BK138">
+        <v>1.95</v>
+      </c>
+      <c r="BL138">
+        <v>1.75</v>
+      </c>
+      <c r="BM138">
+        <v>2.48</v>
+      </c>
+      <c r="BN138">
+        <v>1.47</v>
+      </c>
+      <c r="BO138">
+        <v>3.25</v>
+      </c>
+      <c r="BP138">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -795,6 +795,9 @@
   <si>
     <t>['31']</t>
   </si>
+  <si>
+    <t>['69', '89']</t>
+  </si>
 </sst>
 </file>
 
@@ -1155,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3143,7 +3146,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4379,7 +4382,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4994,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>1.29</v>
@@ -5821,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -11174,7 +11177,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ49">
         <v>0.71</v>
@@ -12413,7 +12416,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12822,7 +12825,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
         <v>0.25</v>
@@ -17151,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17560,7 +17563,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>2.33</v>
@@ -21680,7 +21683,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -22507,7 +22510,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ104">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -25182,7 +25185,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>1.57</v>
@@ -26421,7 +26424,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -28161,7 +28164,7 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45625.875</v>
+        <v>45626.45833333334</v>
       </c>
       <c r="F132">
         <v>14</v>
@@ -29587,6 +29590,212 @@
       </c>
       <c r="BP138">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7492285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45628.69791666666</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>86</v>
+      </c>
+      <c r="H139" t="s">
+        <v>89</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>92</v>
+      </c>
+      <c r="P139" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q139">
+        <v>3.6</v>
+      </c>
+      <c r="R139">
+        <v>2.2</v>
+      </c>
+      <c r="S139">
+        <v>2.88</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>3</v>
+      </c>
+      <c r="V139">
+        <v>2.75</v>
+      </c>
+      <c r="W139">
+        <v>1.4</v>
+      </c>
+      <c r="X139">
+        <v>7</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>2.9</v>
+      </c>
+      <c r="AA139">
+        <v>3.25</v>
+      </c>
+      <c r="AB139">
+        <v>2.4</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>13</v>
+      </c>
+      <c r="AE139">
+        <v>1.28</v>
+      </c>
+      <c r="AF139">
+        <v>3.75</v>
+      </c>
+      <c r="AG139">
+        <v>1.88</v>
+      </c>
+      <c r="AH139">
+        <v>1.88</v>
+      </c>
+      <c r="AI139">
+        <v>1.67</v>
+      </c>
+      <c r="AJ139">
+        <v>2.1</v>
+      </c>
+      <c r="AK139">
+        <v>1.65</v>
+      </c>
+      <c r="AL139">
+        <v>1.26</v>
+      </c>
+      <c r="AM139">
+        <v>1.4</v>
+      </c>
+      <c r="AN139">
+        <v>1.5</v>
+      </c>
+      <c r="AO139">
+        <v>1.86</v>
+      </c>
+      <c r="AP139">
+        <v>1.29</v>
+      </c>
+      <c r="AQ139">
+        <v>2</v>
+      </c>
+      <c r="AR139">
+        <v>1.59</v>
+      </c>
+      <c r="AS139">
+        <v>1.72</v>
+      </c>
+      <c r="AT139">
+        <v>3.31</v>
+      </c>
+      <c r="AU139">
+        <v>3</v>
+      </c>
+      <c r="AV139">
+        <v>8</v>
+      </c>
+      <c r="AW139">
+        <v>4</v>
+      </c>
+      <c r="AX139">
+        <v>9</v>
+      </c>
+      <c r="AY139">
+        <v>7</v>
+      </c>
+      <c r="AZ139">
+        <v>19</v>
+      </c>
+      <c r="BA139">
+        <v>2</v>
+      </c>
+      <c r="BB139">
+        <v>4</v>
+      </c>
+      <c r="BC139">
+        <v>6</v>
+      </c>
+      <c r="BD139">
+        <v>2.32</v>
+      </c>
+      <c r="BE139">
+        <v>6.3</v>
+      </c>
+      <c r="BF139">
+        <v>2.01</v>
+      </c>
+      <c r="BG139">
+        <v>1.41</v>
+      </c>
+      <c r="BH139">
+        <v>2.52</v>
+      </c>
+      <c r="BI139">
+        <v>1.78</v>
+      </c>
+      <c r="BJ139">
+        <v>1.93</v>
+      </c>
+      <c r="BK139">
+        <v>2.26</v>
+      </c>
+      <c r="BL139">
+        <v>1.51</v>
+      </c>
+      <c r="BM139">
+        <v>3.02</v>
+      </c>
+      <c r="BN139">
+        <v>1.27</v>
+      </c>
+      <c r="BO139">
+        <v>4.33</v>
+      </c>
+      <c r="BP139">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['40', '53', '66']</t>
+  </si>
+  <si>
+    <t>['12', '87']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -1158,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2035,7 +2041,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2241,7 +2247,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2859,7 +2865,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3065,7 +3071,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3477,7 +3483,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3683,7 +3689,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3764,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -3967,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
         <v>0.57</v>
@@ -4095,7 +4101,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4919,7 +4925,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5331,7 +5337,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5537,7 +5543,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5821,7 +5827,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5949,7 +5955,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6361,7 +6367,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6442,7 +6448,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6567,7 +6573,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6648,7 +6654,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6773,7 +6779,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6979,7 +6985,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7597,7 +7603,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8215,7 +8221,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8627,7 +8633,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8705,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8833,7 +8839,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9039,7 +9045,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9245,7 +9251,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9451,7 +9457,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9657,7 +9663,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9863,7 +9869,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10481,7 +10487,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10562,7 +10568,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -10687,7 +10693,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10893,7 +10899,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11305,7 +11311,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11383,10 +11389,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11511,7 +11517,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11589,7 +11595,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ51">
         <v>0.63</v>
@@ -11923,7 +11929,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12129,7 +12135,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12335,7 +12341,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12541,7 +12547,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12953,7 +12959,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13571,7 +13577,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14395,7 +14401,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14473,7 +14479,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14601,7 +14607,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14679,7 +14685,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14807,7 +14813,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15094,7 +15100,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.35</v>
@@ -15219,7 +15225,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15425,7 +15431,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15631,7 +15637,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15712,7 +15718,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -15918,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -16043,7 +16049,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16661,7 +16667,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16867,7 +16873,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17073,7 +17079,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17279,7 +17285,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17485,7 +17491,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17691,7 +17697,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18515,7 +18521,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18593,7 +18599,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ85">
         <v>0.43</v>
@@ -18721,7 +18727,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19133,7 +19139,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19339,7 +19345,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19417,7 +19423,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
         <v>1.86</v>
@@ -19545,7 +19551,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19957,7 +19963,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20163,7 +20169,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20369,7 +20375,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20575,7 +20581,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20781,7 +20787,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20862,7 +20868,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.25</v>
@@ -21065,7 +21071,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21193,7 +21199,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21399,7 +21405,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22017,7 +22023,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22304,7 +22310,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR103">
         <v>0.9399999999999999</v>
@@ -22429,7 +22435,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22635,7 +22641,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22841,7 +22847,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23125,7 +23131,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ107">
         <v>0.25</v>
@@ -23253,7 +23259,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23665,7 +23671,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23871,7 +23877,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24077,7 +24083,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24283,7 +24289,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24364,7 +24370,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24489,7 +24495,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24570,7 +24576,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ114">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR114">
         <v>1.3</v>
@@ -24901,7 +24907,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -24979,7 +24985,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ116">
         <v>0.71</v>
@@ -25107,7 +25113,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25313,7 +25319,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25803,7 +25809,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ120">
         <v>2</v>
@@ -25931,7 +25937,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26343,7 +26349,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26549,7 +26555,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26755,7 +26761,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26961,7 +26967,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27579,7 +27585,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28815,7 +28821,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29227,7 +29233,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29433,7 +29439,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29639,7 +29645,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29796,6 +29802,418 @@
       </c>
       <c r="BP139">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7492292</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45632.60416666666</v>
+      </c>
+      <c r="F140">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>81</v>
+      </c>
+      <c r="H140" t="s">
+        <v>71</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>184</v>
+      </c>
+      <c r="P140" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q140">
+        <v>1.53</v>
+      </c>
+      <c r="R140">
+        <v>3.1</v>
+      </c>
+      <c r="S140">
+        <v>9.5</v>
+      </c>
+      <c r="T140">
+        <v>1.2</v>
+      </c>
+      <c r="U140">
+        <v>4.33</v>
+      </c>
+      <c r="V140">
+        <v>1.91</v>
+      </c>
+      <c r="W140">
+        <v>1.8</v>
+      </c>
+      <c r="X140">
+        <v>4</v>
+      </c>
+      <c r="Y140">
+        <v>1.22</v>
+      </c>
+      <c r="Z140">
+        <v>1.2</v>
+      </c>
+      <c r="AA140">
+        <v>7.2</v>
+      </c>
+      <c r="AB140">
+        <v>12</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>29</v>
+      </c>
+      <c r="AE140">
+        <v>1.1</v>
+      </c>
+      <c r="AF140">
+        <v>7</v>
+      </c>
+      <c r="AG140">
+        <v>1.36</v>
+      </c>
+      <c r="AH140">
+        <v>3.1</v>
+      </c>
+      <c r="AI140">
+        <v>1.91</v>
+      </c>
+      <c r="AJ140">
+        <v>1.91</v>
+      </c>
+      <c r="AK140">
+        <v>1.04</v>
+      </c>
+      <c r="AL140">
+        <v>1.07</v>
+      </c>
+      <c r="AM140">
+        <v>5</v>
+      </c>
+      <c r="AN140">
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <v>1.17</v>
+      </c>
+      <c r="AP140">
+        <v>2.13</v>
+      </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
+      <c r="AR140">
+        <v>1.57</v>
+      </c>
+      <c r="AS140">
+        <v>1.31</v>
+      </c>
+      <c r="AT140">
+        <v>2.88</v>
+      </c>
+      <c r="AU140">
+        <v>6</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>19</v>
+      </c>
+      <c r="AZ140">
+        <v>5</v>
+      </c>
+      <c r="BA140">
+        <v>10</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>11</v>
+      </c>
+      <c r="BD140">
+        <v>1.15</v>
+      </c>
+      <c r="BE140">
+        <v>9.5</v>
+      </c>
+      <c r="BF140">
+        <v>5.6</v>
+      </c>
+      <c r="BG140">
+        <v>1.25</v>
+      </c>
+      <c r="BH140">
+        <v>3.45</v>
+      </c>
+      <c r="BI140">
+        <v>1.44</v>
+      </c>
+      <c r="BJ140">
+        <v>2.55</v>
+      </c>
+      <c r="BK140">
+        <v>1.72</v>
+      </c>
+      <c r="BL140">
+        <v>1.98</v>
+      </c>
+      <c r="BM140">
+        <v>2.1</v>
+      </c>
+      <c r="BN140">
+        <v>1.64</v>
+      </c>
+      <c r="BO140">
+        <v>2.65</v>
+      </c>
+      <c r="BP140">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7492288</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45632.69791666666</v>
+      </c>
+      <c r="F141">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>89</v>
+      </c>
+      <c r="H141" t="s">
+        <v>73</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>185</v>
+      </c>
+      <c r="P141" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q141">
+        <v>2.6</v>
+      </c>
+      <c r="R141">
+        <v>2.3</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.33</v>
+      </c>
+      <c r="U141">
+        <v>3.25</v>
+      </c>
+      <c r="V141">
+        <v>2.5</v>
+      </c>
+      <c r="W141">
+        <v>1.5</v>
+      </c>
+      <c r="X141">
+        <v>6.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.11</v>
+      </c>
+      <c r="Z141">
+        <v>2.21</v>
+      </c>
+      <c r="AA141">
+        <v>3.6</v>
+      </c>
+      <c r="AB141">
+        <v>3.1</v>
+      </c>
+      <c r="AC141">
+        <v>1.03</v>
+      </c>
+      <c r="AD141">
+        <v>15</v>
+      </c>
+      <c r="AE141">
+        <v>1.22</v>
+      </c>
+      <c r="AF141">
+        <v>4.33</v>
+      </c>
+      <c r="AG141">
+        <v>1.7</v>
+      </c>
+      <c r="AH141">
+        <v>2.16</v>
+      </c>
+      <c r="AI141">
+        <v>1.57</v>
+      </c>
+      <c r="AJ141">
+        <v>2.25</v>
+      </c>
+      <c r="AK141">
+        <v>1.3</v>
+      </c>
+      <c r="AL141">
+        <v>1.24</v>
+      </c>
+      <c r="AM141">
+        <v>1.83</v>
+      </c>
+      <c r="AN141">
+        <v>2.5</v>
+      </c>
+      <c r="AO141">
+        <v>1.33</v>
+      </c>
+      <c r="AP141">
+        <v>2.57</v>
+      </c>
+      <c r="AQ141">
+        <v>1.14</v>
+      </c>
+      <c r="AR141">
+        <v>1.73</v>
+      </c>
+      <c r="AS141">
+        <v>1.6</v>
+      </c>
+      <c r="AT141">
+        <v>3.33</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>18</v>
+      </c>
+      <c r="AZ141">
+        <v>7</v>
+      </c>
+      <c r="BA141">
+        <v>7</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>7</v>
+      </c>
+      <c r="BD141">
+        <v>1.7</v>
+      </c>
+      <c r="BE141">
+        <v>6.25</v>
+      </c>
+      <c r="BF141">
+        <v>2.4</v>
+      </c>
+      <c r="BG141">
+        <v>1.4</v>
+      </c>
+      <c r="BH141">
+        <v>2.7</v>
+      </c>
+      <c r="BI141">
+        <v>1.67</v>
+      </c>
+      <c r="BJ141">
+        <v>2.05</v>
+      </c>
+      <c r="BK141">
+        <v>2.08</v>
+      </c>
+      <c r="BL141">
+        <v>1.65</v>
+      </c>
+      <c r="BM141">
+        <v>2.65</v>
+      </c>
+      <c r="BN141">
+        <v>1.41</v>
+      </c>
+      <c r="BO141">
+        <v>3.55</v>
+      </c>
+      <c r="BP141">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['12', '87']</t>
   </si>
   <si>
+    <t>['62', '90+2']</t>
+  </si>
+  <si>
+    <t>['13', '59', '66', '86']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -803,6 +809,12 @@
   </si>
   <si>
     <t>['69', '89']</t>
+  </si>
+  <si>
+    <t>['30', '52']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1435,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1501,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2">
         <v>2.33</v>
@@ -2041,7 +2053,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2247,7 +2259,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2865,7 +2877,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3071,7 +3083,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3355,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>0.63</v>
@@ -3483,7 +3495,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3689,7 +3701,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3976,7 +3988,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4101,7 +4113,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4800,7 +4812,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ18">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4925,7 +4937,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5003,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.29</v>
@@ -5337,7 +5349,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5543,7 +5555,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5955,7 +5967,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6367,7 +6379,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6573,7 +6585,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6779,7 +6791,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6857,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>0.43</v>
@@ -6985,7 +6997,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7475,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>0.57</v>
@@ -7603,7 +7615,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7684,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8221,7 +8233,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8299,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ35">
         <v>0.57</v>
@@ -8508,7 +8520,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ36">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.46</v>
@@ -8633,7 +8645,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8839,7 +8851,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9045,7 +9057,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9251,7 +9263,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9457,7 +9469,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9663,7 +9675,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9869,7 +9881,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10359,7 +10371,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10487,7 +10499,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10693,7 +10705,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10899,7 +10911,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10980,7 +10992,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11183,7 +11195,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0.71</v>
@@ -11311,7 +11323,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11517,7 +11529,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11804,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.92</v>
@@ -11929,7 +11941,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12135,7 +12147,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12213,7 +12225,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
         <v>1.86</v>
@@ -12341,7 +12353,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12547,7 +12559,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12831,7 +12843,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.25</v>
@@ -12959,7 +12971,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13577,7 +13589,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14276,7 +14288,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14401,7 +14413,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14607,7 +14619,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14813,7 +14825,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14891,7 +14903,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
         <v>0.83</v>
@@ -15225,7 +15237,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15431,7 +15443,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15637,7 +15649,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16049,7 +16061,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16127,10 +16139,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -16539,7 +16551,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75">
         <v>1.29</v>
@@ -16667,7 +16679,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16873,7 +16885,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17079,7 +17091,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17285,7 +17297,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17491,7 +17503,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17569,7 +17581,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>2.33</v>
@@ -17697,7 +17709,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18396,7 +18408,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18521,7 +18533,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18727,7 +18739,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19139,7 +19151,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19345,7 +19357,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19551,7 +19563,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19963,7 +19975,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20044,7 +20056,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20169,7 +20181,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20375,7 +20387,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20581,7 +20593,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20787,7 +20799,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20865,7 +20877,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21199,7 +21211,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21277,7 +21289,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ98">
         <v>2</v>
@@ -21405,7 +21417,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21689,7 +21701,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21898,7 +21910,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22023,7 +22035,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22435,7 +22447,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22641,7 +22653,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22847,7 +22859,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23259,7 +23271,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23671,7 +23683,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23877,7 +23889,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -23955,7 +23967,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ111">
         <v>0.63</v>
@@ -24083,7 +24095,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24289,7 +24301,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24495,7 +24507,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24779,7 +24791,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -24907,7 +24919,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25113,7 +25125,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25191,10 +25203,10 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.63</v>
@@ -25319,7 +25331,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25937,7 +25949,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26349,7 +26361,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26555,7 +26567,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26633,7 +26645,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ124">
         <v>0.83</v>
@@ -26761,7 +26773,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26967,7 +26979,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27460,7 +27472,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ128">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -27585,7 +27597,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -27872,7 +27884,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR130">
         <v>1.48</v>
@@ -28821,7 +28833,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29233,7 +29245,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29439,7 +29451,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29645,7 +29657,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29723,7 +29735,7 @@
         <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>2</v>
@@ -30214,6 +30226,624 @@
       </c>
       <c r="BP141">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7492290</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>70</v>
+      </c>
+      <c r="H142" t="s">
+        <v>83</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>92</v>
+      </c>
+      <c r="P142" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q142">
+        <v>3.25</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>3.75</v>
+      </c>
+      <c r="T142">
+        <v>1.53</v>
+      </c>
+      <c r="U142">
+        <v>2.38</v>
+      </c>
+      <c r="V142">
+        <v>3.75</v>
+      </c>
+      <c r="W142">
+        <v>1.25</v>
+      </c>
+      <c r="X142">
+        <v>11</v>
+      </c>
+      <c r="Y142">
+        <v>1.05</v>
+      </c>
+      <c r="Z142">
+        <v>2.7</v>
+      </c>
+      <c r="AA142">
+        <v>3</v>
+      </c>
+      <c r="AB142">
+        <v>2.7</v>
+      </c>
+      <c r="AC142">
+        <v>1.1</v>
+      </c>
+      <c r="AD142">
+        <v>7.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.48</v>
+      </c>
+      <c r="AF142">
+        <v>2.7</v>
+      </c>
+      <c r="AG142">
+        <v>2.45</v>
+      </c>
+      <c r="AH142">
+        <v>1.48</v>
+      </c>
+      <c r="AI142">
+        <v>2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.75</v>
+      </c>
+      <c r="AK142">
+        <v>1.4</v>
+      </c>
+      <c r="AL142">
+        <v>1.32</v>
+      </c>
+      <c r="AM142">
+        <v>1.55</v>
+      </c>
+      <c r="AN142">
+        <v>0.63</v>
+      </c>
+      <c r="AO142">
+        <v>1</v>
+      </c>
+      <c r="AP142">
+        <v>0.67</v>
+      </c>
+      <c r="AQ142">
+        <v>1</v>
+      </c>
+      <c r="AR142">
+        <v>1.24</v>
+      </c>
+      <c r="AS142">
+        <v>1.03</v>
+      </c>
+      <c r="AT142">
+        <v>2.27</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>4</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>4</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>12</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.86</v>
+      </c>
+      <c r="BE142">
+        <v>6.25</v>
+      </c>
+      <c r="BF142">
+        <v>2.15</v>
+      </c>
+      <c r="BG142">
+        <v>1.41</v>
+      </c>
+      <c r="BH142">
+        <v>2.65</v>
+      </c>
+      <c r="BI142">
+        <v>1.7</v>
+      </c>
+      <c r="BJ142">
+        <v>2</v>
+      </c>
+      <c r="BK142">
+        <v>2.14</v>
+      </c>
+      <c r="BL142">
+        <v>1.62</v>
+      </c>
+      <c r="BM142">
+        <v>2.7</v>
+      </c>
+      <c r="BN142">
+        <v>1.38</v>
+      </c>
+      <c r="BO142">
+        <v>3.65</v>
+      </c>
+      <c r="BP142">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7492293</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45633.58333333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>186</v>
+      </c>
+      <c r="P143" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q143">
+        <v>2.4</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>5.5</v>
+      </c>
+      <c r="T143">
+        <v>1.5</v>
+      </c>
+      <c r="U143">
+        <v>2.5</v>
+      </c>
+      <c r="V143">
+        <v>3.4</v>
+      </c>
+      <c r="W143">
+        <v>1.3</v>
+      </c>
+      <c r="X143">
+        <v>10</v>
+      </c>
+      <c r="Y143">
+        <v>1.06</v>
+      </c>
+      <c r="Z143">
+        <v>1.77</v>
+      </c>
+      <c r="AA143">
+        <v>3.69</v>
+      </c>
+      <c r="AB143">
+        <v>5.3</v>
+      </c>
+      <c r="AC143">
+        <v>1.08</v>
+      </c>
+      <c r="AD143">
+        <v>8.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.42</v>
+      </c>
+      <c r="AF143">
+        <v>2.9</v>
+      </c>
+      <c r="AG143">
+        <v>2.3</v>
+      </c>
+      <c r="AH143">
+        <v>1.54</v>
+      </c>
+      <c r="AI143">
+        <v>2.1</v>
+      </c>
+      <c r="AJ143">
+        <v>1.67</v>
+      </c>
+      <c r="AK143">
+        <v>1.16</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>2.15</v>
+      </c>
+      <c r="AN143">
+        <v>1.86</v>
+      </c>
+      <c r="AO143">
+        <v>1.57</v>
+      </c>
+      <c r="AP143">
+        <v>1.75</v>
+      </c>
+      <c r="AQ143">
+        <v>1.5</v>
+      </c>
+      <c r="AR143">
+        <v>1.35</v>
+      </c>
+      <c r="AS143">
+        <v>1.17</v>
+      </c>
+      <c r="AT143">
+        <v>2.52</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>11</v>
+      </c>
+      <c r="AZ143">
+        <v>11</v>
+      </c>
+      <c r="BA143">
+        <v>1</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>5</v>
+      </c>
+      <c r="BD143">
+        <v>1.42</v>
+      </c>
+      <c r="BE143">
+        <v>7</v>
+      </c>
+      <c r="BF143">
+        <v>3.15</v>
+      </c>
+      <c r="BG143">
+        <v>1.33</v>
+      </c>
+      <c r="BH143">
+        <v>2.95</v>
+      </c>
+      <c r="BI143">
+        <v>1.56</v>
+      </c>
+      <c r="BJ143">
+        <v>2.23</v>
+      </c>
+      <c r="BK143">
+        <v>1.92</v>
+      </c>
+      <c r="BL143">
+        <v>1.77</v>
+      </c>
+      <c r="BM143">
+        <v>2.43</v>
+      </c>
+      <c r="BN143">
+        <v>1.48</v>
+      </c>
+      <c r="BO143">
+        <v>3.2</v>
+      </c>
+      <c r="BP143">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7492296</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45633.69791666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>86</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144" t="s">
+        <v>187</v>
+      </c>
+      <c r="P144" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q144">
+        <v>2.1</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>6.5</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>3</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>8</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>1.59</v>
+      </c>
+      <c r="AA144">
+        <v>4.2</v>
+      </c>
+      <c r="AB144">
+        <v>6.3</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>11</v>
+      </c>
+      <c r="AE144">
+        <v>1.33</v>
+      </c>
+      <c r="AF144">
+        <v>3.4</v>
+      </c>
+      <c r="AG144">
+        <v>2.01</v>
+      </c>
+      <c r="AH144">
+        <v>1.89</v>
+      </c>
+      <c r="AI144">
+        <v>2.05</v>
+      </c>
+      <c r="AJ144">
+        <v>1.7</v>
+      </c>
+      <c r="AK144">
+        <v>1.12</v>
+      </c>
+      <c r="AL144">
+        <v>1.2</v>
+      </c>
+      <c r="AM144">
+        <v>2.5</v>
+      </c>
+      <c r="AN144">
+        <v>1.29</v>
+      </c>
+      <c r="AO144">
+        <v>0.57</v>
+      </c>
+      <c r="AP144">
+        <v>1.5</v>
+      </c>
+      <c r="AQ144">
+        <v>0.5</v>
+      </c>
+      <c r="AR144">
+        <v>1.48</v>
+      </c>
+      <c r="AS144">
+        <v>1.19</v>
+      </c>
+      <c r="AT144">
+        <v>2.67</v>
+      </c>
+      <c r="AU144">
+        <v>10</v>
+      </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>5</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>24</v>
+      </c>
+      <c r="AZ144">
+        <v>4</v>
+      </c>
+      <c r="BA144">
+        <v>8</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>9</v>
+      </c>
+      <c r="BD144">
+        <v>1.46</v>
+      </c>
+      <c r="BE144">
+        <v>6.75</v>
+      </c>
+      <c r="BF144">
+        <v>3.05</v>
+      </c>
+      <c r="BG144">
+        <v>1.37</v>
+      </c>
+      <c r="BH144">
+        <v>2.8</v>
+      </c>
+      <c r="BI144">
+        <v>1.64</v>
+      </c>
+      <c r="BJ144">
+        <v>2.1</v>
+      </c>
+      <c r="BK144">
+        <v>2.02</v>
+      </c>
+      <c r="BL144">
+        <v>1.68</v>
+      </c>
+      <c r="BM144">
+        <v>2.63</v>
+      </c>
+      <c r="BN144">
+        <v>1.41</v>
+      </c>
+      <c r="BO144">
+        <v>3.4</v>
+      </c>
+      <c r="BP144">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['13', '59', '66', '86']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['16', '69']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -721,9 +730,6 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
     <t>['15', '39']</t>
   </si>
   <si>
@@ -815,6 +821,12 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['16', '19', '32', '42']</t>
+  </si>
+  <si>
+    <t>['49', '56']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1447,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2053,7 +2065,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2259,7 +2271,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2543,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2877,7 +2889,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3083,7 +3095,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3370,7 +3382,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3495,7 +3507,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3576,7 +3588,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3701,7 +3713,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4113,7 +4125,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4603,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ17">
         <v>0.25</v>
@@ -4809,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4937,7 +4949,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5018,7 +5030,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5224,7 +5236,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5349,7 +5361,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5427,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
         <v>1.86</v>
@@ -5555,7 +5567,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5967,7 +5979,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6048,7 +6060,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6254,7 +6266,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6379,7 +6391,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6457,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6585,7 +6597,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6791,7 +6803,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6997,7 +7009,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7075,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7284,7 +7296,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7615,7 +7627,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8233,7 +8245,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8645,7 +8657,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8851,7 +8863,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9057,7 +9069,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9263,7 +9275,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9469,7 +9481,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9675,7 +9687,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9756,7 +9768,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -9881,7 +9893,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9959,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10499,7 +10511,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10705,7 +10717,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10783,10 +10795,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -10911,7 +10923,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11323,7 +11335,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11529,7 +11541,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11610,7 +11622,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -11941,7 +11953,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12147,7 +12159,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12353,7 +12365,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12559,7 +12571,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12640,7 +12652,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ56">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -12971,7 +12983,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13461,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13589,7 +13601,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13670,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13873,10 +13885,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14079,7 +14091,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63">
         <v>0.25</v>
@@ -14413,7 +14425,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14619,7 +14631,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14825,7 +14837,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14906,7 +14918,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.09</v>
@@ -15237,7 +15249,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15318,7 +15330,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15443,7 +15455,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15649,7 +15661,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15727,7 +15739,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ71">
         <v>1.14</v>
@@ -16061,7 +16073,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16554,7 +16566,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16679,7 +16691,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16885,7 +16897,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17091,7 +17103,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17297,7 +17309,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17503,7 +17515,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17709,7 +17721,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17787,7 +17799,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17996,7 +18008,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18202,7 +18214,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18405,7 +18417,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ84">
         <v>0.5</v>
@@ -18533,7 +18545,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18739,7 +18751,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18820,7 +18832,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19151,7 +19163,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19357,7 +19369,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19563,7 +19575,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19641,7 +19653,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ90">
         <v>0.57</v>
@@ -19975,7 +19987,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20181,7 +20193,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20387,7 +20399,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20593,7 +20605,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20799,7 +20811,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21211,7 +21223,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21417,7 +21429,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21498,7 +21510,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.62</v>
@@ -22035,7 +22047,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22447,7 +22459,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22525,7 +22537,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -22653,7 +22665,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22859,7 +22871,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22937,7 +22949,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
         <v>0.57</v>
@@ -23271,7 +23283,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23558,7 +23570,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR109">
         <v>0.82</v>
@@ -23683,7 +23695,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23764,7 +23776,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -23889,7 +23901,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -23970,7 +23982,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ111">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24095,7 +24107,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24176,7 +24188,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ112">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.28</v>
@@ -24301,7 +24313,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24507,7 +24519,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24919,7 +24931,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25125,7 +25137,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25331,7 +25343,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25409,7 +25421,7 @@
         <v>0.6</v>
       </c>
       <c r="AP118">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ118">
         <v>0.43</v>
@@ -25618,7 +25630,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
         <v>0.96</v>
@@ -25949,7 +25961,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26027,7 +26039,7 @@
         <v>2.2</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121">
         <v>2.33</v>
@@ -26361,7 +26373,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26567,7 +26579,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26648,7 +26660,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ124">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -26773,7 +26785,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26979,7 +26991,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27263,7 +27275,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ127">
         <v>0.57</v>
@@ -27597,7 +27609,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28502,7 +28514,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -28833,7 +28845,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29120,7 +29132,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.24</v>
@@ -29245,7 +29257,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29451,7 +29463,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29657,7 +29669,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30242,7 +30254,7 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45633.45833333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F142">
         <v>15</v>
@@ -30448,7 +30460,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45633.58333333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F143">
         <v>15</v>
@@ -30481,7 +30493,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30687,7 +30699,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -30844,6 +30856,830 @@
       </c>
       <c r="BP144">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7492289</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45634.35416666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>188</v>
+      </c>
+      <c r="P145" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>2.4</v>
+      </c>
+      <c r="S145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>1.3</v>
+      </c>
+      <c r="U145">
+        <v>3.4</v>
+      </c>
+      <c r="V145">
+        <v>2.5</v>
+      </c>
+      <c r="W145">
+        <v>1.5</v>
+      </c>
+      <c r="X145">
+        <v>6</v>
+      </c>
+      <c r="Y145">
+        <v>1.13</v>
+      </c>
+      <c r="Z145">
+        <v>1.38</v>
+      </c>
+      <c r="AA145">
+        <v>4.15</v>
+      </c>
+      <c r="AB145">
+        <v>5.9</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>15</v>
+      </c>
+      <c r="AE145">
+        <v>1.2</v>
+      </c>
+      <c r="AF145">
+        <v>4.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.61</v>
+      </c>
+      <c r="AH145">
+        <v>2.17</v>
+      </c>
+      <c r="AI145">
+        <v>1.8</v>
+      </c>
+      <c r="AJ145">
+        <v>1.95</v>
+      </c>
+      <c r="AK145">
+        <v>1.11</v>
+      </c>
+      <c r="AL145">
+        <v>1.17</v>
+      </c>
+      <c r="AM145">
+        <v>2.7</v>
+      </c>
+      <c r="AN145">
+        <v>2.33</v>
+      </c>
+      <c r="AO145">
+        <v>0.83</v>
+      </c>
+      <c r="AP145">
+        <v>2.43</v>
+      </c>
+      <c r="AQ145">
+        <v>0.71</v>
+      </c>
+      <c r="AR145">
+        <v>1.69</v>
+      </c>
+      <c r="AS145">
+        <v>0.88</v>
+      </c>
+      <c r="AT145">
+        <v>2.57</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>2</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>10</v>
+      </c>
+      <c r="AZ145">
+        <v>9</v>
+      </c>
+      <c r="BA145">
+        <v>6</v>
+      </c>
+      <c r="BB145">
+        <v>4</v>
+      </c>
+      <c r="BC145">
+        <v>10</v>
+      </c>
+      <c r="BD145">
+        <v>1.33</v>
+      </c>
+      <c r="BE145">
+        <v>7.5</v>
+      </c>
+      <c r="BF145">
+        <v>3.65</v>
+      </c>
+      <c r="BG145">
+        <v>1.28</v>
+      </c>
+      <c r="BH145">
+        <v>3.3</v>
+      </c>
+      <c r="BI145">
+        <v>1.48</v>
+      </c>
+      <c r="BJ145">
+        <v>2.43</v>
+      </c>
+      <c r="BK145">
+        <v>1.78</v>
+      </c>
+      <c r="BL145">
+        <v>1.91</v>
+      </c>
+      <c r="BM145">
+        <v>2.2</v>
+      </c>
+      <c r="BN145">
+        <v>1.58</v>
+      </c>
+      <c r="BO145">
+        <v>2.8</v>
+      </c>
+      <c r="BP145">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7492291</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>4</v>
+      </c>
+      <c r="K146">
+        <v>5</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>189</v>
+      </c>
+      <c r="P146" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q146">
+        <v>3.25</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>3.75</v>
+      </c>
+      <c r="T146">
+        <v>1.53</v>
+      </c>
+      <c r="U146">
+        <v>2.38</v>
+      </c>
+      <c r="V146">
+        <v>3.5</v>
+      </c>
+      <c r="W146">
+        <v>1.29</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.28</v>
+      </c>
+      <c r="AA146">
+        <v>2.88</v>
+      </c>
+      <c r="AB146">
+        <v>2.88</v>
+      </c>
+      <c r="AC146">
+        <v>1.1</v>
+      </c>
+      <c r="AD146">
+        <v>7.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.45</v>
+      </c>
+      <c r="AF146">
+        <v>2.75</v>
+      </c>
+      <c r="AG146">
+        <v>2.35</v>
+      </c>
+      <c r="AH146">
+        <v>1.52</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.4</v>
+      </c>
+      <c r="AL146">
+        <v>1.33</v>
+      </c>
+      <c r="AM146">
+        <v>1.55</v>
+      </c>
+      <c r="AN146">
+        <v>1.29</v>
+      </c>
+      <c r="AO146">
+        <v>1.29</v>
+      </c>
+      <c r="AP146">
+        <v>1.13</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.08</v>
+      </c>
+      <c r="AS146">
+        <v>0.89</v>
+      </c>
+      <c r="AT146">
+        <v>1.97</v>
+      </c>
+      <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>8</v>
+      </c>
+      <c r="AY146">
+        <v>13</v>
+      </c>
+      <c r="AZ146">
+        <v>17</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>8</v>
+      </c>
+      <c r="BC146">
+        <v>13</v>
+      </c>
+      <c r="BD146">
+        <v>1.79</v>
+      </c>
+      <c r="BE146">
+        <v>6.4</v>
+      </c>
+      <c r="BF146">
+        <v>2.23</v>
+      </c>
+      <c r="BG146">
+        <v>1.29</v>
+      </c>
+      <c r="BH146">
+        <v>3.2</v>
+      </c>
+      <c r="BI146">
+        <v>1.5</v>
+      </c>
+      <c r="BJ146">
+        <v>2.38</v>
+      </c>
+      <c r="BK146">
+        <v>1.82</v>
+      </c>
+      <c r="BL146">
+        <v>1.86</v>
+      </c>
+      <c r="BM146">
+        <v>2.3</v>
+      </c>
+      <c r="BN146">
+        <v>1.54</v>
+      </c>
+      <c r="BO146">
+        <v>2.9</v>
+      </c>
+      <c r="BP146">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7492297</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45634.58333333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>87</v>
+      </c>
+      <c r="H147" t="s">
+        <v>88</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>190</v>
+      </c>
+      <c r="P147" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q147">
+        <v>3.25</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>3.2</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.73</v>
+      </c>
+      <c r="AA147">
+        <v>3.38</v>
+      </c>
+      <c r="AB147">
+        <v>2.57</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>11</v>
+      </c>
+      <c r="AE147">
+        <v>1.3</v>
+      </c>
+      <c r="AF147">
+        <v>3.6</v>
+      </c>
+      <c r="AG147">
+        <v>1.85</v>
+      </c>
+      <c r="AH147">
+        <v>1.9</v>
+      </c>
+      <c r="AI147">
+        <v>1.67</v>
+      </c>
+      <c r="AJ147">
+        <v>2.1</v>
+      </c>
+      <c r="AK147">
+        <v>1.52</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.5</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
+        <v>0.63</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+      <c r="AQ147">
+        <v>0.67</v>
+      </c>
+      <c r="AR147">
+        <v>1.55</v>
+      </c>
+      <c r="AS147">
+        <v>1.35</v>
+      </c>
+      <c r="AT147">
+        <v>2.9</v>
+      </c>
+      <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>1</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>10</v>
+      </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>9</v>
+      </c>
+      <c r="BC147">
+        <v>14</v>
+      </c>
+      <c r="BD147">
+        <v>2.07</v>
+      </c>
+      <c r="BE147">
+        <v>6.4</v>
+      </c>
+      <c r="BF147">
+        <v>1.94</v>
+      </c>
+      <c r="BG147">
+        <v>1.37</v>
+      </c>
+      <c r="BH147">
+        <v>2.8</v>
+      </c>
+      <c r="BI147">
+        <v>1.65</v>
+      </c>
+      <c r="BJ147">
+        <v>2.08</v>
+      </c>
+      <c r="BK147">
+        <v>2.05</v>
+      </c>
+      <c r="BL147">
+        <v>1.67</v>
+      </c>
+      <c r="BM147">
+        <v>2.65</v>
+      </c>
+      <c r="BN147">
+        <v>1.41</v>
+      </c>
+      <c r="BO147">
+        <v>3.45</v>
+      </c>
+      <c r="BP147">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7492295</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45634.69791666666</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>85</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>92</v>
+      </c>
+      <c r="P148" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q148">
+        <v>2.5</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
+        <v>4.75</v>
+      </c>
+      <c r="T148">
+        <v>1.44</v>
+      </c>
+      <c r="U148">
+        <v>2.63</v>
+      </c>
+      <c r="V148">
+        <v>3.25</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>9</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>1.87</v>
+      </c>
+      <c r="AA148">
+        <v>3.55</v>
+      </c>
+      <c r="AB148">
+        <v>4.25</v>
+      </c>
+      <c r="AC148">
+        <v>1.06</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.36</v>
+      </c>
+      <c r="AF148">
+        <v>3.2</v>
+      </c>
+      <c r="AG148">
+        <v>2.05</v>
+      </c>
+      <c r="AH148">
+        <v>1.75</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.26</v>
+      </c>
+      <c r="AL148">
+        <v>1.26</v>
+      </c>
+      <c r="AM148">
+        <v>1.9</v>
+      </c>
+      <c r="AN148">
+        <v>2.57</v>
+      </c>
+      <c r="AO148">
+        <v>1.29</v>
+      </c>
+      <c r="AP148">
+        <v>2.25</v>
+      </c>
+      <c r="AQ148">
+        <v>1.5</v>
+      </c>
+      <c r="AR148">
+        <v>1.5</v>
+      </c>
+      <c r="AS148">
+        <v>1.62</v>
+      </c>
+      <c r="AT148">
+        <v>3.12</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>4</v>
+      </c>
+      <c r="AY148">
+        <v>13</v>
+      </c>
+      <c r="AZ148">
+        <v>8</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
+        <v>8</v>
+      </c>
+      <c r="BD148">
+        <v>1.5</v>
+      </c>
+      <c r="BE148">
+        <v>6.75</v>
+      </c>
+      <c r="BF148">
+        <v>2.8</v>
+      </c>
+      <c r="BG148">
+        <v>1.33</v>
+      </c>
+      <c r="BH148">
+        <v>2.95</v>
+      </c>
+      <c r="BI148">
+        <v>1.56</v>
+      </c>
+      <c r="BJ148">
+        <v>2.23</v>
+      </c>
+      <c r="BK148">
+        <v>1.92</v>
+      </c>
+      <c r="BL148">
+        <v>1.77</v>
+      </c>
+      <c r="BM148">
+        <v>2.43</v>
+      </c>
+      <c r="BN148">
+        <v>1.48</v>
+      </c>
+      <c r="BO148">
+        <v>3.15</v>
+      </c>
+      <c r="BP148">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -828,6 +828,9 @@
   <si>
     <t>['49', '56']</t>
   </si>
+  <si>
+    <t>['6', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1188,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2352,7 +2355,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4203,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -9147,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -9356,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -11001,7 +11004,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11210,7 +11213,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -15533,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ70">
         <v>0.57</v>
@@ -16360,7 +16363,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -19241,7 +19244,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ88">
         <v>0.25</v>
@@ -20686,7 +20689,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -22331,7 +22334,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ103">
         <v>1.14</v>
@@ -25012,7 +25015,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25627,7 +25630,7 @@
         <v>1.2</v>
       </c>
       <c r="AP119">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ119">
         <v>1.5</v>
@@ -27690,7 +27693,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>0.88</v>
@@ -30254,7 +30257,7 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45632.875</v>
+        <v>45633.45833333334</v>
       </c>
       <c r="F142">
         <v>15</v>
@@ -30460,7 +30463,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45632.875</v>
+        <v>45633.58333333334</v>
       </c>
       <c r="F143">
         <v>15</v>
@@ -30863,7 +30866,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7492289</v>
+        <v>7492295</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30872,196 +30875,196 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45634.35416666666</v>
+        <v>45633.875</v>
       </c>
       <c r="F145">
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H145" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145">
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R145">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S145">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="T145">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U145">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="V145">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="W145">
+        <v>1.33</v>
+      </c>
+      <c r="X145">
+        <v>9</v>
+      </c>
+      <c r="Y145">
+        <v>1.07</v>
+      </c>
+      <c r="Z145">
+        <v>1.87</v>
+      </c>
+      <c r="AA145">
+        <v>3.55</v>
+      </c>
+      <c r="AB145">
+        <v>4.25</v>
+      </c>
+      <c r="AC145">
+        <v>1.06</v>
+      </c>
+      <c r="AD145">
+        <v>10</v>
+      </c>
+      <c r="AE145">
+        <v>1.36</v>
+      </c>
+      <c r="AF145">
+        <v>3.2</v>
+      </c>
+      <c r="AG145">
+        <v>2.05</v>
+      </c>
+      <c r="AH145">
+        <v>1.75</v>
+      </c>
+      <c r="AI145">
+        <v>1.95</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>1.26</v>
+      </c>
+      <c r="AL145">
+        <v>1.26</v>
+      </c>
+      <c r="AM145">
+        <v>1.9</v>
+      </c>
+      <c r="AN145">
+        <v>2.57</v>
+      </c>
+      <c r="AO145">
+        <v>1.29</v>
+      </c>
+      <c r="AP145">
+        <v>2.25</v>
+      </c>
+      <c r="AQ145">
         <v>1.5</v>
       </c>
-      <c r="X145">
-        <v>6</v>
-      </c>
-      <c r="Y145">
-        <v>1.13</v>
-      </c>
-      <c r="Z145">
-        <v>1.38</v>
-      </c>
-      <c r="AA145">
-        <v>4.15</v>
-      </c>
-      <c r="AB145">
-        <v>5.9</v>
-      </c>
-      <c r="AC145">
-        <v>1.03</v>
-      </c>
-      <c r="AD145">
-        <v>15</v>
-      </c>
-      <c r="AE145">
-        <v>1.2</v>
-      </c>
-      <c r="AF145">
-        <v>4.5</v>
-      </c>
-      <c r="AG145">
-        <v>1.61</v>
-      </c>
-      <c r="AH145">
-        <v>2.17</v>
-      </c>
-      <c r="AI145">
-        <v>1.8</v>
-      </c>
-      <c r="AJ145">
-        <v>1.95</v>
-      </c>
-      <c r="AK145">
-        <v>1.11</v>
-      </c>
-      <c r="AL145">
-        <v>1.17</v>
-      </c>
-      <c r="AM145">
-        <v>2.7</v>
-      </c>
-      <c r="AN145">
-        <v>2.33</v>
-      </c>
-      <c r="AO145">
-        <v>0.83</v>
-      </c>
-      <c r="AP145">
-        <v>2.43</v>
-      </c>
-      <c r="AQ145">
-        <v>0.71</v>
-      </c>
       <c r="AR145">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AS145">
-        <v>0.88</v>
+        <v>1.62</v>
       </c>
       <c r="AT145">
-        <v>2.57</v>
+        <v>3.12</v>
       </c>
       <c r="AU145">
+        <v>2</v>
+      </c>
+      <c r="AV145">
         <v>4</v>
       </c>
-      <c r="AV145">
-        <v>2</v>
-      </c>
       <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
         <v>4</v>
       </c>
-      <c r="AX145">
-        <v>3</v>
-      </c>
       <c r="AY145">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ145">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA145">
         <v>6</v>
       </c>
       <c r="BB145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD145">
+        <v>1.5</v>
+      </c>
+      <c r="BE145">
+        <v>6.75</v>
+      </c>
+      <c r="BF145">
+        <v>2.8</v>
+      </c>
+      <c r="BG145">
         <v>1.33</v>
       </c>
-      <c r="BE145">
-        <v>7.5</v>
-      </c>
-      <c r="BF145">
-        <v>3.65</v>
-      </c>
-      <c r="BG145">
-        <v>1.28</v>
-      </c>
       <c r="BH145">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BI145">
+        <v>1.56</v>
+      </c>
+      <c r="BJ145">
+        <v>2.23</v>
+      </c>
+      <c r="BK145">
+        <v>1.92</v>
+      </c>
+      <c r="BL145">
+        <v>1.77</v>
+      </c>
+      <c r="BM145">
+        <v>2.43</v>
+      </c>
+      <c r="BN145">
         <v>1.48</v>
       </c>
-      <c r="BJ145">
-        <v>2.43</v>
-      </c>
-      <c r="BK145">
-        <v>1.78</v>
-      </c>
-      <c r="BL145">
-        <v>1.91</v>
-      </c>
-      <c r="BM145">
-        <v>2.2</v>
-      </c>
-      <c r="BN145">
-        <v>1.58</v>
-      </c>
       <c r="BO145">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP145">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31069,7 +31072,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7492291</v>
+        <v>7492289</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31078,196 +31081,196 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45634.45833333334</v>
+        <v>45634.35416666666</v>
       </c>
       <c r="F146">
         <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H146" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <v>1</v>
       </c>
       <c r="M146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>92</v>
       </c>
       <c r="Q146">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="R146">
+        <v>2.4</v>
+      </c>
+      <c r="S146">
+        <v>6</v>
+      </c>
+      <c r="T146">
+        <v>1.3</v>
+      </c>
+      <c r="U146">
+        <v>3.4</v>
+      </c>
+      <c r="V146">
+        <v>2.5</v>
+      </c>
+      <c r="W146">
+        <v>1.5</v>
+      </c>
+      <c r="X146">
+        <v>6</v>
+      </c>
+      <c r="Y146">
+        <v>1.13</v>
+      </c>
+      <c r="Z146">
+        <v>1.38</v>
+      </c>
+      <c r="AA146">
+        <v>4.15</v>
+      </c>
+      <c r="AB146">
+        <v>5.9</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>15</v>
+      </c>
+      <c r="AE146">
+        <v>1.2</v>
+      </c>
+      <c r="AF146">
+        <v>4.5</v>
+      </c>
+      <c r="AG146">
+        <v>1.61</v>
+      </c>
+      <c r="AH146">
+        <v>2.17</v>
+      </c>
+      <c r="AI146">
+        <v>1.8</v>
+      </c>
+      <c r="AJ146">
         <v>1.95</v>
       </c>
-      <c r="S146">
-        <v>3.75</v>
-      </c>
-      <c r="T146">
-        <v>1.53</v>
-      </c>
-      <c r="U146">
-        <v>2.38</v>
-      </c>
-      <c r="V146">
-        <v>3.5</v>
-      </c>
-      <c r="W146">
-        <v>1.29</v>
-      </c>
-      <c r="X146">
-        <v>11</v>
-      </c>
-      <c r="Y146">
-        <v>1.05</v>
-      </c>
-      <c r="Z146">
-        <v>2.28</v>
-      </c>
-      <c r="AA146">
-        <v>2.88</v>
-      </c>
-      <c r="AB146">
-        <v>2.88</v>
-      </c>
-      <c r="AC146">
-        <v>1.1</v>
-      </c>
-      <c r="AD146">
-        <v>7.5</v>
-      </c>
-      <c r="AE146">
-        <v>1.45</v>
-      </c>
-      <c r="AF146">
-        <v>2.75</v>
-      </c>
-      <c r="AG146">
-        <v>2.35</v>
-      </c>
-      <c r="AH146">
-        <v>1.52</v>
-      </c>
-      <c r="AI146">
-        <v>1.95</v>
-      </c>
-      <c r="AJ146">
-        <v>1.8</v>
-      </c>
       <c r="AK146">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AL146">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AM146">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="AN146">
-        <v>1.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO146">
-        <v>1.29</v>
+        <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.13</v>
+        <v>2.43</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR146">
-        <v>1.08</v>
+        <v>1.69</v>
       </c>
       <c r="AS146">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="AT146">
-        <v>1.97</v>
+        <v>2.57</v>
       </c>
       <c r="AU146">
         <v>4</v>
       </c>
       <c r="AV146">
+        <v>2</v>
+      </c>
+      <c r="AW146">
+        <v>4</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>10</v>
+      </c>
+      <c r="AZ146">
+        <v>9</v>
+      </c>
+      <c r="BA146">
         <v>6</v>
       </c>
-      <c r="AW146">
-        <v>8</v>
-      </c>
-      <c r="AX146">
-        <v>8</v>
-      </c>
-      <c r="AY146">
-        <v>13</v>
-      </c>
-      <c r="AZ146">
-        <v>17</v>
-      </c>
-      <c r="BA146">
-        <v>5</v>
-      </c>
       <c r="BB146">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC146">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD146">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="BE146">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF146">
-        <v>2.23</v>
+        <v>3.65</v>
       </c>
       <c r="BG146">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BH146">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BI146">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BJ146">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="BK146">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="BL146">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="BM146">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BN146">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="BO146">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP146">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31275,7 +31278,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7492297</v>
+        <v>7492291</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31284,196 +31287,196 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45634.58333333334</v>
+        <v>45634.45833333334</v>
       </c>
       <c r="F147">
         <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H147" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O147" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
       </c>
       <c r="R147">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T147">
+        <v>1.53</v>
+      </c>
+      <c r="U147">
+        <v>2.38</v>
+      </c>
+      <c r="V147">
+        <v>3.5</v>
+      </c>
+      <c r="W147">
+        <v>1.29</v>
+      </c>
+      <c r="X147">
+        <v>11</v>
+      </c>
+      <c r="Y147">
+        <v>1.05</v>
+      </c>
+      <c r="Z147">
+        <v>2.28</v>
+      </c>
+      <c r="AA147">
+        <v>2.88</v>
+      </c>
+      <c r="AB147">
+        <v>2.88</v>
+      </c>
+      <c r="AC147">
+        <v>1.1</v>
+      </c>
+      <c r="AD147">
+        <v>7.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.45</v>
+      </c>
+      <c r="AF147">
+        <v>2.75</v>
+      </c>
+      <c r="AG147">
+        <v>2.35</v>
+      </c>
+      <c r="AH147">
+        <v>1.52</v>
+      </c>
+      <c r="AI147">
+        <v>1.95</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
         <v>1.4</v>
       </c>
-      <c r="U147">
-        <v>2.75</v>
-      </c>
-      <c r="V147">
-        <v>2.75</v>
-      </c>
-      <c r="W147">
-        <v>1.4</v>
-      </c>
-      <c r="X147">
+      <c r="AL147">
+        <v>1.33</v>
+      </c>
+      <c r="AM147">
+        <v>1.55</v>
+      </c>
+      <c r="AN147">
+        <v>1.29</v>
+      </c>
+      <c r="AO147">
+        <v>1.29</v>
+      </c>
+      <c r="AP147">
+        <v>1.13</v>
+      </c>
+      <c r="AQ147">
+        <v>1.5</v>
+      </c>
+      <c r="AR147">
+        <v>1.08</v>
+      </c>
+      <c r="AS147">
+        <v>0.89</v>
+      </c>
+      <c r="AT147">
+        <v>1.97</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
         <v>8</v>
       </c>
-      <c r="Y147">
-        <v>1.08</v>
-      </c>
-      <c r="Z147">
-        <v>2.73</v>
-      </c>
-      <c r="AA147">
-        <v>3.38</v>
-      </c>
-      <c r="AB147">
-        <v>2.57</v>
-      </c>
-      <c r="AC147">
-        <v>1.05</v>
-      </c>
-      <c r="AD147">
-        <v>11</v>
-      </c>
-      <c r="AE147">
-        <v>1.3</v>
-      </c>
-      <c r="AF147">
-        <v>3.6</v>
-      </c>
-      <c r="AG147">
-        <v>1.85</v>
-      </c>
-      <c r="AH147">
-        <v>1.9</v>
-      </c>
-      <c r="AI147">
-        <v>1.67</v>
-      </c>
-      <c r="AJ147">
-        <v>2.1</v>
-      </c>
-      <c r="AK147">
-        <v>1.52</v>
-      </c>
-      <c r="AL147">
-        <v>1.28</v>
-      </c>
-      <c r="AM147">
-        <v>1.5</v>
-      </c>
-      <c r="AN147">
-        <v>1</v>
-      </c>
-      <c r="AO147">
-        <v>0.63</v>
-      </c>
-      <c r="AP147">
-        <v>1</v>
-      </c>
-      <c r="AQ147">
-        <v>0.67</v>
-      </c>
-      <c r="AR147">
-        <v>1.55</v>
-      </c>
-      <c r="AS147">
-        <v>1.35</v>
-      </c>
-      <c r="AT147">
-        <v>2.9</v>
-      </c>
-      <c r="AU147">
-        <v>6</v>
-      </c>
-      <c r="AV147">
-        <v>5</v>
-      </c>
-      <c r="AW147">
-        <v>1</v>
-      </c>
       <c r="AX147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY147">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ147">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA147">
         <v>5</v>
       </c>
       <c r="BB147">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC147">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD147">
-        <v>2.07</v>
+        <v>1.79</v>
       </c>
       <c r="BE147">
         <v>6.4</v>
       </c>
       <c r="BF147">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="BG147">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BH147">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BI147">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BJ147">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="BK147">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="BL147">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="BM147">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="BN147">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="BO147">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="BP147">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31481,7 +31484,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7492295</v>
+        <v>7492297</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31490,196 +31493,402 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45634.69791666666</v>
+        <v>45634.58333333334</v>
       </c>
       <c r="F148">
         <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H148" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O148" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="P148" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Q148">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R148">
         <v>2.1</v>
       </c>
       <c r="S148">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="T148">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U148">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V148">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W148">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X148">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y148">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z148">
-        <v>1.87</v>
+        <v>2.73</v>
       </c>
       <c r="AA148">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="AB148">
-        <v>4.25</v>
+        <v>2.57</v>
       </c>
       <c r="AC148">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE148">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF148">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AG148">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AH148">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AI148">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AJ148">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK148">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="AL148">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AM148">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AN148">
-        <v>2.57</v>
+        <v>1</v>
       </c>
       <c r="AO148">
-        <v>1.29</v>
+        <v>0.63</v>
       </c>
       <c r="AP148">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR148">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AS148">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="AT148">
-        <v>3.12</v>
+        <v>2.9</v>
       </c>
       <c r="AU148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX148">
         <v>4</v>
       </c>
       <c r="AY148">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ148">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>9</v>
+      </c>
+      <c r="BC148">
+        <v>14</v>
+      </c>
+      <c r="BD148">
+        <v>2.07</v>
+      </c>
+      <c r="BE148">
+        <v>6.4</v>
+      </c>
+      <c r="BF148">
+        <v>1.94</v>
+      </c>
+      <c r="BG148">
+        <v>1.37</v>
+      </c>
+      <c r="BH148">
+        <v>2.8</v>
+      </c>
+      <c r="BI148">
+        <v>1.65</v>
+      </c>
+      <c r="BJ148">
+        <v>2.08</v>
+      </c>
+      <c r="BK148">
+        <v>2.05</v>
+      </c>
+      <c r="BL148">
+        <v>1.67</v>
+      </c>
+      <c r="BM148">
+        <v>2.65</v>
+      </c>
+      <c r="BN148">
+        <v>1.41</v>
+      </c>
+      <c r="BO148">
+        <v>3.45</v>
+      </c>
+      <c r="BP148">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7492294</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45635.69791666666</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>82</v>
+      </c>
+      <c r="H149" t="s">
+        <v>80</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>163</v>
+      </c>
+      <c r="P149" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q149">
+        <v>3.4</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>3.6</v>
+      </c>
+      <c r="T149">
+        <v>1.53</v>
+      </c>
+      <c r="U149">
+        <v>2.38</v>
+      </c>
+      <c r="V149">
+        <v>3.5</v>
+      </c>
+      <c r="W149">
+        <v>1.29</v>
+      </c>
+      <c r="X149">
+        <v>11</v>
+      </c>
+      <c r="Y149">
+        <v>1.05</v>
+      </c>
+      <c r="Z149">
+        <v>2.38</v>
+      </c>
+      <c r="AA149">
+        <v>3.25</v>
+      </c>
+      <c r="AB149">
+        <v>3</v>
+      </c>
+      <c r="AC149">
+        <v>1.1</v>
+      </c>
+      <c r="AD149">
+        <v>7.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.47</v>
+      </c>
+      <c r="AF149">
+        <v>2.75</v>
+      </c>
+      <c r="AG149">
+        <v>2.05</v>
+      </c>
+      <c r="AH149">
+        <v>1.85</v>
+      </c>
+      <c r="AI149">
+        <v>2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.75</v>
+      </c>
+      <c r="AK149">
+        <v>1.44</v>
+      </c>
+      <c r="AL149">
+        <v>1.33</v>
+      </c>
+      <c r="AM149">
+        <v>1.5</v>
+      </c>
+      <c r="AN149">
+        <v>0.43</v>
+      </c>
+      <c r="AO149">
+        <v>0.71</v>
+      </c>
+      <c r="AP149">
+        <v>0.38</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>1</v>
+      </c>
+      <c r="AS149">
+        <v>1.41</v>
+      </c>
+      <c r="AT149">
+        <v>2.41</v>
+      </c>
+      <c r="AU149">
         <v>6</v>
       </c>
-      <c r="BB148">
-        <v>2</v>
-      </c>
-      <c r="BC148">
-        <v>8</v>
-      </c>
-      <c r="BD148">
-        <v>1.5</v>
-      </c>
-      <c r="BE148">
-        <v>6.75</v>
-      </c>
-      <c r="BF148">
-        <v>2.8</v>
-      </c>
-      <c r="BG148">
-        <v>1.33</v>
-      </c>
-      <c r="BH148">
-        <v>2.95</v>
-      </c>
-      <c r="BI148">
-        <v>1.56</v>
-      </c>
-      <c r="BJ148">
-        <v>2.23</v>
-      </c>
-      <c r="BK148">
-        <v>1.92</v>
-      </c>
-      <c r="BL148">
-        <v>1.77</v>
-      </c>
-      <c r="BM148">
-        <v>2.43</v>
-      </c>
-      <c r="BN148">
-        <v>1.48</v>
-      </c>
-      <c r="BO148">
-        <v>3.15</v>
-      </c>
-      <c r="BP148">
-        <v>1.3</v>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>11</v>
+      </c>
+      <c r="AX149">
+        <v>5</v>
+      </c>
+      <c r="AY149">
+        <v>29</v>
+      </c>
+      <c r="AZ149">
+        <v>11</v>
+      </c>
+      <c r="BA149">
+        <v>10</v>
+      </c>
+      <c r="BB149">
+        <v>1</v>
+      </c>
+      <c r="BC149">
+        <v>11</v>
+      </c>
+      <c r="BD149">
+        <v>1.82</v>
+      </c>
+      <c r="BE149">
+        <v>5.85</v>
+      </c>
+      <c r="BF149">
+        <v>2.42</v>
+      </c>
+      <c r="BG149">
+        <v>1.25</v>
+      </c>
+      <c r="BH149">
+        <v>3.5</v>
+      </c>
+      <c r="BI149">
+        <v>1.49</v>
+      </c>
+      <c r="BJ149">
+        <v>2.42</v>
+      </c>
+      <c r="BK149">
+        <v>1.85</v>
+      </c>
+      <c r="BL149">
+        <v>1.82</v>
+      </c>
+      <c r="BM149">
+        <v>2.48</v>
+      </c>
+      <c r="BN149">
+        <v>1.46</v>
+      </c>
+      <c r="BO149">
+        <v>3.5</v>
+      </c>
+      <c r="BP149">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -30866,7 +30866,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7492295</v>
+        <v>7492289</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30875,196 +30875,196 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45633.875</v>
+        <v>45634.35416666666</v>
       </c>
       <c r="F145">
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145">
         <v>1</v>
       </c>
       <c r="O145" t="s">
+        <v>188</v>
+      </c>
+      <c r="P145" t="s">
         <v>92</v>
       </c>
-      <c r="P145" t="s">
-        <v>251</v>
-      </c>
       <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>2.4</v>
+      </c>
+      <c r="S145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>1.3</v>
+      </c>
+      <c r="U145">
+        <v>3.4</v>
+      </c>
+      <c r="V145">
         <v>2.5</v>
       </c>
-      <c r="R145">
-        <v>2.1</v>
-      </c>
-      <c r="S145">
-        <v>4.75</v>
-      </c>
-      <c r="T145">
-        <v>1.44</v>
-      </c>
-      <c r="U145">
-        <v>2.63</v>
-      </c>
-      <c r="V145">
-        <v>3.25</v>
-      </c>
       <c r="W145">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X145">
+        <v>6</v>
+      </c>
+      <c r="Y145">
+        <v>1.13</v>
+      </c>
+      <c r="Z145">
+        <v>1.38</v>
+      </c>
+      <c r="AA145">
+        <v>4.15</v>
+      </c>
+      <c r="AB145">
+        <v>5.9</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>15</v>
+      </c>
+      <c r="AE145">
+        <v>1.2</v>
+      </c>
+      <c r="AF145">
+        <v>4.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.61</v>
+      </c>
+      <c r="AH145">
+        <v>2.17</v>
+      </c>
+      <c r="AI145">
+        <v>1.8</v>
+      </c>
+      <c r="AJ145">
+        <v>1.95</v>
+      </c>
+      <c r="AK145">
+        <v>1.11</v>
+      </c>
+      <c r="AL145">
+        <v>1.17</v>
+      </c>
+      <c r="AM145">
+        <v>2.7</v>
+      </c>
+      <c r="AN145">
+        <v>2.33</v>
+      </c>
+      <c r="AO145">
+        <v>0.83</v>
+      </c>
+      <c r="AP145">
+        <v>2.43</v>
+      </c>
+      <c r="AQ145">
+        <v>0.71</v>
+      </c>
+      <c r="AR145">
+        <v>1.69</v>
+      </c>
+      <c r="AS145">
+        <v>0.88</v>
+      </c>
+      <c r="AT145">
+        <v>2.57</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>2</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>10</v>
+      </c>
+      <c r="AZ145">
         <v>9</v>
-      </c>
-      <c r="Y145">
-        <v>1.07</v>
-      </c>
-      <c r="Z145">
-        <v>1.87</v>
-      </c>
-      <c r="AA145">
-        <v>3.55</v>
-      </c>
-      <c r="AB145">
-        <v>4.25</v>
-      </c>
-      <c r="AC145">
-        <v>1.06</v>
-      </c>
-      <c r="AD145">
-        <v>10</v>
-      </c>
-      <c r="AE145">
-        <v>1.36</v>
-      </c>
-      <c r="AF145">
-        <v>3.2</v>
-      </c>
-      <c r="AG145">
-        <v>2.05</v>
-      </c>
-      <c r="AH145">
-        <v>1.75</v>
-      </c>
-      <c r="AI145">
-        <v>1.95</v>
-      </c>
-      <c r="AJ145">
-        <v>1.8</v>
-      </c>
-      <c r="AK145">
-        <v>1.26</v>
-      </c>
-      <c r="AL145">
-        <v>1.26</v>
-      </c>
-      <c r="AM145">
-        <v>1.9</v>
-      </c>
-      <c r="AN145">
-        <v>2.57</v>
-      </c>
-      <c r="AO145">
-        <v>1.29</v>
-      </c>
-      <c r="AP145">
-        <v>2.25</v>
-      </c>
-      <c r="AQ145">
-        <v>1.5</v>
-      </c>
-      <c r="AR145">
-        <v>1.5</v>
-      </c>
-      <c r="AS145">
-        <v>1.62</v>
-      </c>
-      <c r="AT145">
-        <v>3.12</v>
-      </c>
-      <c r="AU145">
-        <v>2</v>
-      </c>
-      <c r="AV145">
-        <v>4</v>
-      </c>
-      <c r="AW145">
-        <v>5</v>
-      </c>
-      <c r="AX145">
-        <v>4</v>
-      </c>
-      <c r="AY145">
-        <v>13</v>
-      </c>
-      <c r="AZ145">
-        <v>8</v>
       </c>
       <c r="BA145">
         <v>6</v>
       </c>
       <c r="BB145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD145">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BE145">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF145">
+        <v>3.65</v>
+      </c>
+      <c r="BG145">
+        <v>1.28</v>
+      </c>
+      <c r="BH145">
+        <v>3.3</v>
+      </c>
+      <c r="BI145">
+        <v>1.48</v>
+      </c>
+      <c r="BJ145">
+        <v>2.43</v>
+      </c>
+      <c r="BK145">
+        <v>1.78</v>
+      </c>
+      <c r="BL145">
+        <v>1.91</v>
+      </c>
+      <c r="BM145">
+        <v>2.2</v>
+      </c>
+      <c r="BN145">
+        <v>1.58</v>
+      </c>
+      <c r="BO145">
         <v>2.8</v>
       </c>
-      <c r="BG145">
-        <v>1.33</v>
-      </c>
-      <c r="BH145">
-        <v>2.95</v>
-      </c>
-      <c r="BI145">
-        <v>1.56</v>
-      </c>
-      <c r="BJ145">
-        <v>2.23</v>
-      </c>
-      <c r="BK145">
-        <v>1.92</v>
-      </c>
-      <c r="BL145">
-        <v>1.77</v>
-      </c>
-      <c r="BM145">
-        <v>2.43</v>
-      </c>
-      <c r="BN145">
-        <v>1.48</v>
-      </c>
-      <c r="BO145">
-        <v>3.15</v>
-      </c>
       <c r="BP145">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31072,7 +31072,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7492289</v>
+        <v>7492291</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31081,196 +31081,196 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45634.35416666666</v>
+        <v>45634.45833333334</v>
       </c>
       <c r="F146">
         <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H146" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L146">
         <v>1</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O146" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="Q146">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="R146">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="T146">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="U146">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="V146">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="W146">
+        <v>1.29</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.28</v>
+      </c>
+      <c r="AA146">
+        <v>2.88</v>
+      </c>
+      <c r="AB146">
+        <v>2.88</v>
+      </c>
+      <c r="AC146">
+        <v>1.1</v>
+      </c>
+      <c r="AD146">
+        <v>7.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.45</v>
+      </c>
+      <c r="AF146">
+        <v>2.75</v>
+      </c>
+      <c r="AG146">
+        <v>2.35</v>
+      </c>
+      <c r="AH146">
+        <v>1.52</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.4</v>
+      </c>
+      <c r="AL146">
+        <v>1.33</v>
+      </c>
+      <c r="AM146">
+        <v>1.55</v>
+      </c>
+      <c r="AN146">
+        <v>1.29</v>
+      </c>
+      <c r="AO146">
+        <v>1.29</v>
+      </c>
+      <c r="AP146">
+        <v>1.13</v>
+      </c>
+      <c r="AQ146">
         <v>1.5</v>
       </c>
-      <c r="X146">
-        <v>6</v>
-      </c>
-      <c r="Y146">
-        <v>1.13</v>
-      </c>
-      <c r="Z146">
-        <v>1.38</v>
-      </c>
-      <c r="AA146">
-        <v>4.15</v>
-      </c>
-      <c r="AB146">
-        <v>5.9</v>
-      </c>
-      <c r="AC146">
-        <v>1.03</v>
-      </c>
-      <c r="AD146">
-        <v>15</v>
-      </c>
-      <c r="AE146">
-        <v>1.2</v>
-      </c>
-      <c r="AF146">
-        <v>4.5</v>
-      </c>
-      <c r="AG146">
-        <v>1.61</v>
-      </c>
-      <c r="AH146">
-        <v>2.17</v>
-      </c>
-      <c r="AI146">
-        <v>1.8</v>
-      </c>
-      <c r="AJ146">
-        <v>1.95</v>
-      </c>
-      <c r="AK146">
-        <v>1.11</v>
-      </c>
-      <c r="AL146">
-        <v>1.17</v>
-      </c>
-      <c r="AM146">
-        <v>2.7</v>
-      </c>
-      <c r="AN146">
-        <v>2.33</v>
-      </c>
-      <c r="AO146">
-        <v>0.83</v>
-      </c>
-      <c r="AP146">
-        <v>2.43</v>
-      </c>
-      <c r="AQ146">
-        <v>0.71</v>
-      </c>
       <c r="AR146">
-        <v>1.69</v>
+        <v>1.08</v>
       </c>
       <c r="AS146">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT146">
-        <v>2.57</v>
+        <v>1.97</v>
       </c>
       <c r="AU146">
         <v>4</v>
       </c>
       <c r="AV146">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX146">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY146">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ146">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC146">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD146">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="BE146">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF146">
-        <v>3.65</v>
+        <v>2.23</v>
       </c>
       <c r="BG146">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BH146">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BI146">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BJ146">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="BK146">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="BL146">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="BM146">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BN146">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="BO146">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP146">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31278,7 +31278,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7492291</v>
+        <v>7492297</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31287,196 +31287,196 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45634.45833333334</v>
+        <v>45634.58333333334</v>
       </c>
       <c r="F147">
         <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H147" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
         <v>4</v>
       </c>
-      <c r="K147">
-        <v>5</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
-        <v>4</v>
-      </c>
-      <c r="N147">
-        <v>5</v>
-      </c>
       <c r="O147" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T147">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U147">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V147">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W147">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.73</v>
+      </c>
+      <c r="AA147">
+        <v>3.38</v>
+      </c>
+      <c r="AB147">
+        <v>2.57</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
         <v>11</v>
       </c>
-      <c r="Y147">
-        <v>1.05</v>
-      </c>
-      <c r="Z147">
-        <v>2.28</v>
-      </c>
-      <c r="AA147">
-        <v>2.88</v>
-      </c>
-      <c r="AB147">
-        <v>2.88</v>
-      </c>
-      <c r="AC147">
-        <v>1.1</v>
-      </c>
-      <c r="AD147">
-        <v>7.5</v>
-      </c>
       <c r="AE147">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AF147">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="AG147">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="AH147">
+        <v>1.9</v>
+      </c>
+      <c r="AI147">
+        <v>1.67</v>
+      </c>
+      <c r="AJ147">
+        <v>2.1</v>
+      </c>
+      <c r="AK147">
         <v>1.52</v>
       </c>
-      <c r="AI147">
-        <v>1.95</v>
-      </c>
-      <c r="AJ147">
-        <v>1.8</v>
-      </c>
-      <c r="AK147">
-        <v>1.4</v>
-      </c>
       <c r="AL147">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM147">
+        <v>1.5</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
+        <v>0.63</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+      <c r="AQ147">
+        <v>0.67</v>
+      </c>
+      <c r="AR147">
         <v>1.55</v>
       </c>
-      <c r="AN147">
-        <v>1.29</v>
-      </c>
-      <c r="AO147">
-        <v>1.29</v>
-      </c>
-      <c r="AP147">
-        <v>1.13</v>
-      </c>
-      <c r="AQ147">
-        <v>1.5</v>
-      </c>
-      <c r="AR147">
-        <v>1.08</v>
-      </c>
       <c r="AS147">
-        <v>0.89</v>
+        <v>1.35</v>
       </c>
       <c r="AT147">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>1</v>
+      </c>
+      <c r="AX147">
         <v>4</v>
       </c>
-      <c r="AV147">
-        <v>6</v>
-      </c>
-      <c r="AW147">
-        <v>8</v>
-      </c>
-      <c r="AX147">
-        <v>8</v>
-      </c>
       <c r="AY147">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ147">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA147">
         <v>5</v>
       </c>
       <c r="BB147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC147">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD147">
-        <v>1.79</v>
+        <v>2.07</v>
       </c>
       <c r="BE147">
         <v>6.4</v>
       </c>
       <c r="BF147">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="BG147">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BH147">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BI147">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BJ147">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="BK147">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="BL147">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="BM147">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BN147">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BO147">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="BP147">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31484,7 +31484,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7492297</v>
+        <v>7492295</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31493,196 +31493,196 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45634.58333333334</v>
+        <v>45634.69791666666</v>
       </c>
       <c r="F148">
         <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H148" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="Q148">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R148">
         <v>2.1</v>
       </c>
       <c r="S148">
+        <v>4.75</v>
+      </c>
+      <c r="T148">
+        <v>1.44</v>
+      </c>
+      <c r="U148">
+        <v>2.63</v>
+      </c>
+      <c r="V148">
+        <v>3.25</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>9</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>1.87</v>
+      </c>
+      <c r="AA148">
+        <v>3.55</v>
+      </c>
+      <c r="AB148">
+        <v>4.25</v>
+      </c>
+      <c r="AC148">
+        <v>1.06</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.36</v>
+      </c>
+      <c r="AF148">
         <v>3.2</v>
       </c>
-      <c r="T148">
-        <v>1.4</v>
-      </c>
-      <c r="U148">
-        <v>2.75</v>
-      </c>
-      <c r="V148">
-        <v>2.75</v>
-      </c>
-      <c r="W148">
-        <v>1.4</v>
-      </c>
-      <c r="X148">
-        <v>8</v>
-      </c>
-      <c r="Y148">
-        <v>1.08</v>
-      </c>
-      <c r="Z148">
-        <v>2.73</v>
-      </c>
-      <c r="AA148">
-        <v>3.38</v>
-      </c>
-      <c r="AB148">
+      <c r="AG148">
+        <v>2.05</v>
+      </c>
+      <c r="AH148">
+        <v>1.75</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.26</v>
+      </c>
+      <c r="AL148">
+        <v>1.26</v>
+      </c>
+      <c r="AM148">
+        <v>1.9</v>
+      </c>
+      <c r="AN148">
         <v>2.57</v>
       </c>
-      <c r="AC148">
-        <v>1.05</v>
-      </c>
-      <c r="AD148">
+      <c r="AO148">
+        <v>1.29</v>
+      </c>
+      <c r="AP148">
+        <v>2.25</v>
+      </c>
+      <c r="AQ148">
+        <v>1.5</v>
+      </c>
+      <c r="AR148">
+        <v>1.5</v>
+      </c>
+      <c r="AS148">
+        <v>1.62</v>
+      </c>
+      <c r="AT148">
+        <v>3.12</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
         <v>11</v>
-      </c>
-      <c r="AE148">
-        <v>1.3</v>
-      </c>
-      <c r="AF148">
-        <v>3.6</v>
-      </c>
-      <c r="AG148">
-        <v>1.85</v>
-      </c>
-      <c r="AH148">
-        <v>1.9</v>
-      </c>
-      <c r="AI148">
-        <v>1.67</v>
-      </c>
-      <c r="AJ148">
-        <v>2.1</v>
-      </c>
-      <c r="AK148">
-        <v>1.52</v>
-      </c>
-      <c r="AL148">
-        <v>1.28</v>
-      </c>
-      <c r="AM148">
-        <v>1.5</v>
-      </c>
-      <c r="AN148">
-        <v>1</v>
-      </c>
-      <c r="AO148">
-        <v>0.63</v>
-      </c>
-      <c r="AP148">
-        <v>1</v>
-      </c>
-      <c r="AQ148">
-        <v>0.67</v>
-      </c>
-      <c r="AR148">
-        <v>1.55</v>
-      </c>
-      <c r="AS148">
-        <v>1.35</v>
-      </c>
-      <c r="AT148">
-        <v>2.9</v>
-      </c>
-      <c r="AU148">
-        <v>6</v>
-      </c>
-      <c r="AV148">
-        <v>5</v>
-      </c>
-      <c r="AW148">
-        <v>1</v>
       </c>
       <c r="AX148">
         <v>4</v>
       </c>
       <c r="AY148">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ148">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB148">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC148">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD148">
-        <v>2.07</v>
+        <v>1.5</v>
       </c>
       <c r="BE148">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF148">
-        <v>1.94</v>
+        <v>2.8</v>
       </c>
       <c r="BG148">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BH148">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BI148">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="BJ148">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BK148">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BL148">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="BM148">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BN148">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BO148">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BP148">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="149" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1191,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -9977,7 +9977,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -13270,7 +13270,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -14715,7 +14715,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR66">
         <v>1.21</v>
@@ -16772,7 +16772,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17393,7 +17393,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR79">
         <v>1.44</v>
@@ -20480,7 +20480,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ94">
         <v>2.33</v>
@@ -21719,7 +21719,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -23570,7 +23570,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ109">
         <v>0.67</v>
@@ -24809,7 +24809,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR115">
         <v>1.41</v>
@@ -27690,7 +27690,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -30371,7 +30371,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR142">
         <v>1.24</v>
@@ -31889,6 +31889,212 @@
       </c>
       <c r="BP149">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7492301</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45639.69791666666</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>83</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>92</v>
+      </c>
+      <c r="P150" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q150">
+        <v>3.4</v>
+      </c>
+      <c r="R150">
+        <v>1.83</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.62</v>
+      </c>
+      <c r="U150">
+        <v>2.2</v>
+      </c>
+      <c r="V150">
+        <v>4</v>
+      </c>
+      <c r="W150">
+        <v>1.22</v>
+      </c>
+      <c r="X150">
+        <v>13</v>
+      </c>
+      <c r="Y150">
+        <v>1.04</v>
+      </c>
+      <c r="Z150">
+        <v>2.62</v>
+      </c>
+      <c r="AA150">
+        <v>3</v>
+      </c>
+      <c r="AB150">
+        <v>2.9</v>
+      </c>
+      <c r="AC150">
+        <v>1.12</v>
+      </c>
+      <c r="AD150">
+        <v>6.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.55</v>
+      </c>
+      <c r="AF150">
+        <v>2.37</v>
+      </c>
+      <c r="AG150">
+        <v>2.82</v>
+      </c>
+      <c r="AH150">
+        <v>1.4</v>
+      </c>
+      <c r="AI150">
+        <v>2.25</v>
+      </c>
+      <c r="AJ150">
+        <v>1.57</v>
+      </c>
+      <c r="AK150">
+        <v>1.4</v>
+      </c>
+      <c r="AL150">
+        <v>1.35</v>
+      </c>
+      <c r="AM150">
+        <v>1.52</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
+        <v>1</v>
+      </c>
+      <c r="AP150">
+        <v>0.88</v>
+      </c>
+      <c r="AQ150">
+        <v>1.22</v>
+      </c>
+      <c r="AR150">
+        <v>0.84</v>
+      </c>
+      <c r="AS150">
+        <v>1.05</v>
+      </c>
+      <c r="AT150">
+        <v>1.89</v>
+      </c>
+      <c r="AU150">
+        <v>5</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>3</v>
+      </c>
+      <c r="AX150">
+        <v>8</v>
+      </c>
+      <c r="AY150">
+        <v>11</v>
+      </c>
+      <c r="AZ150">
+        <v>15</v>
+      </c>
+      <c r="BA150">
+        <v>12</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
+        <v>15</v>
+      </c>
+      <c r="BD150">
+        <v>1.95</v>
+      </c>
+      <c r="BE150">
+        <v>6.4</v>
+      </c>
+      <c r="BF150">
+        <v>2.05</v>
+      </c>
+      <c r="BG150">
+        <v>1.35</v>
+      </c>
+      <c r="BH150">
+        <v>2.9</v>
+      </c>
+      <c r="BI150">
+        <v>1.6</v>
+      </c>
+      <c r="BJ150">
+        <v>2.17</v>
+      </c>
+      <c r="BK150">
+        <v>1.98</v>
+      </c>
+      <c r="BL150">
+        <v>1.72</v>
+      </c>
+      <c r="BM150">
+        <v>2.55</v>
+      </c>
+      <c r="BN150">
+        <v>1.44</v>
+      </c>
+      <c r="BO150">
+        <v>3.4</v>
+      </c>
+      <c r="BP150">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['16', '69']</t>
   </si>
   <si>
+    <t>['19', '90+5']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -830,6 +833,12 @@
   </si>
   <si>
     <t>['6', '70']</t>
+  </si>
+  <si>
+    <t>['50', '76', '81']</t>
+  </si>
+  <si>
+    <t>['61', '83']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1459,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2068,7 +2077,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2274,7 +2283,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2561,7 +2570,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2764,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0.57</v>
@@ -2892,7 +2901,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2973,7 +2982,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ9">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3098,7 +3107,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3179,7 +3188,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3382,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3510,7 +3519,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3588,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3716,7 +3725,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4128,7 +4137,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4415,7 +4424,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4621,7 +4630,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4952,7 +4961,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5236,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5364,7 +5373,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5570,7 +5579,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5857,7 +5866,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5982,7 +5991,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6394,7 +6403,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6600,7 +6609,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6806,7 +6815,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7012,7 +7021,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7296,7 +7305,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7502,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>0.57</v>
@@ -7630,7 +7639,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8123,7 +8132,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -8248,7 +8257,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8660,7 +8669,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8866,7 +8875,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8944,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9072,7 +9081,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9278,7 +9287,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9484,7 +9493,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9690,7 +9699,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9768,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9896,7 +9905,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10386,10 +10395,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -10514,7 +10523,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10720,7 +10729,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10926,7 +10935,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11338,7 +11347,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11544,7 +11553,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11956,7 +11965,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12034,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>2.33</v>
@@ -12162,7 +12171,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12368,7 +12377,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12449,7 +12458,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12574,7 +12583,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12861,7 +12870,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR57">
         <v>2.07</v>
@@ -12986,7 +12995,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13604,7 +13613,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14097,7 +14106,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14300,7 +14309,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14428,7 +14437,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14634,7 +14643,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14840,7 +14849,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14918,7 +14927,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>0.71</v>
@@ -15252,7 +15261,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15458,7 +15467,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15664,7 +15673,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16076,7 +16085,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16566,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16694,7 +16703,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16775,7 +16784,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -16900,7 +16909,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17106,7 +17115,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17187,7 +17196,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17312,7 +17321,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17390,7 +17399,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.22</v>
@@ -17518,7 +17527,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17724,7 +17733,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18008,7 +18017,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>0.71</v>
@@ -18548,7 +18557,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19166,7 +19175,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19247,7 +19256,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ88">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR88">
         <v>0.85</v>
@@ -19372,7 +19381,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19578,7 +19587,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19990,7 +19999,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20068,7 +20077,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20196,7 +20205,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20277,7 +20286,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20402,7 +20411,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20608,7 +20617,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20814,7 +20823,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20892,7 +20901,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21226,7 +21235,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21432,7 +21441,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22050,7 +22059,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22128,7 +22137,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
         <v>1.86</v>
@@ -22462,7 +22471,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22543,7 +22552,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22668,7 +22677,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22874,7 +22883,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23161,7 +23170,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ107">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23286,7 +23295,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23698,7 +23707,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23904,7 +23913,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24110,7 +24119,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24316,7 +24325,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24522,7 +24531,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24600,7 +24609,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
         <v>1.14</v>
@@ -24806,7 +24815,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ115">
         <v>1.22</v>
@@ -24934,7 +24943,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25140,7 +25149,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25346,7 +25355,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25839,7 +25848,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ120">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -25964,7 +25973,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26376,7 +26385,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26457,7 +26466,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26582,7 +26591,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26788,7 +26797,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26994,7 +27003,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27612,7 +27621,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28102,7 +28111,7 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
         <v>0.43</v>
@@ -28723,7 +28732,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ134">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -28848,7 +28857,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -28926,7 +28935,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>1.5</v>
@@ -29260,7 +29269,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29341,7 +29350,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ137">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR137">
         <v>1.14</v>
@@ -29466,7 +29475,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29672,7 +29681,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29753,7 +29762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30496,7 +30505,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30574,7 +30583,7 @@
         <v>1.57</v>
       </c>
       <c r="AP143">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ143">
         <v>1.5</v>
@@ -30702,7 +30711,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31114,7 +31123,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31320,7 +31329,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31526,7 +31535,7 @@
         <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31732,7 +31741,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32095,6 +32104,624 @@
       </c>
       <c r="BP150">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7492299</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45640.45833333334</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>76</v>
+      </c>
+      <c r="H151" t="s">
+        <v>89</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>92</v>
+      </c>
+      <c r="P151" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q151">
+        <v>5</v>
+      </c>
+      <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
+        <v>2.1</v>
+      </c>
+      <c r="T151">
+        <v>1.3</v>
+      </c>
+      <c r="U151">
+        <v>3.4</v>
+      </c>
+      <c r="V151">
+        <v>2.38</v>
+      </c>
+      <c r="W151">
+        <v>1.53</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.13</v>
+      </c>
+      <c r="Z151">
+        <v>5</v>
+      </c>
+      <c r="AA151">
+        <v>4.2</v>
+      </c>
+      <c r="AB151">
+        <v>1.6</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>17</v>
+      </c>
+      <c r="AE151">
+        <v>1.19</v>
+      </c>
+      <c r="AF151">
+        <v>4.75</v>
+      </c>
+      <c r="AG151">
+        <v>1.57</v>
+      </c>
+      <c r="AH151">
+        <v>2.25</v>
+      </c>
+      <c r="AI151">
+        <v>1.67</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>2.45</v>
+      </c>
+      <c r="AL151">
+        <v>1.18</v>
+      </c>
+      <c r="AM151">
+        <v>1.15</v>
+      </c>
+      <c r="AN151">
+        <v>1.13</v>
+      </c>
+      <c r="AO151">
+        <v>2</v>
+      </c>
+      <c r="AP151">
+        <v>1</v>
+      </c>
+      <c r="AQ151">
+        <v>2.11</v>
+      </c>
+      <c r="AR151">
+        <v>1.42</v>
+      </c>
+      <c r="AS151">
+        <v>1.74</v>
+      </c>
+      <c r="AT151">
+        <v>3.16</v>
+      </c>
+      <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>2</v>
+      </c>
+      <c r="AX151">
+        <v>8</v>
+      </c>
+      <c r="AY151">
+        <v>14</v>
+      </c>
+      <c r="AZ151">
+        <v>13</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>2.8</v>
+      </c>
+      <c r="BE151">
+        <v>6.75</v>
+      </c>
+      <c r="BF151">
+        <v>1.52</v>
+      </c>
+      <c r="BG151">
+        <v>1.27</v>
+      </c>
+      <c r="BH151">
+        <v>3.3</v>
+      </c>
+      <c r="BI151">
+        <v>1.47</v>
+      </c>
+      <c r="BJ151">
+        <v>2.43</v>
+      </c>
+      <c r="BK151">
+        <v>1.78</v>
+      </c>
+      <c r="BL151">
+        <v>1.91</v>
+      </c>
+      <c r="BM151">
+        <v>2.23</v>
+      </c>
+      <c r="BN151">
+        <v>1.57</v>
+      </c>
+      <c r="BO151">
+        <v>2.85</v>
+      </c>
+      <c r="BP151">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7492307</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45640.58333333334</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>80</v>
+      </c>
+      <c r="H152" t="s">
+        <v>85</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>91</v>
+      </c>
+      <c r="P152" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q152">
+        <v>5.5</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>2.4</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>3.4</v>
+      </c>
+      <c r="W152">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <v>10</v>
+      </c>
+      <c r="Y152">
+        <v>1.06</v>
+      </c>
+      <c r="Z152">
+        <v>4.55</v>
+      </c>
+      <c r="AA152">
+        <v>3.2</v>
+      </c>
+      <c r="AB152">
+        <v>1.82</v>
+      </c>
+      <c r="AC152">
+        <v>1.07</v>
+      </c>
+      <c r="AD152">
+        <v>9</v>
+      </c>
+      <c r="AE152">
+        <v>1.4</v>
+      </c>
+      <c r="AF152">
+        <v>2.95</v>
+      </c>
+      <c r="AG152">
+        <v>2.15</v>
+      </c>
+      <c r="AH152">
+        <v>1.7</v>
+      </c>
+      <c r="AI152">
+        <v>2.05</v>
+      </c>
+      <c r="AJ152">
+        <v>1.7</v>
+      </c>
+      <c r="AK152">
+        <v>2.1</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>1.19</v>
+      </c>
+      <c r="AN152">
+        <v>1.71</v>
+      </c>
+      <c r="AO152">
+        <v>2</v>
+      </c>
+      <c r="AP152">
+        <v>1.5</v>
+      </c>
+      <c r="AQ152">
+        <v>2.13</v>
+      </c>
+      <c r="AR152">
+        <v>1.05</v>
+      </c>
+      <c r="AS152">
+        <v>1.1</v>
+      </c>
+      <c r="AT152">
+        <v>2.15</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>2</v>
+      </c>
+      <c r="AX152">
+        <v>10</v>
+      </c>
+      <c r="AY152">
+        <v>8</v>
+      </c>
+      <c r="AZ152">
+        <v>18</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
+        <v>9</v>
+      </c>
+      <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>2.95</v>
+      </c>
+      <c r="BE152">
+        <v>7</v>
+      </c>
+      <c r="BF152">
+        <v>1.47</v>
+      </c>
+      <c r="BG152">
+        <v>1.27</v>
+      </c>
+      <c r="BH152">
+        <v>3.3</v>
+      </c>
+      <c r="BI152">
+        <v>1.48</v>
+      </c>
+      <c r="BJ152">
+        <v>2.45</v>
+      </c>
+      <c r="BK152">
+        <v>1.77</v>
+      </c>
+      <c r="BL152">
+        <v>1.91</v>
+      </c>
+      <c r="BM152">
+        <v>2.18</v>
+      </c>
+      <c r="BN152">
+        <v>1.58</v>
+      </c>
+      <c r="BO152">
+        <v>2.8</v>
+      </c>
+      <c r="BP152">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7492302</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45640.69791666666</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>87</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>191</v>
+      </c>
+      <c r="P153" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q153">
+        <v>1.91</v>
+      </c>
+      <c r="R153">
+        <v>2.38</v>
+      </c>
+      <c r="S153">
+        <v>8</v>
+      </c>
+      <c r="T153">
+        <v>1.36</v>
+      </c>
+      <c r="U153">
+        <v>3</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>1.38</v>
+      </c>
+      <c r="AA153">
+        <v>4.3</v>
+      </c>
+      <c r="AB153">
+        <v>8.1</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>13</v>
+      </c>
+      <c r="AE153">
+        <v>1.28</v>
+      </c>
+      <c r="AF153">
+        <v>3.75</v>
+      </c>
+      <c r="AG153">
+        <v>1.9</v>
+      </c>
+      <c r="AH153">
+        <v>1.96</v>
+      </c>
+      <c r="AI153">
+        <v>2.2</v>
+      </c>
+      <c r="AJ153">
+        <v>1.62</v>
+      </c>
+      <c r="AK153">
+        <v>1.06</v>
+      </c>
+      <c r="AL153">
+        <v>1.15</v>
+      </c>
+      <c r="AM153">
+        <v>3.1</v>
+      </c>
+      <c r="AN153">
+        <v>1.75</v>
+      </c>
+      <c r="AO153">
+        <v>0.25</v>
+      </c>
+      <c r="AP153">
+        <v>1.67</v>
+      </c>
+      <c r="AQ153">
+        <v>0.33</v>
+      </c>
+      <c r="AR153">
+        <v>1.3</v>
+      </c>
+      <c r="AS153">
+        <v>0.98</v>
+      </c>
+      <c r="AT153">
+        <v>2.28</v>
+      </c>
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>3</v>
+      </c>
+      <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>13</v>
+      </c>
+      <c r="AZ153">
+        <v>9</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>11</v>
+      </c>
+      <c r="BD153">
+        <v>1.22</v>
+      </c>
+      <c r="BE153">
+        <v>8.5</v>
+      </c>
+      <c r="BF153">
+        <v>4.6</v>
+      </c>
+      <c r="BG153">
+        <v>1.24</v>
+      </c>
+      <c r="BH153">
+        <v>3.55</v>
+      </c>
+      <c r="BI153">
+        <v>1.44</v>
+      </c>
+      <c r="BJ153">
+        <v>2.55</v>
+      </c>
+      <c r="BK153">
+        <v>1.71</v>
+      </c>
+      <c r="BL153">
+        <v>2</v>
+      </c>
+      <c r="BM153">
+        <v>2.08</v>
+      </c>
+      <c r="BN153">
+        <v>1.65</v>
+      </c>
+      <c r="BO153">
+        <v>2.65</v>
+      </c>
+      <c r="BP153">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,15 @@
     <t>['19', '90+5']</t>
   </si>
   <si>
+    <t>['3', '44']</t>
+  </si>
+  <si>
+    <t>['19', '90']</t>
+  </si>
+  <si>
+    <t>['90+3', '90+7']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -839,6 +848,9 @@
   </si>
   <si>
     <t>['61', '83']</t>
+  </si>
+  <si>
+    <t>['5', '57', '75']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1471,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1743,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1952,7 +1964,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2077,7 +2089,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2155,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
         <v>1.22</v>
@@ -2283,7 +2295,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2361,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2776,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2901,7 +2913,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3107,7 +3119,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3185,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>2.11</v>
@@ -3519,7 +3531,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3725,7 +3737,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3803,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ13">
         <v>1.14</v>
@@ -4137,7 +4149,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4218,7 +4230,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4961,7 +4973,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5373,7 +5385,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5579,7 +5591,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5991,7 +6003,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6069,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6275,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.71</v>
@@ -6403,7 +6415,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6609,7 +6621,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6815,7 +6827,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6896,7 +6908,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.56</v>
@@ -7021,7 +7033,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7102,7 +7114,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>1.74</v>
@@ -7514,7 +7526,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7639,7 +7651,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7717,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -8129,7 +8141,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -8257,7 +8269,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8338,7 +8350,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ35">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.23</v>
@@ -8669,7 +8681,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8750,7 +8762,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8875,7 +8887,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9081,7 +9093,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9287,7 +9299,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9365,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9493,7 +9505,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9574,7 +9586,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ41">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9699,7 +9711,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9905,7 +9917,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10192,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10523,7 +10535,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10601,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10729,7 +10741,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10935,7 +10947,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11347,7 +11359,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11553,7 +11565,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11837,7 +11849,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11965,7 +11977,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12171,7 +12183,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12377,7 +12389,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12455,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ55">
         <v>2.11</v>
@@ -12583,7 +12595,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12995,7 +13007,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13073,10 +13085,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13282,7 +13294,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>0.91</v>
@@ -13488,7 +13500,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -13613,7 +13625,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13691,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61">
         <v>0.71</v>
@@ -14437,7 +14449,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14518,7 +14530,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14643,7 +14655,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14849,7 +14861,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15133,7 +15145,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15261,7 +15273,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15467,7 +15479,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15548,7 +15560,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ70">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>0.9399999999999999</v>
@@ -15673,7 +15685,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15957,7 +15969,7 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16085,7 +16097,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16369,7 +16381,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16703,7 +16715,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16909,7 +16921,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -16987,10 +16999,10 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17115,7 +17127,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17321,7 +17333,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17527,7 +17539,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17733,7 +17745,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17814,7 +17826,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.08</v>
@@ -18557,7 +18569,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18638,7 +18650,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ85">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -18841,7 +18853,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ86">
         <v>1.5</v>
@@ -19050,7 +19062,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19175,7 +19187,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19381,7 +19393,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19587,7 +19599,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19668,7 +19680,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ90">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
         <v>1.56</v>
@@ -19871,10 +19883,10 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -19999,7 +20011,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20205,7 +20217,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20283,7 +20295,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ93">
         <v>2.13</v>
@@ -20411,7 +20423,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20617,7 +20629,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20823,7 +20835,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21110,7 +21122,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR97">
         <v>1.88</v>
@@ -21235,7 +21247,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21316,7 +21328,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR98">
         <v>1.23</v>
@@ -21441,7 +21453,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21519,7 +21531,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -21931,7 +21943,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22059,7 +22071,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22471,7 +22483,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22677,7 +22689,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22758,7 +22770,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR105">
         <v>1.14</v>
@@ -22883,7 +22895,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22964,7 +22976,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23295,7 +23307,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23373,10 +23385,10 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR108">
         <v>1.36</v>
@@ -23707,7 +23719,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23913,7 +23925,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24119,7 +24131,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24197,7 +24209,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1.5</v>
@@ -24325,7 +24337,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24531,7 +24543,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24943,7 +24955,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25149,7 +25161,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25355,7 +25367,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25436,7 +25448,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ118">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR118">
         <v>1.7</v>
@@ -25973,7 +25985,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26257,7 +26269,7 @@
         <v>2.2</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>1.86</v>
@@ -26385,7 +26397,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26463,7 +26475,7 @@
         <v>1.67</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ123">
         <v>2.11</v>
@@ -26591,7 +26603,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26797,7 +26809,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26875,10 +26887,10 @@
         <v>1.83</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR125">
         <v>1.5</v>
@@ -27003,7 +27015,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27084,7 +27096,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.11</v>
@@ -27290,7 +27302,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ127">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27621,7 +27633,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28114,7 +28126,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28317,10 +28329,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28523,7 +28535,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -28729,7 +28741,7 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ134">
         <v>0.33</v>
@@ -28857,7 +28869,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -28938,7 +28950,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR135">
         <v>1.11</v>
@@ -29141,7 +29153,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29269,7 +29281,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29475,7 +29487,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29553,7 +29565,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.86</v>
@@ -29681,7 +29693,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30505,7 +30517,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30711,7 +30723,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31123,7 +31135,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31329,7 +31341,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31535,7 +31547,7 @@
         <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31741,7 +31753,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32111,7 +32123,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7492299</v>
+        <v>7492307</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32120,166 +32132,166 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45640.45833333334</v>
+        <v>45639.875</v>
       </c>
       <c r="F151">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H151" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P151" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="Q151">
+        <v>5.5</v>
+      </c>
+      <c r="R151">
+        <v>2.1</v>
+      </c>
+      <c r="S151">
+        <v>2.4</v>
+      </c>
+      <c r="T151">
+        <v>1.44</v>
+      </c>
+      <c r="U151">
+        <v>2.63</v>
+      </c>
+      <c r="V151">
+        <v>3.4</v>
+      </c>
+      <c r="W151">
+        <v>1.3</v>
+      </c>
+      <c r="X151">
+        <v>10</v>
+      </c>
+      <c r="Y151">
+        <v>1.06</v>
+      </c>
+      <c r="Z151">
+        <v>4.55</v>
+      </c>
+      <c r="AA151">
+        <v>3.2</v>
+      </c>
+      <c r="AB151">
+        <v>1.82</v>
+      </c>
+      <c r="AC151">
+        <v>1.07</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.4</v>
+      </c>
+      <c r="AF151">
+        <v>2.95</v>
+      </c>
+      <c r="AG151">
+        <v>2.15</v>
+      </c>
+      <c r="AH151">
+        <v>1.7</v>
+      </c>
+      <c r="AI151">
+        <v>2.05</v>
+      </c>
+      <c r="AJ151">
+        <v>1.7</v>
+      </c>
+      <c r="AK151">
+        <v>2.1</v>
+      </c>
+      <c r="AL151">
+        <v>1.25</v>
+      </c>
+      <c r="AM151">
+        <v>1.19</v>
+      </c>
+      <c r="AN151">
+        <v>1.71</v>
+      </c>
+      <c r="AO151">
+        <v>2</v>
+      </c>
+      <c r="AP151">
+        <v>1.5</v>
+      </c>
+      <c r="AQ151">
+        <v>2.13</v>
+      </c>
+      <c r="AR151">
+        <v>1.05</v>
+      </c>
+      <c r="AS151">
+        <v>1.1</v>
+      </c>
+      <c r="AT151">
+        <v>2.15</v>
+      </c>
+      <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
         <v>5</v>
       </c>
-      <c r="R151">
-        <v>2.4</v>
-      </c>
-      <c r="S151">
-        <v>2.1</v>
-      </c>
-      <c r="T151">
-        <v>1.3</v>
-      </c>
-      <c r="U151">
-        <v>3.4</v>
-      </c>
-      <c r="V151">
-        <v>2.38</v>
-      </c>
-      <c r="W151">
-        <v>1.53</v>
-      </c>
-      <c r="X151">
-        <v>6</v>
-      </c>
-      <c r="Y151">
-        <v>1.13</v>
-      </c>
-      <c r="Z151">
-        <v>5</v>
-      </c>
-      <c r="AA151">
-        <v>4.2</v>
-      </c>
-      <c r="AB151">
-        <v>1.6</v>
-      </c>
-      <c r="AC151">
-        <v>1.02</v>
-      </c>
-      <c r="AD151">
-        <v>17</v>
-      </c>
-      <c r="AE151">
-        <v>1.19</v>
-      </c>
-      <c r="AF151">
-        <v>4.75</v>
-      </c>
-      <c r="AG151">
-        <v>1.57</v>
-      </c>
-      <c r="AH151">
-        <v>2.25</v>
-      </c>
-      <c r="AI151">
-        <v>1.67</v>
-      </c>
-      <c r="AJ151">
-        <v>2.1</v>
-      </c>
-      <c r="AK151">
-        <v>2.45</v>
-      </c>
-      <c r="AL151">
-        <v>1.18</v>
-      </c>
-      <c r="AM151">
-        <v>1.15</v>
-      </c>
-      <c r="AN151">
-        <v>1.13</v>
-      </c>
-      <c r="AO151">
-        <v>2</v>
-      </c>
-      <c r="AP151">
-        <v>1</v>
-      </c>
-      <c r="AQ151">
-        <v>2.11</v>
-      </c>
-      <c r="AR151">
-        <v>1.42</v>
-      </c>
-      <c r="AS151">
-        <v>1.74</v>
-      </c>
-      <c r="AT151">
-        <v>3.16</v>
-      </c>
-      <c r="AU151">
+      <c r="AW151">
+        <v>2</v>
+      </c>
+      <c r="AX151">
+        <v>10</v>
+      </c>
+      <c r="AY151">
+        <v>8</v>
+      </c>
+      <c r="AZ151">
+        <v>18</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
         <v>9</v>
       </c>
-      <c r="AV151">
-        <v>3</v>
-      </c>
-      <c r="AW151">
-        <v>2</v>
-      </c>
-      <c r="AX151">
-        <v>8</v>
-      </c>
-      <c r="AY151">
-        <v>14</v>
-      </c>
-      <c r="AZ151">
-        <v>13</v>
-      </c>
-      <c r="BA151">
-        <v>2</v>
-      </c>
-      <c r="BB151">
-        <v>5</v>
-      </c>
       <c r="BC151">
+        <v>12</v>
+      </c>
+      <c r="BD151">
+        <v>2.95</v>
+      </c>
+      <c r="BE151">
         <v>7</v>
       </c>
-      <c r="BD151">
-        <v>2.8</v>
-      </c>
-      <c r="BE151">
-        <v>6.75</v>
-      </c>
       <c r="BF151">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BG151">
         <v>1.27</v>
@@ -32288,25 +32300,25 @@
         <v>3.3</v>
       </c>
       <c r="BI151">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BJ151">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="BK151">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="BL151">
         <v>1.91</v>
       </c>
       <c r="BM151">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BN151">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO151">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="BP151">
         <v>1.36</v>
@@ -32317,7 +32329,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7492307</v>
+        <v>7492299</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32326,166 +32338,166 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45640.58333333334</v>
+        <v>45639.875</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H152" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P152" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="Q152">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R152">
+        <v>2.4</v>
+      </c>
+      <c r="S152">
         <v>2.1</v>
       </c>
-      <c r="S152">
-        <v>2.4</v>
-      </c>
       <c r="T152">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U152">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V152">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="W152">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="X152">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y152">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="Z152">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="AA152">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AB152">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AC152">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD152">
+        <v>17</v>
+      </c>
+      <c r="AE152">
+        <v>1.19</v>
+      </c>
+      <c r="AF152">
+        <v>4.75</v>
+      </c>
+      <c r="AG152">
+        <v>1.57</v>
+      </c>
+      <c r="AH152">
+        <v>2.25</v>
+      </c>
+      <c r="AI152">
+        <v>1.67</v>
+      </c>
+      <c r="AJ152">
+        <v>2.1</v>
+      </c>
+      <c r="AK152">
+        <v>2.45</v>
+      </c>
+      <c r="AL152">
+        <v>1.18</v>
+      </c>
+      <c r="AM152">
+        <v>1.15</v>
+      </c>
+      <c r="AN152">
+        <v>1.13</v>
+      </c>
+      <c r="AO152">
+        <v>2</v>
+      </c>
+      <c r="AP152">
+        <v>1</v>
+      </c>
+      <c r="AQ152">
+        <v>2.11</v>
+      </c>
+      <c r="AR152">
+        <v>1.42</v>
+      </c>
+      <c r="AS152">
+        <v>1.74</v>
+      </c>
+      <c r="AT152">
+        <v>3.16</v>
+      </c>
+      <c r="AU152">
         <v>9</v>
       </c>
-      <c r="AE152">
-        <v>1.4</v>
-      </c>
-      <c r="AF152">
-        <v>2.95</v>
-      </c>
-      <c r="AG152">
-        <v>2.15</v>
-      </c>
-      <c r="AH152">
-        <v>1.7</v>
-      </c>
-      <c r="AI152">
-        <v>2.05</v>
-      </c>
-      <c r="AJ152">
-        <v>1.7</v>
-      </c>
-      <c r="AK152">
-        <v>2.1</v>
-      </c>
-      <c r="AL152">
-        <v>1.25</v>
-      </c>
-      <c r="AM152">
-        <v>1.19</v>
-      </c>
-      <c r="AN152">
-        <v>1.71</v>
-      </c>
-      <c r="AO152">
-        <v>2</v>
-      </c>
-      <c r="AP152">
-        <v>1.5</v>
-      </c>
-      <c r="AQ152">
-        <v>2.13</v>
-      </c>
-      <c r="AR152">
-        <v>1.05</v>
-      </c>
-      <c r="AS152">
-        <v>1.1</v>
-      </c>
-      <c r="AT152">
-        <v>2.15</v>
-      </c>
-      <c r="AU152">
-        <v>4</v>
-      </c>
       <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>2</v>
+      </c>
+      <c r="AX152">
+        <v>8</v>
+      </c>
+      <c r="AY152">
+        <v>14</v>
+      </c>
+      <c r="AZ152">
+        <v>13</v>
+      </c>
+      <c r="BA152">
+        <v>2</v>
+      </c>
+      <c r="BB152">
         <v>5</v>
       </c>
-      <c r="AW152">
-        <v>2</v>
-      </c>
-      <c r="AX152">
-        <v>10</v>
-      </c>
-      <c r="AY152">
-        <v>8</v>
-      </c>
-      <c r="AZ152">
-        <v>18</v>
-      </c>
-      <c r="BA152">
-        <v>3</v>
-      </c>
-      <c r="BB152">
-        <v>9</v>
-      </c>
       <c r="BC152">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD152">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BE152">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF152">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BG152">
         <v>1.27</v>
@@ -32494,25 +32506,25 @@
         <v>3.3</v>
       </c>
       <c r="BI152">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ152">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="BK152">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BL152">
         <v>1.91</v>
       </c>
       <c r="BM152">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BN152">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BO152">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="BP152">
         <v>1.36</v>
@@ -32565,7 +32577,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32722,6 +32734,1036 @@
       </c>
       <c r="BP153">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7492304</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45641.35416666666</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s">
+        <v>82</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>192</v>
+      </c>
+      <c r="P154" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q154">
+        <v>3.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>3.75</v>
+      </c>
+      <c r="T154">
+        <v>1.53</v>
+      </c>
+      <c r="U154">
+        <v>2.38</v>
+      </c>
+      <c r="V154">
+        <v>3.5</v>
+      </c>
+      <c r="W154">
+        <v>1.29</v>
+      </c>
+      <c r="X154">
+        <v>11</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.33</v>
+      </c>
+      <c r="AA154">
+        <v>3</v>
+      </c>
+      <c r="AB154">
+        <v>3</v>
+      </c>
+      <c r="AC154">
+        <v>1.1</v>
+      </c>
+      <c r="AD154">
+        <v>7.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.47</v>
+      </c>
+      <c r="AF154">
+        <v>2.75</v>
+      </c>
+      <c r="AG154">
+        <v>2.3</v>
+      </c>
+      <c r="AH154">
+        <v>1.6</v>
+      </c>
+      <c r="AI154">
+        <v>2</v>
+      </c>
+      <c r="AJ154">
+        <v>1.75</v>
+      </c>
+      <c r="AK154">
+        <v>1.38</v>
+      </c>
+      <c r="AL154">
+        <v>1.32</v>
+      </c>
+      <c r="AM154">
+        <v>1.58</v>
+      </c>
+      <c r="AN154">
+        <v>1.29</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154">
+        <v>0.88</v>
+      </c>
+      <c r="AR154">
+        <v>1.38</v>
+      </c>
+      <c r="AS154">
+        <v>0.87</v>
+      </c>
+      <c r="AT154">
+        <v>2.25</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>0</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>8</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
+        <v>10</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>1.67</v>
+      </c>
+      <c r="BE154">
+        <v>6.75</v>
+      </c>
+      <c r="BF154">
+        <v>2.48</v>
+      </c>
+      <c r="BG154">
+        <v>1.34</v>
+      </c>
+      <c r="BH154">
+        <v>2.9</v>
+      </c>
+      <c r="BI154">
+        <v>1.58</v>
+      </c>
+      <c r="BJ154">
+        <v>2.18</v>
+      </c>
+      <c r="BK154">
+        <v>1.96</v>
+      </c>
+      <c r="BL154">
+        <v>1.73</v>
+      </c>
+      <c r="BM154">
+        <v>2.5</v>
+      </c>
+      <c r="BN154">
+        <v>1.46</v>
+      </c>
+      <c r="BO154">
+        <v>3.3</v>
+      </c>
+      <c r="BP154">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7492298</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>74</v>
+      </c>
+      <c r="H155" t="s">
+        <v>84</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>175</v>
+      </c>
+      <c r="P155" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q155">
+        <v>3.4</v>
+      </c>
+      <c r="R155">
+        <v>2.05</v>
+      </c>
+      <c r="S155">
+        <v>3.4</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.63</v>
+      </c>
+      <c r="V155">
+        <v>3.25</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>10</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>2.5</v>
+      </c>
+      <c r="AA155">
+        <v>3.1</v>
+      </c>
+      <c r="AB155">
+        <v>2.6</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>9.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.38</v>
+      </c>
+      <c r="AF155">
+        <v>3.1</v>
+      </c>
+      <c r="AG155">
+        <v>2.1</v>
+      </c>
+      <c r="AH155">
+        <v>1.7</v>
+      </c>
+      <c r="AI155">
+        <v>1.8</v>
+      </c>
+      <c r="AJ155">
+        <v>1.95</v>
+      </c>
+      <c r="AK155">
+        <v>1.48</v>
+      </c>
+      <c r="AL155">
+        <v>1.3</v>
+      </c>
+      <c r="AM155">
+        <v>1.5</v>
+      </c>
+      <c r="AN155">
+        <v>1.67</v>
+      </c>
+      <c r="AO155">
+        <v>2</v>
+      </c>
+      <c r="AP155">
+        <v>1.86</v>
+      </c>
+      <c r="AQ155">
+        <v>1.75</v>
+      </c>
+      <c r="AR155">
+        <v>1.61</v>
+      </c>
+      <c r="AS155">
+        <v>1.31</v>
+      </c>
+      <c r="AT155">
+        <v>2.92</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>5</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>17</v>
+      </c>
+      <c r="AZ155">
+        <v>11</v>
+      </c>
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>4</v>
+      </c>
+      <c r="BD155">
+        <v>1.97</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>2.02</v>
+      </c>
+      <c r="BG155">
+        <v>1.44</v>
+      </c>
+      <c r="BH155">
+        <v>2.55</v>
+      </c>
+      <c r="BI155">
+        <v>1.73</v>
+      </c>
+      <c r="BJ155">
+        <v>1.97</v>
+      </c>
+      <c r="BK155">
+        <v>2.17</v>
+      </c>
+      <c r="BL155">
+        <v>1.58</v>
+      </c>
+      <c r="BM155">
+        <v>2.8</v>
+      </c>
+      <c r="BN155">
+        <v>1.36</v>
+      </c>
+      <c r="BO155">
+        <v>3.8</v>
+      </c>
+      <c r="BP155">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7492306</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>193</v>
+      </c>
+      <c r="P156" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q156">
+        <v>2.4</v>
+      </c>
+      <c r="R156">
+        <v>2.3</v>
+      </c>
+      <c r="S156">
+        <v>4.33</v>
+      </c>
+      <c r="T156">
+        <v>1.33</v>
+      </c>
+      <c r="U156">
+        <v>3.25</v>
+      </c>
+      <c r="V156">
+        <v>2.63</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>6.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.11</v>
+      </c>
+      <c r="Z156">
+        <v>1.86</v>
+      </c>
+      <c r="AA156">
+        <v>3.4</v>
+      </c>
+      <c r="AB156">
+        <v>3.7</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
+        <v>1.22</v>
+      </c>
+      <c r="AF156">
+        <v>4.33</v>
+      </c>
+      <c r="AG156">
+        <v>1.75</v>
+      </c>
+      <c r="AH156">
+        <v>2.05</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.26</v>
+      </c>
+      <c r="AL156">
+        <v>1.22</v>
+      </c>
+      <c r="AM156">
+        <v>1.96</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
+        <v>0.43</v>
+      </c>
+      <c r="AP156">
+        <v>0.89</v>
+      </c>
+      <c r="AQ156">
+        <v>0.75</v>
+      </c>
+      <c r="AR156">
+        <v>1.24</v>
+      </c>
+      <c r="AS156">
+        <v>0.86</v>
+      </c>
+      <c r="AT156">
+        <v>2.1</v>
+      </c>
+      <c r="AU156">
+        <v>9</v>
+      </c>
+      <c r="AV156">
+        <v>7</v>
+      </c>
+      <c r="AW156">
+        <v>6</v>
+      </c>
+      <c r="AX156">
+        <v>9</v>
+      </c>
+      <c r="AY156">
+        <v>20</v>
+      </c>
+      <c r="AZ156">
+        <v>18</v>
+      </c>
+      <c r="BA156">
+        <v>5</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>7</v>
+      </c>
+      <c r="BD156">
+        <v>1.52</v>
+      </c>
+      <c r="BE156">
+        <v>6.75</v>
+      </c>
+      <c r="BF156">
+        <v>2.8</v>
+      </c>
+      <c r="BG156">
+        <v>1.27</v>
+      </c>
+      <c r="BH156">
+        <v>3.3</v>
+      </c>
+      <c r="BI156">
+        <v>1.49</v>
+      </c>
+      <c r="BJ156">
+        <v>2.4</v>
+      </c>
+      <c r="BK156">
+        <v>1.79</v>
+      </c>
+      <c r="BL156">
+        <v>1.9</v>
+      </c>
+      <c r="BM156">
+        <v>2.23</v>
+      </c>
+      <c r="BN156">
+        <v>1.56</v>
+      </c>
+      <c r="BO156">
+        <v>2.9</v>
+      </c>
+      <c r="BP156">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7492300</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45641.58333333334</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>88</v>
+      </c>
+      <c r="H157" t="s">
+        <v>86</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>194</v>
+      </c>
+      <c r="P157" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q157">
+        <v>3.6</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
+        <v>2.75</v>
+      </c>
+      <c r="V157">
+        <v>3</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>8</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>2.9</v>
+      </c>
+      <c r="AA157">
+        <v>3.2</v>
+      </c>
+      <c r="AB157">
+        <v>2.26</v>
+      </c>
+      <c r="AC157">
+        <v>1.06</v>
+      </c>
+      <c r="AD157">
+        <v>10</v>
+      </c>
+      <c r="AE157">
+        <v>1.33</v>
+      </c>
+      <c r="AF157">
+        <v>3.4</v>
+      </c>
+      <c r="AG157">
+        <v>2.02</v>
+      </c>
+      <c r="AH157">
+        <v>1.84</v>
+      </c>
+      <c r="AI157">
+        <v>1.75</v>
+      </c>
+      <c r="AJ157">
+        <v>2</v>
+      </c>
+      <c r="AK157">
+        <v>1.63</v>
+      </c>
+      <c r="AL157">
+        <v>1.28</v>
+      </c>
+      <c r="AM157">
+        <v>1.38</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
+        <v>0.57</v>
+      </c>
+      <c r="AP157">
+        <v>1.29</v>
+      </c>
+      <c r="AQ157">
+        <v>0.5</v>
+      </c>
+      <c r="AR157">
+        <v>1.44</v>
+      </c>
+      <c r="AS157">
+        <v>1.23</v>
+      </c>
+      <c r="AT157">
+        <v>2.67</v>
+      </c>
+      <c r="AU157">
+        <v>8</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>19</v>
+      </c>
+      <c r="AZ157">
+        <v>7</v>
+      </c>
+      <c r="BA157">
+        <v>6</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>11</v>
+      </c>
+      <c r="BD157">
+        <v>1.95</v>
+      </c>
+      <c r="BE157">
+        <v>6.25</v>
+      </c>
+      <c r="BF157">
+        <v>2.07</v>
+      </c>
+      <c r="BG157">
+        <v>1.41</v>
+      </c>
+      <c r="BH157">
+        <v>2.65</v>
+      </c>
+      <c r="BI157">
+        <v>1.71</v>
+      </c>
+      <c r="BJ157">
+        <v>2</v>
+      </c>
+      <c r="BK157">
+        <v>2.12</v>
+      </c>
+      <c r="BL157">
+        <v>1.63</v>
+      </c>
+      <c r="BM157">
+        <v>2.7</v>
+      </c>
+      <c r="BN157">
+        <v>1.38</v>
+      </c>
+      <c r="BO157">
+        <v>3.65</v>
+      </c>
+      <c r="BP157">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7492305</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45641.69791666666</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>92</v>
+      </c>
+      <c r="P158" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q158">
+        <v>1.8</v>
+      </c>
+      <c r="R158">
+        <v>2.6</v>
+      </c>
+      <c r="S158">
+        <v>8</v>
+      </c>
+      <c r="T158">
+        <v>1.3</v>
+      </c>
+      <c r="U158">
+        <v>3.4</v>
+      </c>
+      <c r="V158">
+        <v>2.38</v>
+      </c>
+      <c r="W158">
+        <v>1.53</v>
+      </c>
+      <c r="X158">
+        <v>6</v>
+      </c>
+      <c r="Y158">
+        <v>1.13</v>
+      </c>
+      <c r="Z158">
+        <v>1.28</v>
+      </c>
+      <c r="AA158">
+        <v>5.1</v>
+      </c>
+      <c r="AB158">
+        <v>7.7</v>
+      </c>
+      <c r="AC158">
+        <v>1.02</v>
+      </c>
+      <c r="AD158">
+        <v>19</v>
+      </c>
+      <c r="AE158">
+        <v>1.19</v>
+      </c>
+      <c r="AF158">
+        <v>4.75</v>
+      </c>
+      <c r="AG158">
+        <v>1.59</v>
+      </c>
+      <c r="AH158">
+        <v>2.2</v>
+      </c>
+      <c r="AI158">
+        <v>1.95</v>
+      </c>
+      <c r="AJ158">
+        <v>1.8</v>
+      </c>
+      <c r="AK158">
+        <v>1.03</v>
+      </c>
+      <c r="AL158">
+        <v>1.12</v>
+      </c>
+      <c r="AM158">
+        <v>3.5</v>
+      </c>
+      <c r="AN158">
+        <v>2</v>
+      </c>
+      <c r="AO158">
+        <v>1.5</v>
+      </c>
+      <c r="AP158">
+        <v>1.88</v>
+      </c>
+      <c r="AQ158">
+        <v>1.43</v>
+      </c>
+      <c r="AR158">
+        <v>1.52</v>
+      </c>
+      <c r="AS158">
+        <v>1.01</v>
+      </c>
+      <c r="AT158">
+        <v>2.53</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>2</v>
+      </c>
+      <c r="AW158">
+        <v>9</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>24</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>9</v>
+      </c>
+      <c r="BB158">
+        <v>2</v>
+      </c>
+      <c r="BC158">
+        <v>11</v>
+      </c>
+      <c r="BD158">
+        <v>1.21</v>
+      </c>
+      <c r="BE158">
+        <v>8.5</v>
+      </c>
+      <c r="BF158">
+        <v>4.6</v>
+      </c>
+      <c r="BG158">
+        <v>1.28</v>
+      </c>
+      <c r="BH158">
+        <v>3.2</v>
+      </c>
+      <c r="BI158">
+        <v>1.5</v>
+      </c>
+      <c r="BJ158">
+        <v>2.4</v>
+      </c>
+      <c r="BK158">
+        <v>1.81</v>
+      </c>
+      <c r="BL158">
+        <v>1.88</v>
+      </c>
+      <c r="BM158">
+        <v>2.25</v>
+      </c>
+      <c r="BN158">
+        <v>1.55</v>
+      </c>
+      <c r="BO158">
+        <v>2.9</v>
+      </c>
+      <c r="BP158">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -852,6 +852,9 @@
   <si>
     <t>['5', '57', '75']</t>
   </si>
+  <si>
+    <t>['41', '45', '51', '53', '77', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1555,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -6699,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -9174,7 +9177,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9583,7 +9586,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -12058,7 +12061,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -15351,7 +15354,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -17620,7 +17623,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -19059,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ87">
         <v>1.43</v>
@@ -20504,7 +20507,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ94">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR94">
         <v>0.91</v>
@@ -23797,7 +23800,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ110">
         <v>0.71</v>
@@ -26066,7 +26069,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -27505,7 +27508,7 @@
         <v>1.83</v>
       </c>
       <c r="AP128">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -32123,7 +32126,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7492307</v>
+        <v>7492299</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32135,163 +32138,163 @@
         <v>45639.875</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H151" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="Q151">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
         <v>2.1</v>
       </c>
-      <c r="S151">
-        <v>2.4</v>
-      </c>
       <c r="T151">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U151">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V151">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="W151">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="X151">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y151">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="Z151">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="AA151">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AB151">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AC151">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD151">
+        <v>17</v>
+      </c>
+      <c r="AE151">
+        <v>1.19</v>
+      </c>
+      <c r="AF151">
+        <v>4.75</v>
+      </c>
+      <c r="AG151">
+        <v>1.57</v>
+      </c>
+      <c r="AH151">
+        <v>2.25</v>
+      </c>
+      <c r="AI151">
+        <v>1.67</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>2.45</v>
+      </c>
+      <c r="AL151">
+        <v>1.18</v>
+      </c>
+      <c r="AM151">
+        <v>1.15</v>
+      </c>
+      <c r="AN151">
+        <v>1.13</v>
+      </c>
+      <c r="AO151">
+        <v>2</v>
+      </c>
+      <c r="AP151">
+        <v>1</v>
+      </c>
+      <c r="AQ151">
+        <v>2.11</v>
+      </c>
+      <c r="AR151">
+        <v>1.42</v>
+      </c>
+      <c r="AS151">
+        <v>1.74</v>
+      </c>
+      <c r="AT151">
+        <v>3.16</v>
+      </c>
+      <c r="AU151">
         <v>9</v>
       </c>
-      <c r="AE151">
-        <v>1.4</v>
-      </c>
-      <c r="AF151">
-        <v>2.95</v>
-      </c>
-      <c r="AG151">
-        <v>2.15</v>
-      </c>
-      <c r="AH151">
-        <v>1.7</v>
-      </c>
-      <c r="AI151">
-        <v>2.05</v>
-      </c>
-      <c r="AJ151">
-        <v>1.7</v>
-      </c>
-      <c r="AK151">
-        <v>2.1</v>
-      </c>
-      <c r="AL151">
-        <v>1.25</v>
-      </c>
-      <c r="AM151">
-        <v>1.19</v>
-      </c>
-      <c r="AN151">
-        <v>1.71</v>
-      </c>
-      <c r="AO151">
-        <v>2</v>
-      </c>
-      <c r="AP151">
-        <v>1.5</v>
-      </c>
-      <c r="AQ151">
-        <v>2.13</v>
-      </c>
-      <c r="AR151">
-        <v>1.05</v>
-      </c>
-      <c r="AS151">
-        <v>1.1</v>
-      </c>
-      <c r="AT151">
-        <v>2.15</v>
-      </c>
-      <c r="AU151">
-        <v>4</v>
-      </c>
       <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>2</v>
+      </c>
+      <c r="AX151">
+        <v>8</v>
+      </c>
+      <c r="AY151">
+        <v>14</v>
+      </c>
+      <c r="AZ151">
+        <v>13</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
         <v>5</v>
       </c>
-      <c r="AW151">
-        <v>2</v>
-      </c>
-      <c r="AX151">
-        <v>10</v>
-      </c>
-      <c r="AY151">
-        <v>8</v>
-      </c>
-      <c r="AZ151">
-        <v>18</v>
-      </c>
-      <c r="BA151">
-        <v>3</v>
-      </c>
-      <c r="BB151">
-        <v>9</v>
-      </c>
       <c r="BC151">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD151">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BE151">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF151">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BG151">
         <v>1.27</v>
@@ -32300,25 +32303,25 @@
         <v>3.3</v>
       </c>
       <c r="BI151">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ151">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="BK151">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BL151">
         <v>1.91</v>
       </c>
       <c r="BM151">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BN151">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BO151">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="BP151">
         <v>1.36</v>
@@ -32329,7 +32332,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7492299</v>
+        <v>7492307</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32341,163 +32344,163 @@
         <v>45639.875</v>
       </c>
       <c r="F152">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H152" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O152" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="Q152">
+        <v>5.5</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>2.4</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>3.4</v>
+      </c>
+      <c r="W152">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <v>10</v>
+      </c>
+      <c r="Y152">
+        <v>1.06</v>
+      </c>
+      <c r="Z152">
+        <v>4.55</v>
+      </c>
+      <c r="AA152">
+        <v>3.2</v>
+      </c>
+      <c r="AB152">
+        <v>1.82</v>
+      </c>
+      <c r="AC152">
+        <v>1.07</v>
+      </c>
+      <c r="AD152">
+        <v>9</v>
+      </c>
+      <c r="AE152">
+        <v>1.4</v>
+      </c>
+      <c r="AF152">
+        <v>2.95</v>
+      </c>
+      <c r="AG152">
+        <v>2.15</v>
+      </c>
+      <c r="AH152">
+        <v>1.7</v>
+      </c>
+      <c r="AI152">
+        <v>2.05</v>
+      </c>
+      <c r="AJ152">
+        <v>1.7</v>
+      </c>
+      <c r="AK152">
+        <v>2.1</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>1.19</v>
+      </c>
+      <c r="AN152">
+        <v>1.71</v>
+      </c>
+      <c r="AO152">
+        <v>2</v>
+      </c>
+      <c r="AP152">
+        <v>1.5</v>
+      </c>
+      <c r="AQ152">
+        <v>2.13</v>
+      </c>
+      <c r="AR152">
+        <v>1.05</v>
+      </c>
+      <c r="AS152">
+        <v>1.1</v>
+      </c>
+      <c r="AT152">
+        <v>2.15</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
         <v>5</v>
       </c>
-      <c r="R152">
-        <v>2.4</v>
-      </c>
-      <c r="S152">
-        <v>2.1</v>
-      </c>
-      <c r="T152">
-        <v>1.3</v>
-      </c>
-      <c r="U152">
-        <v>3.4</v>
-      </c>
-      <c r="V152">
-        <v>2.38</v>
-      </c>
-      <c r="W152">
-        <v>1.53</v>
-      </c>
-      <c r="X152">
-        <v>6</v>
-      </c>
-      <c r="Y152">
-        <v>1.13</v>
-      </c>
-      <c r="Z152">
-        <v>5</v>
-      </c>
-      <c r="AA152">
-        <v>4.2</v>
-      </c>
-      <c r="AB152">
-        <v>1.6</v>
-      </c>
-      <c r="AC152">
-        <v>1.02</v>
-      </c>
-      <c r="AD152">
-        <v>17</v>
-      </c>
-      <c r="AE152">
-        <v>1.19</v>
-      </c>
-      <c r="AF152">
-        <v>4.75</v>
-      </c>
-      <c r="AG152">
-        <v>1.57</v>
-      </c>
-      <c r="AH152">
-        <v>2.25</v>
-      </c>
-      <c r="AI152">
-        <v>1.67</v>
-      </c>
-      <c r="AJ152">
-        <v>2.1</v>
-      </c>
-      <c r="AK152">
-        <v>2.45</v>
-      </c>
-      <c r="AL152">
-        <v>1.18</v>
-      </c>
-      <c r="AM152">
-        <v>1.15</v>
-      </c>
-      <c r="AN152">
-        <v>1.13</v>
-      </c>
-      <c r="AO152">
-        <v>2</v>
-      </c>
-      <c r="AP152">
-        <v>1</v>
-      </c>
-      <c r="AQ152">
-        <v>2.11</v>
-      </c>
-      <c r="AR152">
-        <v>1.42</v>
-      </c>
-      <c r="AS152">
-        <v>1.74</v>
-      </c>
-      <c r="AT152">
-        <v>3.16</v>
-      </c>
-      <c r="AU152">
+      <c r="AW152">
+        <v>2</v>
+      </c>
+      <c r="AX152">
+        <v>10</v>
+      </c>
+      <c r="AY152">
+        <v>8</v>
+      </c>
+      <c r="AZ152">
+        <v>18</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
         <v>9</v>
       </c>
-      <c r="AV152">
-        <v>3</v>
-      </c>
-      <c r="AW152">
-        <v>2</v>
-      </c>
-      <c r="AX152">
-        <v>8</v>
-      </c>
-      <c r="AY152">
-        <v>14</v>
-      </c>
-      <c r="AZ152">
-        <v>13</v>
-      </c>
-      <c r="BA152">
-        <v>2</v>
-      </c>
-      <c r="BB152">
-        <v>5</v>
-      </c>
       <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>2.95</v>
+      </c>
+      <c r="BE152">
         <v>7</v>
       </c>
-      <c r="BD152">
-        <v>2.8</v>
-      </c>
-      <c r="BE152">
-        <v>6.75</v>
-      </c>
       <c r="BF152">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BG152">
         <v>1.27</v>
@@ -32506,25 +32509,25 @@
         <v>3.3</v>
       </c>
       <c r="BI152">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BJ152">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="BK152">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="BL152">
         <v>1.91</v>
       </c>
       <c r="BM152">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BN152">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO152">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="BP152">
         <v>1.36</v>
@@ -32741,7 +32744,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7492304</v>
+        <v>7492298</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32750,196 +32753,196 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>45641.35416666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F154">
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H154" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P154" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="Q154">
+        <v>3.4</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>3.4</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
         <v>3.25</v>
       </c>
-      <c r="R154">
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>10</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>2.5</v>
+      </c>
+      <c r="AA154">
+        <v>3.1</v>
+      </c>
+      <c r="AB154">
+        <v>2.6</v>
+      </c>
+      <c r="AC154">
+        <v>1.07</v>
+      </c>
+      <c r="AD154">
+        <v>9.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.38</v>
+      </c>
+      <c r="AF154">
+        <v>3.1</v>
+      </c>
+      <c r="AG154">
+        <v>2.1</v>
+      </c>
+      <c r="AH154">
+        <v>1.7</v>
+      </c>
+      <c r="AI154">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154">
         <v>1.95</v>
       </c>
-      <c r="S154">
-        <v>3.75</v>
-      </c>
-      <c r="T154">
-        <v>1.53</v>
-      </c>
-      <c r="U154">
-        <v>2.38</v>
-      </c>
-      <c r="V154">
-        <v>3.5</v>
-      </c>
-      <c r="W154">
-        <v>1.29</v>
-      </c>
-      <c r="X154">
+      <c r="AK154">
+        <v>1.48</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.5</v>
+      </c>
+      <c r="AN154">
+        <v>1.67</v>
+      </c>
+      <c r="AO154">
+        <v>2</v>
+      </c>
+      <c r="AP154">
+        <v>1.86</v>
+      </c>
+      <c r="AQ154">
+        <v>1.75</v>
+      </c>
+      <c r="AR154">
+        <v>1.61</v>
+      </c>
+      <c r="AS154">
+        <v>1.31</v>
+      </c>
+      <c r="AT154">
+        <v>2.92</v>
+      </c>
+      <c r="AU154">
+        <v>7</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>17</v>
+      </c>
+      <c r="AZ154">
         <v>11</v>
       </c>
-      <c r="Y154">
-        <v>1.05</v>
-      </c>
-      <c r="Z154">
-        <v>2.33</v>
-      </c>
-      <c r="AA154">
-        <v>3</v>
-      </c>
-      <c r="AB154">
-        <v>3</v>
-      </c>
-      <c r="AC154">
-        <v>1.1</v>
-      </c>
-      <c r="AD154">
-        <v>7.5</v>
-      </c>
-      <c r="AE154">
-        <v>1.47</v>
-      </c>
-      <c r="AF154">
-        <v>2.75</v>
-      </c>
-      <c r="AG154">
-        <v>2.3</v>
-      </c>
-      <c r="AH154">
-        <v>1.6</v>
-      </c>
-      <c r="AI154">
-        <v>2</v>
-      </c>
-      <c r="AJ154">
-        <v>1.75</v>
-      </c>
-      <c r="AK154">
-        <v>1.38</v>
-      </c>
-      <c r="AL154">
-        <v>1.32</v>
-      </c>
-      <c r="AM154">
+      <c r="BA154">
+        <v>1</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>4</v>
+      </c>
+      <c r="BD154">
+        <v>1.97</v>
+      </c>
+      <c r="BE154">
+        <v>6.4</v>
+      </c>
+      <c r="BF154">
+        <v>2.02</v>
+      </c>
+      <c r="BG154">
+        <v>1.44</v>
+      </c>
+      <c r="BH154">
+        <v>2.55</v>
+      </c>
+      <c r="BI154">
+        <v>1.73</v>
+      </c>
+      <c r="BJ154">
+        <v>1.97</v>
+      </c>
+      <c r="BK154">
+        <v>2.17</v>
+      </c>
+      <c r="BL154">
         <v>1.58</v>
       </c>
-      <c r="AN154">
-        <v>1.29</v>
-      </c>
-      <c r="AO154">
-        <v>1</v>
-      </c>
-      <c r="AP154">
-        <v>1.5</v>
-      </c>
-      <c r="AQ154">
-        <v>0.88</v>
-      </c>
-      <c r="AR154">
-        <v>1.38</v>
-      </c>
-      <c r="AS154">
-        <v>0.87</v>
-      </c>
-      <c r="AT154">
-        <v>2.25</v>
-      </c>
-      <c r="AU154">
-        <v>5</v>
-      </c>
-      <c r="AV154">
-        <v>0</v>
-      </c>
-      <c r="AW154">
-        <v>5</v>
-      </c>
-      <c r="AX154">
-        <v>8</v>
-      </c>
-      <c r="AY154">
-        <v>12</v>
-      </c>
-      <c r="AZ154">
-        <v>10</v>
-      </c>
-      <c r="BA154">
-        <v>2</v>
-      </c>
-      <c r="BB154">
-        <v>7</v>
-      </c>
-      <c r="BC154">
-        <v>9</v>
-      </c>
-      <c r="BD154">
-        <v>1.67</v>
-      </c>
-      <c r="BE154">
-        <v>6.75</v>
-      </c>
-      <c r="BF154">
-        <v>2.48</v>
-      </c>
-      <c r="BG154">
-        <v>1.34</v>
-      </c>
-      <c r="BH154">
-        <v>2.9</v>
-      </c>
-      <c r="BI154">
-        <v>1.58</v>
-      </c>
-      <c r="BJ154">
-        <v>2.18</v>
-      </c>
-      <c r="BK154">
-        <v>1.96</v>
-      </c>
-      <c r="BL154">
-        <v>1.73</v>
-      </c>
       <c r="BM154">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="BN154">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="BO154">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BP154">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32947,7 +32950,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7492298</v>
+        <v>7492304</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32956,196 +32959,196 @@
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>45641.45833333334</v>
+        <v>45641.35416666666</v>
       </c>
       <c r="F155">
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H155" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O155" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="Q155">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T155">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U155">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V155">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W155">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X155">
+        <v>11</v>
+      </c>
+      <c r="Y155">
+        <v>1.05</v>
+      </c>
+      <c r="Z155">
+        <v>2.33</v>
+      </c>
+      <c r="AA155">
+        <v>3</v>
+      </c>
+      <c r="AB155">
+        <v>3</v>
+      </c>
+      <c r="AC155">
+        <v>1.1</v>
+      </c>
+      <c r="AD155">
+        <v>7.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.47</v>
+      </c>
+      <c r="AF155">
+        <v>2.75</v>
+      </c>
+      <c r="AG155">
+        <v>2.3</v>
+      </c>
+      <c r="AH155">
+        <v>1.6</v>
+      </c>
+      <c r="AI155">
+        <v>2</v>
+      </c>
+      <c r="AJ155">
+        <v>1.75</v>
+      </c>
+      <c r="AK155">
+        <v>1.38</v>
+      </c>
+      <c r="AL155">
+        <v>1.32</v>
+      </c>
+      <c r="AM155">
+        <v>1.58</v>
+      </c>
+      <c r="AN155">
+        <v>1.29</v>
+      </c>
+      <c r="AO155">
+        <v>1</v>
+      </c>
+      <c r="AP155">
+        <v>1.5</v>
+      </c>
+      <c r="AQ155">
+        <v>0.88</v>
+      </c>
+      <c r="AR155">
+        <v>1.38</v>
+      </c>
+      <c r="AS155">
+        <v>0.87</v>
+      </c>
+      <c r="AT155">
+        <v>2.25</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>0</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>8</v>
+      </c>
+      <c r="AY155">
+        <v>12</v>
+      </c>
+      <c r="AZ155">
         <v>10</v>
       </c>
-      <c r="Y155">
-        <v>1.06</v>
-      </c>
-      <c r="Z155">
+      <c r="BA155">
+        <v>2</v>
+      </c>
+      <c r="BB155">
+        <v>7</v>
+      </c>
+      <c r="BC155">
+        <v>9</v>
+      </c>
+      <c r="BD155">
+        <v>1.67</v>
+      </c>
+      <c r="BE155">
+        <v>6.75</v>
+      </c>
+      <c r="BF155">
+        <v>2.48</v>
+      </c>
+      <c r="BG155">
+        <v>1.34</v>
+      </c>
+      <c r="BH155">
+        <v>2.9</v>
+      </c>
+      <c r="BI155">
+        <v>1.58</v>
+      </c>
+      <c r="BJ155">
+        <v>2.18</v>
+      </c>
+      <c r="BK155">
+        <v>1.96</v>
+      </c>
+      <c r="BL155">
+        <v>1.73</v>
+      </c>
+      <c r="BM155">
         <v>2.5</v>
       </c>
-      <c r="AA155">
-        <v>3.1</v>
-      </c>
-      <c r="AB155">
-        <v>2.6</v>
-      </c>
-      <c r="AC155">
-        <v>1.07</v>
-      </c>
-      <c r="AD155">
-        <v>9.5</v>
-      </c>
-      <c r="AE155">
-        <v>1.38</v>
-      </c>
-      <c r="AF155">
-        <v>3.1</v>
-      </c>
-      <c r="AG155">
-        <v>2.1</v>
-      </c>
-      <c r="AH155">
-        <v>1.7</v>
-      </c>
-      <c r="AI155">
-        <v>1.8</v>
-      </c>
-      <c r="AJ155">
-        <v>1.95</v>
-      </c>
-      <c r="AK155">
-        <v>1.48</v>
-      </c>
-      <c r="AL155">
-        <v>1.3</v>
-      </c>
-      <c r="AM155">
-        <v>1.5</v>
-      </c>
-      <c r="AN155">
-        <v>1.67</v>
-      </c>
-      <c r="AO155">
-        <v>2</v>
-      </c>
-      <c r="AP155">
-        <v>1.86</v>
-      </c>
-      <c r="AQ155">
-        <v>1.75</v>
-      </c>
-      <c r="AR155">
-        <v>1.61</v>
-      </c>
-      <c r="AS155">
-        <v>1.31</v>
-      </c>
-      <c r="AT155">
-        <v>2.92</v>
-      </c>
-      <c r="AU155">
-        <v>7</v>
-      </c>
-      <c r="AV155">
-        <v>5</v>
-      </c>
-      <c r="AW155">
-        <v>6</v>
-      </c>
-      <c r="AX155">
-        <v>2</v>
-      </c>
-      <c r="AY155">
-        <v>17</v>
-      </c>
-      <c r="AZ155">
-        <v>11</v>
-      </c>
-      <c r="BA155">
-        <v>1</v>
-      </c>
-      <c r="BB155">
-        <v>3</v>
-      </c>
-      <c r="BC155">
-        <v>4</v>
-      </c>
-      <c r="BD155">
-        <v>1.97</v>
-      </c>
-      <c r="BE155">
-        <v>6.4</v>
-      </c>
-      <c r="BF155">
-        <v>2.02</v>
-      </c>
-      <c r="BG155">
-        <v>1.44</v>
-      </c>
-      <c r="BH155">
-        <v>2.55</v>
-      </c>
-      <c r="BI155">
-        <v>1.73</v>
-      </c>
-      <c r="BJ155">
-        <v>1.97</v>
-      </c>
-      <c r="BK155">
-        <v>2.17</v>
-      </c>
-      <c r="BL155">
-        <v>1.58</v>
-      </c>
-      <c r="BM155">
-        <v>2.8</v>
-      </c>
       <c r="BN155">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="BO155">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BP155">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33764,6 +33767,212 @@
       </c>
       <c r="BP158">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7492303</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45641.875</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>81</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>6</v>
+      </c>
+      <c r="N159">
+        <v>6</v>
+      </c>
+      <c r="O159" t="s">
+        <v>92</v>
+      </c>
+      <c r="P159" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q159">
+        <v>3.75</v>
+      </c>
+      <c r="R159">
+        <v>2.1</v>
+      </c>
+      <c r="S159">
+        <v>2.88</v>
+      </c>
+      <c r="T159">
+        <v>1.4</v>
+      </c>
+      <c r="U159">
+        <v>2.75</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>8</v>
+      </c>
+      <c r="Y159">
+        <v>1.08</v>
+      </c>
+      <c r="Z159">
+        <v>3.25</v>
+      </c>
+      <c r="AA159">
+        <v>3.59</v>
+      </c>
+      <c r="AB159">
+        <v>2.15</v>
+      </c>
+      <c r="AC159">
+        <v>1.06</v>
+      </c>
+      <c r="AD159">
+        <v>11</v>
+      </c>
+      <c r="AE159">
+        <v>1.32</v>
+      </c>
+      <c r="AF159">
+        <v>3.4</v>
+      </c>
+      <c r="AG159">
+        <v>1.76</v>
+      </c>
+      <c r="AH159">
+        <v>1.94</v>
+      </c>
+      <c r="AI159">
+        <v>1.75</v>
+      </c>
+      <c r="AJ159">
+        <v>2</v>
+      </c>
+      <c r="AK159">
+        <v>1.7</v>
+      </c>
+      <c r="AL159">
+        <v>1.28</v>
+      </c>
+      <c r="AM159">
+        <v>1.35</v>
+      </c>
+      <c r="AN159">
+        <v>2.71</v>
+      </c>
+      <c r="AO159">
+        <v>2.33</v>
+      </c>
+      <c r="AP159">
+        <v>2.38</v>
+      </c>
+      <c r="AQ159">
+        <v>2.43</v>
+      </c>
+      <c r="AR159">
+        <v>1.56</v>
+      </c>
+      <c r="AS159">
+        <v>1.66</v>
+      </c>
+      <c r="AT159">
+        <v>3.22</v>
+      </c>
+      <c r="AU159">
+        <v>3</v>
+      </c>
+      <c r="AV159">
+        <v>8</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>1</v>
+      </c>
+      <c r="AY159">
+        <v>10</v>
+      </c>
+      <c r="AZ159">
+        <v>13</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
+        <v>6</v>
+      </c>
+      <c r="BD159">
+        <v>2.18</v>
+      </c>
+      <c r="BE159">
+        <v>6.35</v>
+      </c>
+      <c r="BF159">
+        <v>2.12</v>
+      </c>
+      <c r="BG159">
+        <v>1.29</v>
+      </c>
+      <c r="BH159">
+        <v>2.92</v>
+      </c>
+      <c r="BI159">
+        <v>1.57</v>
+      </c>
+      <c r="BJ159">
+        <v>2.14</v>
+      </c>
+      <c r="BK159">
+        <v>2.02</v>
+      </c>
+      <c r="BL159">
+        <v>1.71</v>
+      </c>
+      <c r="BM159">
+        <v>2.62</v>
+      </c>
+      <c r="BN159">
+        <v>1.38</v>
+      </c>
+      <c r="BO159">
+        <v>3.58</v>
+      </c>
+      <c r="BP159">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -32135,7 +32135,7 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45639.875</v>
+        <v>45640.45833333334</v>
       </c>
       <c r="F151">
         <v>16</v>
@@ -32261,19 +32261,19 @@
         <v>3.16</v>
       </c>
       <c r="AU151">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV151">
         <v>3</v>
       </c>
       <c r="AW151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX151">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY151">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ151">
         <v>13</v>
@@ -32341,10 +32341,10 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45639.875</v>
+        <v>45640.58333333334</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
         <v>80</v>
@@ -32473,10 +32473,10 @@
         <v>5</v>
       </c>
       <c r="AW152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX152">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY152">
         <v>8</v>
@@ -32744,7 +32744,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7492298</v>
+        <v>7492304</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32753,196 +32753,196 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>45640.875</v>
+        <v>45641.35416666666</v>
       </c>
       <c r="F154">
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H154" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O154" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="Q154">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T154">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U154">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V154">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W154">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X154">
+        <v>11</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.33</v>
+      </c>
+      <c r="AA154">
+        <v>3</v>
+      </c>
+      <c r="AB154">
+        <v>3</v>
+      </c>
+      <c r="AC154">
+        <v>1.1</v>
+      </c>
+      <c r="AD154">
+        <v>7.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.47</v>
+      </c>
+      <c r="AF154">
+        <v>2.75</v>
+      </c>
+      <c r="AG154">
+        <v>2.3</v>
+      </c>
+      <c r="AH154">
+        <v>1.6</v>
+      </c>
+      <c r="AI154">
+        <v>2</v>
+      </c>
+      <c r="AJ154">
+        <v>1.75</v>
+      </c>
+      <c r="AK154">
+        <v>1.38</v>
+      </c>
+      <c r="AL154">
+        <v>1.32</v>
+      </c>
+      <c r="AM154">
+        <v>1.58</v>
+      </c>
+      <c r="AN154">
+        <v>1.29</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154">
+        <v>0.88</v>
+      </c>
+      <c r="AR154">
+        <v>1.38</v>
+      </c>
+      <c r="AS154">
+        <v>0.87</v>
+      </c>
+      <c r="AT154">
+        <v>2.25</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>0</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>8</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
         <v>10</v>
       </c>
-      <c r="Y154">
-        <v>1.06</v>
-      </c>
-      <c r="Z154">
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>1.67</v>
+      </c>
+      <c r="BE154">
+        <v>6.75</v>
+      </c>
+      <c r="BF154">
+        <v>2.48</v>
+      </c>
+      <c r="BG154">
+        <v>1.34</v>
+      </c>
+      <c r="BH154">
+        <v>2.9</v>
+      </c>
+      <c r="BI154">
+        <v>1.58</v>
+      </c>
+      <c r="BJ154">
+        <v>2.18</v>
+      </c>
+      <c r="BK154">
+        <v>1.96</v>
+      </c>
+      <c r="BL154">
+        <v>1.73</v>
+      </c>
+      <c r="BM154">
         <v>2.5</v>
       </c>
-      <c r="AA154">
-        <v>3.1</v>
-      </c>
-      <c r="AB154">
-        <v>2.6</v>
-      </c>
-      <c r="AC154">
-        <v>1.07</v>
-      </c>
-      <c r="AD154">
-        <v>9.5</v>
-      </c>
-      <c r="AE154">
-        <v>1.38</v>
-      </c>
-      <c r="AF154">
-        <v>3.1</v>
-      </c>
-      <c r="AG154">
-        <v>2.1</v>
-      </c>
-      <c r="AH154">
-        <v>1.7</v>
-      </c>
-      <c r="AI154">
-        <v>1.8</v>
-      </c>
-      <c r="AJ154">
-        <v>1.95</v>
-      </c>
-      <c r="AK154">
-        <v>1.48</v>
-      </c>
-      <c r="AL154">
-        <v>1.3</v>
-      </c>
-      <c r="AM154">
-        <v>1.5</v>
-      </c>
-      <c r="AN154">
-        <v>1.67</v>
-      </c>
-      <c r="AO154">
-        <v>2</v>
-      </c>
-      <c r="AP154">
-        <v>1.86</v>
-      </c>
-      <c r="AQ154">
-        <v>1.75</v>
-      </c>
-      <c r="AR154">
-        <v>1.61</v>
-      </c>
-      <c r="AS154">
-        <v>1.31</v>
-      </c>
-      <c r="AT154">
-        <v>2.92</v>
-      </c>
-      <c r="AU154">
-        <v>7</v>
-      </c>
-      <c r="AV154">
-        <v>5</v>
-      </c>
-      <c r="AW154">
-        <v>6</v>
-      </c>
-      <c r="AX154">
-        <v>2</v>
-      </c>
-      <c r="AY154">
-        <v>17</v>
-      </c>
-      <c r="AZ154">
-        <v>11</v>
-      </c>
-      <c r="BA154">
-        <v>1</v>
-      </c>
-      <c r="BB154">
-        <v>3</v>
-      </c>
-      <c r="BC154">
-        <v>4</v>
-      </c>
-      <c r="BD154">
-        <v>1.97</v>
-      </c>
-      <c r="BE154">
-        <v>6.4</v>
-      </c>
-      <c r="BF154">
-        <v>2.02</v>
-      </c>
-      <c r="BG154">
-        <v>1.44</v>
-      </c>
-      <c r="BH154">
-        <v>2.55</v>
-      </c>
-      <c r="BI154">
-        <v>1.73</v>
-      </c>
-      <c r="BJ154">
-        <v>1.97</v>
-      </c>
-      <c r="BK154">
-        <v>2.17</v>
-      </c>
-      <c r="BL154">
-        <v>1.58</v>
-      </c>
-      <c r="BM154">
-        <v>2.8</v>
-      </c>
       <c r="BN154">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="BO154">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BP154">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32950,7 +32950,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7492304</v>
+        <v>7492298</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32959,196 +32959,196 @@
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>45641.35416666666</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F155">
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H155" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="Q155">
+        <v>3.4</v>
+      </c>
+      <c r="R155">
+        <v>2.05</v>
+      </c>
+      <c r="S155">
+        <v>3.4</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.63</v>
+      </c>
+      <c r="V155">
         <v>3.25</v>
       </c>
-      <c r="R155">
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>10</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>2.5</v>
+      </c>
+      <c r="AA155">
+        <v>3.1</v>
+      </c>
+      <c r="AB155">
+        <v>2.6</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>9.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.38</v>
+      </c>
+      <c r="AF155">
+        <v>3.1</v>
+      </c>
+      <c r="AG155">
+        <v>2.1</v>
+      </c>
+      <c r="AH155">
+        <v>1.7</v>
+      </c>
+      <c r="AI155">
+        <v>1.8</v>
+      </c>
+      <c r="AJ155">
         <v>1.95</v>
       </c>
-      <c r="S155">
-        <v>3.75</v>
-      </c>
-      <c r="T155">
-        <v>1.53</v>
-      </c>
-      <c r="U155">
-        <v>2.38</v>
-      </c>
-      <c r="V155">
-        <v>3.5</v>
-      </c>
-      <c r="W155">
-        <v>1.29</v>
-      </c>
-      <c r="X155">
+      <c r="AK155">
+        <v>1.48</v>
+      </c>
+      <c r="AL155">
+        <v>1.3</v>
+      </c>
+      <c r="AM155">
+        <v>1.5</v>
+      </c>
+      <c r="AN155">
+        <v>1.67</v>
+      </c>
+      <c r="AO155">
+        <v>2</v>
+      </c>
+      <c r="AP155">
+        <v>1.86</v>
+      </c>
+      <c r="AQ155">
+        <v>1.75</v>
+      </c>
+      <c r="AR155">
+        <v>1.61</v>
+      </c>
+      <c r="AS155">
+        <v>1.31</v>
+      </c>
+      <c r="AT155">
+        <v>2.92</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>5</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>17</v>
+      </c>
+      <c r="AZ155">
         <v>11</v>
       </c>
-      <c r="Y155">
-        <v>1.05</v>
-      </c>
-      <c r="Z155">
-        <v>2.33</v>
-      </c>
-      <c r="AA155">
-        <v>3</v>
-      </c>
-      <c r="AB155">
-        <v>3</v>
-      </c>
-      <c r="AC155">
-        <v>1.1</v>
-      </c>
-      <c r="AD155">
-        <v>7.5</v>
-      </c>
-      <c r="AE155">
-        <v>1.47</v>
-      </c>
-      <c r="AF155">
-        <v>2.75</v>
-      </c>
-      <c r="AG155">
-        <v>2.3</v>
-      </c>
-      <c r="AH155">
-        <v>1.6</v>
-      </c>
-      <c r="AI155">
-        <v>2</v>
-      </c>
-      <c r="AJ155">
-        <v>1.75</v>
-      </c>
-      <c r="AK155">
-        <v>1.38</v>
-      </c>
-      <c r="AL155">
-        <v>1.32</v>
-      </c>
-      <c r="AM155">
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>4</v>
+      </c>
+      <c r="BD155">
+        <v>1.97</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>2.02</v>
+      </c>
+      <c r="BG155">
+        <v>1.44</v>
+      </c>
+      <c r="BH155">
+        <v>2.55</v>
+      </c>
+      <c r="BI155">
+        <v>1.73</v>
+      </c>
+      <c r="BJ155">
+        <v>1.97</v>
+      </c>
+      <c r="BK155">
+        <v>2.17</v>
+      </c>
+      <c r="BL155">
         <v>1.58</v>
       </c>
-      <c r="AN155">
-        <v>1.29</v>
-      </c>
-      <c r="AO155">
-        <v>1</v>
-      </c>
-      <c r="AP155">
-        <v>1.5</v>
-      </c>
-      <c r="AQ155">
-        <v>0.88</v>
-      </c>
-      <c r="AR155">
-        <v>1.38</v>
-      </c>
-      <c r="AS155">
-        <v>0.87</v>
-      </c>
-      <c r="AT155">
-        <v>2.25</v>
-      </c>
-      <c r="AU155">
-        <v>5</v>
-      </c>
-      <c r="AV155">
-        <v>0</v>
-      </c>
-      <c r="AW155">
-        <v>5</v>
-      </c>
-      <c r="AX155">
-        <v>8</v>
-      </c>
-      <c r="AY155">
-        <v>12</v>
-      </c>
-      <c r="AZ155">
-        <v>10</v>
-      </c>
-      <c r="BA155">
-        <v>2</v>
-      </c>
-      <c r="BB155">
-        <v>7</v>
-      </c>
-      <c r="BC155">
-        <v>9</v>
-      </c>
-      <c r="BD155">
-        <v>1.67</v>
-      </c>
-      <c r="BE155">
-        <v>6.75</v>
-      </c>
-      <c r="BF155">
-        <v>2.48</v>
-      </c>
-      <c r="BG155">
-        <v>1.34</v>
-      </c>
-      <c r="BH155">
-        <v>2.9</v>
-      </c>
-      <c r="BI155">
-        <v>1.58</v>
-      </c>
-      <c r="BJ155">
-        <v>2.18</v>
-      </c>
-      <c r="BK155">
-        <v>1.96</v>
-      </c>
-      <c r="BL155">
-        <v>1.73</v>
-      </c>
       <c r="BM155">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="BN155">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="BO155">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BP155">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33783,10 +33783,10 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45641.875</v>
+        <v>45642.69791666666</v>
       </c>
       <c r="F159">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G159" t="s">
         <v>77</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -855,6 +855,9 @@
   <si>
     <t>['41', '45', '51', '53', '77', '90']</t>
   </si>
+  <si>
+    <t>['56']</t>
+  </si>
 </sst>
 </file>
 
@@ -1215,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2582,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>2.13</v>
@@ -3821,7 +3824,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -5466,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.86</v>
@@ -6705,7 +6708,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -9998,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.22</v>
@@ -11443,7 +11446,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -14118,7 +14121,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>0.33</v>
@@ -15769,7 +15772,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -17826,7 +17829,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -22361,7 +22364,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR103">
         <v>0.9399999999999999</v>
@@ -22976,7 +22979,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>0.5</v>
@@ -24627,7 +24630,7 @@
         <v>1</v>
       </c>
       <c r="AQ114">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR114">
         <v>1.3</v>
@@ -26066,7 +26069,7 @@
         <v>2.2</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>2.43</v>
@@ -30189,7 +30192,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ141">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR141">
         <v>1.73</v>
@@ -31216,7 +31219,7 @@
         <v>1.29</v>
       </c>
       <c r="AP146">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -33973,6 +33976,212 @@
       </c>
       <c r="BP159">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7492311</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45646.69791666666</v>
+      </c>
+      <c r="F160">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>75</v>
+      </c>
+      <c r="H160" t="s">
+        <v>73</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>92</v>
+      </c>
+      <c r="P160" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q160">
+        <v>5.5</v>
+      </c>
+      <c r="R160">
+        <v>2.38</v>
+      </c>
+      <c r="S160">
+        <v>2.1</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3.25</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>6.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>5</v>
+      </c>
+      <c r="AA160">
+        <v>4.2</v>
+      </c>
+      <c r="AB160">
+        <v>1.61</v>
+      </c>
+      <c r="AC160">
+        <v>1.03</v>
+      </c>
+      <c r="AD160">
+        <v>15</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>4.33</v>
+      </c>
+      <c r="AG160">
+        <v>1.83</v>
+      </c>
+      <c r="AH160">
+        <v>1.91</v>
+      </c>
+      <c r="AI160">
+        <v>1.75</v>
+      </c>
+      <c r="AJ160">
+        <v>2</v>
+      </c>
+      <c r="AK160">
+        <v>2.4</v>
+      </c>
+      <c r="AL160">
+        <v>1.19</v>
+      </c>
+      <c r="AM160">
+        <v>1.15</v>
+      </c>
+      <c r="AN160">
+        <v>1.13</v>
+      </c>
+      <c r="AO160">
+        <v>1.14</v>
+      </c>
+      <c r="AP160">
+        <v>1</v>
+      </c>
+      <c r="AQ160">
+        <v>1.38</v>
+      </c>
+      <c r="AR160">
+        <v>1.12</v>
+      </c>
+      <c r="AS160">
+        <v>1.48</v>
+      </c>
+      <c r="AT160">
+        <v>2.6</v>
+      </c>
+      <c r="AU160">
+        <v>3</v>
+      </c>
+      <c r="AV160">
+        <v>7</v>
+      </c>
+      <c r="AW160">
+        <v>7</v>
+      </c>
+      <c r="AX160">
+        <v>1</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>15</v>
+      </c>
+      <c r="BA160">
+        <v>3</v>
+      </c>
+      <c r="BB160">
+        <v>8</v>
+      </c>
+      <c r="BC160">
+        <v>11</v>
+      </c>
+      <c r="BD160">
+        <v>3.05</v>
+      </c>
+      <c r="BE160">
+        <v>7</v>
+      </c>
+      <c r="BF160">
+        <v>1.46</v>
+      </c>
+      <c r="BG160">
+        <v>1.33</v>
+      </c>
+      <c r="BH160">
+        <v>2.95</v>
+      </c>
+      <c r="BI160">
+        <v>1.55</v>
+      </c>
+      <c r="BJ160">
+        <v>2.25</v>
+      </c>
+      <c r="BK160">
+        <v>1.91</v>
+      </c>
+      <c r="BL160">
+        <v>1.78</v>
+      </c>
+      <c r="BM160">
+        <v>2.4</v>
+      </c>
+      <c r="BN160">
+        <v>1.49</v>
+      </c>
+      <c r="BO160">
+        <v>3.15</v>
+      </c>
+      <c r="BP160">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,9 @@
     <t>['90+3', '90+7']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -857,6 +860,15 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['71', '80']</t>
+  </si>
+  <si>
+    <t>['15', '23']</t>
+  </si>
+  <si>
+    <t>['45+3', '87']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1489,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1555,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ2">
         <v>2.43</v>
@@ -2095,7 +2107,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2301,7 +2313,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2588,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2919,7 +2931,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3125,7 +3137,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3203,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>2.11</v>
@@ -3537,7 +3549,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3618,7 +3630,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3743,7 +3755,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4155,7 +4167,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4439,7 +4451,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>2.11</v>
@@ -4854,7 +4866,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4979,7 +4991,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5391,7 +5403,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5597,7 +5609,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6009,7 +6021,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6293,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>0.71</v>
@@ -6421,7 +6433,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6627,7 +6639,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6833,7 +6845,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6911,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -7039,7 +7051,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7657,7 +7669,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7738,7 +7750,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8275,7 +8287,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8353,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -8559,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
@@ -8687,7 +8699,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8893,7 +8905,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8974,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9099,7 +9111,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9305,7 +9317,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9511,7 +9523,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9717,7 +9729,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9923,7 +9935,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10416,7 +10428,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -10541,7 +10553,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10619,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10747,7 +10759,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10828,7 +10840,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -10953,7 +10965,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11034,7 +11046,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11365,7 +11377,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11571,7 +11583,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11983,7 +11995,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12189,7 +12201,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12267,7 +12279,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
         <v>1.86</v>
@@ -12395,7 +12407,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12601,7 +12613,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12679,10 +12691,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -13013,7 +13025,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13631,7 +13643,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14455,7 +14467,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14661,7 +14673,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14867,7 +14879,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14960,22 +14972,22 @@
         <v>2.39</v>
       </c>
       <c r="AU67">
+        <v>10</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
         <v>7</v>
       </c>
-      <c r="AV67">
-        <v>3</v>
-      </c>
-      <c r="AW67">
-        <v>6</v>
-      </c>
       <c r="AX67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY67">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA67">
         <v>8</v>
@@ -15279,7 +15291,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15485,7 +15497,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15691,7 +15703,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16103,7 +16115,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16181,10 +16193,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -16596,16 +16608,16 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="AS75">
         <v>1.78</v>
       </c>
       <c r="AT75">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16721,7 +16733,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16802,7 +16814,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ76">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -16927,7 +16939,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17005,7 +17017,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.75</v>
@@ -17133,7 +17145,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17339,7 +17351,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17545,7 +17557,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17751,7 +17763,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18044,10 +18056,10 @@
         <v>1.1</v>
       </c>
       <c r="AS82">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AT82">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU82">
         <v>5</v>
@@ -18241,7 +18253,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18575,7 +18587,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19193,7 +19205,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19399,7 +19411,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19605,7 +19617,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19889,7 +19901,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -20017,7 +20029,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20098,7 +20110,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20223,7 +20235,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20304,7 +20316,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ93">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20429,7 +20441,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20635,7 +20647,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20841,7 +20853,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20925,13 +20937,13 @@
         <v>1</v>
       </c>
       <c r="AR96">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS96">
         <v>1.41</v>
       </c>
       <c r="AT96">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
       <c r="AU96">
         <v>7</v>
@@ -21253,7 +21265,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21331,7 +21343,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ98">
         <v>1.75</v>
@@ -21459,7 +21471,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21540,7 +21552,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR99">
         <v>1.62</v>
@@ -22077,7 +22089,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22489,7 +22501,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22695,7 +22707,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22773,7 +22785,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>1.75</v>
@@ -22901,7 +22913,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23313,7 +23325,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23725,7 +23737,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23812,10 +23824,10 @@
         <v>1.55</v>
       </c>
       <c r="AS110">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AT110">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="AU110">
         <v>6</v>
@@ -23931,7 +23943,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24009,7 +24021,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ111">
         <v>0.67</v>
@@ -24137,7 +24149,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24215,7 +24227,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
         <v>1.5</v>
@@ -24343,7 +24355,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24549,7 +24561,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24839,13 +24851,13 @@
         <v>1.22</v>
       </c>
       <c r="AR115">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS115">
         <v>1.1</v>
       </c>
       <c r="AT115">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24961,7 +24973,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25167,7 +25179,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25248,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR117">
         <v>1.63</v>
@@ -25373,7 +25385,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25660,7 +25672,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ119">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR119">
         <v>0.96</v>
@@ -25866,7 +25878,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ120">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -25991,7 +26003,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26403,7 +26415,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26609,7 +26621,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26687,7 +26699,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ124">
         <v>0.71</v>
@@ -26696,28 +26708,28 @@
         <v>1.24</v>
       </c>
       <c r="AS124">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT124">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="AU124">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV124">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW124">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX124">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY124">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ124">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -26815,7 +26827,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27021,7 +27033,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27099,7 +27111,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
         <v>0.88</v>
@@ -27514,7 +27526,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -27639,7 +27651,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28875,7 +28887,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29162,7 +29174,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR136">
         <v>1.24</v>
@@ -29287,7 +29299,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29365,10 +29377,10 @@
         <v>1.83</v>
       </c>
       <c r="AP137">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR137">
         <v>1.14</v>
@@ -29493,7 +29505,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29571,7 +29583,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ138">
         <v>1.86</v>
@@ -29699,7 +29711,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30395,19 +30407,19 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ142">
         <v>1.22</v>
       </c>
       <c r="AR142">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AS142">
         <v>1.03</v>
       </c>
       <c r="AT142">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30523,7 +30535,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30604,16 +30616,16 @@
         <v>1.67</v>
       </c>
       <c r="AQ143">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR143">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AS143">
         <v>1.17</v>
       </c>
       <c r="AT143">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -30729,7 +30741,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31022,10 +31034,10 @@
         <v>1.69</v>
       </c>
       <c r="AS145">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AT145">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31141,7 +31153,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31347,7 +31359,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31553,7 +31565,7 @@
         <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31634,7 +31646,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31759,7 +31771,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32171,7 +32183,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32377,7 +32389,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32458,7 +32470,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR152">
         <v>1.05</v>
@@ -32583,7 +32595,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32667,13 +32679,13 @@
         <v>0.33</v>
       </c>
       <c r="AR153">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS153">
         <v>0.98</v>
       </c>
       <c r="AT153">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -32789,7 +32801,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32867,7 +32879,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
         <v>0.88</v>
@@ -33201,7 +33213,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33819,7 +33831,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34025,7 +34037,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34182,6 +34194,624 @@
       </c>
       <c r="BP160">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7492316</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>83</v>
+      </c>
+      <c r="H161" t="s">
+        <v>74</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>92</v>
+      </c>
+      <c r="P161" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161">
+        <v>1.91</v>
+      </c>
+      <c r="S161">
+        <v>3.4</v>
+      </c>
+      <c r="T161">
+        <v>1.57</v>
+      </c>
+      <c r="U161">
+        <v>2.25</v>
+      </c>
+      <c r="V161">
+        <v>3.75</v>
+      </c>
+      <c r="W161">
+        <v>1.25</v>
+      </c>
+      <c r="X161">
+        <v>13</v>
+      </c>
+      <c r="Y161">
+        <v>1.04</v>
+      </c>
+      <c r="Z161">
+        <v>3.13</v>
+      </c>
+      <c r="AA161">
+        <v>2.9</v>
+      </c>
+      <c r="AB161">
+        <v>2.53</v>
+      </c>
+      <c r="AC161">
+        <v>1.13</v>
+      </c>
+      <c r="AD161">
+        <v>6.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.54</v>
+      </c>
+      <c r="AF161">
+        <v>2.48</v>
+      </c>
+      <c r="AG161">
+        <v>2.4</v>
+      </c>
+      <c r="AH161">
+        <v>1.5</v>
+      </c>
+      <c r="AI161">
+        <v>2.1</v>
+      </c>
+      <c r="AJ161">
+        <v>1.67</v>
+      </c>
+      <c r="AK161">
+        <v>1.53</v>
+      </c>
+      <c r="AL161">
+        <v>1.36</v>
+      </c>
+      <c r="AM161">
+        <v>1.38</v>
+      </c>
+      <c r="AN161">
+        <v>1.14</v>
+      </c>
+      <c r="AO161">
+        <v>1.5</v>
+      </c>
+      <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
+        <v>1.67</v>
+      </c>
+      <c r="AR161">
+        <v>1.07</v>
+      </c>
+      <c r="AS161">
+        <v>1.17</v>
+      </c>
+      <c r="AT161">
+        <v>2.24</v>
+      </c>
+      <c r="AU161">
+        <v>0</v>
+      </c>
+      <c r="AV161">
+        <v>6</v>
+      </c>
+      <c r="AW161">
+        <v>3</v>
+      </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
+      <c r="AY161">
+        <v>7</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>4</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>4</v>
+      </c>
+      <c r="BD161">
+        <v>2.05</v>
+      </c>
+      <c r="BE161">
+        <v>6.25</v>
+      </c>
+      <c r="BF161">
+        <v>1.95</v>
+      </c>
+      <c r="BG161">
+        <v>1.44</v>
+      </c>
+      <c r="BH161">
+        <v>2.55</v>
+      </c>
+      <c r="BI161">
+        <v>1.74</v>
+      </c>
+      <c r="BJ161">
+        <v>1.96</v>
+      </c>
+      <c r="BK161">
+        <v>2.2</v>
+      </c>
+      <c r="BL161">
+        <v>1.58</v>
+      </c>
+      <c r="BM161">
+        <v>2.9</v>
+      </c>
+      <c r="BN161">
+        <v>1.35</v>
+      </c>
+      <c r="BO161">
+        <v>3.9</v>
+      </c>
+      <c r="BP161">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7492310</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45647.58333333334</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" t="s">
+        <v>85</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>155</v>
+      </c>
+      <c r="P162" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q162">
+        <v>5.5</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>2.38</v>
+      </c>
+      <c r="T162">
+        <v>1.44</v>
+      </c>
+      <c r="U162">
+        <v>2.63</v>
+      </c>
+      <c r="V162">
+        <v>3.25</v>
+      </c>
+      <c r="W162">
+        <v>1.33</v>
+      </c>
+      <c r="X162">
+        <v>10</v>
+      </c>
+      <c r="Y162">
+        <v>1.06</v>
+      </c>
+      <c r="Z162">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AA162">
+        <v>2.72</v>
+      </c>
+      <c r="AB162">
+        <v>1.58</v>
+      </c>
+      <c r="AC162">
+        <v>1.07</v>
+      </c>
+      <c r="AD162">
+        <v>9.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.38</v>
+      </c>
+      <c r="AF162">
+        <v>3.1</v>
+      </c>
+      <c r="AG162">
+        <v>2.1</v>
+      </c>
+      <c r="AH162">
+        <v>1.74</v>
+      </c>
+      <c r="AI162">
+        <v>2.05</v>
+      </c>
+      <c r="AJ162">
+        <v>1.7</v>
+      </c>
+      <c r="AK162">
+        <v>2.25</v>
+      </c>
+      <c r="AL162">
+        <v>1.22</v>
+      </c>
+      <c r="AM162">
+        <v>1.15</v>
+      </c>
+      <c r="AN162">
+        <v>0.67</v>
+      </c>
+      <c r="AO162">
+        <v>2.13</v>
+      </c>
+      <c r="AP162">
+        <v>0.6</v>
+      </c>
+      <c r="AQ162">
+        <v>2.22</v>
+      </c>
+      <c r="AR162">
+        <v>1.24</v>
+      </c>
+      <c r="AS162">
+        <v>1.21</v>
+      </c>
+      <c r="AT162">
+        <v>2.45</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>6</v>
+      </c>
+      <c r="AX162">
+        <v>7</v>
+      </c>
+      <c r="AY162">
+        <v>12</v>
+      </c>
+      <c r="AZ162">
+        <v>13</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>11</v>
+      </c>
+      <c r="BD162">
+        <v>3.05</v>
+      </c>
+      <c r="BE162">
+        <v>6.75</v>
+      </c>
+      <c r="BF162">
+        <v>1.47</v>
+      </c>
+      <c r="BG162">
+        <v>1.36</v>
+      </c>
+      <c r="BH162">
+        <v>2.8</v>
+      </c>
+      <c r="BI162">
+        <v>1.63</v>
+      </c>
+      <c r="BJ162">
+        <v>2.12</v>
+      </c>
+      <c r="BK162">
+        <v>2</v>
+      </c>
+      <c r="BL162">
+        <v>1.71</v>
+      </c>
+      <c r="BM162">
+        <v>2.55</v>
+      </c>
+      <c r="BN162">
+        <v>1.44</v>
+      </c>
+      <c r="BO162">
+        <v>3.4</v>
+      </c>
+      <c r="BP162">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7492313</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45647.69791666666</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>78</v>
+      </c>
+      <c r="H163" t="s">
+        <v>77</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>195</v>
+      </c>
+      <c r="P163" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q163">
+        <v>5.5</v>
+      </c>
+      <c r="R163">
+        <v>2.1</v>
+      </c>
+      <c r="S163">
+        <v>2.38</v>
+      </c>
+      <c r="T163">
+        <v>1.44</v>
+      </c>
+      <c r="U163">
+        <v>2.63</v>
+      </c>
+      <c r="V163">
+        <v>3.25</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>9</v>
+      </c>
+      <c r="Y163">
+        <v>1.07</v>
+      </c>
+      <c r="Z163">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA163">
+        <v>2.48</v>
+      </c>
+      <c r="AB163">
+        <v>1.7</v>
+      </c>
+      <c r="AC163">
+        <v>1.06</v>
+      </c>
+      <c r="AD163">
+        <v>10</v>
+      </c>
+      <c r="AE163">
+        <v>1.35</v>
+      </c>
+      <c r="AF163">
+        <v>3.25</v>
+      </c>
+      <c r="AG163">
+        <v>2.19</v>
+      </c>
+      <c r="AH163">
+        <v>1.68</v>
+      </c>
+      <c r="AI163">
+        <v>1.95</v>
+      </c>
+      <c r="AJ163">
+        <v>1.8</v>
+      </c>
+      <c r="AK163">
+        <v>2.1</v>
+      </c>
+      <c r="AL163">
+        <v>1.24</v>
+      </c>
+      <c r="AM163">
+        <v>1.2</v>
+      </c>
+      <c r="AN163">
+        <v>1.5</v>
+      </c>
+      <c r="AO163">
+        <v>1.5</v>
+      </c>
+      <c r="AP163">
+        <v>1.33</v>
+      </c>
+      <c r="AQ163">
+        <v>1.67</v>
+      </c>
+      <c r="AR163">
+        <v>1.36</v>
+      </c>
+      <c r="AS163">
+        <v>1.53</v>
+      </c>
+      <c r="AT163">
+        <v>2.89</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>8</v>
+      </c>
+      <c r="AW163">
+        <v>4</v>
+      </c>
+      <c r="AX163">
+        <v>3</v>
+      </c>
+      <c r="AY163">
+        <v>12</v>
+      </c>
+      <c r="AZ163">
+        <v>14</v>
+      </c>
+      <c r="BA163">
+        <v>6</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>12</v>
+      </c>
+      <c r="BD163">
+        <v>2.55</v>
+      </c>
+      <c r="BE163">
+        <v>6.5</v>
+      </c>
+      <c r="BF163">
+        <v>1.58</v>
+      </c>
+      <c r="BG163">
+        <v>1.28</v>
+      </c>
+      <c r="BH163">
+        <v>3.3</v>
+      </c>
+      <c r="BI163">
+        <v>1.47</v>
+      </c>
+      <c r="BJ163">
+        <v>2.43</v>
+      </c>
+      <c r="BK163">
+        <v>1.77</v>
+      </c>
+      <c r="BL163">
+        <v>1.91</v>
+      </c>
+      <c r="BM163">
+        <v>2.23</v>
+      </c>
+      <c r="BN163">
+        <v>1.57</v>
+      </c>
+      <c r="BO163">
+        <v>2.8</v>
+      </c>
+      <c r="BP163">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,15 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['8', '13', '51', '74', '83']</t>
+  </si>
+  <si>
+    <t>['38', '67']</t>
+  </si>
+  <si>
+    <t>['34', '45+1', '86']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -869,6 +878,12 @@
   </si>
   <si>
     <t>['45+3', '87']</t>
+  </si>
+  <si>
+    <t>['13', '57']</t>
+  </si>
+  <si>
+    <t>['14', '39']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1504,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2107,7 +2122,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2313,7 +2328,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2931,7 +2946,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3137,7 +3152,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3549,7 +3564,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3755,7 +3770,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4167,7 +4182,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4245,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15">
         <v>1.43</v>
@@ -4991,7 +5006,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5069,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5403,7 +5418,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5484,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5609,7 +5624,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5687,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.22</v>
@@ -6021,7 +6036,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6102,7 +6117,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6308,7 +6323,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6433,7 +6448,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6514,7 +6529,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6639,7 +6654,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6845,7 +6860,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7051,7 +7066,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7669,7 +7684,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7956,7 +7971,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -8287,7 +8302,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8699,7 +8714,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8777,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8905,7 +8920,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9111,7 +9126,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9189,7 +9204,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ39">
         <v>2.43</v>
@@ -9317,7 +9332,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9523,7 +9538,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9729,7 +9744,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9810,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -9935,7 +9950,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10219,7 +10234,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.43</v>
@@ -10553,7 +10568,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10634,7 +10649,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -10759,7 +10774,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10965,7 +10980,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11043,7 +11058,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11249,7 +11264,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11377,7 +11392,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11583,7 +11598,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11661,7 +11676,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11995,7 +12010,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12201,7 +12216,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12282,7 +12297,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12407,7 +12422,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12613,7 +12628,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12897,7 +12912,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>0.33</v>
@@ -13025,7 +13040,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13643,7 +13658,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13724,7 +13739,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ61">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14467,7 +14482,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14545,7 +14560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ65">
         <v>1.43</v>
@@ -14673,7 +14688,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14879,7 +14894,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14960,7 +14975,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.09</v>
@@ -15166,7 +15181,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.35</v>
@@ -15291,7 +15306,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15372,7 +15387,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15497,7 +15512,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15575,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -15703,7 +15718,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15990,7 +16005,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -16115,7 +16130,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16733,7 +16748,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16939,7 +16954,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17145,7 +17160,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17223,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
         <v>2.11</v>
@@ -17351,7 +17366,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17557,7 +17572,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17635,7 +17650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
         <v>2.43</v>
@@ -17763,7 +17778,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18050,7 +18065,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18587,7 +18602,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18665,7 +18680,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ85">
         <v>0.75</v>
@@ -18874,7 +18889,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19205,7 +19220,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19283,7 +19298,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ88">
         <v>0.33</v>
@@ -19411,7 +19426,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19492,7 +19507,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19617,7 +19632,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20029,7 +20044,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20235,7 +20250,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20441,7 +20456,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20647,7 +20662,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20725,7 +20740,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20853,7 +20868,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20934,7 +20949,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -21137,7 +21152,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ97">
         <v>0.88</v>
@@ -21265,7 +21280,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21471,7 +21486,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21755,7 +21770,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>1.22</v>
@@ -22089,7 +22104,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22170,7 +22185,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22373,7 +22388,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ103">
         <v>1.38</v>
@@ -22501,7 +22516,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22707,7 +22722,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22913,7 +22928,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23325,7 +23340,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23737,7 +23752,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23818,7 +23833,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -23943,7 +23958,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24149,7 +24164,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24230,7 +24245,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.28</v>
@@ -24355,7 +24370,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24433,10 +24448,10 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24561,7 +24576,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24973,7 +24988,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25051,7 +25066,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25179,7 +25194,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25257,7 +25272,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
         <v>1.67</v>
@@ -25385,7 +25400,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25669,7 +25684,7 @@
         <v>1.2</v>
       </c>
       <c r="AP119">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ119">
         <v>1.67</v>
@@ -26003,7 +26018,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26290,7 +26305,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26415,7 +26430,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26621,7 +26636,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26702,7 +26717,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ124">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -26827,7 +26842,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27033,7 +27048,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27651,7 +27666,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -27935,7 +27950,7 @@
         <v>0.17</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28556,7 +28571,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -28887,7 +28902,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29299,7 +29314,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29505,7 +29520,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29586,7 +29601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ138">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR138">
         <v>1.39</v>
@@ -29711,7 +29726,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29789,7 +29804,7 @@
         <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ139">
         <v>2.11</v>
@@ -29998,7 +30013,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30201,7 +30216,7 @@
         <v>1.33</v>
       </c>
       <c r="AP141">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ141">
         <v>1.38</v>
@@ -30535,7 +30550,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30741,7 +30756,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -30819,7 +30834,7 @@
         <v>0.57</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
         <v>0.5</v>
@@ -31028,7 +31043,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ145">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR145">
         <v>1.69</v>
@@ -31153,7 +31168,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31234,7 +31249,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR146">
         <v>1.08</v>
@@ -31359,7 +31374,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31437,7 +31452,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
         <v>0.67</v>
@@ -31565,7 +31580,7 @@
         <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31771,7 +31786,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -31849,7 +31864,7 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32183,7 +32198,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32389,7 +32404,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32595,7 +32610,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32801,7 +32816,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33213,7 +33228,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33831,7 +33846,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34037,7 +34052,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34210,7 +34225,7 @@
         <v>69</v>
       </c>
       <c r="E161" s="2">
-        <v>45646.875</v>
+        <v>45647.45833333334</v>
       </c>
       <c r="F161">
         <v>17</v>
@@ -34243,7 +34258,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34449,7 +34464,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34655,7 +34670,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34812,6 +34827,830 @@
       </c>
       <c r="BP163">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7492315</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45648.35416666666</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>86</v>
+      </c>
+      <c r="H164" t="s">
+        <v>71</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>5</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164" t="s">
+        <v>196</v>
+      </c>
+      <c r="P164" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q164">
+        <v>2.05</v>
+      </c>
+      <c r="R164">
+        <v>2.5</v>
+      </c>
+      <c r="S164">
+        <v>5.5</v>
+      </c>
+      <c r="T164">
+        <v>1.3</v>
+      </c>
+      <c r="U164">
+        <v>3.4</v>
+      </c>
+      <c r="V164">
+        <v>2.38</v>
+      </c>
+      <c r="W164">
+        <v>1.53</v>
+      </c>
+      <c r="X164">
+        <v>6</v>
+      </c>
+      <c r="Y164">
+        <v>1.13</v>
+      </c>
+      <c r="Z164">
+        <v>1.64</v>
+      </c>
+      <c r="AA164">
+        <v>3.99</v>
+      </c>
+      <c r="AB164">
+        <v>5.8</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>17</v>
+      </c>
+      <c r="AE164">
+        <v>1.19</v>
+      </c>
+      <c r="AF164">
+        <v>4.75</v>
+      </c>
+      <c r="AG164">
+        <v>1.65</v>
+      </c>
+      <c r="AH164">
+        <v>2.15</v>
+      </c>
+      <c r="AI164">
+        <v>1.7</v>
+      </c>
+      <c r="AJ164">
+        <v>2.05</v>
+      </c>
+      <c r="AK164">
+        <v>1.13</v>
+      </c>
+      <c r="AL164">
+        <v>1.17</v>
+      </c>
+      <c r="AM164">
+        <v>2.6</v>
+      </c>
+      <c r="AN164">
+        <v>1.5</v>
+      </c>
+      <c r="AO164">
+        <v>1</v>
+      </c>
+      <c r="AP164">
+        <v>1.67</v>
+      </c>
+      <c r="AQ164">
+        <v>0.88</v>
+      </c>
+      <c r="AR164">
+        <v>1.54</v>
+      </c>
+      <c r="AS164">
+        <v>1.21</v>
+      </c>
+      <c r="AT164">
+        <v>2.75</v>
+      </c>
+      <c r="AU164">
+        <v>10</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>7</v>
+      </c>
+      <c r="AX164">
+        <v>5</v>
+      </c>
+      <c r="AY164">
+        <v>20</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
+        <v>7</v>
+      </c>
+      <c r="BD164">
+        <v>1.43</v>
+      </c>
+      <c r="BE164">
+        <v>7</v>
+      </c>
+      <c r="BF164">
+        <v>3.15</v>
+      </c>
+      <c r="BG164">
+        <v>1.3</v>
+      </c>
+      <c r="BH164">
+        <v>3.15</v>
+      </c>
+      <c r="BI164">
+        <v>1.52</v>
+      </c>
+      <c r="BJ164">
+        <v>2.33</v>
+      </c>
+      <c r="BK164">
+        <v>1.83</v>
+      </c>
+      <c r="BL164">
+        <v>1.85</v>
+      </c>
+      <c r="BM164">
+        <v>2.3</v>
+      </c>
+      <c r="BN164">
+        <v>1.54</v>
+      </c>
+      <c r="BO164">
+        <v>2.95</v>
+      </c>
+      <c r="BP164">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7492317</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>87</v>
+      </c>
+      <c r="H165" t="s">
+        <v>76</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>197</v>
+      </c>
+      <c r="P165" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q165">
+        <v>3</v>
+      </c>
+      <c r="R165">
+        <v>2.2</v>
+      </c>
+      <c r="S165">
+        <v>3.4</v>
+      </c>
+      <c r="T165">
+        <v>1.36</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165">
+        <v>2.75</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2.4</v>
+      </c>
+      <c r="AA165">
+        <v>3.36</v>
+      </c>
+      <c r="AB165">
+        <v>3.12</v>
+      </c>
+      <c r="AC165">
+        <v>1.05</v>
+      </c>
+      <c r="AD165">
+        <v>12</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.6</v>
+      </c>
+      <c r="AG165">
+        <v>1.84</v>
+      </c>
+      <c r="AH165">
+        <v>1.97</v>
+      </c>
+      <c r="AI165">
+        <v>1.67</v>
+      </c>
+      <c r="AJ165">
+        <v>2.1</v>
+      </c>
+      <c r="AK165">
+        <v>1.44</v>
+      </c>
+      <c r="AL165">
+        <v>1.28</v>
+      </c>
+      <c r="AM165">
+        <v>1.58</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
+        <v>0.71</v>
+      </c>
+      <c r="AP165">
+        <v>1.25</v>
+      </c>
+      <c r="AQ165">
+        <v>0.63</v>
+      </c>
+      <c r="AR165">
+        <v>1.48</v>
+      </c>
+      <c r="AS165">
+        <v>0.99</v>
+      </c>
+      <c r="AT165">
+        <v>2.47</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>8</v>
+      </c>
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
+        <v>6</v>
+      </c>
+      <c r="AY165">
+        <v>13</v>
+      </c>
+      <c r="AZ165">
+        <v>15</v>
+      </c>
+      <c r="BA165">
+        <v>4</v>
+      </c>
+      <c r="BB165">
+        <v>8</v>
+      </c>
+      <c r="BC165">
+        <v>12</v>
+      </c>
+      <c r="BD165">
+        <v>1.89</v>
+      </c>
+      <c r="BE165">
+        <v>6.5</v>
+      </c>
+      <c r="BF165">
+        <v>2.1</v>
+      </c>
+      <c r="BG165">
+        <v>1.25</v>
+      </c>
+      <c r="BH165">
+        <v>3.45</v>
+      </c>
+      <c r="BI165">
+        <v>1.44</v>
+      </c>
+      <c r="BJ165">
+        <v>2.55</v>
+      </c>
+      <c r="BK165">
+        <v>1.72</v>
+      </c>
+      <c r="BL165">
+        <v>1.98</v>
+      </c>
+      <c r="BM165">
+        <v>2.12</v>
+      </c>
+      <c r="BN165">
+        <v>1.63</v>
+      </c>
+      <c r="BO165">
+        <v>2.7</v>
+      </c>
+      <c r="BP165">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7492308</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45648.58333333334</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>89</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166" t="s">
+        <v>198</v>
+      </c>
+      <c r="P166" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q166">
+        <v>1.73</v>
+      </c>
+      <c r="R166">
+        <v>2.5</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>1.3</v>
+      </c>
+      <c r="U166">
+        <v>3.4</v>
+      </c>
+      <c r="V166">
+        <v>2.5</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>6</v>
+      </c>
+      <c r="Y166">
+        <v>1.13</v>
+      </c>
+      <c r="Z166">
+        <v>1.28</v>
+      </c>
+      <c r="AA166">
+        <v>6.2</v>
+      </c>
+      <c r="AB166">
+        <v>11</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>15</v>
+      </c>
+      <c r="AE166">
+        <v>1.22</v>
+      </c>
+      <c r="AF166">
+        <v>4.33</v>
+      </c>
+      <c r="AG166">
+        <v>1.6</v>
+      </c>
+      <c r="AH166">
+        <v>2.2</v>
+      </c>
+      <c r="AI166">
+        <v>2.1</v>
+      </c>
+      <c r="AJ166">
+        <v>1.67</v>
+      </c>
+      <c r="AK166">
+        <v>1.01</v>
+      </c>
+      <c r="AL166">
+        <v>1.11</v>
+      </c>
+      <c r="AM166">
+        <v>3.75</v>
+      </c>
+      <c r="AN166">
+        <v>2.57</v>
+      </c>
+      <c r="AO166">
+        <v>1.5</v>
+      </c>
+      <c r="AP166">
+        <v>2.63</v>
+      </c>
+      <c r="AQ166">
+        <v>1.33</v>
+      </c>
+      <c r="AR166">
+        <v>1.76</v>
+      </c>
+      <c r="AS166">
+        <v>0.96</v>
+      </c>
+      <c r="AT166">
+        <v>2.72</v>
+      </c>
+      <c r="AU166">
+        <v>8</v>
+      </c>
+      <c r="AV166">
+        <v>4</v>
+      </c>
+      <c r="AW166">
+        <v>6</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>17</v>
+      </c>
+      <c r="AZ166">
+        <v>8</v>
+      </c>
+      <c r="BA166">
+        <v>6</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>9</v>
+      </c>
+      <c r="BD166">
+        <v>1.18</v>
+      </c>
+      <c r="BE166">
+        <v>8.5</v>
+      </c>
+      <c r="BF166">
+        <v>5.3</v>
+      </c>
+      <c r="BG166">
+        <v>1.26</v>
+      </c>
+      <c r="BH166">
+        <v>3.4</v>
+      </c>
+      <c r="BI166">
+        <v>1.47</v>
+      </c>
+      <c r="BJ166">
+        <v>2.48</v>
+      </c>
+      <c r="BK166">
+        <v>1.75</v>
+      </c>
+      <c r="BL166">
+        <v>1.95</v>
+      </c>
+      <c r="BM166">
+        <v>2.15</v>
+      </c>
+      <c r="BN166">
+        <v>1.61</v>
+      </c>
+      <c r="BO166">
+        <v>2.7</v>
+      </c>
+      <c r="BP166">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7492314</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45648.69791666666</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>82</v>
+      </c>
+      <c r="H167" t="s">
+        <v>79</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>91</v>
+      </c>
+      <c r="P167" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q167">
+        <v>6</v>
+      </c>
+      <c r="R167">
+        <v>2.05</v>
+      </c>
+      <c r="S167">
+        <v>2.3</v>
+      </c>
+      <c r="T167">
+        <v>1.5</v>
+      </c>
+      <c r="U167">
+        <v>2.5</v>
+      </c>
+      <c r="V167">
+        <v>3.4</v>
+      </c>
+      <c r="W167">
+        <v>1.3</v>
+      </c>
+      <c r="X167">
+        <v>10</v>
+      </c>
+      <c r="Y167">
+        <v>1.06</v>
+      </c>
+      <c r="Z167">
+        <v>5.3</v>
+      </c>
+      <c r="AA167">
+        <v>3.6</v>
+      </c>
+      <c r="AB167">
+        <v>1.76</v>
+      </c>
+      <c r="AC167">
+        <v>1.09</v>
+      </c>
+      <c r="AD167">
+        <v>8</v>
+      </c>
+      <c r="AE167">
+        <v>1.42</v>
+      </c>
+      <c r="AF167">
+        <v>2.9</v>
+      </c>
+      <c r="AG167">
+        <v>2.3</v>
+      </c>
+      <c r="AH167">
+        <v>1.53</v>
+      </c>
+      <c r="AI167">
+        <v>2.2</v>
+      </c>
+      <c r="AJ167">
+        <v>1.62</v>
+      </c>
+      <c r="AK167">
+        <v>2.15</v>
+      </c>
+      <c r="AL167">
+        <v>1.26</v>
+      </c>
+      <c r="AM167">
+        <v>1.16</v>
+      </c>
+      <c r="AN167">
+        <v>0.38</v>
+      </c>
+      <c r="AO167">
+        <v>1.86</v>
+      </c>
+      <c r="AP167">
+        <v>0.33</v>
+      </c>
+      <c r="AQ167">
+        <v>2</v>
+      </c>
+      <c r="AR167">
+        <v>1.14</v>
+      </c>
+      <c r="AS167">
+        <v>1.14</v>
+      </c>
+      <c r="AT167">
+        <v>2.28</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>10</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>18</v>
+      </c>
+      <c r="AZ167">
+        <v>17</v>
+      </c>
+      <c r="BA167">
+        <v>3</v>
+      </c>
+      <c r="BB167">
+        <v>7</v>
+      </c>
+      <c r="BC167">
+        <v>10</v>
+      </c>
+      <c r="BD167">
+        <v>2.8</v>
+      </c>
+      <c r="BE167">
+        <v>6.75</v>
+      </c>
+      <c r="BF167">
+        <v>1.52</v>
+      </c>
+      <c r="BG167">
+        <v>1.36</v>
+      </c>
+      <c r="BH167">
+        <v>2.8</v>
+      </c>
+      <c r="BI167">
+        <v>1.63</v>
+      </c>
+      <c r="BJ167">
+        <v>2.12</v>
+      </c>
+      <c r="BK167">
+        <v>1.98</v>
+      </c>
+      <c r="BL167">
+        <v>1.72</v>
+      </c>
+      <c r="BM167">
+        <v>2.55</v>
+      </c>
+      <c r="BN167">
+        <v>1.43</v>
+      </c>
+      <c r="BO167">
+        <v>3.4</v>
+      </c>
+      <c r="BP167">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,13 +604,19 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['38', '67']</t>
+  </si>
+  <si>
     <t>['8', '13', '51', '74', '83']</t>
   </si>
   <si>
-    <t>['38', '67']</t>
+    <t>['34', '45+1', '86']</t>
   </si>
   <si>
-    <t>['34', '45+1', '86']</t>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['48', '90+2']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -880,10 +886,13 @@
     <t>['45+3', '87']</t>
   </si>
   <si>
+    <t>['14', '39']</t>
+  </si>
+  <si>
     <t>['13', '57']</t>
   </si>
   <si>
-    <t>['14', '39']</t>
+    <t>['49', '57']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1513,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2122,7 +2131,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2328,7 +2337,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2409,7 +2418,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2946,7 +2955,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3152,7 +3161,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3439,7 +3448,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3564,7 +3573,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3770,7 +3779,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4054,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4182,7 +4191,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4672,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -5006,7 +5015,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5293,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5418,7 +5427,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5624,7 +5633,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5908,7 +5917,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ23">
         <v>2.11</v>
@@ -6036,7 +6045,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6448,7 +6457,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6654,7 +6663,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6860,7 +6869,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7066,7 +7075,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7144,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7353,7 +7362,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7684,7 +7693,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8302,7 +8311,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8714,7 +8723,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8920,7 +8929,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9126,7 +9135,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9332,7 +9341,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9413,7 +9422,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9538,7 +9547,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9744,7 +9753,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9950,7 +9959,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10568,7 +10577,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10774,7 +10783,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10852,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -10980,7 +10989,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11267,7 +11276,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -11392,7 +11401,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11470,7 +11479,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ50">
         <v>1.38</v>
@@ -11598,7 +11607,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11679,7 +11688,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -12010,7 +12019,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12216,7 +12225,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12422,7 +12431,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12628,7 +12637,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13040,7 +13049,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13658,7 +13667,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13945,7 +13954,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14482,7 +14491,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14688,7 +14697,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14766,7 +14775,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ66">
         <v>1.22</v>
@@ -14894,7 +14903,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15306,7 +15315,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15512,7 +15521,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15718,7 +15727,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15796,7 +15805,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71">
         <v>1.38</v>
@@ -16130,7 +16139,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16417,7 +16426,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -16748,7 +16757,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16954,7 +16963,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17160,7 +17169,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17366,7 +17375,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17572,7 +17581,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17778,7 +17787,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18271,7 +18280,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18602,7 +18611,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19220,7 +19229,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19426,7 +19435,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19504,7 +19513,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ89">
         <v>2</v>
@@ -19632,7 +19641,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19710,7 +19719,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
         <v>0.5</v>
@@ -20044,7 +20053,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20250,7 +20259,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20456,7 +20465,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20662,7 +20671,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20743,7 +20752,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -20868,7 +20877,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21280,7 +21289,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21486,7 +21495,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22104,7 +22113,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22516,7 +22525,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22722,7 +22731,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22928,7 +22937,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23212,7 +23221,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ107">
         <v>0.33</v>
@@ -23340,7 +23349,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23627,7 +23636,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR109">
         <v>0.82</v>
@@ -23752,7 +23761,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23958,7 +23967,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24039,7 +24048,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24164,7 +24173,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24370,7 +24379,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24576,7 +24585,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24988,7 +24997,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25069,7 +25078,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25194,7 +25203,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25400,7 +25409,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25478,7 +25487,7 @@
         <v>0.6</v>
       </c>
       <c r="AP118">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ118">
         <v>0.75</v>
@@ -25890,7 +25899,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ120">
         <v>2.22</v>
@@ -26018,7 +26027,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26430,7 +26439,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26636,7 +26645,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26842,7 +26851,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27048,7 +27057,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27666,7 +27675,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -27747,7 +27756,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR129">
         <v>0.88</v>
@@ -28902,7 +28911,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29314,7 +29323,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29520,7 +29529,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29726,7 +29735,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30010,7 +30019,7 @@
         <v>1.17</v>
       </c>
       <c r="AP140">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ140">
         <v>0.88</v>
@@ -30550,7 +30559,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30756,7 +30765,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31040,7 +31049,7 @@
         <v>0.83</v>
       </c>
       <c r="AP145">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ145">
         <v>0.63</v>
@@ -31168,7 +31177,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31374,7 +31383,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31455,7 +31464,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -31580,7 +31589,7 @@
         <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31786,7 +31795,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -31867,7 +31876,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR149">
         <v>1</v>
@@ -32198,7 +32207,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32404,7 +32413,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32610,7 +32619,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32816,7 +32825,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33228,7 +33237,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33846,7 +33855,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34052,7 +34061,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34258,7 +34267,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34464,7 +34473,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34670,7 +34679,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34834,7 +34843,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7492315</v>
+        <v>7492317</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34843,196 +34852,196 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45648.35416666666</v>
+        <v>45647.875</v>
       </c>
       <c r="F164">
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H164" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N164">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O164" t="s">
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="Q164">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="R164">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S164">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="T164">
+        <v>1.36</v>
+      </c>
+      <c r="U164">
+        <v>3</v>
+      </c>
+      <c r="V164">
+        <v>2.75</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>8</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>2.4</v>
+      </c>
+      <c r="AA164">
+        <v>3.36</v>
+      </c>
+      <c r="AB164">
+        <v>3.12</v>
+      </c>
+      <c r="AC164">
+        <v>1.05</v>
+      </c>
+      <c r="AD164">
+        <v>12</v>
+      </c>
+      <c r="AE164">
         <v>1.3</v>
       </c>
-      <c r="U164">
-        <v>3.4</v>
-      </c>
-      <c r="V164">
-        <v>2.38</v>
-      </c>
-      <c r="W164">
-        <v>1.53</v>
-      </c>
-      <c r="X164">
+      <c r="AF164">
+        <v>3.6</v>
+      </c>
+      <c r="AG164">
+        <v>1.84</v>
+      </c>
+      <c r="AH164">
+        <v>1.97</v>
+      </c>
+      <c r="AI164">
+        <v>1.67</v>
+      </c>
+      <c r="AJ164">
+        <v>2.1</v>
+      </c>
+      <c r="AK164">
+        <v>1.44</v>
+      </c>
+      <c r="AL164">
+        <v>1.28</v>
+      </c>
+      <c r="AM164">
+        <v>1.58</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
+        <v>0.71</v>
+      </c>
+      <c r="AP164">
+        <v>1.25</v>
+      </c>
+      <c r="AQ164">
+        <v>0.63</v>
+      </c>
+      <c r="AR164">
+        <v>1.48</v>
+      </c>
+      <c r="AS164">
+        <v>0.99</v>
+      </c>
+      <c r="AT164">
+        <v>2.47</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>8</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
         <v>6</v>
       </c>
-      <c r="Y164">
-        <v>1.13</v>
-      </c>
-      <c r="Z164">
-        <v>1.64</v>
-      </c>
-      <c r="AA164">
-        <v>3.99</v>
-      </c>
-      <c r="AB164">
-        <v>5.8</v>
-      </c>
-      <c r="AC164">
-        <v>1.02</v>
-      </c>
-      <c r="AD164">
-        <v>17</v>
-      </c>
-      <c r="AE164">
-        <v>1.19</v>
-      </c>
-      <c r="AF164">
-        <v>4.75</v>
-      </c>
-      <c r="AG164">
-        <v>1.65</v>
-      </c>
-      <c r="AH164">
-        <v>2.15</v>
-      </c>
-      <c r="AI164">
-        <v>1.7</v>
-      </c>
-      <c r="AJ164">
-        <v>2.05</v>
-      </c>
-      <c r="AK164">
-        <v>1.13</v>
-      </c>
-      <c r="AL164">
-        <v>1.17</v>
-      </c>
-      <c r="AM164">
-        <v>2.6</v>
-      </c>
-      <c r="AN164">
-        <v>1.5</v>
-      </c>
-      <c r="AO164">
-        <v>1</v>
-      </c>
-      <c r="AP164">
-        <v>1.67</v>
-      </c>
-      <c r="AQ164">
-        <v>0.88</v>
-      </c>
-      <c r="AR164">
-        <v>1.54</v>
-      </c>
-      <c r="AS164">
-        <v>1.21</v>
-      </c>
-      <c r="AT164">
-        <v>2.75</v>
-      </c>
-      <c r="AU164">
-        <v>10</v>
-      </c>
-      <c r="AV164">
+      <c r="AY164">
+        <v>13</v>
+      </c>
+      <c r="AZ164">
+        <v>15</v>
+      </c>
+      <c r="BA164">
         <v>4</v>
       </c>
-      <c r="AW164">
-        <v>7</v>
-      </c>
-      <c r="AX164">
-        <v>5</v>
-      </c>
-      <c r="AY164">
-        <v>20</v>
-      </c>
-      <c r="AZ164">
-        <v>10</v>
-      </c>
-      <c r="BA164">
-        <v>5</v>
-      </c>
       <c r="BB164">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC164">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD164">
-        <v>1.43</v>
+        <v>1.89</v>
       </c>
       <c r="BE164">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF164">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="BG164">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH164">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI164">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BJ164">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BK164">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BL164">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BM164">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="BN164">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="BO164">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BP164">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -35040,7 +35049,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7492317</v>
+        <v>7492314</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35049,196 +35058,196 @@
         <v>69</v>
       </c>
       <c r="E165" s="2">
-        <v>45648.45833333334</v>
+        <v>45647.875</v>
       </c>
       <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>82</v>
+      </c>
+      <c r="H165" t="s">
+        <v>79</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>91</v>
+      </c>
+      <c r="P165" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q165">
+        <v>6</v>
+      </c>
+      <c r="R165">
+        <v>2.05</v>
+      </c>
+      <c r="S165">
+        <v>2.3</v>
+      </c>
+      <c r="T165">
+        <v>1.5</v>
+      </c>
+      <c r="U165">
+        <v>2.5</v>
+      </c>
+      <c r="V165">
+        <v>3.4</v>
+      </c>
+      <c r="W165">
+        <v>1.3</v>
+      </c>
+      <c r="X165">
+        <v>10</v>
+      </c>
+      <c r="Y165">
+        <v>1.06</v>
+      </c>
+      <c r="Z165">
+        <v>5.3</v>
+      </c>
+      <c r="AA165">
+        <v>3.6</v>
+      </c>
+      <c r="AB165">
+        <v>1.76</v>
+      </c>
+      <c r="AC165">
+        <v>1.09</v>
+      </c>
+      <c r="AD165">
+        <v>8</v>
+      </c>
+      <c r="AE165">
+        <v>1.42</v>
+      </c>
+      <c r="AF165">
+        <v>2.9</v>
+      </c>
+      <c r="AG165">
+        <v>2.3</v>
+      </c>
+      <c r="AH165">
+        <v>1.53</v>
+      </c>
+      <c r="AI165">
+        <v>2.2</v>
+      </c>
+      <c r="AJ165">
+        <v>1.62</v>
+      </c>
+      <c r="AK165">
+        <v>2.15</v>
+      </c>
+      <c r="AL165">
+        <v>1.26</v>
+      </c>
+      <c r="AM165">
+        <v>1.16</v>
+      </c>
+      <c r="AN165">
+        <v>0.38</v>
+      </c>
+      <c r="AO165">
+        <v>1.86</v>
+      </c>
+      <c r="AP165">
+        <v>0.33</v>
+      </c>
+      <c r="AQ165">
+        <v>2</v>
+      </c>
+      <c r="AR165">
+        <v>1.14</v>
+      </c>
+      <c r="AS165">
+        <v>1.14</v>
+      </c>
+      <c r="AT165">
+        <v>2.28</v>
+      </c>
+      <c r="AU165">
+        <v>6</v>
+      </c>
+      <c r="AV165">
+        <v>10</v>
+      </c>
+      <c r="AW165">
+        <v>7</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>18</v>
+      </c>
+      <c r="AZ165">
         <v>17</v>
       </c>
-      <c r="G165" t="s">
-        <v>87</v>
-      </c>
-      <c r="H165" t="s">
-        <v>76</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-      <c r="L165">
-        <v>2</v>
-      </c>
-      <c r="M165">
-        <v>1</v>
-      </c>
-      <c r="N165">
-        <v>3</v>
-      </c>
-      <c r="O165" t="s">
-        <v>197</v>
-      </c>
-      <c r="P165" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q165">
-        <v>3</v>
-      </c>
-      <c r="R165">
-        <v>2.2</v>
-      </c>
-      <c r="S165">
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
+        <v>7</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>2.8</v>
+      </c>
+      <c r="BE165">
+        <v>6.75</v>
+      </c>
+      <c r="BF165">
+        <v>1.52</v>
+      </c>
+      <c r="BG165">
+        <v>1.36</v>
+      </c>
+      <c r="BH165">
+        <v>2.8</v>
+      </c>
+      <c r="BI165">
+        <v>1.63</v>
+      </c>
+      <c r="BJ165">
+        <v>2.12</v>
+      </c>
+      <c r="BK165">
+        <v>1.98</v>
+      </c>
+      <c r="BL165">
+        <v>1.72</v>
+      </c>
+      <c r="BM165">
+        <v>2.55</v>
+      </c>
+      <c r="BN165">
+        <v>1.43</v>
+      </c>
+      <c r="BO165">
         <v>3.4</v>
       </c>
-      <c r="T165">
-        <v>1.36</v>
-      </c>
-      <c r="U165">
-        <v>3</v>
-      </c>
-      <c r="V165">
-        <v>2.75</v>
-      </c>
-      <c r="W165">
-        <v>1.4</v>
-      </c>
-      <c r="X165">
-        <v>8</v>
-      </c>
-      <c r="Y165">
-        <v>1.08</v>
-      </c>
-      <c r="Z165">
-        <v>2.4</v>
-      </c>
-      <c r="AA165">
-        <v>3.36</v>
-      </c>
-      <c r="AB165">
-        <v>3.12</v>
-      </c>
-      <c r="AC165">
-        <v>1.05</v>
-      </c>
-      <c r="AD165">
-        <v>12</v>
-      </c>
-      <c r="AE165">
-        <v>1.3</v>
-      </c>
-      <c r="AF165">
-        <v>3.6</v>
-      </c>
-      <c r="AG165">
-        <v>1.84</v>
-      </c>
-      <c r="AH165">
-        <v>1.97</v>
-      </c>
-      <c r="AI165">
-        <v>1.67</v>
-      </c>
-      <c r="AJ165">
-        <v>2.1</v>
-      </c>
-      <c r="AK165">
-        <v>1.44</v>
-      </c>
-      <c r="AL165">
-        <v>1.28</v>
-      </c>
-      <c r="AM165">
-        <v>1.58</v>
-      </c>
-      <c r="AN165">
-        <v>1</v>
-      </c>
-      <c r="AO165">
-        <v>0.71</v>
-      </c>
-      <c r="AP165">
-        <v>1.25</v>
-      </c>
-      <c r="AQ165">
-        <v>0.63</v>
-      </c>
-      <c r="AR165">
-        <v>1.48</v>
-      </c>
-      <c r="AS165">
-        <v>0.99</v>
-      </c>
-      <c r="AT165">
-        <v>2.47</v>
-      </c>
-      <c r="AU165">
-        <v>7</v>
-      </c>
-      <c r="AV165">
-        <v>8</v>
-      </c>
-      <c r="AW165">
-        <v>4</v>
-      </c>
-      <c r="AX165">
-        <v>6</v>
-      </c>
-      <c r="AY165">
-        <v>13</v>
-      </c>
-      <c r="AZ165">
-        <v>15</v>
-      </c>
-      <c r="BA165">
-        <v>4</v>
-      </c>
-      <c r="BB165">
-        <v>8</v>
-      </c>
-      <c r="BC165">
-        <v>12</v>
-      </c>
-      <c r="BD165">
-        <v>1.89</v>
-      </c>
-      <c r="BE165">
-        <v>6.5</v>
-      </c>
-      <c r="BF165">
-        <v>2.1</v>
-      </c>
-      <c r="BG165">
-        <v>1.25</v>
-      </c>
-      <c r="BH165">
-        <v>3.45</v>
-      </c>
-      <c r="BI165">
-        <v>1.44</v>
-      </c>
-      <c r="BJ165">
-        <v>2.55</v>
-      </c>
-      <c r="BK165">
-        <v>1.72</v>
-      </c>
-      <c r="BL165">
-        <v>1.98</v>
-      </c>
-      <c r="BM165">
-        <v>2.12</v>
-      </c>
-      <c r="BN165">
-        <v>1.63</v>
-      </c>
-      <c r="BO165">
-        <v>2.7</v>
-      </c>
       <c r="BP165">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="166" spans="1:68">
@@ -35246,7 +35255,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7492308</v>
+        <v>7492315</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35255,49 +35264,49 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45648.58333333334</v>
+        <v>45648.35416666666</v>
       </c>
       <c r="F166">
         <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H166" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N166">
         <v>5</v>
       </c>
       <c r="O166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="Q166">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="R166">
         <v>2.5</v>
       </c>
       <c r="S166">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="T166">
         <v>1.3</v>
@@ -35306,10 +35315,10 @@
         <v>3.4</v>
       </c>
       <c r="V166">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W166">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X166">
         <v>6</v>
@@ -35318,133 +35327,133 @@
         <v>1.13</v>
       </c>
       <c r="Z166">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="AA166">
-        <v>6.2</v>
+        <v>3.99</v>
       </c>
       <c r="AB166">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="AC166">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD166">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE166">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF166">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AG166">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AH166">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AI166">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AJ166">
+        <v>2.05</v>
+      </c>
+      <c r="AK166">
+        <v>1.13</v>
+      </c>
+      <c r="AL166">
+        <v>1.17</v>
+      </c>
+      <c r="AM166">
+        <v>2.6</v>
+      </c>
+      <c r="AN166">
+        <v>1.5</v>
+      </c>
+      <c r="AO166">
+        <v>1</v>
+      </c>
+      <c r="AP166">
         <v>1.67</v>
       </c>
-      <c r="AK166">
-        <v>1.01</v>
-      </c>
-      <c r="AL166">
-        <v>1.11</v>
-      </c>
-      <c r="AM166">
-        <v>3.75</v>
-      </c>
-      <c r="AN166">
-        <v>2.57</v>
-      </c>
-      <c r="AO166">
-        <v>1.5</v>
-      </c>
-      <c r="AP166">
-        <v>2.63</v>
-      </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AR166">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="AS166">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="AT166">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU166">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV166">
         <v>4</v>
       </c>
       <c r="AW166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY166">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ166">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC166">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD166">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="BE166">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BF166">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="BG166">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH166">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI166">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BJ166">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="BK166">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="BL166">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BM166">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BN166">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="BO166">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BP166">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35452,7 +35461,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7492314</v>
+        <v>7492308</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35461,196 +35470,608 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45648.69791666666</v>
+        <v>45648.58333333334</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H167" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K167">
         <v>3</v>
       </c>
       <c r="L167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M167">
         <v>2</v>
       </c>
       <c r="N167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O167" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q167">
+        <v>1.73</v>
+      </c>
+      <c r="R167">
+        <v>2.5</v>
+      </c>
+      <c r="S167">
+        <v>9</v>
+      </c>
+      <c r="T167">
+        <v>1.3</v>
+      </c>
+      <c r="U167">
+        <v>3.4</v>
+      </c>
+      <c r="V167">
+        <v>2.5</v>
+      </c>
+      <c r="W167">
+        <v>1.5</v>
+      </c>
+      <c r="X167">
         <v>6</v>
       </c>
-      <c r="R167">
+      <c r="Y167">
+        <v>1.13</v>
+      </c>
+      <c r="Z167">
+        <v>1.28</v>
+      </c>
+      <c r="AA167">
+        <v>6.2</v>
+      </c>
+      <c r="AB167">
+        <v>11</v>
+      </c>
+      <c r="AC167">
+        <v>1.03</v>
+      </c>
+      <c r="AD167">
+        <v>15</v>
+      </c>
+      <c r="AE167">
+        <v>1.22</v>
+      </c>
+      <c r="AF167">
+        <v>4.33</v>
+      </c>
+      <c r="AG167">
+        <v>1.6</v>
+      </c>
+      <c r="AH167">
+        <v>2.2</v>
+      </c>
+      <c r="AI167">
+        <v>2.1</v>
+      </c>
+      <c r="AJ167">
+        <v>1.67</v>
+      </c>
+      <c r="AK167">
+        <v>1.01</v>
+      </c>
+      <c r="AL167">
+        <v>1.11</v>
+      </c>
+      <c r="AM167">
+        <v>3.75</v>
+      </c>
+      <c r="AN167">
+        <v>2.57</v>
+      </c>
+      <c r="AO167">
+        <v>1.5</v>
+      </c>
+      <c r="AP167">
+        <v>2.63</v>
+      </c>
+      <c r="AQ167">
+        <v>1.33</v>
+      </c>
+      <c r="AR167">
+        <v>1.76</v>
+      </c>
+      <c r="AS167">
+        <v>0.96</v>
+      </c>
+      <c r="AT167">
+        <v>2.72</v>
+      </c>
+      <c r="AU167">
+        <v>8</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>6</v>
+      </c>
+      <c r="AX167">
+        <v>2</v>
+      </c>
+      <c r="AY167">
+        <v>17</v>
+      </c>
+      <c r="AZ167">
+        <v>8</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>9</v>
+      </c>
+      <c r="BD167">
+        <v>1.18</v>
+      </c>
+      <c r="BE167">
+        <v>8.5</v>
+      </c>
+      <c r="BF167">
+        <v>5.3</v>
+      </c>
+      <c r="BG167">
+        <v>1.26</v>
+      </c>
+      <c r="BH167">
+        <v>3.4</v>
+      </c>
+      <c r="BI167">
+        <v>1.47</v>
+      </c>
+      <c r="BJ167">
+        <v>2.48</v>
+      </c>
+      <c r="BK167">
+        <v>1.75</v>
+      </c>
+      <c r="BL167">
+        <v>1.95</v>
+      </c>
+      <c r="BM167">
+        <v>2.15</v>
+      </c>
+      <c r="BN167">
+        <v>1.61</v>
+      </c>
+      <c r="BO167">
+        <v>2.7</v>
+      </c>
+      <c r="BP167">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7492309</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45649.60416666666</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>84</v>
+      </c>
+      <c r="H168" t="s">
+        <v>80</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>199</v>
+      </c>
+      <c r="P168" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q168">
+        <v>2.2</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>5.5</v>
+      </c>
+      <c r="T168">
+        <v>1.36</v>
+      </c>
+      <c r="U168">
+        <v>3</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>1.6</v>
+      </c>
+      <c r="AA168">
+        <v>3.95</v>
+      </c>
+      <c r="AB168">
+        <v>5.75</v>
+      </c>
+      <c r="AC168">
+        <v>1.04</v>
+      </c>
+      <c r="AD168">
+        <v>12</v>
+      </c>
+      <c r="AE168">
+        <v>1.28</v>
+      </c>
+      <c r="AF168">
+        <v>3.75</v>
+      </c>
+      <c r="AG168">
+        <v>1.92</v>
+      </c>
+      <c r="AH168">
+        <v>1.94</v>
+      </c>
+      <c r="AI168">
+        <v>1.91</v>
+      </c>
+      <c r="AJ168">
+        <v>1.91</v>
+      </c>
+      <c r="AK168">
+        <v>1.14</v>
+      </c>
+      <c r="AL168">
+        <v>1.2</v>
+      </c>
+      <c r="AM168">
+        <v>2.4</v>
+      </c>
+      <c r="AN168">
+        <v>2.43</v>
+      </c>
+      <c r="AO168">
+        <v>1</v>
+      </c>
+      <c r="AP168">
+        <v>2.13</v>
+      </c>
+      <c r="AQ168">
+        <v>1.22</v>
+      </c>
+      <c r="AR168">
+        <v>1.6</v>
+      </c>
+      <c r="AS168">
+        <v>1.36</v>
+      </c>
+      <c r="AT168">
+        <v>2.96</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>15</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>10</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>12</v>
+      </c>
+      <c r="BD168">
+        <v>1.28</v>
+      </c>
+      <c r="BE168">
+        <v>7.9</v>
+      </c>
+      <c r="BF168">
+        <v>4.55</v>
+      </c>
+      <c r="BG168">
+        <v>1.26</v>
+      </c>
+      <c r="BH168">
+        <v>3.4</v>
+      </c>
+      <c r="BI168">
+        <v>1.48</v>
+      </c>
+      <c r="BJ168">
+        <v>2.45</v>
+      </c>
+      <c r="BK168">
+        <v>1.8</v>
+      </c>
+      <c r="BL168">
+        <v>1.88</v>
+      </c>
+      <c r="BM168">
+        <v>2.25</v>
+      </c>
+      <c r="BN168">
+        <v>1.55</v>
+      </c>
+      <c r="BO168">
+        <v>2.95</v>
+      </c>
+      <c r="BP168">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7492312</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45649.69791666666</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>88</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>200</v>
+      </c>
+      <c r="P169" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q169">
+        <v>1.67</v>
+      </c>
+      <c r="R169">
+        <v>2.75</v>
+      </c>
+      <c r="S169">
+        <v>9</v>
+      </c>
+      <c r="T169">
+        <v>1.29</v>
+      </c>
+      <c r="U169">
+        <v>3.5</v>
+      </c>
+      <c r="V169">
+        <v>2.25</v>
+      </c>
+      <c r="W169">
+        <v>1.57</v>
+      </c>
+      <c r="X169">
+        <v>5.5</v>
+      </c>
+      <c r="Y169">
+        <v>1.14</v>
+      </c>
+      <c r="Z169">
+        <v>1.22</v>
+      </c>
+      <c r="AA169">
+        <v>6</v>
+      </c>
+      <c r="AB169">
+        <v>11</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>21</v>
+      </c>
+      <c r="AE169">
+        <v>1.16</v>
+      </c>
+      <c r="AF169">
+        <v>5.5</v>
+      </c>
+      <c r="AG169">
+        <v>1.53</v>
+      </c>
+      <c r="AH169">
+        <v>2.45</v>
+      </c>
+      <c r="AI169">
         <v>2.05</v>
       </c>
-      <c r="S167">
-        <v>2.3</v>
-      </c>
-      <c r="T167">
+      <c r="AJ169">
+        <v>1.7</v>
+      </c>
+      <c r="AK169">
+        <v>1.01</v>
+      </c>
+      <c r="AL169">
+        <v>1.09</v>
+      </c>
+      <c r="AM169">
+        <v>4.33</v>
+      </c>
+      <c r="AN169">
+        <v>2.13</v>
+      </c>
+      <c r="AO169">
+        <v>0.67</v>
+      </c>
+      <c r="AP169">
+        <v>2.22</v>
+      </c>
+      <c r="AQ169">
+        <v>0.6</v>
+      </c>
+      <c r="AR169">
+        <v>1.57</v>
+      </c>
+      <c r="AS169">
+        <v>1.35</v>
+      </c>
+      <c r="AT169">
+        <v>2.92</v>
+      </c>
+      <c r="AU169">
+        <v>6</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>6</v>
+      </c>
+      <c r="AX169">
+        <v>2</v>
+      </c>
+      <c r="AY169">
+        <v>18</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>7</v>
+      </c>
+      <c r="BB169">
+        <v>1</v>
+      </c>
+      <c r="BC169">
+        <v>8</v>
+      </c>
+      <c r="BD169">
+        <v>1.14</v>
+      </c>
+      <c r="BE169">
+        <v>10</v>
+      </c>
+      <c r="BF169">
+        <v>6.6</v>
+      </c>
+      <c r="BG169">
+        <v>1.29</v>
+      </c>
+      <c r="BH169">
+        <v>3.25</v>
+      </c>
+      <c r="BI169">
         <v>1.5</v>
       </c>
-      <c r="U167">
-        <v>2.5</v>
-      </c>
-      <c r="V167">
-        <v>3.4</v>
-      </c>
-      <c r="W167">
-        <v>1.3</v>
-      </c>
-      <c r="X167">
-        <v>10</v>
-      </c>
-      <c r="Y167">
-        <v>1.06</v>
-      </c>
-      <c r="Z167">
-        <v>5.3</v>
-      </c>
-      <c r="AA167">
-        <v>3.6</v>
-      </c>
-      <c r="AB167">
-        <v>1.76</v>
-      </c>
-      <c r="AC167">
-        <v>1.09</v>
-      </c>
-      <c r="AD167">
-        <v>8</v>
-      </c>
-      <c r="AE167">
-        <v>1.42</v>
-      </c>
-      <c r="AF167">
-        <v>2.9</v>
-      </c>
-      <c r="AG167">
-        <v>2.3</v>
-      </c>
-      <c r="AH167">
-        <v>1.53</v>
-      </c>
-      <c r="AI167">
-        <v>2.2</v>
-      </c>
-      <c r="AJ167">
-        <v>1.62</v>
-      </c>
-      <c r="AK167">
-        <v>2.15</v>
-      </c>
-      <c r="AL167">
-        <v>1.26</v>
-      </c>
-      <c r="AM167">
-        <v>1.16</v>
-      </c>
-      <c r="AN167">
-        <v>0.38</v>
-      </c>
-      <c r="AO167">
-        <v>1.86</v>
-      </c>
-      <c r="AP167">
-        <v>0.33</v>
-      </c>
-      <c r="AQ167">
-        <v>2</v>
-      </c>
-      <c r="AR167">
-        <v>1.14</v>
-      </c>
-      <c r="AS167">
-        <v>1.14</v>
-      </c>
-      <c r="AT167">
-        <v>2.28</v>
-      </c>
-      <c r="AU167">
-        <v>6</v>
-      </c>
-      <c r="AV167">
-        <v>10</v>
-      </c>
-      <c r="AW167">
-        <v>7</v>
-      </c>
-      <c r="AX167">
-        <v>4</v>
-      </c>
-      <c r="AY167">
-        <v>18</v>
-      </c>
-      <c r="AZ167">
-        <v>17</v>
-      </c>
-      <c r="BA167">
-        <v>3</v>
-      </c>
-      <c r="BB167">
-        <v>7</v>
-      </c>
-      <c r="BC167">
-        <v>10</v>
-      </c>
-      <c r="BD167">
-        <v>2.8</v>
-      </c>
-      <c r="BE167">
-        <v>6.75</v>
-      </c>
-      <c r="BF167">
+      <c r="BJ169">
+        <v>2.4</v>
+      </c>
+      <c r="BK169">
+        <v>1.82</v>
+      </c>
+      <c r="BL169">
+        <v>1.85</v>
+      </c>
+      <c r="BM169">
+        <v>2.32</v>
+      </c>
+      <c r="BN169">
         <v>1.52</v>
       </c>
-      <c r="BG167">
-        <v>1.36</v>
-      </c>
-      <c r="BH167">
-        <v>2.8</v>
-      </c>
-      <c r="BI167">
-        <v>1.63</v>
-      </c>
-      <c r="BJ167">
-        <v>2.12</v>
-      </c>
-      <c r="BK167">
-        <v>1.98</v>
-      </c>
-      <c r="BL167">
-        <v>1.72</v>
-      </c>
-      <c r="BM167">
-        <v>2.55</v>
-      </c>
-      <c r="BN167">
-        <v>1.43</v>
-      </c>
-      <c r="BO167">
-        <v>3.4</v>
-      </c>
-      <c r="BP167">
-        <v>1.26</v>
+      <c r="BO169">
+        <v>3.05</v>
+      </c>
+      <c r="BP169">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -604,10 +604,10 @@
     <t>['50']</t>
   </si>
   <si>
-    <t>['38', '67']</t>
+    <t>['8', '13', '51', '74', '83']</t>
   </si>
   <si>
-    <t>['8', '13', '51', '74', '83']</t>
+    <t>['38', '67']</t>
   </si>
   <si>
     <t>['34', '45+1', '86']</t>
@@ -886,10 +886,10 @@
     <t>['45+3', '87']</t>
   </si>
   <si>
-    <t>['14', '39']</t>
+    <t>['13', '57']</t>
   </si>
   <si>
-    <t>['13', '57']</t>
+    <t>['14', '39']</t>
   </si>
   <si>
     <t>['49', '57']</t>
@@ -34843,7 +34843,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7492317</v>
+        <v>7492315</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34852,196 +34852,196 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45647.875</v>
+        <v>45648.35416666666</v>
       </c>
       <c r="F164">
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H164" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O164" t="s">
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c r="Q164">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="R164">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S164">
+        <v>5.5</v>
+      </c>
+      <c r="T164">
+        <v>1.3</v>
+      </c>
+      <c r="U164">
         <v>3.4</v>
       </c>
-      <c r="T164">
-        <v>1.36</v>
-      </c>
-      <c r="U164">
-        <v>3</v>
-      </c>
       <c r="V164">
+        <v>2.38</v>
+      </c>
+      <c r="W164">
+        <v>1.53</v>
+      </c>
+      <c r="X164">
+        <v>6</v>
+      </c>
+      <c r="Y164">
+        <v>1.13</v>
+      </c>
+      <c r="Z164">
+        <v>1.64</v>
+      </c>
+      <c r="AA164">
+        <v>3.99</v>
+      </c>
+      <c r="AB164">
+        <v>5.8</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>17</v>
+      </c>
+      <c r="AE164">
+        <v>1.19</v>
+      </c>
+      <c r="AF164">
+        <v>4.75</v>
+      </c>
+      <c r="AG164">
+        <v>1.65</v>
+      </c>
+      <c r="AH164">
+        <v>2.15</v>
+      </c>
+      <c r="AI164">
+        <v>1.7</v>
+      </c>
+      <c r="AJ164">
+        <v>2.05</v>
+      </c>
+      <c r="AK164">
+        <v>1.13</v>
+      </c>
+      <c r="AL164">
+        <v>1.17</v>
+      </c>
+      <c r="AM164">
+        <v>2.6</v>
+      </c>
+      <c r="AN164">
+        <v>1.5</v>
+      </c>
+      <c r="AO164">
+        <v>1</v>
+      </c>
+      <c r="AP164">
+        <v>1.67</v>
+      </c>
+      <c r="AQ164">
+        <v>0.88</v>
+      </c>
+      <c r="AR164">
+        <v>1.54</v>
+      </c>
+      <c r="AS164">
+        <v>1.21</v>
+      </c>
+      <c r="AT164">
         <v>2.75</v>
       </c>
-      <c r="W164">
-        <v>1.4</v>
-      </c>
-      <c r="X164">
-        <v>8</v>
-      </c>
-      <c r="Y164">
-        <v>1.08</v>
-      </c>
-      <c r="Z164">
-        <v>2.4</v>
-      </c>
-      <c r="AA164">
-        <v>3.36</v>
-      </c>
-      <c r="AB164">
-        <v>3.12</v>
-      </c>
-      <c r="AC164">
-        <v>1.05</v>
-      </c>
-      <c r="AD164">
-        <v>12</v>
-      </c>
-      <c r="AE164">
+      <c r="AU164">
+        <v>10</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>7</v>
+      </c>
+      <c r="AX164">
+        <v>5</v>
+      </c>
+      <c r="AY164">
+        <v>20</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
+        <v>7</v>
+      </c>
+      <c r="BD164">
+        <v>1.43</v>
+      </c>
+      <c r="BE164">
+        <v>7</v>
+      </c>
+      <c r="BF164">
+        <v>3.15</v>
+      </c>
+      <c r="BG164">
         <v>1.3</v>
       </c>
-      <c r="AF164">
-        <v>3.6</v>
-      </c>
-      <c r="AG164">
-        <v>1.84</v>
-      </c>
-      <c r="AH164">
-        <v>1.97</v>
-      </c>
-      <c r="AI164">
-        <v>1.67</v>
-      </c>
-      <c r="AJ164">
-        <v>2.1</v>
-      </c>
-      <c r="AK164">
-        <v>1.44</v>
-      </c>
-      <c r="AL164">
-        <v>1.28</v>
-      </c>
-      <c r="AM164">
-        <v>1.58</v>
-      </c>
-      <c r="AN164">
-        <v>1</v>
-      </c>
-      <c r="AO164">
-        <v>0.71</v>
-      </c>
-      <c r="AP164">
-        <v>1.25</v>
-      </c>
-      <c r="AQ164">
-        <v>0.63</v>
-      </c>
-      <c r="AR164">
-        <v>1.48</v>
-      </c>
-      <c r="AS164">
-        <v>0.99</v>
-      </c>
-      <c r="AT164">
-        <v>2.47</v>
-      </c>
-      <c r="AU164">
-        <v>7</v>
-      </c>
-      <c r="AV164">
-        <v>8</v>
-      </c>
-      <c r="AW164">
-        <v>4</v>
-      </c>
-      <c r="AX164">
-        <v>6</v>
-      </c>
-      <c r="AY164">
-        <v>13</v>
-      </c>
-      <c r="AZ164">
-        <v>15</v>
-      </c>
-      <c r="BA164">
-        <v>4</v>
-      </c>
-      <c r="BB164">
-        <v>8</v>
-      </c>
-      <c r="BC164">
-        <v>12</v>
-      </c>
-      <c r="BD164">
-        <v>1.89</v>
-      </c>
-      <c r="BE164">
-        <v>6.5</v>
-      </c>
-      <c r="BF164">
-        <v>2.1</v>
-      </c>
-      <c r="BG164">
-        <v>1.25</v>
-      </c>
       <c r="BH164">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BI164">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BJ164">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BK164">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BL164">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BM164">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="BN164">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="BO164">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BP164">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -35049,7 +35049,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7492314</v>
+        <v>7492317</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35058,196 +35058,196 @@
         <v>69</v>
       </c>
       <c r="E165" s="2">
-        <v>45647.875</v>
+        <v>45648.45833333334</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H165" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N165">
         <v>3</v>
       </c>
       <c r="O165" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Q165">
+        <v>3</v>
+      </c>
+      <c r="R165">
+        <v>2.2</v>
+      </c>
+      <c r="S165">
+        <v>3.4</v>
+      </c>
+      <c r="T165">
+        <v>1.36</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165">
+        <v>2.75</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2.4</v>
+      </c>
+      <c r="AA165">
+        <v>3.36</v>
+      </c>
+      <c r="AB165">
+        <v>3.12</v>
+      </c>
+      <c r="AC165">
+        <v>1.05</v>
+      </c>
+      <c r="AD165">
+        <v>12</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.6</v>
+      </c>
+      <c r="AG165">
+        <v>1.84</v>
+      </c>
+      <c r="AH165">
+        <v>1.97</v>
+      </c>
+      <c r="AI165">
+        <v>1.67</v>
+      </c>
+      <c r="AJ165">
+        <v>2.1</v>
+      </c>
+      <c r="AK165">
+        <v>1.44</v>
+      </c>
+      <c r="AL165">
+        <v>1.28</v>
+      </c>
+      <c r="AM165">
+        <v>1.58</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
+        <v>0.71</v>
+      </c>
+      <c r="AP165">
+        <v>1.25</v>
+      </c>
+      <c r="AQ165">
+        <v>0.63</v>
+      </c>
+      <c r="AR165">
+        <v>1.48</v>
+      </c>
+      <c r="AS165">
+        <v>0.99</v>
+      </c>
+      <c r="AT165">
+        <v>2.47</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>8</v>
+      </c>
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
         <v>6</v>
       </c>
-      <c r="R165">
-        <v>2.05</v>
-      </c>
-      <c r="S165">
-        <v>2.3</v>
-      </c>
-      <c r="T165">
-        <v>1.5</v>
-      </c>
-      <c r="U165">
-        <v>2.5</v>
-      </c>
-      <c r="V165">
-        <v>3.4</v>
-      </c>
-      <c r="W165">
-        <v>1.3</v>
-      </c>
-      <c r="X165">
-        <v>10</v>
-      </c>
-      <c r="Y165">
-        <v>1.06</v>
-      </c>
-      <c r="Z165">
-        <v>5.3</v>
-      </c>
-      <c r="AA165">
-        <v>3.6</v>
-      </c>
-      <c r="AB165">
-        <v>1.76</v>
-      </c>
-      <c r="AC165">
-        <v>1.09</v>
-      </c>
-      <c r="AD165">
+      <c r="AY165">
+        <v>13</v>
+      </c>
+      <c r="AZ165">
+        <v>15</v>
+      </c>
+      <c r="BA165">
+        <v>4</v>
+      </c>
+      <c r="BB165">
         <v>8</v>
       </c>
-      <c r="AE165">
-        <v>1.42</v>
-      </c>
-      <c r="AF165">
-        <v>2.9</v>
-      </c>
-      <c r="AG165">
-        <v>2.3</v>
-      </c>
-      <c r="AH165">
-        <v>1.53</v>
-      </c>
-      <c r="AI165">
-        <v>2.2</v>
-      </c>
-      <c r="AJ165">
-        <v>1.62</v>
-      </c>
-      <c r="AK165">
-        <v>2.15</v>
-      </c>
-      <c r="AL165">
-        <v>1.26</v>
-      </c>
-      <c r="AM165">
-        <v>1.16</v>
-      </c>
-      <c r="AN165">
-        <v>0.38</v>
-      </c>
-      <c r="AO165">
-        <v>1.86</v>
-      </c>
-      <c r="AP165">
-        <v>0.33</v>
-      </c>
-      <c r="AQ165">
-        <v>2</v>
-      </c>
-      <c r="AR165">
-        <v>1.14</v>
-      </c>
-      <c r="AS165">
-        <v>1.14</v>
-      </c>
-      <c r="AT165">
-        <v>2.28</v>
-      </c>
-      <c r="AU165">
-        <v>6</v>
-      </c>
-      <c r="AV165">
-        <v>10</v>
-      </c>
-      <c r="AW165">
-        <v>7</v>
-      </c>
-      <c r="AX165">
-        <v>4</v>
-      </c>
-      <c r="AY165">
-        <v>18</v>
-      </c>
-      <c r="AZ165">
-        <v>17</v>
-      </c>
-      <c r="BA165">
-        <v>3</v>
-      </c>
-      <c r="BB165">
-        <v>7</v>
-      </c>
       <c r="BC165">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD165">
-        <v>2.8</v>
+        <v>1.89</v>
       </c>
       <c r="BE165">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF165">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="BG165">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="BH165">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="BI165">
+        <v>1.44</v>
+      </c>
+      <c r="BJ165">
+        <v>2.55</v>
+      </c>
+      <c r="BK165">
+        <v>1.72</v>
+      </c>
+      <c r="BL165">
+        <v>1.98</v>
+      </c>
+      <c r="BM165">
+        <v>2.12</v>
+      </c>
+      <c r="BN165">
         <v>1.63</v>
       </c>
-      <c r="BJ165">
-        <v>2.12</v>
-      </c>
-      <c r="BK165">
-        <v>1.98</v>
-      </c>
-      <c r="BL165">
-        <v>1.72</v>
-      </c>
-      <c r="BM165">
-        <v>2.55</v>
-      </c>
-      <c r="BN165">
-        <v>1.43</v>
-      </c>
       <c r="BO165">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP165">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="166" spans="1:68">
@@ -35255,7 +35255,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7492315</v>
+        <v>7492308</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35264,49 +35264,49 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45648.35416666666</v>
+        <v>45648.58333333334</v>
       </c>
       <c r="F166">
         <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H166" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N166">
         <v>5</v>
       </c>
       <c r="O166" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="Q166">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="R166">
         <v>2.5</v>
       </c>
       <c r="S166">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="T166">
         <v>1.3</v>
@@ -35315,10 +35315,10 @@
         <v>3.4</v>
       </c>
       <c r="V166">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W166">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X166">
         <v>6</v>
@@ -35327,133 +35327,133 @@
         <v>1.13</v>
       </c>
       <c r="Z166">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="AA166">
-        <v>3.99</v>
+        <v>6.2</v>
       </c>
       <c r="AB166">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="AC166">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD166">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE166">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF166">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AG166">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AH166">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AI166">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AJ166">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="AK166">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AL166">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AM166">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="AN166">
+        <v>2.57</v>
+      </c>
+      <c r="AO166">
         <v>1.5</v>
       </c>
-      <c r="AO166">
-        <v>1</v>
-      </c>
       <c r="AP166">
-        <v>1.67</v>
+        <v>2.63</v>
       </c>
       <c r="AQ166">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AR166">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="AS166">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="AT166">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU166">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV166">
         <v>4</v>
       </c>
       <c r="AW166">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY166">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ166">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC166">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD166">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="BE166">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF166">
-        <v>3.15</v>
+        <v>5.3</v>
       </c>
       <c r="BG166">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH166">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI166">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BJ166">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="BK166">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="BL166">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BM166">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BN166">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="BO166">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BP166">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35461,7 +35461,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7492308</v>
+        <v>7492314</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35470,196 +35470,196 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45648.58333333334</v>
+        <v>45648.69791666666</v>
       </c>
       <c r="F167">
         <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H167" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K167">
         <v>3</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M167">
         <v>2</v>
       </c>
       <c r="N167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O167" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="P167" t="s">
         <v>291</v>
       </c>
       <c r="Q167">
-        <v>1.73</v>
+        <v>6</v>
       </c>
       <c r="R167">
+        <v>2.05</v>
+      </c>
+      <c r="S167">
+        <v>2.3</v>
+      </c>
+      <c r="T167">
+        <v>1.5</v>
+      </c>
+      <c r="U167">
         <v>2.5</v>
       </c>
-      <c r="S167">
-        <v>9</v>
-      </c>
-      <c r="T167">
+      <c r="V167">
+        <v>3.4</v>
+      </c>
+      <c r="W167">
         <v>1.3</v>
       </c>
-      <c r="U167">
+      <c r="X167">
+        <v>10</v>
+      </c>
+      <c r="Y167">
+        <v>1.06</v>
+      </c>
+      <c r="Z167">
+        <v>5.3</v>
+      </c>
+      <c r="AA167">
+        <v>3.6</v>
+      </c>
+      <c r="AB167">
+        <v>1.76</v>
+      </c>
+      <c r="AC167">
+        <v>1.09</v>
+      </c>
+      <c r="AD167">
+        <v>8</v>
+      </c>
+      <c r="AE167">
+        <v>1.42</v>
+      </c>
+      <c r="AF167">
+        <v>2.9</v>
+      </c>
+      <c r="AG167">
+        <v>2.3</v>
+      </c>
+      <c r="AH167">
+        <v>1.53</v>
+      </c>
+      <c r="AI167">
+        <v>2.2</v>
+      </c>
+      <c r="AJ167">
+        <v>1.62</v>
+      </c>
+      <c r="AK167">
+        <v>2.15</v>
+      </c>
+      <c r="AL167">
+        <v>1.26</v>
+      </c>
+      <c r="AM167">
+        <v>1.16</v>
+      </c>
+      <c r="AN167">
+        <v>0.38</v>
+      </c>
+      <c r="AO167">
+        <v>1.86</v>
+      </c>
+      <c r="AP167">
+        <v>0.33</v>
+      </c>
+      <c r="AQ167">
+        <v>2</v>
+      </c>
+      <c r="AR167">
+        <v>1.14</v>
+      </c>
+      <c r="AS167">
+        <v>1.14</v>
+      </c>
+      <c r="AT167">
+        <v>2.28</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>10</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>18</v>
+      </c>
+      <c r="AZ167">
+        <v>17</v>
+      </c>
+      <c r="BA167">
+        <v>3</v>
+      </c>
+      <c r="BB167">
+        <v>7</v>
+      </c>
+      <c r="BC167">
+        <v>10</v>
+      </c>
+      <c r="BD167">
+        <v>2.8</v>
+      </c>
+      <c r="BE167">
+        <v>6.75</v>
+      </c>
+      <c r="BF167">
+        <v>1.52</v>
+      </c>
+      <c r="BG167">
+        <v>1.36</v>
+      </c>
+      <c r="BH167">
+        <v>2.8</v>
+      </c>
+      <c r="BI167">
+        <v>1.63</v>
+      </c>
+      <c r="BJ167">
+        <v>2.12</v>
+      </c>
+      <c r="BK167">
+        <v>1.98</v>
+      </c>
+      <c r="BL167">
+        <v>1.72</v>
+      </c>
+      <c r="BM167">
+        <v>2.55</v>
+      </c>
+      <c r="BN167">
+        <v>1.43</v>
+      </c>
+      <c r="BO167">
         <v>3.4</v>
       </c>
-      <c r="V167">
-        <v>2.5</v>
-      </c>
-      <c r="W167">
-        <v>1.5</v>
-      </c>
-      <c r="X167">
-        <v>6</v>
-      </c>
-      <c r="Y167">
-        <v>1.13</v>
-      </c>
-      <c r="Z167">
-        <v>1.28</v>
-      </c>
-      <c r="AA167">
-        <v>6.2</v>
-      </c>
-      <c r="AB167">
-        <v>11</v>
-      </c>
-      <c r="AC167">
-        <v>1.03</v>
-      </c>
-      <c r="AD167">
-        <v>15</v>
-      </c>
-      <c r="AE167">
-        <v>1.22</v>
-      </c>
-      <c r="AF167">
-        <v>4.33</v>
-      </c>
-      <c r="AG167">
-        <v>1.6</v>
-      </c>
-      <c r="AH167">
-        <v>2.2</v>
-      </c>
-      <c r="AI167">
-        <v>2.1</v>
-      </c>
-      <c r="AJ167">
-        <v>1.67</v>
-      </c>
-      <c r="AK167">
-        <v>1.01</v>
-      </c>
-      <c r="AL167">
-        <v>1.11</v>
-      </c>
-      <c r="AM167">
-        <v>3.75</v>
-      </c>
-      <c r="AN167">
-        <v>2.57</v>
-      </c>
-      <c r="AO167">
-        <v>1.5</v>
-      </c>
-      <c r="AP167">
-        <v>2.63</v>
-      </c>
-      <c r="AQ167">
-        <v>1.33</v>
-      </c>
-      <c r="AR167">
-        <v>1.76</v>
-      </c>
-      <c r="AS167">
-        <v>0.96</v>
-      </c>
-      <c r="AT167">
-        <v>2.72</v>
-      </c>
-      <c r="AU167">
-        <v>8</v>
-      </c>
-      <c r="AV167">
-        <v>4</v>
-      </c>
-      <c r="AW167">
-        <v>6</v>
-      </c>
-      <c r="AX167">
-        <v>2</v>
-      </c>
-      <c r="AY167">
-        <v>17</v>
-      </c>
-      <c r="AZ167">
-        <v>8</v>
-      </c>
-      <c r="BA167">
-        <v>6</v>
-      </c>
-      <c r="BB167">
-        <v>3</v>
-      </c>
-      <c r="BC167">
-        <v>9</v>
-      </c>
-      <c r="BD167">
-        <v>1.18</v>
-      </c>
-      <c r="BE167">
-        <v>8.5</v>
-      </c>
-      <c r="BF167">
-        <v>5.3</v>
-      </c>
-      <c r="BG167">
+      <c r="BP167">
         <v>1.26</v>
-      </c>
-      <c r="BH167">
-        <v>3.4</v>
-      </c>
-      <c r="BI167">
-        <v>1.47</v>
-      </c>
-      <c r="BJ167">
-        <v>2.48</v>
-      </c>
-      <c r="BK167">
-        <v>1.75</v>
-      </c>
-      <c r="BL167">
-        <v>1.95</v>
-      </c>
-      <c r="BM167">
-        <v>2.15</v>
-      </c>
-      <c r="BN167">
-        <v>1.61</v>
-      </c>
-      <c r="BO167">
-        <v>2.7</v>
-      </c>
-      <c r="BP167">
-        <v>1.38</v>
       </c>
     </row>
     <row r="168" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -35814,7 +35814,7 @@
         <v>6</v>
       </c>
       <c r="AY168">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ168">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,12 @@
     <t>['48', '90+2']</t>
   </si>
   <si>
+    <t>['56', '90+8']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -893,6 +899,12 @@
   </si>
   <si>
     <t>['49', '57']</t>
+  </si>
+  <si>
+    <t>['46', '68']</t>
+  </si>
+  <si>
+    <t>['53', '71', '78']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1525,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1594,7 +1606,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ2">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1797,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -2003,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2131,7 +2143,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2337,7 +2349,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2827,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2955,7 +2967,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3033,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -3161,7 +3173,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3242,7 +3254,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3573,7 +3585,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3779,7 +3791,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3857,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -4191,7 +4203,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4272,7 +4284,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4478,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5015,7 +5027,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5299,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ20">
         <v>0.6</v>
@@ -5427,7 +5439,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5633,7 +5645,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5920,7 +5932,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ23">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -6045,7 +6057,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6457,7 +6469,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6663,7 +6675,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6741,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -6869,7 +6881,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7075,7 +7087,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7156,7 +7168,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>1.74</v>
@@ -7693,7 +7705,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7977,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8311,7 +8323,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8723,7 +8735,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8929,7 +8941,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9007,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
         <v>2.22</v>
@@ -9135,7 +9147,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9216,7 +9228,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9341,7 +9353,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9419,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ40">
         <v>1.22</v>
@@ -9547,7 +9559,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9625,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9753,7 +9765,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9831,7 +9843,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9959,7 +9971,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10246,7 +10258,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10577,7 +10589,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10783,7 +10795,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10989,7 +11001,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11401,7 +11413,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11607,7 +11619,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12019,7 +12031,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12100,7 +12112,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -12225,7 +12237,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12431,7 +12443,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12512,7 +12524,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ55">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12637,7 +12649,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13049,7 +13061,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13333,7 +13345,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13542,7 +13554,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -13667,7 +13679,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13745,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ61">
         <v>0.63</v>
@@ -14491,7 +14503,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14572,7 +14584,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ65">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14697,7 +14709,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14903,7 +14915,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15315,7 +15327,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15393,7 +15405,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -15521,7 +15533,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15727,7 +15739,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16139,7 +16151,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16757,7 +16769,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16835,7 +16847,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ76">
         <v>2.22</v>
@@ -16963,7 +16975,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17169,7 +17181,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17250,7 +17262,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17375,7 +17387,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17453,7 +17465,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ79">
         <v>1.22</v>
@@ -17581,7 +17593,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17662,7 +17674,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -17787,7 +17799,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17868,7 +17880,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR81">
         <v>1.08</v>
@@ -18611,7 +18623,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18895,7 +18907,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -19101,10 +19113,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ87">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19229,7 +19241,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19435,7 +19447,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19641,7 +19653,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20053,7 +20065,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20131,7 +20143,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20259,7 +20271,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20465,7 +20477,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20543,10 +20555,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ94">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR94">
         <v>0.91</v>
@@ -20671,7 +20683,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20877,7 +20889,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21164,7 +21176,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR97">
         <v>1.88</v>
@@ -21289,7 +21301,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21495,7 +21507,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22113,7 +22125,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22525,7 +22537,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22606,7 +22618,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ104">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22731,7 +22743,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22937,7 +22949,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23349,7 +23361,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23427,10 +23439,10 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ108">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR108">
         <v>1.36</v>
@@ -23633,7 +23645,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ109">
         <v>0.6</v>
@@ -23761,7 +23773,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23839,7 +23851,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ110">
         <v>0.63</v>
@@ -23967,7 +23979,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24173,7 +24185,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24379,7 +24391,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24585,7 +24597,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24663,7 +24675,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ114">
         <v>1.38</v>
@@ -24997,7 +25009,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25203,7 +25215,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25409,7 +25421,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26027,7 +26039,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26108,7 +26120,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26439,7 +26451,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26517,10 +26529,10 @@
         <v>1.67</v>
       </c>
       <c r="AP123">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ123">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26645,7 +26657,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26851,7 +26863,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27057,7 +27069,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27138,7 +27150,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR126">
         <v>1.11</v>
@@ -27547,7 +27559,7 @@
         <v>1.83</v>
       </c>
       <c r="AP128">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ128">
         <v>1.67</v>
@@ -27675,7 +27687,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -27753,7 +27765,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ129">
         <v>1.22</v>
@@ -28165,7 +28177,7 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ131">
         <v>0.75</v>
@@ -28374,7 +28386,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28911,7 +28923,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -28992,7 +29004,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR135">
         <v>1.11</v>
@@ -29195,7 +29207,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ136">
         <v>1.67</v>
@@ -29323,7 +29335,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29529,7 +29541,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29735,7 +29747,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29816,7 +29828,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30559,7 +30571,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30765,7 +30777,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31177,7 +31189,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31383,7 +31395,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31589,7 +31601,7 @@
         <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31795,7 +31807,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32079,7 +32091,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ150">
         <v>1.22</v>
@@ -32207,7 +32219,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32285,10 +32297,10 @@
         <v>2</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ151">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -32413,7 +32425,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32619,7 +32631,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32825,7 +32837,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32906,7 +32918,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR154">
         <v>1.38</v>
@@ -33237,7 +33249,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33315,7 +33327,7 @@
         <v>0.43</v>
       </c>
       <c r="AP156">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ156">
         <v>0.75</v>
@@ -33730,7 +33742,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR158">
         <v>1.52</v>
@@ -33855,7 +33867,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -33933,10 +33945,10 @@
         <v>2.33</v>
       </c>
       <c r="AP159">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ159">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR159">
         <v>1.56</v>
@@ -34061,7 +34073,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34267,7 +34279,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34473,7 +34485,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34679,7 +34691,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35091,7 +35103,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35297,7 +35309,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35503,7 +35515,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35709,7 +35721,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36072,6 +36084,830 @@
       </c>
       <c r="BP169">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7492326</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45654.45833333334</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>71</v>
+      </c>
+      <c r="H170" t="s">
+        <v>82</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>201</v>
+      </c>
+      <c r="P170" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q170">
+        <v>2.75</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>8</v>
+      </c>
+      <c r="Y170">
+        <v>1.08</v>
+      </c>
+      <c r="Z170">
+        <v>2</v>
+      </c>
+      <c r="AA170">
+        <v>3.4</v>
+      </c>
+      <c r="AB170">
+        <v>3.5</v>
+      </c>
+      <c r="AC170">
+        <v>1.05</v>
+      </c>
+      <c r="AD170">
+        <v>12</v>
+      </c>
+      <c r="AE170">
+        <v>1.3</v>
+      </c>
+      <c r="AF170">
+        <v>3.6</v>
+      </c>
+      <c r="AG170">
+        <v>1.8</v>
+      </c>
+      <c r="AH170">
+        <v>1.97</v>
+      </c>
+      <c r="AI170">
+        <v>1.7</v>
+      </c>
+      <c r="AJ170">
+        <v>2.05</v>
+      </c>
+      <c r="AK170">
+        <v>1.3</v>
+      </c>
+      <c r="AL170">
+        <v>1.26</v>
+      </c>
+      <c r="AM170">
+        <v>1.78</v>
+      </c>
+      <c r="AN170">
+        <v>0.89</v>
+      </c>
+      <c r="AO170">
+        <v>0.88</v>
+      </c>
+      <c r="AP170">
+        <v>1.1</v>
+      </c>
+      <c r="AQ170">
+        <v>0.78</v>
+      </c>
+      <c r="AR170">
+        <v>1.34</v>
+      </c>
+      <c r="AS170">
+        <v>0.87</v>
+      </c>
+      <c r="AT170">
+        <v>2.21</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
+        <v>1</v>
+      </c>
+      <c r="AX170">
+        <v>6</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>12</v>
+      </c>
+      <c r="BA170">
+        <v>4</v>
+      </c>
+      <c r="BB170">
+        <v>6</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>1.52</v>
+      </c>
+      <c r="BE170">
+        <v>6.75</v>
+      </c>
+      <c r="BF170">
+        <v>2.8</v>
+      </c>
+      <c r="BG170">
+        <v>1.3</v>
+      </c>
+      <c r="BH170">
+        <v>3.15</v>
+      </c>
+      <c r="BI170">
+        <v>1.53</v>
+      </c>
+      <c r="BJ170">
+        <v>2.32</v>
+      </c>
+      <c r="BK170">
+        <v>1.84</v>
+      </c>
+      <c r="BL170">
+        <v>1.84</v>
+      </c>
+      <c r="BM170">
+        <v>2.33</v>
+      </c>
+      <c r="BN170">
+        <v>1.52</v>
+      </c>
+      <c r="BO170">
+        <v>3</v>
+      </c>
+      <c r="BP170">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7492321</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45654.45833333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>72</v>
+      </c>
+      <c r="H171" t="s">
+        <v>70</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>202</v>
+      </c>
+      <c r="P171" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q171">
+        <v>3.25</v>
+      </c>
+      <c r="R171">
+        <v>1.91</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171">
+        <v>1.57</v>
+      </c>
+      <c r="U171">
+        <v>2.25</v>
+      </c>
+      <c r="V171">
+        <v>3.75</v>
+      </c>
+      <c r="W171">
+        <v>1.25</v>
+      </c>
+      <c r="X171">
+        <v>13</v>
+      </c>
+      <c r="Y171">
+        <v>1.04</v>
+      </c>
+      <c r="Z171">
+        <v>2.4</v>
+      </c>
+      <c r="AA171">
+        <v>2.9</v>
+      </c>
+      <c r="AB171">
+        <v>3.2</v>
+      </c>
+      <c r="AC171">
+        <v>1.12</v>
+      </c>
+      <c r="AD171">
+        <v>7</v>
+      </c>
+      <c r="AE171">
+        <v>1.5</v>
+      </c>
+      <c r="AF171">
+        <v>2.5</v>
+      </c>
+      <c r="AG171">
+        <v>2.5</v>
+      </c>
+      <c r="AH171">
+        <v>1.53</v>
+      </c>
+      <c r="AI171">
+        <v>2.1</v>
+      </c>
+      <c r="AJ171">
+        <v>1.67</v>
+      </c>
+      <c r="AK171">
+        <v>1.36</v>
+      </c>
+      <c r="AL171">
+        <v>1.33</v>
+      </c>
+      <c r="AM171">
+        <v>1.57</v>
+      </c>
+      <c r="AN171">
+        <v>0.88</v>
+      </c>
+      <c r="AO171">
+        <v>1.43</v>
+      </c>
+      <c r="AP171">
+        <v>0.78</v>
+      </c>
+      <c r="AQ171">
+        <v>1.63</v>
+      </c>
+      <c r="AR171">
+        <v>0.88</v>
+      </c>
+      <c r="AS171">
+        <v>0.97</v>
+      </c>
+      <c r="AT171">
+        <v>1.85</v>
+      </c>
+      <c r="AU171">
+        <v>9</v>
+      </c>
+      <c r="AV171">
+        <v>6</v>
+      </c>
+      <c r="AW171">
+        <v>3</v>
+      </c>
+      <c r="AX171">
+        <v>5</v>
+      </c>
+      <c r="AY171">
+        <v>13</v>
+      </c>
+      <c r="AZ171">
+        <v>15</v>
+      </c>
+      <c r="BA171">
+        <v>7</v>
+      </c>
+      <c r="BB171">
+        <v>4</v>
+      </c>
+      <c r="BC171">
+        <v>11</v>
+      </c>
+      <c r="BD171">
+        <v>1.74</v>
+      </c>
+      <c r="BE171">
+        <v>6.4</v>
+      </c>
+      <c r="BF171">
+        <v>2.33</v>
+      </c>
+      <c r="BG171">
+        <v>1.41</v>
+      </c>
+      <c r="BH171">
+        <v>2.63</v>
+      </c>
+      <c r="BI171">
+        <v>1.72</v>
+      </c>
+      <c r="BJ171">
+        <v>1.98</v>
+      </c>
+      <c r="BK171">
+        <v>2.17</v>
+      </c>
+      <c r="BL171">
+        <v>1.6</v>
+      </c>
+      <c r="BM171">
+        <v>2.8</v>
+      </c>
+      <c r="BN171">
+        <v>1.37</v>
+      </c>
+      <c r="BO171">
+        <v>3.7</v>
+      </c>
+      <c r="BP171">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7492319</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45654.58333333334</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>81</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>92</v>
+      </c>
+      <c r="P172" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q172">
+        <v>6</v>
+      </c>
+      <c r="R172">
+        <v>2.5</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>1.29</v>
+      </c>
+      <c r="U172">
+        <v>3.5</v>
+      </c>
+      <c r="V172">
+        <v>2.38</v>
+      </c>
+      <c r="W172">
+        <v>1.53</v>
+      </c>
+      <c r="X172">
+        <v>5.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.14</v>
+      </c>
+      <c r="Z172">
+        <v>6</v>
+      </c>
+      <c r="AA172">
+        <v>4.6</v>
+      </c>
+      <c r="AB172">
+        <v>1.44</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>17</v>
+      </c>
+      <c r="AE172">
+        <v>1.19</v>
+      </c>
+      <c r="AF172">
+        <v>4.75</v>
+      </c>
+      <c r="AG172">
+        <v>1.6</v>
+      </c>
+      <c r="AH172">
+        <v>2.35</v>
+      </c>
+      <c r="AI172">
+        <v>1.75</v>
+      </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>2.65</v>
+      </c>
+      <c r="AL172">
+        <v>1.17</v>
+      </c>
+      <c r="AM172">
+        <v>1.12</v>
+      </c>
+      <c r="AN172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
+        <v>2.43</v>
+      </c>
+      <c r="AP172">
+        <v>0.9</v>
+      </c>
+      <c r="AQ172">
+        <v>2.5</v>
+      </c>
+      <c r="AR172">
+        <v>1.46</v>
+      </c>
+      <c r="AS172">
+        <v>1.61</v>
+      </c>
+      <c r="AT172">
+        <v>3.07</v>
+      </c>
+      <c r="AU172">
+        <v>2</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>2</v>
+      </c>
+      <c r="AX172">
+        <v>9</v>
+      </c>
+      <c r="AY172">
+        <v>6</v>
+      </c>
+      <c r="AZ172">
+        <v>21</v>
+      </c>
+      <c r="BA172">
+        <v>5</v>
+      </c>
+      <c r="BB172">
+        <v>7</v>
+      </c>
+      <c r="BC172">
+        <v>12</v>
+      </c>
+      <c r="BD172">
+        <v>3.15</v>
+      </c>
+      <c r="BE172">
+        <v>7</v>
+      </c>
+      <c r="BF172">
+        <v>1.42</v>
+      </c>
+      <c r="BG172">
+        <v>1.25</v>
+      </c>
+      <c r="BH172">
+        <v>3.45</v>
+      </c>
+      <c r="BI172">
+        <v>1.44</v>
+      </c>
+      <c r="BJ172">
+        <v>2.55</v>
+      </c>
+      <c r="BK172">
+        <v>1.73</v>
+      </c>
+      <c r="BL172">
+        <v>1.96</v>
+      </c>
+      <c r="BM172">
+        <v>2.15</v>
+      </c>
+      <c r="BN172">
+        <v>1.61</v>
+      </c>
+      <c r="BO172">
+        <v>2.7</v>
+      </c>
+      <c r="BP172">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7492323</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45654.69791666666</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>77</v>
+      </c>
+      <c r="H173" t="s">
+        <v>89</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>124</v>
+      </c>
+      <c r="P173" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q173">
+        <v>3.5</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>3</v>
+      </c>
+      <c r="T173">
+        <v>1.4</v>
+      </c>
+      <c r="U173">
+        <v>2.75</v>
+      </c>
+      <c r="V173">
+        <v>2.75</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>8</v>
+      </c>
+      <c r="Y173">
+        <v>1.08</v>
+      </c>
+      <c r="Z173">
+        <v>2.9</v>
+      </c>
+      <c r="AA173">
+        <v>3.3</v>
+      </c>
+      <c r="AB173">
+        <v>2.4</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>12</v>
+      </c>
+      <c r="AE173">
+        <v>1.3</v>
+      </c>
+      <c r="AF173">
+        <v>3.6</v>
+      </c>
+      <c r="AG173">
+        <v>1.85</v>
+      </c>
+      <c r="AH173">
+        <v>1.96</v>
+      </c>
+      <c r="AI173">
+        <v>1.7</v>
+      </c>
+      <c r="AJ173">
+        <v>2.05</v>
+      </c>
+      <c r="AK173">
+        <v>1.63</v>
+      </c>
+      <c r="AL173">
+        <v>1.28</v>
+      </c>
+      <c r="AM173">
+        <v>1.4</v>
+      </c>
+      <c r="AN173">
+        <v>2.38</v>
+      </c>
+      <c r="AO173">
+        <v>2.11</v>
+      </c>
+      <c r="AP173">
+        <v>2.22</v>
+      </c>
+      <c r="AQ173">
+        <v>2</v>
+      </c>
+      <c r="AR173">
+        <v>1.48</v>
+      </c>
+      <c r="AS173">
+        <v>1.71</v>
+      </c>
+      <c r="AT173">
+        <v>3.19</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>9</v>
+      </c>
+      <c r="AY173">
+        <v>12</v>
+      </c>
+      <c r="AZ173">
+        <v>16</v>
+      </c>
+      <c r="BA173">
+        <v>2</v>
+      </c>
+      <c r="BB173">
+        <v>7</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>2.12</v>
+      </c>
+      <c r="BE173">
+        <v>6.4</v>
+      </c>
+      <c r="BF173">
+        <v>1.88</v>
+      </c>
+      <c r="BG173">
+        <v>1.37</v>
+      </c>
+      <c r="BH173">
+        <v>2.8</v>
+      </c>
+      <c r="BI173">
+        <v>1.64</v>
+      </c>
+      <c r="BJ173">
+        <v>2.1</v>
+      </c>
+      <c r="BK173">
+        <v>2.02</v>
+      </c>
+      <c r="BL173">
+        <v>1.68</v>
+      </c>
+      <c r="BM173">
+        <v>2.55</v>
+      </c>
+      <c r="BN173">
+        <v>1.43</v>
+      </c>
+      <c r="BO173">
+        <v>3.4</v>
+      </c>
+      <c r="BP173">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,18 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['41', '49']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['20', '48']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -805,9 +817,6 @@
     <t>['28', '53']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -905,6 +914,12 @@
   </si>
   <si>
     <t>['53', '71', '78']</t>
+  </si>
+  <si>
+    <t>['53', '64']</t>
+  </si>
+  <si>
+    <t>['38', '87']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1540,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1812,7 +1827,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2143,7 +2158,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2221,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ5">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2349,7 +2364,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2842,7 +2857,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2967,7 +2982,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3048,7 +3063,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3173,7 +3188,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3457,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>0.6</v>
@@ -3585,7 +3600,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3663,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.67</v>
@@ -3791,7 +3806,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4203,7 +4218,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4696,7 +4711,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4899,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -5027,7 +5042,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5439,7 +5454,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5645,7 +5660,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5726,7 +5741,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6057,7 +6072,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6469,7 +6484,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6547,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>0.88</v>
@@ -6675,7 +6690,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6881,7 +6896,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7087,7 +7102,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7371,7 +7386,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7577,10 +7592,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7705,7 +7720,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8195,10 +8210,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -8323,7 +8338,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8404,7 +8419,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR35">
         <v>1.23</v>
@@ -8735,7 +8750,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8816,7 +8831,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8941,7 +8956,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9147,7 +9162,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9353,7 +9368,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9559,7 +9574,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9765,7 +9780,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9971,7 +9986,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10052,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10461,7 +10476,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>2.22</v>
@@ -10589,7 +10604,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10795,7 +10810,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11001,7 +11016,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11413,7 +11428,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11619,7 +11634,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11903,7 +11918,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -12031,7 +12046,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12109,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
         <v>2.5</v>
@@ -12237,7 +12252,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12443,7 +12458,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12649,7 +12664,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12936,7 +12951,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR57">
         <v>2.07</v>
@@ -13061,7 +13076,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13348,7 +13363,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>0.91</v>
@@ -13551,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60">
         <v>0.78</v>
@@ -13679,7 +13694,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13963,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>0.6</v>
@@ -14172,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14375,7 +14390,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14503,7 +14518,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14709,7 +14724,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14790,7 +14805,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ66">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.21</v>
@@ -14915,7 +14930,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14993,7 +15008,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ67">
         <v>0.63</v>
@@ -15327,7 +15342,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15533,7 +15548,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15614,7 +15629,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70">
         <v>0.9399999999999999</v>
@@ -15739,7 +15754,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16151,7 +16166,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16435,7 +16450,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
         <v>1.22</v>
@@ -16641,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75">
         <v>1.67</v>
@@ -16769,7 +16784,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16975,7 +16990,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17056,7 +17071,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17181,7 +17196,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17387,7 +17402,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17468,7 +17483,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ79">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR79">
         <v>1.44</v>
@@ -17593,7 +17608,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17799,7 +17814,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18083,7 +18098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ82">
         <v>0.63</v>
@@ -18495,7 +18510,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ84">
         <v>0.5</v>
@@ -18623,7 +18638,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19241,7 +19256,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19322,7 +19337,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ88">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR88">
         <v>0.85</v>
@@ -19447,7 +19462,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19653,7 +19668,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19734,7 +19749,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR90">
         <v>1.56</v>
@@ -20065,7 +20080,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20271,7 +20286,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20349,7 +20364,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ93">
         <v>2.22</v>
@@ -20477,7 +20492,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20683,7 +20698,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20889,7 +20904,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20967,7 +20982,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ96">
         <v>0.88</v>
@@ -21301,7 +21316,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21382,7 +21397,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ98">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.23</v>
@@ -21507,7 +21522,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21794,7 +21809,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22125,7 +22140,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22203,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
         <v>2</v>
@@ -22537,7 +22552,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22615,7 +22630,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -22743,7 +22758,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22824,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
         <v>1.14</v>
@@ -22949,7 +22964,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23030,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23236,7 +23251,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ107">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23361,7 +23376,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23773,7 +23788,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23979,7 +23994,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24185,7 +24200,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24391,7 +24406,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24597,7 +24612,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24881,10 +24896,10 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ115">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25009,7 +25024,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25215,7 +25230,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25421,7 +25436,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26039,7 +26054,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26323,7 +26338,7 @@
         <v>2.2</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
         <v>2</v>
@@ -26451,7 +26466,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26657,7 +26672,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26863,7 +26878,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26944,7 +26959,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ125">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR125">
         <v>1.5</v>
@@ -27069,7 +27084,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27353,10 +27368,10 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27687,7 +27702,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28589,7 +28604,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ133">
         <v>1.33</v>
@@ -28798,7 +28813,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ134">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -28923,7 +28938,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29001,7 +29016,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ135">
         <v>1.63</v>
@@ -29335,7 +29350,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29541,7 +29556,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29747,7 +29762,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30446,7 +30461,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ142">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR142">
         <v>1.3</v>
@@ -30571,7 +30586,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30649,7 +30664,7 @@
         <v>1.57</v>
       </c>
       <c r="AP143">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ143">
         <v>1.67</v>
@@ -30777,7 +30792,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31189,7 +31204,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31395,7 +31410,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31601,7 +31616,7 @@
         <v>92</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31679,7 +31694,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ148">
         <v>1.67</v>
@@ -31807,7 +31822,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32094,7 +32109,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ150">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
         <v>0.84</v>
@@ -32219,7 +32234,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32425,7 +32440,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32503,7 +32518,7 @@
         <v>2</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
         <v>2.22</v>
@@ -32631,7 +32646,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32709,10 +32724,10 @@
         <v>0.25</v>
       </c>
       <c r="AP153">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ153">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32837,7 +32852,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33124,7 +33139,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ155">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
         <v>1.61</v>
@@ -33249,7 +33264,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33536,7 +33551,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ157">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR157">
         <v>1.44</v>
@@ -33739,7 +33754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ158">
         <v>1.63</v>
@@ -33867,7 +33882,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34073,7 +34088,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34279,7 +34294,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34485,7 +34500,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34691,7 +34706,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35103,7 +35118,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35309,7 +35324,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35515,7 +35530,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35721,7 +35736,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36339,7 +36354,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36545,7 +36560,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -36751,7 +36766,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36907,6 +36922,830 @@
         <v>3.4</v>
       </c>
       <c r="BP173">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7492327</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45655.35416666666</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>80</v>
+      </c>
+      <c r="H174" t="s">
+        <v>83</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>203</v>
+      </c>
+      <c r="P174" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q174">
+        <v>3.1</v>
+      </c>
+      <c r="R174">
+        <v>1.95</v>
+      </c>
+      <c r="S174">
+        <v>4.33</v>
+      </c>
+      <c r="T174">
+        <v>1.57</v>
+      </c>
+      <c r="U174">
+        <v>2.25</v>
+      </c>
+      <c r="V174">
+        <v>3.75</v>
+      </c>
+      <c r="W174">
+        <v>1.25</v>
+      </c>
+      <c r="X174">
+        <v>11</v>
+      </c>
+      <c r="Y174">
+        <v>1.05</v>
+      </c>
+      <c r="Z174">
+        <v>2.16</v>
+      </c>
+      <c r="AA174">
+        <v>3.01</v>
+      </c>
+      <c r="AB174">
+        <v>3.58</v>
+      </c>
+      <c r="AC174">
+        <v>1.1</v>
+      </c>
+      <c r="AD174">
+        <v>7.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.48</v>
+      </c>
+      <c r="AF174">
+        <v>2.7</v>
+      </c>
+      <c r="AG174">
+        <v>2.45</v>
+      </c>
+      <c r="AH174">
+        <v>1.5</v>
+      </c>
+      <c r="AI174">
+        <v>2.05</v>
+      </c>
+      <c r="AJ174">
+        <v>1.7</v>
+      </c>
+      <c r="AK174">
+        <v>1.32</v>
+      </c>
+      <c r="AL174">
+        <v>1.33</v>
+      </c>
+      <c r="AM174">
+        <v>1.65</v>
+      </c>
+      <c r="AN174">
+        <v>1.5</v>
+      </c>
+      <c r="AO174">
+        <v>1.22</v>
+      </c>
+      <c r="AP174">
+        <v>1.44</v>
+      </c>
+      <c r="AQ174">
+        <v>1.2</v>
+      </c>
+      <c r="AR174">
+        <v>1.03</v>
+      </c>
+      <c r="AS174">
+        <v>1.09</v>
+      </c>
+      <c r="AT174">
+        <v>2.12</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>7</v>
+      </c>
+      <c r="AW174">
+        <v>5</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>11</v>
+      </c>
+      <c r="AZ174">
+        <v>13</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.84</v>
+      </c>
+      <c r="BE174">
+        <v>6.4</v>
+      </c>
+      <c r="BF174">
+        <v>2.17</v>
+      </c>
+      <c r="BG174">
+        <v>1.3</v>
+      </c>
+      <c r="BH174">
+        <v>3.05</v>
+      </c>
+      <c r="BI174">
+        <v>1.54</v>
+      </c>
+      <c r="BJ174">
+        <v>2.3</v>
+      </c>
+      <c r="BK174">
+        <v>1.88</v>
+      </c>
+      <c r="BL174">
+        <v>1.8</v>
+      </c>
+      <c r="BM174">
+        <v>2.38</v>
+      </c>
+      <c r="BN174">
+        <v>1.5</v>
+      </c>
+      <c r="BO174">
+        <v>3.1</v>
+      </c>
+      <c r="BP174">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7492325</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45655.45833333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>85</v>
+      </c>
+      <c r="H175" t="s">
+        <v>87</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>204</v>
+      </c>
+      <c r="P175" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q175">
+        <v>1.73</v>
+      </c>
+      <c r="R175">
+        <v>2.6</v>
+      </c>
+      <c r="S175">
+        <v>9</v>
+      </c>
+      <c r="T175">
+        <v>1.3</v>
+      </c>
+      <c r="U175">
+        <v>3.4</v>
+      </c>
+      <c r="V175">
+        <v>2.38</v>
+      </c>
+      <c r="W175">
+        <v>1.53</v>
+      </c>
+      <c r="X175">
+        <v>6</v>
+      </c>
+      <c r="Y175">
+        <v>1.13</v>
+      </c>
+      <c r="Z175">
+        <v>1.34</v>
+      </c>
+      <c r="AA175">
+        <v>5.3</v>
+      </c>
+      <c r="AB175">
+        <v>9.4</v>
+      </c>
+      <c r="AC175">
+        <v>1.02</v>
+      </c>
+      <c r="AD175">
+        <v>17</v>
+      </c>
+      <c r="AE175">
+        <v>1.2</v>
+      </c>
+      <c r="AF175">
+        <v>4.5</v>
+      </c>
+      <c r="AG175">
+        <v>1.63</v>
+      </c>
+      <c r="AH175">
+        <v>2.3</v>
+      </c>
+      <c r="AI175">
+        <v>2.05</v>
+      </c>
+      <c r="AJ175">
+        <v>1.7</v>
+      </c>
+      <c r="AK175">
+        <v>1.01</v>
+      </c>
+      <c r="AL175">
+        <v>1.1</v>
+      </c>
+      <c r="AM175">
+        <v>3.75</v>
+      </c>
+      <c r="AN175">
+        <v>2.25</v>
+      </c>
+      <c r="AO175">
+        <v>0.33</v>
+      </c>
+      <c r="AP175">
+        <v>2.33</v>
+      </c>
+      <c r="AQ175">
+        <v>0.3</v>
+      </c>
+      <c r="AR175">
+        <v>1.48</v>
+      </c>
+      <c r="AS175">
+        <v>0.95</v>
+      </c>
+      <c r="AT175">
+        <v>2.43</v>
+      </c>
+      <c r="AU175">
+        <v>9</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>11</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>26</v>
+      </c>
+      <c r="AZ175">
+        <v>5</v>
+      </c>
+      <c r="BA175">
+        <v>14</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>18</v>
+      </c>
+      <c r="BD175">
+        <v>1.17</v>
+      </c>
+      <c r="BE175">
+        <v>9</v>
+      </c>
+      <c r="BF175">
+        <v>5.3</v>
+      </c>
+      <c r="BG175">
+        <v>1.21</v>
+      </c>
+      <c r="BH175">
+        <v>3.8</v>
+      </c>
+      <c r="BI175">
+        <v>1.38</v>
+      </c>
+      <c r="BJ175">
+        <v>2.75</v>
+      </c>
+      <c r="BK175">
+        <v>1.64</v>
+      </c>
+      <c r="BL175">
+        <v>2.1</v>
+      </c>
+      <c r="BM175">
+        <v>1.98</v>
+      </c>
+      <c r="BN175">
+        <v>1.72</v>
+      </c>
+      <c r="BO175">
+        <v>2.48</v>
+      </c>
+      <c r="BP175">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7492322</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45655.58333333334</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>84</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>205</v>
+      </c>
+      <c r="P176" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q176">
+        <v>2.6</v>
+      </c>
+      <c r="R176">
+        <v>2.1</v>
+      </c>
+      <c r="S176">
+        <v>4.75</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3.25</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>10</v>
+      </c>
+      <c r="Y176">
+        <v>1.06</v>
+      </c>
+      <c r="Z176">
+        <v>1.84</v>
+      </c>
+      <c r="AA176">
+        <v>3.6</v>
+      </c>
+      <c r="AB176">
+        <v>4.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.07</v>
+      </c>
+      <c r="AD176">
+        <v>9.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.38</v>
+      </c>
+      <c r="AF176">
+        <v>3.1</v>
+      </c>
+      <c r="AG176">
+        <v>2.12</v>
+      </c>
+      <c r="AH176">
+        <v>1.68</v>
+      </c>
+      <c r="AI176">
+        <v>1.95</v>
+      </c>
+      <c r="AJ176">
+        <v>1.8</v>
+      </c>
+      <c r="AK176">
+        <v>1.25</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.88</v>
+      </c>
+      <c r="AN176">
+        <v>1.67</v>
+      </c>
+      <c r="AO176">
+        <v>1.75</v>
+      </c>
+      <c r="AP176">
+        <v>1.6</v>
+      </c>
+      <c r="AQ176">
+        <v>1.67</v>
+      </c>
+      <c r="AR176">
+        <v>1.42</v>
+      </c>
+      <c r="AS176">
+        <v>1.27</v>
+      </c>
+      <c r="AT176">
+        <v>2.69</v>
+      </c>
+      <c r="AU176">
+        <v>6</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>7</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>16</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>7</v>
+      </c>
+      <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>1.72</v>
+      </c>
+      <c r="BE176">
+        <v>6.4</v>
+      </c>
+      <c r="BF176">
+        <v>2.4</v>
+      </c>
+      <c r="BG176">
+        <v>1.43</v>
+      </c>
+      <c r="BH176">
+        <v>2.6</v>
+      </c>
+      <c r="BI176">
+        <v>1.73</v>
+      </c>
+      <c r="BJ176">
+        <v>1.97</v>
+      </c>
+      <c r="BK176">
+        <v>2.17</v>
+      </c>
+      <c r="BL176">
+        <v>1.6</v>
+      </c>
+      <c r="BM176">
+        <v>2.8</v>
+      </c>
+      <c r="BN176">
+        <v>1.36</v>
+      </c>
+      <c r="BO176">
+        <v>3.7</v>
+      </c>
+      <c r="BP176">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7492324</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45655.69791666666</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>73</v>
+      </c>
+      <c r="H177" t="s">
+        <v>86</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>206</v>
+      </c>
+      <c r="P177" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q177">
+        <v>2.88</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>3.75</v>
+      </c>
+      <c r="T177">
+        <v>1.4</v>
+      </c>
+      <c r="U177">
+        <v>2.75</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>8</v>
+      </c>
+      <c r="Y177">
+        <v>1.08</v>
+      </c>
+      <c r="Z177">
+        <v>1.82</v>
+      </c>
+      <c r="AA177">
+        <v>3.65</v>
+      </c>
+      <c r="AB177">
+        <v>4.2</v>
+      </c>
+      <c r="AC177">
+        <v>1.05</v>
+      </c>
+      <c r="AD177">
+        <v>11</v>
+      </c>
+      <c r="AE177">
+        <v>1.3</v>
+      </c>
+      <c r="AF177">
+        <v>3.6</v>
+      </c>
+      <c r="AG177">
+        <v>1.8</v>
+      </c>
+      <c r="AH177">
+        <v>1.96</v>
+      </c>
+      <c r="AI177">
+        <v>1.7</v>
+      </c>
+      <c r="AJ177">
+        <v>2.05</v>
+      </c>
+      <c r="AK177">
+        <v>1.36</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.68</v>
+      </c>
+      <c r="AN177">
+        <v>1.88</v>
+      </c>
+      <c r="AO177">
+        <v>0.5</v>
+      </c>
+      <c r="AP177">
+        <v>1.78</v>
+      </c>
+      <c r="AQ177">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR177">
+        <v>1.56</v>
+      </c>
+      <c r="AS177">
+        <v>1.18</v>
+      </c>
+      <c r="AT177">
+        <v>2.74</v>
+      </c>
+      <c r="AU177">
+        <v>8</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>8</v>
+      </c>
+      <c r="AX177">
+        <v>6</v>
+      </c>
+      <c r="AY177">
+        <v>22</v>
+      </c>
+      <c r="AZ177">
+        <v>13</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>11</v>
+      </c>
+      <c r="BD177">
+        <v>1.64</v>
+      </c>
+      <c r="BE177">
+        <v>6.4</v>
+      </c>
+      <c r="BF177">
+        <v>2.55</v>
+      </c>
+      <c r="BG177">
+        <v>1.36</v>
+      </c>
+      <c r="BH177">
+        <v>2.8</v>
+      </c>
+      <c r="BI177">
+        <v>1.64</v>
+      </c>
+      <c r="BJ177">
+        <v>2.1</v>
+      </c>
+      <c r="BK177">
+        <v>2.02</v>
+      </c>
+      <c r="BL177">
+        <v>1.7</v>
+      </c>
+      <c r="BM177">
+        <v>2.55</v>
+      </c>
+      <c r="BN177">
+        <v>1.44</v>
+      </c>
+      <c r="BO177">
+        <v>3.4</v>
+      </c>
+      <c r="BP177">
         <v>1.26</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,12 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['49', '80']</t>
+  </si>
+  <si>
+    <t>['20', '58']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -920,6 +926,9 @@
   </si>
   <si>
     <t>['38', '87']</t>
+  </si>
+  <si>
+    <t>['38', '45+2', '88']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1549,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2158,7 +2167,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2364,7 +2373,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2442,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
         <v>1.22</v>
@@ -2982,7 +2991,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3188,7 +3197,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3600,7 +3609,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3806,7 +3815,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4093,7 +4102,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4218,7 +4227,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -5042,7 +5051,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5454,7 +5463,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5660,7 +5669,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6072,7 +6081,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6150,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6484,7 +6493,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6690,7 +6699,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6896,7 +6905,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6977,7 +6986,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.56</v>
@@ -7102,7 +7111,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7720,7 +7729,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7798,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -8338,7 +8347,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8625,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR36">
         <v>1.46</v>
@@ -8750,7 +8759,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8956,7 +8965,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9162,7 +9171,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9368,7 +9377,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9574,7 +9583,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9655,7 +9664,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9780,7 +9789,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9986,7 +9995,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10604,7 +10613,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10810,7 +10819,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11016,7 +11025,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11428,7 +11437,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11634,7 +11643,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11921,7 +11930,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR52">
         <v>1.92</v>
@@ -12046,7 +12055,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12252,7 +12261,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12458,7 +12467,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12536,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12664,7 +12673,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13076,7 +13085,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13154,10 +13163,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13694,7 +13703,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14393,7 +14402,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14518,7 +14527,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14724,7 +14733,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14930,7 +14939,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15214,7 +15223,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -15342,7 +15351,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15548,7 +15557,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15754,7 +15763,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16038,7 +16047,7 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>0.88</v>
@@ -16166,7 +16175,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16784,7 +16793,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16990,7 +16999,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17196,7 +17205,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17402,7 +17411,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17608,7 +17617,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17814,7 +17823,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18513,7 +18522,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18638,7 +18647,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18719,7 +18728,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -19256,7 +19265,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19462,7 +19471,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19668,7 +19677,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19955,7 +19964,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -20080,7 +20089,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20286,7 +20295,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20492,7 +20501,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20698,7 +20707,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20904,7 +20913,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21316,7 +21325,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21522,7 +21531,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21600,7 +21609,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1.67</v>
@@ -22012,10 +22021,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22140,7 +22149,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22552,7 +22561,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22758,7 +22767,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22964,7 +22973,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23788,7 +23797,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23994,7 +24003,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24200,7 +24209,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24406,7 +24415,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24612,7 +24621,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25024,7 +25033,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25230,7 +25239,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25436,7 +25445,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25517,7 +25526,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ118">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.7</v>
@@ -26054,7 +26063,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26466,7 +26475,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26672,7 +26681,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26878,7 +26887,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26956,7 +26965,7 @@
         <v>1.83</v>
       </c>
       <c r="AP125">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
         <v>1.67</v>
@@ -27084,7 +27093,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27702,7 +27711,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -27989,7 +27998,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR130">
         <v>1.48</v>
@@ -28195,7 +28204,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ131">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28398,7 +28407,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>0.78</v>
@@ -28810,7 +28819,7 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ134">
         <v>0.3</v>
@@ -28938,7 +28947,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29350,7 +29359,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29556,7 +29565,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29762,7 +29771,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30586,7 +30595,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30792,7 +30801,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -30873,7 +30882,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -31204,7 +31213,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31410,7 +31419,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31822,7 +31831,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32234,7 +32243,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32440,7 +32449,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32646,7 +32655,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32852,7 +32861,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33136,7 +33145,7 @@
         <v>2</v>
       </c>
       <c r="AP155">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ155">
         <v>1.67</v>
@@ -33264,7 +33273,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33345,7 +33354,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33548,7 +33557,7 @@
         <v>0.57</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>0.5600000000000001</v>
@@ -33882,7 +33891,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34088,7 +34097,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34294,7 +34303,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34500,7 +34509,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34706,7 +34715,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35118,7 +35127,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35324,7 +35333,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35530,7 +35539,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35736,7 +35745,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36354,7 +36363,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36560,7 +36569,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -36766,7 +36775,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36972,7 +36981,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37384,7 +37393,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -37747,6 +37756,418 @@
       </c>
       <c r="BP177">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7492320</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45656.60416666666</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>88</v>
+      </c>
+      <c r="H178" t="s">
+        <v>78</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>207</v>
+      </c>
+      <c r="P178" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q178">
+        <v>2.38</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>5.5</v>
+      </c>
+      <c r="T178">
+        <v>1.44</v>
+      </c>
+      <c r="U178">
+        <v>2.63</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>9</v>
+      </c>
+      <c r="Y178">
+        <v>1.07</v>
+      </c>
+      <c r="Z178">
+        <v>1.78</v>
+      </c>
+      <c r="AA178">
+        <v>3.6</v>
+      </c>
+      <c r="AB178">
+        <v>4.4</v>
+      </c>
+      <c r="AC178">
+        <v>1.06</v>
+      </c>
+      <c r="AD178">
+        <v>10</v>
+      </c>
+      <c r="AE178">
+        <v>1.35</v>
+      </c>
+      <c r="AF178">
+        <v>3.25</v>
+      </c>
+      <c r="AG178">
+        <v>2.04</v>
+      </c>
+      <c r="AH178">
+        <v>1.75</v>
+      </c>
+      <c r="AI178">
+        <v>1.95</v>
+      </c>
+      <c r="AJ178">
+        <v>1.8</v>
+      </c>
+      <c r="AK178">
+        <v>1.17</v>
+      </c>
+      <c r="AL178">
+        <v>1.24</v>
+      </c>
+      <c r="AM178">
+        <v>2.15</v>
+      </c>
+      <c r="AN178">
+        <v>1.29</v>
+      </c>
+      <c r="AO178">
+        <v>0.5</v>
+      </c>
+      <c r="AP178">
+        <v>1.5</v>
+      </c>
+      <c r="AQ178">
+        <v>0.44</v>
+      </c>
+      <c r="AR178">
+        <v>1.5</v>
+      </c>
+      <c r="AS178">
+        <v>1.11</v>
+      </c>
+      <c r="AT178">
+        <v>2.61</v>
+      </c>
+      <c r="AU178">
+        <v>9</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>3</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>16</v>
+      </c>
+      <c r="AZ178">
+        <v>13</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>8</v>
+      </c>
+      <c r="BD178">
+        <v>1.45</v>
+      </c>
+      <c r="BE178">
+        <v>6.75</v>
+      </c>
+      <c r="BF178">
+        <v>3.05</v>
+      </c>
+      <c r="BG178">
+        <v>1.32</v>
+      </c>
+      <c r="BH178">
+        <v>3.05</v>
+      </c>
+      <c r="BI178">
+        <v>1.55</v>
+      </c>
+      <c r="BJ178">
+        <v>2.25</v>
+      </c>
+      <c r="BK178">
+        <v>1.9</v>
+      </c>
+      <c r="BL178">
+        <v>1.79</v>
+      </c>
+      <c r="BM178">
+        <v>2.4</v>
+      </c>
+      <c r="BN178">
+        <v>1.49</v>
+      </c>
+      <c r="BO178">
+        <v>3.05</v>
+      </c>
+      <c r="BP178">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7492318</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45656.69791666666</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>208</v>
+      </c>
+      <c r="P179" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q179">
+        <v>2.05</v>
+      </c>
+      <c r="R179">
+        <v>2.25</v>
+      </c>
+      <c r="S179">
+        <v>7</v>
+      </c>
+      <c r="T179">
+        <v>1.4</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>1.49</v>
+      </c>
+      <c r="AA179">
+        <v>4.5</v>
+      </c>
+      <c r="AB179">
+        <v>6</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>12</v>
+      </c>
+      <c r="AE179">
+        <v>1.3</v>
+      </c>
+      <c r="AF179">
+        <v>3.6</v>
+      </c>
+      <c r="AG179">
+        <v>1.98</v>
+      </c>
+      <c r="AH179">
+        <v>1.8</v>
+      </c>
+      <c r="AI179">
+        <v>2.05</v>
+      </c>
+      <c r="AJ179">
+        <v>1.7</v>
+      </c>
+      <c r="AK179">
+        <v>1.1</v>
+      </c>
+      <c r="AL179">
+        <v>1.19</v>
+      </c>
+      <c r="AM179">
+        <v>2.65</v>
+      </c>
+      <c r="AN179">
+        <v>1.86</v>
+      </c>
+      <c r="AO179">
+        <v>0.75</v>
+      </c>
+      <c r="AP179">
+        <v>1.63</v>
+      </c>
+      <c r="AQ179">
+        <v>1</v>
+      </c>
+      <c r="AR179">
+        <v>1.61</v>
+      </c>
+      <c r="AS179">
+        <v>0.98</v>
+      </c>
+      <c r="AT179">
+        <v>2.59</v>
+      </c>
+      <c r="AU179">
+        <v>9</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>6</v>
+      </c>
+      <c r="AX179">
+        <v>3</v>
+      </c>
+      <c r="AY179">
+        <v>25</v>
+      </c>
+      <c r="AZ179">
+        <v>9</v>
+      </c>
+      <c r="BA179">
+        <v>11</v>
+      </c>
+      <c r="BB179">
+        <v>5</v>
+      </c>
+      <c r="BC179">
+        <v>16</v>
+      </c>
+      <c r="BD179">
+        <v>1.28</v>
+      </c>
+      <c r="BE179">
+        <v>7</v>
+      </c>
+      <c r="BF179">
+        <v>4.1</v>
+      </c>
+      <c r="BG179">
+        <v>1.4</v>
+      </c>
+      <c r="BH179">
+        <v>2.65</v>
+      </c>
+      <c r="BI179">
+        <v>1.67</v>
+      </c>
+      <c r="BJ179">
+        <v>2.04</v>
+      </c>
+      <c r="BK179">
+        <v>2.08</v>
+      </c>
+      <c r="BL179">
+        <v>1.65</v>
+      </c>
+      <c r="BM179">
+        <v>2.65</v>
+      </c>
+      <c r="BN179">
+        <v>1.41</v>
+      </c>
+      <c r="BO179">
+        <v>3.45</v>
+      </c>
+      <c r="BP179">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -930,6 +930,12 @@
   <si>
     <t>['38', '45+2', '88']</t>
   </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['29', '54', '68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1290,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2454,7 +2460,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2660,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -4717,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17">
         <v>0.3</v>
@@ -5132,7 +5138,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5747,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -6162,7 +6168,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -7189,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -9046,7 +9052,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9458,7 +9464,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ40">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9870,7 +9876,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10279,7 +10285,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ44">
         <v>1.63</v>
@@ -10488,7 +10494,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -10897,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -11312,7 +11318,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -15432,7 +15438,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15841,7 +15847,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71">
         <v>1.38</v>
@@ -16462,7 +16468,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ74">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -16874,7 +16880,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ76">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -17283,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -18934,7 +18940,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19755,7 +19761,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ90">
         <v>0.5600000000000001</v>
@@ -20376,7 +20382,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ93">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20785,10 +20791,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ95">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -24290,7 +24296,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR112">
         <v>1.28</v>
@@ -24493,7 +24499,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ113">
         <v>0.88</v>
@@ -25114,7 +25120,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ116">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25523,7 +25529,7 @@
         <v>0.6</v>
       </c>
       <c r="AP118">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25938,7 +25944,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ120">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -27792,7 +27798,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ129">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR129">
         <v>0.88</v>
@@ -27995,7 +28001,7 @@
         <v>0.17</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ130">
         <v>0.44</v>
@@ -28616,7 +28622,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -29440,7 +29446,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR137">
         <v>1.14</v>
@@ -31085,7 +31091,7 @@
         <v>0.83</v>
       </c>
       <c r="AP145">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ145">
         <v>0.63</v>
@@ -31294,7 +31300,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR146">
         <v>1.08</v>
@@ -31497,7 +31503,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ147">
         <v>0.6</v>
@@ -31912,7 +31918,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ149">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR149">
         <v>1</v>
@@ -32530,7 +32536,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR152">
         <v>1.05</v>
@@ -34590,7 +34596,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ162">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR162">
         <v>1.24</v>
@@ -35205,7 +35211,7 @@
         <v>0.71</v>
       </c>
       <c r="AP165">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ165">
         <v>0.63</v>
@@ -35414,7 +35420,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR166">
         <v>1.76</v>
@@ -35823,10 +35829,10 @@
         <v>1</v>
       </c>
       <c r="AP168">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ168">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR168">
         <v>1.6</v>
@@ -38168,6 +38174,624 @@
       </c>
       <c r="BP179">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7492337</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45661.45833333334</v>
+      </c>
+      <c r="F180">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
+        <v>87</v>
+      </c>
+      <c r="H180" t="s">
+        <v>72</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>167</v>
+      </c>
+      <c r="P180" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q180">
+        <v>3.1</v>
+      </c>
+      <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
+        <v>3.75</v>
+      </c>
+      <c r="T180">
+        <v>1.44</v>
+      </c>
+      <c r="U180">
+        <v>2.63</v>
+      </c>
+      <c r="V180">
+        <v>3.4</v>
+      </c>
+      <c r="W180">
+        <v>1.3</v>
+      </c>
+      <c r="X180">
+        <v>10</v>
+      </c>
+      <c r="Y180">
+        <v>1.06</v>
+      </c>
+      <c r="Z180">
+        <v>2.35</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>3.05</v>
+      </c>
+      <c r="AC180">
+        <v>1.08</v>
+      </c>
+      <c r="AD180">
+        <v>9</v>
+      </c>
+      <c r="AE180">
+        <v>1.4</v>
+      </c>
+      <c r="AF180">
+        <v>3</v>
+      </c>
+      <c r="AG180">
+        <v>2.15</v>
+      </c>
+      <c r="AH180">
+        <v>1.67</v>
+      </c>
+      <c r="AI180">
+        <v>1.91</v>
+      </c>
+      <c r="AJ180">
+        <v>1.91</v>
+      </c>
+      <c r="AK180">
+        <v>1.34</v>
+      </c>
+      <c r="AL180">
+        <v>1.34</v>
+      </c>
+      <c r="AM180">
+        <v>1.58</v>
+      </c>
+      <c r="AN180">
+        <v>1.25</v>
+      </c>
+      <c r="AO180">
+        <v>1.33</v>
+      </c>
+      <c r="AP180">
+        <v>1.22</v>
+      </c>
+      <c r="AQ180">
+        <v>1.3</v>
+      </c>
+      <c r="AR180">
+        <v>1.47</v>
+      </c>
+      <c r="AS180">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT180">
+        <v>2.41</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>7</v>
+      </c>
+      <c r="AW180">
+        <v>2</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>9</v>
+      </c>
+      <c r="AZ180">
+        <v>19</v>
+      </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>8</v>
+      </c>
+      <c r="BC180">
+        <v>10</v>
+      </c>
+      <c r="BD180">
+        <v>1.75</v>
+      </c>
+      <c r="BE180">
+        <v>6.4</v>
+      </c>
+      <c r="BF180">
+        <v>2.3</v>
+      </c>
+      <c r="BG180">
+        <v>1.35</v>
+      </c>
+      <c r="BH180">
+        <v>2.9</v>
+      </c>
+      <c r="BI180">
+        <v>1.6</v>
+      </c>
+      <c r="BJ180">
+        <v>2.17</v>
+      </c>
+      <c r="BK180">
+        <v>1.97</v>
+      </c>
+      <c r="BL180">
+        <v>1.72</v>
+      </c>
+      <c r="BM180">
+        <v>2.5</v>
+      </c>
+      <c r="BN180">
+        <v>1.46</v>
+      </c>
+      <c r="BO180">
+        <v>3.3</v>
+      </c>
+      <c r="BP180">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7492330</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45661.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>84</v>
+      </c>
+      <c r="H181" t="s">
+        <v>85</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>92</v>
+      </c>
+      <c r="P181" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q181">
+        <v>3.75</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>3.1</v>
+      </c>
+      <c r="T181">
+        <v>1.44</v>
+      </c>
+      <c r="U181">
+        <v>2.63</v>
+      </c>
+      <c r="V181">
+        <v>3.25</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>9</v>
+      </c>
+      <c r="Y181">
+        <v>1.07</v>
+      </c>
+      <c r="Z181">
+        <v>2.88</v>
+      </c>
+      <c r="AA181">
+        <v>3.2</v>
+      </c>
+      <c r="AB181">
+        <v>2.5</v>
+      </c>
+      <c r="AC181">
+        <v>1.07</v>
+      </c>
+      <c r="AD181">
+        <v>9</v>
+      </c>
+      <c r="AE181">
+        <v>1.36</v>
+      </c>
+      <c r="AF181">
+        <v>3.2</v>
+      </c>
+      <c r="AG181">
+        <v>2.1</v>
+      </c>
+      <c r="AH181">
+        <v>1.7</v>
+      </c>
+      <c r="AI181">
+        <v>1.8</v>
+      </c>
+      <c r="AJ181">
+        <v>1.95</v>
+      </c>
+      <c r="AK181">
+        <v>1.55</v>
+      </c>
+      <c r="AL181">
+        <v>1.34</v>
+      </c>
+      <c r="AM181">
+        <v>1.37</v>
+      </c>
+      <c r="AN181">
+        <v>2.13</v>
+      </c>
+      <c r="AO181">
+        <v>2.22</v>
+      </c>
+      <c r="AP181">
+        <v>1.89</v>
+      </c>
+      <c r="AQ181">
+        <v>2.3</v>
+      </c>
+      <c r="AR181">
+        <v>1.57</v>
+      </c>
+      <c r="AS181">
+        <v>1.21</v>
+      </c>
+      <c r="AT181">
+        <v>2.78</v>
+      </c>
+      <c r="AU181">
+        <v>3</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>6</v>
+      </c>
+      <c r="AY181">
+        <v>15</v>
+      </c>
+      <c r="AZ181">
+        <v>11</v>
+      </c>
+      <c r="BA181">
+        <v>4</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>6</v>
+      </c>
+      <c r="BD181">
+        <v>1.98</v>
+      </c>
+      <c r="BE181">
+        <v>6.4</v>
+      </c>
+      <c r="BF181">
+        <v>1.98</v>
+      </c>
+      <c r="BG181">
+        <v>1.32</v>
+      </c>
+      <c r="BH181">
+        <v>3</v>
+      </c>
+      <c r="BI181">
+        <v>1.56</v>
+      </c>
+      <c r="BJ181">
+        <v>2.23</v>
+      </c>
+      <c r="BK181">
+        <v>1.91</v>
+      </c>
+      <c r="BL181">
+        <v>1.78</v>
+      </c>
+      <c r="BM181">
+        <v>2.4</v>
+      </c>
+      <c r="BN181">
+        <v>1.49</v>
+      </c>
+      <c r="BO181">
+        <v>3.15</v>
+      </c>
+      <c r="BP181">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7492331</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45661.69791666666</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" t="s">
+        <v>80</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182" t="s">
+        <v>92</v>
+      </c>
+      <c r="P182" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q182">
+        <v>3.6</v>
+      </c>
+      <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>3.2</v>
+      </c>
+      <c r="T182">
+        <v>1.44</v>
+      </c>
+      <c r="U182">
+        <v>2.63</v>
+      </c>
+      <c r="V182">
+        <v>3.25</v>
+      </c>
+      <c r="W182">
+        <v>1.33</v>
+      </c>
+      <c r="X182">
+        <v>9</v>
+      </c>
+      <c r="Y182">
+        <v>1.07</v>
+      </c>
+      <c r="Z182">
+        <v>3</v>
+      </c>
+      <c r="AA182">
+        <v>2.9</v>
+      </c>
+      <c r="AB182">
+        <v>2.6</v>
+      </c>
+      <c r="AC182">
+        <v>1.07</v>
+      </c>
+      <c r="AD182">
+        <v>9.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.36</v>
+      </c>
+      <c r="AF182">
+        <v>3.2</v>
+      </c>
+      <c r="AG182">
+        <v>2.05</v>
+      </c>
+      <c r="AH182">
+        <v>1.75</v>
+      </c>
+      <c r="AI182">
+        <v>1.8</v>
+      </c>
+      <c r="AJ182">
+        <v>1.95</v>
+      </c>
+      <c r="AK182">
+        <v>1.53</v>
+      </c>
+      <c r="AL182">
+        <v>1.34</v>
+      </c>
+      <c r="AM182">
+        <v>1.39</v>
+      </c>
+      <c r="AN182">
+        <v>1</v>
+      </c>
+      <c r="AO182">
+        <v>1.22</v>
+      </c>
+      <c r="AP182">
+        <v>1</v>
+      </c>
+      <c r="AQ182">
+        <v>1.2</v>
+      </c>
+      <c r="AR182">
+        <v>1.12</v>
+      </c>
+      <c r="AS182">
+        <v>1.35</v>
+      </c>
+      <c r="AT182">
+        <v>2.47</v>
+      </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
+      <c r="AV182">
+        <v>7</v>
+      </c>
+      <c r="AW182">
+        <v>6</v>
+      </c>
+      <c r="AX182">
+        <v>7</v>
+      </c>
+      <c r="AY182">
+        <v>14</v>
+      </c>
+      <c r="AZ182">
+        <v>16</v>
+      </c>
+      <c r="BA182">
+        <v>7</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
+        <v>10</v>
+      </c>
+      <c r="BD182">
+        <v>1.97</v>
+      </c>
+      <c r="BE182">
+        <v>6.5</v>
+      </c>
+      <c r="BF182">
+        <v>1.98</v>
+      </c>
+      <c r="BG182">
+        <v>1.26</v>
+      </c>
+      <c r="BH182">
+        <v>3.4</v>
+      </c>
+      <c r="BI182">
+        <v>1.47</v>
+      </c>
+      <c r="BJ182">
+        <v>2.48</v>
+      </c>
+      <c r="BK182">
+        <v>1.76</v>
+      </c>
+      <c r="BL182">
+        <v>1.93</v>
+      </c>
+      <c r="BM182">
+        <v>2.18</v>
+      </c>
+      <c r="BN182">
+        <v>1.58</v>
+      </c>
+      <c r="BO182">
+        <v>2.8</v>
+      </c>
+      <c r="BP182">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,12 @@
     <t>['20', '58']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['10', '18']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -935,6 +941,9 @@
   </si>
   <si>
     <t>['29', '54', '68']</t>
+  </si>
+  <si>
+    <t>['22', '56']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1564,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2173,7 +2182,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2379,7 +2388,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2997,7 +3006,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3203,7 +3212,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3281,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3615,7 +3624,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3696,7 +3705,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3821,7 +3830,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4233,7 +4242,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4311,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5057,7 +5066,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5135,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
         <v>1.3</v>
@@ -5469,7 +5478,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5675,7 +5684,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6087,7 +6096,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6371,10 +6380,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6499,7 +6508,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6580,7 +6589,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6705,7 +6714,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6911,7 +6920,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7117,7 +7126,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7735,7 +7744,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8353,7 +8362,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8765,7 +8774,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8971,7 +8980,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9177,7 +9186,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9255,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ39">
         <v>2.5</v>
@@ -9383,7 +9392,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9589,7 +9598,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9795,7 +9804,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10001,7 +10010,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10288,7 +10297,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ44">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10619,7 +10628,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10697,10 +10706,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -10825,7 +10834,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10906,7 +10915,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -11031,7 +11040,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11109,7 +11118,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11315,7 +11324,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>1.2</v>
@@ -11443,7 +11452,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11649,7 +11658,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -12061,7 +12070,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12267,7 +12276,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12473,7 +12482,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12679,7 +12688,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12760,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -12963,7 +12972,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>0.3</v>
@@ -13091,7 +13100,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13709,7 +13718,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13790,7 +13799,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ61">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14533,7 +14542,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14614,7 +14623,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ65">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14739,7 +14748,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14945,7 +14954,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15026,7 +15035,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ67">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR67">
         <v>1.09</v>
@@ -15232,7 +15241,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR68">
         <v>1.35</v>
@@ -15357,7 +15366,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15563,7 +15572,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15641,7 +15650,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ70">
         <v>0.5600000000000001</v>
@@ -15769,7 +15778,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16056,7 +16065,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -16181,7 +16190,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16674,7 +16683,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -16799,7 +16808,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17005,7 +17014,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17083,7 +17092,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77">
         <v>1.67</v>
@@ -17211,7 +17220,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17417,7 +17426,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17623,7 +17632,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17701,7 +17710,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ80">
         <v>2.5</v>
@@ -17829,7 +17838,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18116,7 +18125,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ82">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18653,7 +18662,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19146,7 +19155,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19271,7 +19280,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19349,7 +19358,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ88">
         <v>0.3</v>
@@ -19477,7 +19486,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19683,7 +19692,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19967,7 +19976,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20095,7 +20104,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20301,7 +20310,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20507,7 +20516,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20713,7 +20722,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20919,7 +20928,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21000,7 +21009,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -21331,7 +21340,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21537,7 +21546,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21618,7 +21627,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.62</v>
@@ -21821,7 +21830,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ100">
         <v>1.2</v>
@@ -22155,7 +22164,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22439,7 +22448,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ103">
         <v>1.38</v>
@@ -22567,7 +22576,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22773,7 +22782,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22979,7 +22988,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23472,7 +23481,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ108">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR108">
         <v>1.36</v>
@@ -23803,7 +23812,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23884,7 +23893,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ110">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -24009,7 +24018,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24215,7 +24224,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24293,7 +24302,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ112">
         <v>1.3</v>
@@ -24421,7 +24430,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24502,7 +24511,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ113">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24627,7 +24636,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25039,7 +25048,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25245,7 +25254,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25323,7 +25332,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ117">
         <v>1.67</v>
@@ -25451,7 +25460,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25735,10 +25744,10 @@
         <v>1.2</v>
       </c>
       <c r="AP119">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ119">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
         <v>0.96</v>
@@ -26069,7 +26078,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26481,7 +26490,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26687,7 +26696,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26768,7 +26777,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ124">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -26893,7 +26902,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27099,7 +27108,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27717,7 +27726,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28953,7 +28962,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29034,7 +29043,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ135">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR135">
         <v>1.11</v>
@@ -29240,7 +29249,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ136">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.24</v>
@@ -29365,7 +29374,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29571,7 +29580,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29649,7 +29658,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ138">
         <v>2</v>
@@ -29777,7 +29786,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29855,7 +29864,7 @@
         <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ139">
         <v>2</v>
@@ -30064,7 +30073,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ140">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30601,7 +30610,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30807,7 +30816,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -30885,7 +30894,7 @@
         <v>0.57</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ144">
         <v>0.44</v>
@@ -31094,7 +31103,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR145">
         <v>1.69</v>
@@ -31219,7 +31228,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31425,7 +31434,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31712,7 +31721,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ148">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31837,7 +31846,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -31915,7 +31924,7 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ149">
         <v>1.2</v>
@@ -32249,7 +32258,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32455,7 +32464,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32661,7 +32670,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32867,7 +32876,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32945,7 +32954,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ154">
         <v>0.78</v>
@@ -33279,7 +33288,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33772,7 +33781,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ158">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR158">
         <v>1.52</v>
@@ -33897,7 +33906,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34103,7 +34112,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34309,7 +34318,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34515,7 +34524,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34721,7 +34730,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34799,10 +34808,10 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ163">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35005,10 +35014,10 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ164">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR164">
         <v>1.54</v>
@@ -35133,7 +35142,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35214,7 +35223,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ165">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR165">
         <v>1.48</v>
@@ -35339,7 +35348,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35545,7 +35554,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35623,7 +35632,7 @@
         <v>1.86</v>
       </c>
       <c r="AP167">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ167">
         <v>2</v>
@@ -35751,7 +35760,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36369,7 +36378,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36450,7 +36459,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ171">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR171">
         <v>0.88</v>
@@ -36575,7 +36584,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -36781,7 +36790,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36987,7 +36996,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37399,7 +37408,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38017,7 +38026,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38223,7 +38232,7 @@
         <v>167</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>3.1</v>
@@ -38429,7 +38438,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -38792,6 +38801,830 @@
       </c>
       <c r="BP182">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7492334</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45662.35416666666</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>82</v>
+      </c>
+      <c r="H183" t="s">
+        <v>76</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>209</v>
+      </c>
+      <c r="P183" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q183">
+        <v>3.1</v>
+      </c>
+      <c r="R183">
+        <v>2.1</v>
+      </c>
+      <c r="S183">
+        <v>3.5</v>
+      </c>
+      <c r="T183">
+        <v>1.4</v>
+      </c>
+      <c r="U183">
+        <v>2.75</v>
+      </c>
+      <c r="V183">
+        <v>3</v>
+      </c>
+      <c r="W183">
+        <v>1.36</v>
+      </c>
+      <c r="X183">
+        <v>8</v>
+      </c>
+      <c r="Y183">
+        <v>1.08</v>
+      </c>
+      <c r="Z183">
+        <v>2.4</v>
+      </c>
+      <c r="AA183">
+        <v>3.3</v>
+      </c>
+      <c r="AB183">
+        <v>3</v>
+      </c>
+      <c r="AC183">
+        <v>1.06</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.33</v>
+      </c>
+      <c r="AF183">
+        <v>3.4</v>
+      </c>
+      <c r="AG183">
+        <v>2</v>
+      </c>
+      <c r="AH183">
+        <v>1.72</v>
+      </c>
+      <c r="AI183">
+        <v>1.75</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>1.38</v>
+      </c>
+      <c r="AL183">
+        <v>1.33</v>
+      </c>
+      <c r="AM183">
+        <v>1.55</v>
+      </c>
+      <c r="AN183">
+        <v>0.33</v>
+      </c>
+      <c r="AO183">
+        <v>0.63</v>
+      </c>
+      <c r="AP183">
+        <v>0.3</v>
+      </c>
+      <c r="AQ183">
+        <v>0.89</v>
+      </c>
+      <c r="AR183">
+        <v>1.19</v>
+      </c>
+      <c r="AS183">
+        <v>1.1</v>
+      </c>
+      <c r="AT183">
+        <v>2.29</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>5</v>
+      </c>
+      <c r="AW183">
+        <v>4</v>
+      </c>
+      <c r="AX183">
+        <v>5</v>
+      </c>
+      <c r="AY183">
+        <v>7</v>
+      </c>
+      <c r="AZ183">
+        <v>14</v>
+      </c>
+      <c r="BA183">
+        <v>1</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>4</v>
+      </c>
+      <c r="BD183">
+        <v>1.84</v>
+      </c>
+      <c r="BE183">
+        <v>6.4</v>
+      </c>
+      <c r="BF183">
+        <v>2.17</v>
+      </c>
+      <c r="BG183">
+        <v>1.27</v>
+      </c>
+      <c r="BH183">
+        <v>3.3</v>
+      </c>
+      <c r="BI183">
+        <v>1.48</v>
+      </c>
+      <c r="BJ183">
+        <v>2.43</v>
+      </c>
+      <c r="BK183">
+        <v>1.78</v>
+      </c>
+      <c r="BL183">
+        <v>1.91</v>
+      </c>
+      <c r="BM183">
+        <v>2.2</v>
+      </c>
+      <c r="BN183">
+        <v>1.57</v>
+      </c>
+      <c r="BO183">
+        <v>2.8</v>
+      </c>
+      <c r="BP183">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7492333</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45662.45833333334</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>78</v>
+      </c>
+      <c r="H184" t="s">
+        <v>70</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>92</v>
+      </c>
+      <c r="P184" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q184">
+        <v>3.4</v>
+      </c>
+      <c r="R184">
+        <v>1.95</v>
+      </c>
+      <c r="S184">
+        <v>3.6</v>
+      </c>
+      <c r="T184">
+        <v>1.53</v>
+      </c>
+      <c r="U184">
+        <v>2.38</v>
+      </c>
+      <c r="V184">
+        <v>3.75</v>
+      </c>
+      <c r="W184">
+        <v>1.25</v>
+      </c>
+      <c r="X184">
+        <v>11</v>
+      </c>
+      <c r="Y184">
+        <v>1.05</v>
+      </c>
+      <c r="Z184">
+        <v>2.72</v>
+      </c>
+      <c r="AA184">
+        <v>3.1</v>
+      </c>
+      <c r="AB184">
+        <v>3.08</v>
+      </c>
+      <c r="AC184">
+        <v>1.1</v>
+      </c>
+      <c r="AD184">
+        <v>7.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.47</v>
+      </c>
+      <c r="AF184">
+        <v>2.75</v>
+      </c>
+      <c r="AG184">
+        <v>2.4</v>
+      </c>
+      <c r="AH184">
+        <v>1.55</v>
+      </c>
+      <c r="AI184">
+        <v>2</v>
+      </c>
+      <c r="AJ184">
+        <v>1.75</v>
+      </c>
+      <c r="AK184">
+        <v>1.4</v>
+      </c>
+      <c r="AL184">
+        <v>1.37</v>
+      </c>
+      <c r="AM184">
+        <v>1.47</v>
+      </c>
+      <c r="AN184">
+        <v>1.33</v>
+      </c>
+      <c r="AO184">
+        <v>1.63</v>
+      </c>
+      <c r="AP184">
+        <v>1.3</v>
+      </c>
+      <c r="AQ184">
+        <v>1.56</v>
+      </c>
+      <c r="AR184">
+        <v>1.31</v>
+      </c>
+      <c r="AS184">
+        <v>1.02</v>
+      </c>
+      <c r="AT184">
+        <v>2.33</v>
+      </c>
+      <c r="AU184">
+        <v>4</v>
+      </c>
+      <c r="AV184">
+        <v>2</v>
+      </c>
+      <c r="AW184">
+        <v>4</v>
+      </c>
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
+        <v>11</v>
+      </c>
+      <c r="AZ184">
+        <v>5</v>
+      </c>
+      <c r="BA184">
+        <v>9</v>
+      </c>
+      <c r="BB184">
+        <v>4</v>
+      </c>
+      <c r="BC184">
+        <v>13</v>
+      </c>
+      <c r="BD184">
+        <v>1.76</v>
+      </c>
+      <c r="BE184">
+        <v>6.4</v>
+      </c>
+      <c r="BF184">
+        <v>2.3</v>
+      </c>
+      <c r="BG184">
+        <v>1.4</v>
+      </c>
+      <c r="BH184">
+        <v>2.7</v>
+      </c>
+      <c r="BI184">
+        <v>1.68</v>
+      </c>
+      <c r="BJ184">
+        <v>2.04</v>
+      </c>
+      <c r="BK184">
+        <v>2.08</v>
+      </c>
+      <c r="BL184">
+        <v>1.65</v>
+      </c>
+      <c r="BM184">
+        <v>2.65</v>
+      </c>
+      <c r="BN184">
+        <v>1.41</v>
+      </c>
+      <c r="BO184">
+        <v>3.55</v>
+      </c>
+      <c r="BP184">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7492336</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45662.58333333334</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>83</v>
+      </c>
+      <c r="H185" t="s">
+        <v>71</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185" t="s">
+        <v>92</v>
+      </c>
+      <c r="P185" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q185">
+        <v>2.5</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>4.5</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>3</v>
+      </c>
+      <c r="W185">
+        <v>1.36</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>1.9</v>
+      </c>
+      <c r="AA185">
+        <v>3.5</v>
+      </c>
+      <c r="AB185">
+        <v>4.12</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>10</v>
+      </c>
+      <c r="AE185">
+        <v>1.33</v>
+      </c>
+      <c r="AF185">
+        <v>3.4</v>
+      </c>
+      <c r="AG185">
+        <v>1.9</v>
+      </c>
+      <c r="AH185">
+        <v>1.84</v>
+      </c>
+      <c r="AI185">
+        <v>1.8</v>
+      </c>
+      <c r="AJ185">
+        <v>1.95</v>
+      </c>
+      <c r="AK185">
+        <v>1.23</v>
+      </c>
+      <c r="AL185">
+        <v>1.3</v>
+      </c>
+      <c r="AM185">
+        <v>1.85</v>
+      </c>
+      <c r="AN185">
+        <v>1</v>
+      </c>
+      <c r="AO185">
+        <v>0.88</v>
+      </c>
+      <c r="AP185">
+        <v>1</v>
+      </c>
+      <c r="AQ185">
+        <v>0.89</v>
+      </c>
+      <c r="AR185">
+        <v>1</v>
+      </c>
+      <c r="AS185">
+        <v>1.2</v>
+      </c>
+      <c r="AT185">
+        <v>2.2</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>3</v>
+      </c>
+      <c r="AX185">
+        <v>6</v>
+      </c>
+      <c r="AY185">
+        <v>13</v>
+      </c>
+      <c r="AZ185">
+        <v>12</v>
+      </c>
+      <c r="BA185">
+        <v>8</v>
+      </c>
+      <c r="BB185">
+        <v>7</v>
+      </c>
+      <c r="BC185">
+        <v>15</v>
+      </c>
+      <c r="BD185">
+        <v>1.47</v>
+      </c>
+      <c r="BE185">
+        <v>6.75</v>
+      </c>
+      <c r="BF185">
+        <v>3.05</v>
+      </c>
+      <c r="BG185">
+        <v>1.3</v>
+      </c>
+      <c r="BH185">
+        <v>3.15</v>
+      </c>
+      <c r="BI185">
+        <v>1.5</v>
+      </c>
+      <c r="BJ185">
+        <v>2.33</v>
+      </c>
+      <c r="BK185">
+        <v>1.84</v>
+      </c>
+      <c r="BL185">
+        <v>1.84</v>
+      </c>
+      <c r="BM185">
+        <v>2.3</v>
+      </c>
+      <c r="BN185">
+        <v>1.53</v>
+      </c>
+      <c r="BO185">
+        <v>2.95</v>
+      </c>
+      <c r="BP185">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7492335</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45662.69791666666</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>86</v>
+      </c>
+      <c r="H186" t="s">
+        <v>77</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>210</v>
+      </c>
+      <c r="P186" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q186">
+        <v>3.1</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>3.5</v>
+      </c>
+      <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>3</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>2.5</v>
+      </c>
+      <c r="AA186">
+        <v>3.2</v>
+      </c>
+      <c r="AB186">
+        <v>2.92</v>
+      </c>
+      <c r="AC186">
+        <v>1.07</v>
+      </c>
+      <c r="AD186">
+        <v>10</v>
+      </c>
+      <c r="AE186">
+        <v>1.33</v>
+      </c>
+      <c r="AF186">
+        <v>3.3</v>
+      </c>
+      <c r="AG186">
+        <v>1.9</v>
+      </c>
+      <c r="AH186">
+        <v>1.84</v>
+      </c>
+      <c r="AI186">
+        <v>1.75</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.41</v>
+      </c>
+      <c r="AL186">
+        <v>1.33</v>
+      </c>
+      <c r="AM186">
+        <v>1.51</v>
+      </c>
+      <c r="AN186">
+        <v>1.67</v>
+      </c>
+      <c r="AO186">
+        <v>1.67</v>
+      </c>
+      <c r="AP186">
+        <v>1.8</v>
+      </c>
+      <c r="AQ186">
+        <v>1.5</v>
+      </c>
+      <c r="AR186">
+        <v>1.62</v>
+      </c>
+      <c r="AS186">
+        <v>1.56</v>
+      </c>
+      <c r="AT186">
+        <v>3.18</v>
+      </c>
+      <c r="AU186">
+        <v>6</v>
+      </c>
+      <c r="AV186">
+        <v>7</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>4</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
+        <v>3</v>
+      </c>
+      <c r="BB186">
+        <v>10</v>
+      </c>
+      <c r="BC186">
+        <v>13</v>
+      </c>
+      <c r="BD186">
+        <v>1.93</v>
+      </c>
+      <c r="BE186">
+        <v>6.25</v>
+      </c>
+      <c r="BF186">
+        <v>2.08</v>
+      </c>
+      <c r="BG186">
+        <v>1.37</v>
+      </c>
+      <c r="BH186">
+        <v>2.8</v>
+      </c>
+      <c r="BI186">
+        <v>1.65</v>
+      </c>
+      <c r="BJ186">
+        <v>2.08</v>
+      </c>
+      <c r="BK186">
+        <v>2.04</v>
+      </c>
+      <c r="BL186">
+        <v>1.68</v>
+      </c>
+      <c r="BM186">
+        <v>2.6</v>
+      </c>
+      <c r="BN186">
+        <v>1.43</v>
+      </c>
+      <c r="BO186">
+        <v>3.45</v>
+      </c>
+      <c r="BP186">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -646,7 +646,7 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['10', '18']</t>
+    <t>['11', '18']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -39358,7 +39358,7 @@
         <v>5</v>
       </c>
       <c r="AV185">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW185">
         <v>3</v>
@@ -39370,7 +39370,7 @@
         <v>13</v>
       </c>
       <c r="AZ185">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA185">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -39570,13 +39570,13 @@
         <v>1</v>
       </c>
       <c r="AX186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY186">
         <v>8</v>
       </c>
       <c r="AZ186">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA186">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>['11', '18']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -1305,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,7 +1567,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2182,7 +2185,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2388,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -3006,7 +3009,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3084,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ9">
         <v>0.3</v>
@@ -3212,7 +3215,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3499,7 +3502,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3624,7 +3627,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3830,7 +3833,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4242,7 +4245,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -5066,7 +5069,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5353,7 +5356,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ20">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5478,7 +5481,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5684,7 +5687,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6096,7 +6099,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6508,7 +6511,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6714,7 +6717,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6792,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -6920,7 +6923,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7126,7 +7129,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7413,7 +7416,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7744,7 +7747,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8362,7 +8365,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8774,7 +8777,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8980,7 +8983,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -9186,7 +9189,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9392,7 +9395,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9598,7 +9601,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9676,7 +9679,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9804,7 +9807,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10010,7 +10013,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10628,7 +10631,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10834,7 +10837,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11040,7 +11043,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11452,7 +11455,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11658,7 +11661,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11739,7 +11742,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ51">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -12070,7 +12073,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12276,7 +12279,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12482,7 +12485,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12688,7 +12691,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13100,7 +13103,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13718,7 +13721,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14005,7 +14008,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ62">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14542,7 +14545,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14748,7 +14751,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14954,7 +14957,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15366,7 +15369,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15444,7 +15447,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ69">
         <v>1.3</v>
@@ -15572,7 +15575,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15778,7 +15781,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16190,7 +16193,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16808,7 +16811,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17014,7 +17017,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17220,7 +17223,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17426,7 +17429,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17632,7 +17635,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17838,7 +17841,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18331,7 +18334,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18662,7 +18665,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -19152,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ87">
         <v>1.56</v>
@@ -19280,7 +19283,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19486,7 +19489,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19692,7 +19695,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20104,7 +20107,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20310,7 +20313,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20516,7 +20519,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20722,7 +20725,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20928,7 +20931,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21340,7 +21343,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21546,7 +21549,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22164,7 +22167,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22576,7 +22579,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22782,7 +22785,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22988,7 +22991,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23687,7 +23690,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ109">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR109">
         <v>0.82</v>
@@ -23812,7 +23815,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23890,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ110">
         <v>0.89</v>
@@ -24018,7 +24021,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -24099,7 +24102,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ111">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24224,7 +24227,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24430,7 +24433,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24636,7 +24639,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25048,7 +25051,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>1.83</v>
@@ -25254,7 +25257,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25460,7 +25463,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26078,7 +26081,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26490,7 +26493,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26696,7 +26699,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26902,7 +26905,7 @@
         <v>92</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27108,7 +27111,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>2.88</v>
@@ -27598,7 +27601,7 @@
         <v>1.83</v>
       </c>
       <c r="AP128">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ128">
         <v>1.67</v>
@@ -27726,7 +27729,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>3.6</v>
@@ -28962,7 +28965,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29374,7 +29377,7 @@
         <v>92</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -29580,7 +29583,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -29786,7 +29789,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -30610,7 +30613,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30816,7 +30819,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31228,7 +31231,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31434,7 +31437,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31515,7 +31518,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ147">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -31846,7 +31849,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32258,7 +32261,7 @@
         <v>92</v>
       </c>
       <c r="P151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32464,7 +32467,7 @@
         <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>5.5</v>
@@ -32670,7 +32673,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>1.91</v>
@@ -32876,7 +32879,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33288,7 +33291,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>2.4</v>
@@ -33906,7 +33909,7 @@
         <v>92</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -33984,7 +33987,7 @@
         <v>2.33</v>
       </c>
       <c r="AP159">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ159">
         <v>2.5</v>
@@ -34112,7 +34115,7 @@
         <v>92</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>5.5</v>
@@ -34318,7 +34321,7 @@
         <v>92</v>
       </c>
       <c r="P161" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34524,7 +34527,7 @@
         <v>155</v>
       </c>
       <c r="P162" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q162">
         <v>5.5</v>
@@ -34730,7 +34733,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35142,7 +35145,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35348,7 +35351,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>1.73</v>
@@ -35554,7 +35557,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35760,7 +35763,7 @@
         <v>199</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>2.2</v>
@@ -36047,7 +36050,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ169">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR169">
         <v>1.57</v>
@@ -36378,7 +36381,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36584,7 +36587,7 @@
         <v>92</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -36790,7 +36793,7 @@
         <v>124</v>
       </c>
       <c r="P173" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36868,7 +36871,7 @@
         <v>2.11</v>
       </c>
       <c r="AP173">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ173">
         <v>2</v>
@@ -36996,7 +36999,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>3.1</v>
@@ -37408,7 +37411,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q176">
         <v>2.6</v>
@@ -38026,7 +38029,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q179">
         <v>2.05</v>
@@ -38232,7 +38235,7 @@
         <v>167</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q180">
         <v>3.1</v>
@@ -38438,7 +38441,7 @@
         <v>92</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -38850,7 +38853,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39625,6 +39628,212 @@
       </c>
       <c r="BP186">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7492341</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45667.69791666666</v>
+      </c>
+      <c r="F187">
+        <v>20</v>
+      </c>
+      <c r="G187" t="s">
+        <v>77</v>
+      </c>
+      <c r="H187" t="s">
+        <v>88</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>211</v>
+      </c>
+      <c r="P187" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q187">
+        <v>2.4</v>
+      </c>
+      <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>5</v>
+      </c>
+      <c r="T187">
+        <v>1.44</v>
+      </c>
+      <c r="U187">
+        <v>2.63</v>
+      </c>
+      <c r="V187">
+        <v>3.25</v>
+      </c>
+      <c r="W187">
+        <v>1.33</v>
+      </c>
+      <c r="X187">
+        <v>9</v>
+      </c>
+      <c r="Y187">
+        <v>1.07</v>
+      </c>
+      <c r="Z187">
+        <v>1.44</v>
+      </c>
+      <c r="AA187">
+        <v>4.48</v>
+      </c>
+      <c r="AB187">
+        <v>7.4</v>
+      </c>
+      <c r="AC187">
+        <v>1.06</v>
+      </c>
+      <c r="AD187">
+        <v>10</v>
+      </c>
+      <c r="AE187">
+        <v>1.35</v>
+      </c>
+      <c r="AF187">
+        <v>3.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.67</v>
+      </c>
+      <c r="AH187">
+        <v>2.21</v>
+      </c>
+      <c r="AI187">
+        <v>2</v>
+      </c>
+      <c r="AJ187">
+        <v>1.75</v>
+      </c>
+      <c r="AK187">
+        <v>1.2</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.98</v>
+      </c>
+      <c r="AN187">
+        <v>2.22</v>
+      </c>
+      <c r="AO187">
+        <v>0.6</v>
+      </c>
+      <c r="AP187">
+        <v>2.1</v>
+      </c>
+      <c r="AQ187">
+        <v>0.64</v>
+      </c>
+      <c r="AR187">
+        <v>1.47</v>
+      </c>
+      <c r="AS187">
+        <v>1.31</v>
+      </c>
+      <c r="AT187">
+        <v>2.78</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>13</v>
+      </c>
+      <c r="AY187">
+        <v>14</v>
+      </c>
+      <c r="AZ187">
+        <v>21</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>7</v>
+      </c>
+      <c r="BC187">
+        <v>14</v>
+      </c>
+      <c r="BD187">
+        <v>1.47</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>3.05</v>
+      </c>
+      <c r="BG187">
+        <v>1.35</v>
+      </c>
+      <c r="BH187">
+        <v>2.9</v>
+      </c>
+      <c r="BI187">
+        <v>1.6</v>
+      </c>
+      <c r="BJ187">
+        <v>2.17</v>
+      </c>
+      <c r="BK187">
+        <v>1.96</v>
+      </c>
+      <c r="BL187">
+        <v>1.73</v>
+      </c>
+      <c r="BM187">
+        <v>2.48</v>
+      </c>
+      <c r="BN187">
+        <v>1.47</v>
+      </c>
+      <c r="BO187">
+        <v>3.2</v>
+      </c>
+      <c r="BP187">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>
